--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4088" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59BEA8A0-C4BD-4B77-B106-691E569C99B9}"/>
+  <xr:revisionPtr revIDLastSave="4089" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C032C52D-843C-4E23-8347-C3152CE4C8DC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="389">
   <si>
     <t>Pen</t>
   </si>
@@ -662,9 +662,6 @@
     <t>Seen walking in background furtively with neck extended</t>
   </si>
   <si>
-    <t>Pen21_15</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -680,16 +677,7 @@
     <t>TW</t>
   </si>
   <si>
-    <t>Pen21_38</t>
-  </si>
-  <si>
-    <t>Pen23_12</t>
-  </si>
-  <si>
     <t>Eating, engaged in looking at, carrying, pecking, picking up, swallowing or breaking up food (or non food items that are being tested e.g. leaves)</t>
-  </si>
-  <si>
-    <t>Pen25_15</t>
   </si>
   <si>
     <t xml:space="preserve">Stiff postured walk, walking with the neck stiffly extended parallel with the ground. Feathers of the neck may be fluffed up. </t>
@@ -2243,7 +2231,7 @@
         <v>81</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>89</v>
@@ -2387,7 +2375,7 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="21" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
@@ -3074,10 +3062,10 @@
         <v>40</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -3106,10 +3094,10 @@
         <v>81</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="8"/>
     </row>
@@ -3163,7 +3151,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>89</v>
@@ -3192,10 +3180,10 @@
         <v>81</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q7" s="8"/>
     </row>
@@ -3232,10 +3220,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="3">
@@ -3248,7 +3236,7 @@
         <v>106</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q9" s="8"/>
     </row>
@@ -3264,7 +3252,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="3" t="s">
@@ -3277,7 +3265,7 @@
         <v>101</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="15" t="s">
@@ -3340,7 +3328,7 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3372,7 +3360,7 @@
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="31" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3398,7 +3386,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="8"/>
       <c r="S14" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3413,7 +3401,7 @@
         <v>138</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="3">
@@ -3423,20 +3411,20 @@
         <v>68</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="N15" s="9">
         <v>36</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="S15" s="33" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3451,17 +3439,17 @@
         <v>106</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>81</v>
@@ -3470,11 +3458,11 @@
         <v>106</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="S16" s="34" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Z16" s="22"/>
     </row>
@@ -3501,7 +3489,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="8"/>
       <c r="S17" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
@@ -3586,7 +3574,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="12">
@@ -3686,7 +3674,7 @@
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="8"/>
     </row>
@@ -3709,10 +3697,10 @@
         <v>23</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N24" s="9">
         <v>33</v>
@@ -3721,7 +3709,7 @@
         <v>106</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q24" s="8"/>
     </row>
@@ -3747,7 +3735,7 @@
         <v>114</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>81</v>
@@ -3756,7 +3744,7 @@
         <v>86</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="8"/>
     </row>
@@ -3795,7 +3783,7 @@
         <v>145</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="3">
@@ -3830,17 +3818,17 @@
         <v>114</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>81</v>
@@ -3952,7 +3940,7 @@
         <v>101</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N32" s="11">
         <v>2</v>
@@ -4079,7 +4067,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>14</v>
@@ -7752,7 +7740,7 @@
         <v>45083</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -7786,7 +7774,7 @@
         <v>45083</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -7820,7 +7808,7 @@
         <v>45083</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
@@ -7832,7 +7820,7 @@
       <c r="K92" s="43"/>
       <c r="L92" s="45"/>
       <c r="M92" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -7843,7 +7831,7 @@
         <v>45083</v>
       </c>
       <c r="C93" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
@@ -7855,7 +7843,7 @@
       <c r="K93" s="43"/>
       <c r="L93" s="45"/>
       <c r="M93" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -7866,7 +7854,7 @@
         <v>45083</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -7900,7 +7888,7 @@
         <v>45083</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -8010,7 +7998,7 @@
         <v>45083</v>
       </c>
       <c r="C98" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
@@ -8022,7 +8010,7 @@
       <c r="K98" s="43"/>
       <c r="L98" s="45"/>
       <c r="M98" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -8033,7 +8021,7 @@
         <v>45083</v>
       </c>
       <c r="C99" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
@@ -8045,7 +8033,7 @@
       <c r="K99" s="43"/>
       <c r="L99" s="45"/>
       <c r="M99" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -8150,7 +8138,7 @@
         <v>22</v>
       </c>
       <c r="M102" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -8161,7 +8149,7 @@
         <v>45083</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
@@ -8173,7 +8161,7 @@
       <c r="K103" s="43"/>
       <c r="L103" s="45"/>
       <c r="M103" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
@@ -8184,7 +8172,7 @@
         <v>45083</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
@@ -8196,7 +8184,7 @@
       <c r="K104" s="43"/>
       <c r="L104" s="45"/>
       <c r="M104" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -8219,7 +8207,7 @@
       <c r="K105" s="43"/>
       <c r="L105" s="45"/>
       <c r="M105" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -8230,7 +8218,7 @@
         <v>45083</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
@@ -8242,7 +8230,7 @@
       <c r="K106" s="43"/>
       <c r="L106" s="45"/>
       <c r="M106" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -8279,7 +8267,7 @@
         <v>22</v>
       </c>
       <c r="M107" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
@@ -8316,7 +8304,7 @@
         <v>22</v>
       </c>
       <c r="M108" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -8327,7 +8315,7 @@
         <v>45083</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -8353,7 +8341,7 @@
         <v>22</v>
       </c>
       <c r="M109" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -8364,7 +8352,7 @@
         <v>45083</v>
       </c>
       <c r="C110" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -8376,7 +8364,7 @@
       <c r="K110" s="43"/>
       <c r="L110" s="45"/>
       <c r="M110" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
@@ -8387,7 +8375,7 @@
         <v>45083</v>
       </c>
       <c r="C111" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
@@ -8399,7 +8387,7 @@
       <c r="K111" s="43"/>
       <c r="L111" s="45"/>
       <c r="M111" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -8444,7 +8432,7 @@
         <v>148.00000000000074</v>
       </c>
       <c r="M112" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -8455,7 +8443,7 @@
         <v>45083</v>
       </c>
       <c r="C113" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
@@ -8489,7 +8477,7 @@
         <v>45083</v>
       </c>
       <c r="C114" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
@@ -8523,7 +8511,7 @@
         <v>45083</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -8557,7 +8545,7 @@
         <v>6461.0000000000064</v>
       </c>
       <c r="M115" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -8568,7 +8556,7 @@
         <v>45083</v>
       </c>
       <c r="C116" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
@@ -8580,7 +8568,7 @@
       <c r="K116" s="43"/>
       <c r="L116" s="45"/>
       <c r="M116" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -8591,7 +8579,7 @@
         <v>45083</v>
       </c>
       <c r="C117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
@@ -8603,7 +8591,7 @@
       <c r="K117" s="43"/>
       <c r="L117" s="45"/>
       <c r="M117" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -8614,7 +8602,7 @@
         <v>45083</v>
       </c>
       <c r="C118" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
@@ -8626,7 +8614,7 @@
       <c r="K118" s="43"/>
       <c r="L118" s="45"/>
       <c r="M118" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -8637,7 +8625,7 @@
         <v>45083</v>
       </c>
       <c r="C119" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
@@ -8649,7 +8637,7 @@
       <c r="K119" s="43"/>
       <c r="L119" s="45"/>
       <c r="M119" s="43" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -8666,8 +8654,8 @@
   <dimension ref="A1:BN33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q46" sqref="Q46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8876,7 +8864,7 @@
         <v>60</v>
       </c>
       <c r="BN1" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8911,12 +8899,7 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="D4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.55920138888888882</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="BN4" s="2"/>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
@@ -8940,12 +8923,7 @@
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.54800925925925925</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="BN6" s="2"/>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.35">
@@ -8969,12 +8947,7 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.56270833333333337</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="BN8" s="2"/>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
@@ -9020,12 +8993,7 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.54800925925925925</v>
-      </c>
+      <c r="E12" s="2"/>
       <c r="BN12" s="2"/>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.35">
@@ -9071,12 +9039,7 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.57076388888888896</v>
-      </c>
+      <c r="E16" s="2"/>
       <c r="BN16" s="2"/>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.35">
@@ -9123,37 +9086,37 @@
         <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E20" s="2">
         <v>0.6125694444444445</v>
       </c>
       <c r="F20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="N20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
         <v>189</v>
@@ -9177,28 +9140,28 @@
         <v>189</v>
       </c>
       <c r="V20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="W20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="X20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Y20" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Z20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD20" t="s">
         <v>185</v>
@@ -9216,61 +9179,61 @@
         <v>189</v>
       </c>
       <c r="AI20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM20" t="s">
         <v>189</v>
       </c>
       <c r="AN20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ20" t="s">
         <v>189</v>
       </c>
       <c r="BA20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB20" t="s">
         <v>185</v>
@@ -9288,28 +9251,28 @@
         <v>189</v>
       </c>
       <c r="BG20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BH20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BJ20" t="s">
         <v>189</v>
       </c>
       <c r="BK20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BM20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN20" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.35">
@@ -9323,7 +9286,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E21" s="2">
         <v>0.6125694444444445</v>
@@ -9335,34 +9298,34 @@
         <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="R21" t="s">
         <v>69</v>
@@ -9509,7 +9472,7 @@
         <v>186</v>
       </c>
       <c r="BN21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.35">
@@ -9523,13 +9486,13 @@
         <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E22" s="2">
         <v>0.55733796296296301</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G22" t="s">
         <v>189</v>
@@ -9589,25 +9552,25 @@
         <v>189</v>
       </c>
       <c r="Z22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AD22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AE22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG22" t="s">
         <v>189</v>
@@ -9640,73 +9603,73 @@
         <v>186</v>
       </c>
       <c r="AQ22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BE22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BF22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BG22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BH22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BJ22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BK22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BM22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.35">
@@ -9720,7 +9683,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E23" s="2">
         <v>0.55733796296296301</v>
@@ -9837,10 +9800,10 @@
         <v>186</v>
       </c>
       <c r="AQ23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS23" t="s">
         <v>69</v>
@@ -9849,40 +9812,40 @@
         <v>69</v>
       </c>
       <c r="AU23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BE23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BF23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BG23" t="s">
         <v>69</v>
@@ -9918,190 +9881,190 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E24" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="U24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="V24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="W24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Y24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Z24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AA24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AB24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AC24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AD24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AE24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AF24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AG24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AH24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AI24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AJ24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AK24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AL24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AM24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AN24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AP24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AQ24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AR24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AS24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AT24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AU24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AV24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AW24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AX24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AY24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AZ24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BA24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BB24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BC24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BD24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BE24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BF24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BG24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BH24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BI24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BJ24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BK24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BL24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BM24" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.35">
@@ -10115,49 +10078,49 @@
         <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E25" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S25" t="s">
         <v>184</v>
@@ -10172,7 +10135,7 @@
         <v>184</v>
       </c>
       <c r="W25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X25" t="s">
         <v>186</v>
@@ -10217,88 +10180,88 @@
         <v>186</v>
       </c>
       <c r="AL25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AM25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AN25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AO25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AP25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AQ25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AR25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AS25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AT25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AU25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AV25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AW25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AX25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AY25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AZ25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BA25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BB25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BC25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BD25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BE25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BF25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BG25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BH25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BI25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BJ25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BK25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BL25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="BM25" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.35">
@@ -10312,7 +10275,7 @@
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E26" s="2">
         <v>0.5761574074074074</v>
@@ -10402,28 +10365,28 @@
         <v>189</v>
       </c>
       <c r="AH26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AP26" t="s">
         <v>69</v>
@@ -10509,7 +10472,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E27" s="2">
         <v>0.57357638888888884</v>
@@ -10695,7 +10658,7 @@
         <v>187</v>
       </c>
       <c r="BN27" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
@@ -10709,7 +10672,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E28" s="2">
         <v>0.57954861111111111</v>
@@ -10775,13 +10738,13 @@
         <v>186</v>
       </c>
       <c r="Z28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AC28" t="s">
         <v>185</v>
@@ -10823,31 +10786,31 @@
         <v>186</v>
       </c>
       <c r="AP28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AQ28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AT28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AU28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AW28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY28" t="s">
         <v>190</v>
@@ -10895,7 +10858,7 @@
         <v>187</v>
       </c>
       <c r="BN28" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.35">
@@ -10909,7 +10872,7 @@
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E29" s="2">
         <v>0.57518518518518513</v>
@@ -10951,10 +10914,10 @@
         <v>186</v>
       </c>
       <c r="R29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T29" t="s">
         <v>186</v>
@@ -10963,16 +10926,16 @@
         <v>186</v>
       </c>
       <c r="V29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z29" t="s">
         <v>69</v>
@@ -11050,10 +11013,10 @@
         <v>69</v>
       </c>
       <c r="AY29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AZ29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BA29" t="s">
         <v>186</v>
@@ -11095,7 +11058,7 @@
         <v>187</v>
       </c>
       <c r="BN29" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.35">
@@ -11109,61 +11072,61 @@
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E30" s="2">
         <v>0.55290509259259257</v>
       </c>
       <c r="F30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="N30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="R30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="S30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="T30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="U30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="V30" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="W30" t="s">
         <v>186</v>
@@ -11306,7 +11269,7 @@
         <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E31" s="2">
         <v>0.56587962962962968</v>
@@ -11444,52 +11407,52 @@
         <v>186</v>
       </c>
       <c r="AX31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AZ31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BA31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BC31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BD31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BE31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BF31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BG31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BH31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BI31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BJ31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BK31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BM31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BN31" s="2"/>
     </row>
@@ -11504,28 +11467,28 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E32" s="2">
         <v>0.56521990740740746</v>
       </c>
       <c r="F32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="J32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L32" t="s">
         <v>186</v>
@@ -11564,16 +11527,16 @@
         <v>186</v>
       </c>
       <c r="X32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Y32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Z32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AA32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AB32" t="s">
         <v>186</v>
@@ -11585,34 +11548,34 @@
         <v>186</v>
       </c>
       <c r="AE32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AF32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AG32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AH32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AI32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AJ32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AN32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AO32" t="s">
         <v>191</v>
@@ -11621,7 +11584,7 @@
         <v>189</v>
       </c>
       <c r="AQ32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR32" t="s">
         <v>69</v>
@@ -11681,13 +11644,13 @@
         <v>69</v>
       </c>
       <c r="BK32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BL32" t="s">
         <v>189</v>
       </c>
       <c r="BM32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.35">
@@ -11701,7 +11664,7 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E33" s="2">
         <v>0.55215277777777783</v>
@@ -11924,7 +11887,7 @@
         <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -11932,15 +11895,15 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -11985,10 +11948,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -12001,26 +11964,26 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B13" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" t="s">
         <v>376</v>
-      </c>
-      <c r="B14" t="s">
-        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -12100,12 +12063,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -12120,7 +12083,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -12143,16 +12106,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -12166,7 +12129,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -12180,7 +12143,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -12194,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -12208,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -12222,7 +12185,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -12236,7 +12199,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -12250,7 +12213,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12264,7 +12227,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -12278,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -12292,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12306,7 +12269,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -12320,7 +12283,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -12334,7 +12297,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -12348,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -12362,7 +12325,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -12376,7 +12339,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -12390,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -12404,7 +12367,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -12418,7 +12381,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -12432,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -12446,7 +12409,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -12460,12 +12423,12 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B24" s="1">
         <v>45084</v>
@@ -12474,12 +12437,12 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B25" s="1">
         <v>45084</v>
@@ -12488,12 +12451,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B26" s="1">
         <v>45084</v>
@@ -12502,12 +12465,12 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B27" s="1">
         <v>45084</v>
@@ -12516,12 +12479,12 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B28" s="1">
         <v>45085</v>
@@ -12530,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -12544,12 +12507,12 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1">
         <v>45085</v>
@@ -12558,7 +12521,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -12572,7 +12535,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -12586,7 +12549,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -12600,7 +12563,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -12614,12 +12577,12 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B35" s="1">
         <v>45086</v>
@@ -12628,12 +12591,12 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B36" s="1">
         <v>45086</v>
@@ -12642,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -12656,7 +12619,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -12670,12 +12633,12 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B39" s="1">
         <v>45086</v>
@@ -12684,12 +12647,12 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B40" s="1">
         <v>45086</v>
@@ -12698,12 +12661,12 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B41" s="1">
         <v>45086</v>
@@ -12712,12 +12675,12 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B42" s="1">
         <v>45086</v>
@@ -12726,12 +12689,12 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B43" s="1">
         <v>45087</v>
@@ -12740,12 +12703,12 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B44" s="1">
         <v>45087</v>
@@ -12754,7 +12717,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -12768,12 +12731,12 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B46" s="1">
         <v>45087</v>
@@ -12782,12 +12745,12 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B47" s="1">
         <v>45087</v>
@@ -12796,12 +12759,12 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B48" s="1">
         <v>45087</v>
@@ -12810,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -12824,12 +12787,12 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B50" s="1">
         <v>45088</v>
@@ -12838,12 +12801,12 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B51" s="1">
         <v>45088</v>
@@ -12852,7 +12815,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -12866,12 +12829,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B53" s="1">
         <v>45088</v>
@@ -12880,12 +12843,12 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B54" s="1">
         <v>45088</v>
@@ -12894,12 +12857,12 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B55" s="1">
         <v>45143</v>
@@ -12908,12 +12871,12 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B56" s="1">
         <v>45143</v>
@@ -12922,7 +12885,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -12936,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -12950,12 +12913,12 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B59" s="1">
         <v>45146</v>
@@ -12964,12 +12927,12 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1">
         <v>45146</v>
@@ -12978,7 +12941,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -12992,12 +12955,12 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B62" s="1">
         <v>45146</v>
@@ -13006,12 +12969,12 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B63" s="1">
         <v>45146</v>
@@ -13020,7 +12983,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -13034,12 +12997,12 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B65" s="1">
         <v>45146</v>
@@ -13048,12 +13011,12 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B66" s="1">
         <v>45146</v>
@@ -13062,12 +13025,12 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B67" s="1">
         <v>45146</v>
@@ -13076,7 +13039,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -13101,12 +13064,12 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B70" s="1">
         <v>45147</v>
@@ -13115,12 +13078,12 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B71" s="1">
         <v>45147</v>
@@ -13129,12 +13092,12 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B72" s="1">
         <v>45147</v>
@@ -13143,12 +13106,12 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B73" s="1">
         <v>45147</v>
@@ -13157,12 +13120,12 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B74" s="1">
         <v>45147</v>
@@ -13171,12 +13134,12 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B75" s="1">
         <v>45147</v>
@@ -13185,7 +13148,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -13199,12 +13162,12 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B77" s="1">
         <v>45197</v>
@@ -13213,7 +13176,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -13227,12 +13190,12 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B79" s="1">
         <v>45197</v>
@@ -13241,12 +13204,12 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B80" s="1">
         <v>45198</v>
@@ -13255,12 +13218,12 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B81" s="1">
         <v>45198</v>
@@ -13269,12 +13232,12 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B82" s="1">
         <v>45198</v>
@@ -13283,12 +13246,12 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B83" s="1">
         <v>45198</v>
@@ -13297,12 +13260,12 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B84" s="1">
         <v>45198</v>
@@ -13311,7 +13274,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -13325,7 +13288,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -13339,7 +13302,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -13353,12 +13316,12 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B88" s="1">
         <v>45302</v>
@@ -13367,12 +13330,12 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B89" s="1">
         <v>45302</v>
@@ -13381,12 +13344,12 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B90" s="1">
         <v>45302</v>
@@ -13395,12 +13358,12 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B91" s="1">
         <v>45302</v>
@@ -13409,12 +13372,12 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B92" s="1">
         <v>45302</v>
@@ -13423,7 +13386,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -13437,7 +13400,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -13451,12 +13414,12 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B95" s="1">
         <v>45303</v>
@@ -13465,12 +13428,12 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B96" s="1">
         <v>45303</v>
@@ -13479,12 +13442,12 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B97" s="1">
         <v>45303</v>
@@ -13493,12 +13456,12 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B98" s="1">
         <v>45303</v>
@@ -13507,12 +13470,12 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B99" s="1">
         <v>45303</v>
@@ -13521,12 +13484,12 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B100" s="1">
         <v>45303</v>
@@ -13535,12 +13498,12 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B101" s="1">
         <v>45304</v>
@@ -13549,12 +13512,12 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B102" s="1">
         <v>45304</v>
@@ -13563,7 +13526,7 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -13577,12 +13540,12 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B104" s="1">
         <v>45304</v>
@@ -13591,12 +13554,12 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B105" s="1">
         <v>45304</v>
@@ -13605,7 +13568,7 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -13619,12 +13582,12 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B107" s="1">
         <v>45304</v>
@@ -13633,7 +13596,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -13647,12 +13610,12 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B109" s="1">
         <v>45304</v>
@@ -13661,7 +13624,7 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -13675,7 +13638,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -13689,12 +13652,12 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B112" s="1">
         <v>45304</v>
@@ -13703,12 +13666,12 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B113" s="1">
         <v>45304</v>
@@ -13717,7 +13680,7 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -13731,7 +13694,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -13745,7 +13708,7 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -13759,7 +13722,7 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -13773,12 +13736,12 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B118" s="1">
         <v>45304</v>
@@ -13787,12 +13750,12 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B119" s="1">
         <v>45304</v>
@@ -13801,7 +13764,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -13815,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -13829,12 +13792,12 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B122" s="1">
         <v>45305</v>
@@ -13843,12 +13806,12 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B123" s="1">
         <v>45305</v>
@@ -13857,7 +13820,7 @@
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -13871,12 +13834,12 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B125" s="1">
         <v>45306</v>
@@ -13885,12 +13848,12 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B126" s="1">
         <v>45307</v>
@@ -13899,12 +13862,12 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B127" s="1">
         <v>45307</v>
@@ -13913,7 +13876,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -13927,12 +13890,12 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B129" s="1">
         <v>45308</v>
@@ -13941,12 +13904,12 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B130" s="1">
         <v>45309</v>
@@ -13955,12 +13918,12 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B131" s="1">
         <v>45309</v>
@@ -13969,7 +13932,7 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -13983,12 +13946,12 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B133" s="1">
         <v>45309</v>
@@ -13997,7 +13960,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4089" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C032C52D-843C-4E23-8347-C3152CE4C8DC}"/>
+  <xr:revisionPtr revIDLastSave="4097" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCFF93E-7B24-414E-BD0F-D1EFBEBC9083}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -1247,7 +1247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1573,6 +1579,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="21" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2058,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63C46F-C556-44F6-932B-B4CD58F367A9}">
   <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2303,10 +2312,10 @@
       <c r="K10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="32" t="s">
         <v>57</v>
       </c>
       <c r="N10" s="9" t="s">
@@ -2476,8 +2485,8 @@
         <v>109</v>
       </c>
       <c r="Q16" s="8"/>
-      <c r="S16" s="27">
-        <v>44939</v>
+      <c r="S16" s="46">
+        <v>44938</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.35">
@@ -2498,8 +2507,8 @@
       <c r="O17" s="12"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="8"/>
-      <c r="S17" s="28">
-        <v>44942</v>
+      <c r="S17" s="27">
+        <v>44939</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
@@ -2536,6 +2545,9 @@
         <v>113</v>
       </c>
       <c r="Q18" s="8"/>
+      <c r="S18" s="28">
+        <v>44942</v>
+      </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C19" s="8"/>
@@ -2617,10 +2629,10 @@
       <c r="K21" s="3">
         <v>24</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="46" t="s">
         <v>49</v>
       </c>
       <c r="N21" s="9">
@@ -2652,10 +2664,10 @@
       <c r="K22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="46" t="s">
         <v>50</v>
       </c>
       <c r="N22" s="9" t="s">
@@ -2721,10 +2733,10 @@
       <c r="N24" s="9">
         <v>33</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="10" t="s">
+      <c r="P24" s="39" t="s">
         <v>130</v>
       </c>
       <c r="Q24" s="8"/>
@@ -2756,10 +2768,10 @@
       <c r="N25" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="P25" s="10" t="s">
+      <c r="P25" s="39" t="s">
         <v>134</v>
       </c>
       <c r="Q25" s="8"/>
@@ -8653,7 +8665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4097" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFCFF93E-7B24-414E-BD0F-D1EFBEBC9083}"/>
+  <xr:revisionPtr revIDLastSave="4516" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52F2DF0A-204E-44C5-8786-9FB70AB29C0C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="424">
   <si>
     <t>Pen</t>
   </si>
@@ -653,9 +653,6 @@
     <t>Pen 11 only one day of food recorded, butboth non food. Okay, non-study birds.</t>
   </si>
   <si>
-    <t>Pen 24 recorded 10s instead of 60s footage</t>
-  </si>
-  <si>
     <t>Approaches cautiously, tail wagging and head tilting</t>
   </si>
   <si>
@@ -671,9 +668,6 @@
     <t>Latency_s</t>
   </si>
   <si>
-    <t>No control Clover pen 22 11/10/22</t>
-  </si>
-  <si>
     <t>TW</t>
   </si>
   <si>
@@ -1209,6 +1203,117 @@
   </si>
   <si>
     <t>Alert, standing but not relaxed. May have returned to upright from another pose. May have a stiffer pose, holding neck extended forward or up, have flatter feathers or be looking around, turning the head from side to side.</t>
+  </si>
+  <si>
+    <t>Pen21_37</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>No bowls but finds a piece of meat on the ground.</t>
+  </si>
+  <si>
+    <t>Pen21_15</t>
+  </si>
+  <si>
+    <t>Pen25_15</t>
+  </si>
+  <si>
+    <t>Pen28_15</t>
+  </si>
+  <si>
+    <t>Only in frame first 20 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I changed from doing 'general' and 'food' to just 'general' because of the number of recordings where the bird didn't reach the food and therefore can't be assessed. </t>
+  </si>
+  <si>
+    <t>Likewise some lacked non-food recordings so picked a random time after they ate (so behaviour not influenced by hunger).</t>
+  </si>
+  <si>
+    <t>Clover (Day 2)</t>
+  </si>
+  <si>
+    <t>Clover (Day 1)</t>
+  </si>
+  <si>
+    <t>Rocky (Day 1)</t>
+  </si>
+  <si>
+    <t>Rocky (Day 2)</t>
+  </si>
+  <si>
+    <t>Pen22_6</t>
+  </si>
+  <si>
+    <t>Fern (Day 2)</t>
+  </si>
+  <si>
+    <t>Fern (Day 1)</t>
+  </si>
+  <si>
+    <t>Food present but bird not yet reached- still in sun; just visible</t>
+  </si>
+  <si>
+    <t>Food present but bird not eating</t>
+  </si>
+  <si>
+    <t>Food present and bird eats - only footage of bird in frame</t>
+  </si>
+  <si>
+    <t>Pen23_10</t>
+  </si>
+  <si>
+    <t>Pen23_7</t>
+  </si>
+  <si>
+    <t>Pen28_7</t>
+  </si>
+  <si>
+    <t>Pen23_13</t>
+  </si>
+  <si>
+    <t>Pen23_14</t>
+  </si>
+  <si>
+    <t>Investigating things including something in a bush</t>
+  </si>
+  <si>
+    <t>Pen 24 recorded 10s instead of 60s footage and wrong times</t>
+  </si>
+  <si>
+    <t>No recordings during time window</t>
+  </si>
+  <si>
+    <t>Pen24_394-400</t>
+  </si>
+  <si>
+    <t>Wings out defensive display</t>
+  </si>
+  <si>
+    <t>Compiled from 6 successive 10 second recordings</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Pen28_4</t>
+  </si>
+  <si>
+    <t>With food, no alternative</t>
+  </si>
+  <si>
+    <t>Not visible in recordings during time window</t>
+  </si>
+  <si>
+    <t>Not visible in recordings</t>
+  </si>
+  <si>
+    <t>Pen29_12</t>
+  </si>
+  <si>
+    <t>Not in frame enough to record ethogram.</t>
   </si>
 </sst>
 </file>
@@ -2067,8 +2172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63C46F-C556-44F6-932B-B4CD58F367A9}">
   <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2240,7 +2345,7 @@
         <v>81</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>89</v>
@@ -2384,7 +2489,7 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
@@ -2571,7 +2676,7 @@
         <v>115</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>41</v>
+        <v>396</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>81</v>
@@ -2600,8 +2705,12 @@
       <c r="K20" s="12">
         <v>1</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
+      <c r="L20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>398</v>
+      </c>
       <c r="N20" s="11">
         <v>2</v>
       </c>
@@ -2813,7 +2922,7 @@
         <v>136</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>21</v>
+        <v>401</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="3">
@@ -2823,7 +2932,7 @@
         <v>137</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>40</v>
+        <v>399</v>
       </c>
       <c r="N27" s="9">
         <v>32</v>
@@ -2847,6 +2956,12 @@
       <c r="J28" s="8"/>
       <c r="K28" s="3" t="s">
         <v>81</v>
+      </c>
+      <c r="L28" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="M28" s="28" t="s">
+        <v>397</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>81</v>
@@ -2873,8 +2988,12 @@
       <c r="K29" s="12">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="L29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>402</v>
+      </c>
       <c r="N29" s="11">
         <v>4</v>
       </c>
@@ -3074,10 +3193,10 @@
         <v>40</v>
       </c>
       <c r="O3" s="37" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P3" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q3" s="4"/>
     </row>
@@ -3106,10 +3225,10 @@
         <v>81</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P4" s="39" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="8"/>
     </row>
@@ -3163,7 +3282,7 @@
         <v>39</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>89</v>
@@ -3192,10 +3311,10 @@
         <v>81</v>
       </c>
       <c r="O7" s="31" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P7" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q7" s="8"/>
     </row>
@@ -3232,10 +3351,10 @@
         <v>18</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I9" s="32" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="3">
@@ -3248,7 +3367,7 @@
         <v>106</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="8"/>
     </row>
@@ -3264,7 +3383,7 @@
         <v>68</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="3" t="s">
@@ -3277,7 +3396,7 @@
         <v>101</v>
       </c>
       <c r="P10" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="8"/>
       <c r="S10" s="15" t="s">
@@ -3340,7 +3459,7 @@
       </c>
       <c r="Q12" s="8"/>
       <c r="S12" s="21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3372,7 +3491,7 @@
       </c>
       <c r="Q13" s="8"/>
       <c r="S13" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3398,7 +3517,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="8"/>
       <c r="S14" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3413,7 +3532,7 @@
         <v>138</v>
       </c>
       <c r="I15" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="3">
@@ -3423,20 +3542,20 @@
         <v>68</v>
       </c>
       <c r="M15" s="32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="N15" s="9">
         <v>36</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="S15" s="33" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
@@ -3451,17 +3570,17 @@
         <v>106</v>
       </c>
       <c r="I16" s="32" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L16" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M16" s="34" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>81</v>
@@ -3470,11 +3589,11 @@
         <v>106</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="S16" s="34" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Z16" s="22"/>
     </row>
@@ -3501,7 +3620,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="8"/>
       <c r="S17" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
@@ -3586,7 +3705,7 @@
         <v>86</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="12">
@@ -3686,7 +3805,7 @@
       </c>
       <c r="O23" s="12"/>
       <c r="P23" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="8"/>
     </row>
@@ -3709,10 +3828,10 @@
         <v>23</v>
       </c>
       <c r="L24" s="32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M24" s="32" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N24" s="9">
         <v>33</v>
@@ -3721,7 +3840,7 @@
         <v>106</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q24" s="8"/>
     </row>
@@ -3747,7 +3866,7 @@
         <v>114</v>
       </c>
       <c r="M25" s="33" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="N25" s="9" t="s">
         <v>81</v>
@@ -3756,7 +3875,7 @@
         <v>86</v>
       </c>
       <c r="P25" s="39" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="8"/>
     </row>
@@ -3795,7 +3914,7 @@
         <v>145</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="3">
@@ -3830,17 +3949,17 @@
         <v>114</v>
       </c>
       <c r="I28" s="31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M28" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>81</v>
@@ -3952,7 +4071,7 @@
         <v>101</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N32" s="11">
         <v>2</v>
@@ -4079,7 +4198,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M1" s="18" t="s">
         <v>14</v>
@@ -5283,7 +5402,7 @@
         <v>9444.9999999999964</v>
       </c>
       <c r="M29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -5328,7 +5447,7 @@
         <v>13409.999999999996</v>
       </c>
       <c r="M30" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -7752,7 +7871,7 @@
         <v>45083</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
@@ -7786,7 +7905,7 @@
         <v>45083</v>
       </c>
       <c r="C91" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -7820,7 +7939,7 @@
         <v>45083</v>
       </c>
       <c r="C92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D92" s="43"/>
       <c r="E92" s="43"/>
@@ -7832,7 +7951,7 @@
       <c r="K92" s="43"/>
       <c r="L92" s="45"/>
       <c r="M92" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
@@ -7843,7 +7962,7 @@
         <v>45083</v>
       </c>
       <c r="C93" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D93" s="43"/>
       <c r="E93" s="43"/>
@@ -7855,7 +7974,7 @@
       <c r="K93" s="43"/>
       <c r="L93" s="45"/>
       <c r="M93" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.35">
@@ -7866,7 +7985,7 @@
         <v>45083</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
@@ -7900,7 +8019,7 @@
         <v>45083</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -8010,7 +8129,7 @@
         <v>45083</v>
       </c>
       <c r="C98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D98" s="43"/>
       <c r="E98" s="43"/>
@@ -8022,7 +8141,7 @@
       <c r="K98" s="43"/>
       <c r="L98" s="45"/>
       <c r="M98" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
@@ -8033,7 +8152,7 @@
         <v>45083</v>
       </c>
       <c r="C99" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D99" s="43"/>
       <c r="E99" s="43"/>
@@ -8045,7 +8164,7 @@
       <c r="K99" s="43"/>
       <c r="L99" s="45"/>
       <c r="M99" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.35">
@@ -8150,7 +8269,7 @@
         <v>22</v>
       </c>
       <c r="M102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -8161,7 +8280,7 @@
         <v>45083</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D103" s="43"/>
       <c r="E103" s="43"/>
@@ -8173,7 +8292,7 @@
       <c r="K103" s="43"/>
       <c r="L103" s="45"/>
       <c r="M103" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
@@ -8184,7 +8303,7 @@
         <v>45083</v>
       </c>
       <c r="C104" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D104" s="43"/>
       <c r="E104" s="43"/>
@@ -8196,7 +8315,7 @@
       <c r="K104" s="43"/>
       <c r="L104" s="45"/>
       <c r="M104" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
@@ -8219,7 +8338,7 @@
       <c r="K105" s="43"/>
       <c r="L105" s="45"/>
       <c r="M105" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -8230,7 +8349,7 @@
         <v>45083</v>
       </c>
       <c r="C106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D106" s="43"/>
       <c r="E106" s="43"/>
@@ -8242,7 +8361,7 @@
       <c r="K106" s="43"/>
       <c r="L106" s="45"/>
       <c r="M106" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -8279,7 +8398,7 @@
         <v>22</v>
       </c>
       <c r="M107" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
@@ -8316,7 +8435,7 @@
         <v>22</v>
       </c>
       <c r="M108" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -8327,7 +8446,7 @@
         <v>45083</v>
       </c>
       <c r="C109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -8353,7 +8472,7 @@
         <v>22</v>
       </c>
       <c r="M109" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -8364,7 +8483,7 @@
         <v>45083</v>
       </c>
       <c r="C110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D110" s="43"/>
       <c r="E110" s="43"/>
@@ -8376,7 +8495,7 @@
       <c r="K110" s="43"/>
       <c r="L110" s="45"/>
       <c r="M110" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
@@ -8387,7 +8506,7 @@
         <v>45083</v>
       </c>
       <c r="C111" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D111" s="43"/>
       <c r="E111" s="43"/>
@@ -8399,7 +8518,7 @@
       <c r="K111" s="43"/>
       <c r="L111" s="45"/>
       <c r="M111" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -8444,7 +8563,7 @@
         <v>148.00000000000074</v>
       </c>
       <c r="M112" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -8455,7 +8574,7 @@
         <v>45083</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
@@ -8489,7 +8608,7 @@
         <v>45083</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
@@ -8523,7 +8642,7 @@
         <v>45083</v>
       </c>
       <c r="C115" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -8557,7 +8676,7 @@
         <v>6461.0000000000064</v>
       </c>
       <c r="M115" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -8568,7 +8687,7 @@
         <v>45083</v>
       </c>
       <c r="C116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D116" s="43"/>
       <c r="E116" s="43"/>
@@ -8580,7 +8699,7 @@
       <c r="K116" s="43"/>
       <c r="L116" s="45"/>
       <c r="M116" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -8591,7 +8710,7 @@
         <v>45083</v>
       </c>
       <c r="C117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D117" s="43"/>
       <c r="E117" s="43"/>
@@ -8603,7 +8722,7 @@
       <c r="K117" s="43"/>
       <c r="L117" s="45"/>
       <c r="M117" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -8614,7 +8733,7 @@
         <v>45083</v>
       </c>
       <c r="C118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D118" s="43"/>
       <c r="E118" s="43"/>
@@ -8626,7 +8745,7 @@
       <c r="K118" s="43"/>
       <c r="L118" s="45"/>
       <c r="M118" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -8637,7 +8756,7 @@
         <v>45083</v>
       </c>
       <c r="C119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D119" s="43"/>
       <c r="E119" s="43"/>
@@ -8649,7 +8768,7 @@
       <c r="K119" s="43"/>
       <c r="L119" s="45"/>
       <c r="M119" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -8665,9 +8784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BN19" sqref="BN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8876,7 +8995,7 @@
         <v>60</v>
       </c>
       <c r="BN1" s="18" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8889,6 +9008,195 @@
       <c r="C2" t="s">
         <v>35</v>
       </c>
+      <c r="D2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.55920138888888893</v>
+      </c>
+      <c r="F2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T2" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -8900,6 +9208,195 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
+      <c r="D3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.56187500000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R3" t="s">
+        <v>205</v>
+      </c>
+      <c r="S3" t="s">
+        <v>205</v>
+      </c>
+      <c r="T3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U3" t="s">
+        <v>205</v>
+      </c>
+      <c r="V3" t="s">
+        <v>205</v>
+      </c>
+      <c r="W3" t="s">
+        <v>205</v>
+      </c>
+      <c r="X3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -8911,8 +9408,195 @@
       <c r="C4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="BN4" s="2"/>
+      <c r="D4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.59918981481481481</v>
+      </c>
+      <c r="F4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" t="s">
+        <v>370</v>
+      </c>
+      <c r="I4" t="s">
+        <v>370</v>
+      </c>
+      <c r="J4" t="s">
+        <v>370</v>
+      </c>
+      <c r="K4" t="s">
+        <v>370</v>
+      </c>
+      <c r="L4" t="s">
+        <v>370</v>
+      </c>
+      <c r="M4" t="s">
+        <v>370</v>
+      </c>
+      <c r="N4" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" t="s">
+        <v>370</v>
+      </c>
+      <c r="P4" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>370</v>
+      </c>
+      <c r="R4" t="s">
+        <v>370</v>
+      </c>
+      <c r="S4" t="s">
+        <v>370</v>
+      </c>
+      <c r="T4" t="s">
+        <v>370</v>
+      </c>
+      <c r="U4" t="s">
+        <v>370</v>
+      </c>
+      <c r="V4" t="s">
+        <v>370</v>
+      </c>
+      <c r="W4" t="s">
+        <v>370</v>
+      </c>
+      <c r="X4" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>370</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>370</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -8924,19 +9608,395 @@
       <c r="C5" t="s">
         <v>44</v>
       </c>
+      <c r="D5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.63575231481481487</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" t="s">
+        <v>186</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>187</v>
+      </c>
+      <c r="N5" t="s">
+        <v>187</v>
+      </c>
+      <c r="O5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>187</v>
+      </c>
+      <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>189</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>185</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>189</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>44846</v>
+        <v>44845</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="BN6" s="2"/>
+      <c r="D6" t="s">
+        <v>407</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.62687499999999996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L6" t="s">
+        <v>186</v>
+      </c>
+      <c r="M6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O6" t="s">
+        <v>206</v>
+      </c>
+      <c r="P6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>186</v>
+      </c>
+      <c r="R6" t="s">
+        <v>186</v>
+      </c>
+      <c r="S6" t="s">
+        <v>186</v>
+      </c>
+      <c r="T6" t="s">
+        <v>185</v>
+      </c>
+      <c r="U6" t="s">
+        <v>185</v>
+      </c>
+      <c r="V6" t="s">
+        <v>189</v>
+      </c>
+      <c r="W6" t="s">
+        <v>206</v>
+      </c>
+      <c r="X6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>371</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>371</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>371</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -8948,6 +10008,195 @@
       <c r="C7" t="s">
         <v>43</v>
       </c>
+      <c r="D7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.54880787037037038</v>
+      </c>
+      <c r="F7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" t="s">
+        <v>205</v>
+      </c>
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" t="s">
+        <v>186</v>
+      </c>
+      <c r="S7" t="s">
+        <v>186</v>
+      </c>
+      <c r="T7" t="s">
+        <v>205</v>
+      </c>
+      <c r="U7" t="s">
+        <v>205</v>
+      </c>
+      <c r="V7" t="s">
+        <v>205</v>
+      </c>
+      <c r="W7" t="s">
+        <v>205</v>
+      </c>
+      <c r="X7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -8959,8 +10208,195 @@
       <c r="C8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="BN8" s="2"/>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.54800925925925925</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" t="s">
+        <v>186</v>
+      </c>
+      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L8" t="s">
+        <v>186</v>
+      </c>
+      <c r="M8" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" t="s">
+        <v>186</v>
+      </c>
+      <c r="S8" t="s">
+        <v>186</v>
+      </c>
+      <c r="T8" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" t="s">
+        <v>186</v>
+      </c>
+      <c r="V8" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8" t="s">
+        <v>186</v>
+      </c>
+      <c r="X8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -8972,6 +10408,15 @@
       <c r="C9" t="s">
         <v>49</v>
       </c>
+      <c r="D9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -8983,6 +10428,15 @@
       <c r="C10" t="s">
         <v>50</v>
       </c>
+      <c r="D10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -8994,6 +10448,195 @@
       <c r="C11" t="s">
         <v>49</v>
       </c>
+      <c r="D11" t="s">
+        <v>414</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.56469907407407405</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>186</v>
+      </c>
+      <c r="K11" t="s">
+        <v>186</v>
+      </c>
+      <c r="L11" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" t="s">
+        <v>186</v>
+      </c>
+      <c r="N11" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>206</v>
+      </c>
+      <c r="R11" t="s">
+        <v>206</v>
+      </c>
+      <c r="S11" t="s">
+        <v>189</v>
+      </c>
+      <c r="T11" t="s">
+        <v>206</v>
+      </c>
+      <c r="U11" t="s">
+        <v>189</v>
+      </c>
+      <c r="V11" t="s">
+        <v>388</v>
+      </c>
+      <c r="W11" t="s">
+        <v>388</v>
+      </c>
+      <c r="X11" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -9005,8 +10648,195 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="BN12" s="2"/>
+      <c r="D12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.56469907407407405</v>
+      </c>
+      <c r="F12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>186</v>
+      </c>
+      <c r="K12" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" t="s">
+        <v>186</v>
+      </c>
+      <c r="M12" t="s">
+        <v>186</v>
+      </c>
+      <c r="N12" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T12" t="s">
+        <v>186</v>
+      </c>
+      <c r="U12" t="s">
+        <v>186</v>
+      </c>
+      <c r="V12" t="s">
+        <v>186</v>
+      </c>
+      <c r="W12" t="s">
+        <v>186</v>
+      </c>
+      <c r="X12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -9018,6 +10848,192 @@
       <c r="C13" t="s">
         <v>41</v>
       </c>
+      <c r="D13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.57076388888888885</v>
+      </c>
+      <c r="F13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H13" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>69</v>
+      </c>
+      <c r="N13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O13" t="s">
+        <v>186</v>
+      </c>
+      <c r="P13" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>186</v>
+      </c>
+      <c r="R13" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" t="s">
+        <v>186</v>
+      </c>
+      <c r="T13" t="s">
+        <v>186</v>
+      </c>
+      <c r="U13" t="s">
+        <v>206</v>
+      </c>
+      <c r="V13" t="s">
+        <v>189</v>
+      </c>
+      <c r="W13" t="s">
+        <v>206</v>
+      </c>
+      <c r="X13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="14" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -9029,6 +11045,195 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
+      <c r="D14" t="s">
+        <v>418</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.59864583333333332</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" t="s">
+        <v>189</v>
+      </c>
+      <c r="J14" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" t="s">
+        <v>205</v>
+      </c>
+      <c r="M14" t="s">
+        <v>205</v>
+      </c>
+      <c r="N14" t="s">
+        <v>205</v>
+      </c>
+      <c r="O14" t="s">
+        <v>205</v>
+      </c>
+      <c r="P14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>205</v>
+      </c>
+      <c r="R14" t="s">
+        <v>205</v>
+      </c>
+      <c r="S14" t="s">
+        <v>205</v>
+      </c>
+      <c r="T14" t="s">
+        <v>205</v>
+      </c>
+      <c r="U14" t="s">
+        <v>205</v>
+      </c>
+      <c r="V14" t="s">
+        <v>205</v>
+      </c>
+      <c r="W14" t="s">
+        <v>205</v>
+      </c>
+      <c r="X14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -9040,6 +11245,15 @@
       <c r="C15" t="s">
         <v>56</v>
       </c>
+      <c r="D15" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -9051,8 +11265,195 @@
       <c r="C16" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="BN16" s="2"/>
+      <c r="D16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.52940972222222227</v>
+      </c>
+      <c r="F16" t="s">
+        <v>370</v>
+      </c>
+      <c r="G16" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" t="s">
+        <v>370</v>
+      </c>
+      <c r="I16" t="s">
+        <v>370</v>
+      </c>
+      <c r="J16" t="s">
+        <v>370</v>
+      </c>
+      <c r="K16" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" t="s">
+        <v>370</v>
+      </c>
+      <c r="M16" t="s">
+        <v>370</v>
+      </c>
+      <c r="N16" t="s">
+        <v>370</v>
+      </c>
+      <c r="O16" t="s">
+        <v>370</v>
+      </c>
+      <c r="P16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>370</v>
+      </c>
+      <c r="R16" t="s">
+        <v>370</v>
+      </c>
+      <c r="S16" t="s">
+        <v>370</v>
+      </c>
+      <c r="T16" t="s">
+        <v>370</v>
+      </c>
+      <c r="U16" t="s">
+        <v>206</v>
+      </c>
+      <c r="V16" t="s">
+        <v>186</v>
+      </c>
+      <c r="W16" t="s">
+        <v>186</v>
+      </c>
+      <c r="X16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A17">
@@ -9064,6 +11465,192 @@
       <c r="C17" t="s">
         <v>56</v>
       </c>
+      <c r="D17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.56912037037037033</v>
+      </c>
+      <c r="F17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" t="s">
+        <v>187</v>
+      </c>
+      <c r="H17" t="s">
+        <v>187</v>
+      </c>
+      <c r="I17" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" t="s">
+        <v>187</v>
+      </c>
+      <c r="K17" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" t="s">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N17" t="s">
+        <v>187</v>
+      </c>
+      <c r="O17" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>187</v>
+      </c>
+      <c r="R17" t="s">
+        <v>187</v>
+      </c>
+      <c r="S17" t="s">
+        <v>187</v>
+      </c>
+      <c r="T17" t="s">
+        <v>187</v>
+      </c>
+      <c r="U17" t="s">
+        <v>187</v>
+      </c>
+      <c r="V17" t="s">
+        <v>187</v>
+      </c>
+      <c r="W17" t="s">
+        <v>69</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>187</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BL17" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A18">
@@ -9075,6 +11662,195 @@
       <c r="C18" t="s">
         <v>60</v>
       </c>
+      <c r="D18" t="s">
+        <v>422</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.56357638888888884</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="s">
+        <v>186</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>186</v>
+      </c>
+      <c r="P18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>186</v>
+      </c>
+      <c r="R18" t="s">
+        <v>186</v>
+      </c>
+      <c r="S18" t="s">
+        <v>186</v>
+      </c>
+      <c r="T18" t="s">
+        <v>186</v>
+      </c>
+      <c r="U18" t="s">
+        <v>186</v>
+      </c>
+      <c r="V18" t="s">
+        <v>186</v>
+      </c>
+      <c r="W18" t="s">
+        <v>186</v>
+      </c>
+      <c r="X18" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>189</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>189</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>186</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -9086,6 +11862,12 @@
       <c r="C19" t="s">
         <v>60</v>
       </c>
+      <c r="D19" t="s">
+        <v>417</v>
+      </c>
+      <c r="E19" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -9098,37 +11880,37 @@
         <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E20" s="2">
         <v>0.6125694444444445</v>
       </c>
       <c r="F20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
         <v>189</v>
@@ -9152,28 +11934,28 @@
         <v>189</v>
       </c>
       <c r="V20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Z20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD20" t="s">
         <v>185</v>
@@ -9191,61 +11973,61 @@
         <v>189</v>
       </c>
       <c r="AI20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s">
         <v>189</v>
       </c>
       <c r="AN20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ20" t="s">
         <v>189</v>
       </c>
       <c r="BA20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB20" t="s">
         <v>185</v>
@@ -9263,28 +12045,28 @@
         <v>189</v>
       </c>
       <c r="BG20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BI20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ20" t="s">
         <v>189</v>
       </c>
       <c r="BK20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BM20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BN20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.35">
@@ -9298,7 +12080,7 @@
         <v>130</v>
       </c>
       <c r="D21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E21" s="2">
         <v>0.6125694444444445</v>
@@ -9310,34 +12092,34 @@
         <v>186</v>
       </c>
       <c r="H21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R21" t="s">
         <v>69</v>
@@ -9484,7 +12266,7 @@
         <v>186</v>
       </c>
       <c r="BN21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.35">
@@ -9498,13 +12280,13 @@
         <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E22" s="2">
         <v>0.55733796296296301</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
         <v>189</v>
@@ -9564,25 +12346,25 @@
         <v>189</v>
       </c>
       <c r="Z22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AD22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AE22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG22" t="s">
         <v>189</v>
@@ -9615,73 +12397,73 @@
         <v>186</v>
       </c>
       <c r="AQ22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BA22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BC22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BD22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BG22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BI22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BM22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:66" x14ac:dyDescent="0.35">
@@ -9695,7 +12477,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E23" s="2">
         <v>0.55733796296296301</v>
@@ -9812,10 +12594,10 @@
         <v>186</v>
       </c>
       <c r="AQ23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS23" t="s">
         <v>69</v>
@@ -9824,40 +12606,40 @@
         <v>69</v>
       </c>
       <c r="AU23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BA23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BC23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BD23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BG23" t="s">
         <v>69</v>
@@ -9893,190 +12675,190 @@
         <v>100</v>
       </c>
       <c r="D24" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E24" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="V24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="X24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Y24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Z24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AA24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AB24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AC24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AD24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AE24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AF24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AG24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AH24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AI24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AJ24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AK24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AL24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AP24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AQ24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AR24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AS24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AT24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AU24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AV24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AW24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AX24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AY24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AZ24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BA24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BB24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BC24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BD24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BE24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BF24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BG24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BH24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BI24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BJ24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BK24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BL24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BM24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.35">
@@ -10090,49 +12872,49 @@
         <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E25" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S25" t="s">
         <v>184</v>
@@ -10147,7 +12929,7 @@
         <v>184</v>
       </c>
       <c r="W25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="X25" t="s">
         <v>186</v>
@@ -10192,88 +12974,88 @@
         <v>186</v>
       </c>
       <c r="AL25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AM25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AN25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AO25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AP25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AQ25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AR25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AS25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AT25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AU25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AV25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AW25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AX25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AY25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="AZ25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BA25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BB25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BC25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BD25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BE25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BF25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BG25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BH25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BI25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BJ25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BK25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BL25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="BM25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.35">
@@ -10287,7 +13069,7 @@
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E26" s="2">
         <v>0.5761574074074074</v>
@@ -10377,28 +13159,28 @@
         <v>189</v>
       </c>
       <c r="AH26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AP26" t="s">
         <v>69</v>
@@ -10484,7 +13266,7 @@
         <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E27" s="2">
         <v>0.57357638888888884</v>
@@ -10670,7 +13452,7 @@
         <v>187</v>
       </c>
       <c r="BN27" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
@@ -10684,7 +13466,7 @@
         <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E28" s="2">
         <v>0.57954861111111111</v>
@@ -10750,13 +13532,13 @@
         <v>186</v>
       </c>
       <c r="Z28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AB28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC28" t="s">
         <v>185</v>
@@ -10798,31 +13580,31 @@
         <v>186</v>
       </c>
       <c r="AP28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AQ28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AS28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AV28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AW28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AX28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY28" t="s">
         <v>190</v>
@@ -10870,7 +13652,7 @@
         <v>187</v>
       </c>
       <c r="BN28" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.35">
@@ -10884,7 +13666,7 @@
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E29" s="2">
         <v>0.57518518518518513</v>
@@ -10926,10 +13708,10 @@
         <v>186</v>
       </c>
       <c r="R29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T29" t="s">
         <v>186</v>
@@ -10938,16 +13720,16 @@
         <v>186</v>
       </c>
       <c r="V29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="W29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="X29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Y29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z29" t="s">
         <v>69</v>
@@ -11025,10 +13807,10 @@
         <v>69</v>
       </c>
       <c r="AY29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AZ29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BA29" t="s">
         <v>186</v>
@@ -11070,7 +13852,7 @@
         <v>187</v>
       </c>
       <c r="BN29" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.35">
@@ -11084,61 +13866,61 @@
         <v>87</v>
       </c>
       <c r="D30" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E30" s="2">
         <v>0.55290509259259257</v>
       </c>
       <c r="F30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="Q30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="S30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="T30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="U30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="V30" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W30" t="s">
         <v>186</v>
@@ -11281,7 +14063,7 @@
         <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E31" s="2">
         <v>0.56587962962962968</v>
@@ -11419,52 +14201,52 @@
         <v>186</v>
       </c>
       <c r="AX31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AY31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AZ31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BA31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BC31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BD31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BE31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BF31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BG31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BH31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BI31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BJ31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BK31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BM31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BN31" s="2"/>
     </row>
@@ -11479,28 +14261,28 @@
         <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E32" s="2">
         <v>0.56521990740740746</v>
       </c>
       <c r="F32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="J32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L32" t="s">
         <v>186</v>
@@ -11539,16 +14321,16 @@
         <v>186</v>
       </c>
       <c r="X32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Z32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AA32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AB32" t="s">
         <v>186</v>
@@ -11560,34 +14342,34 @@
         <v>186</v>
       </c>
       <c r="AE32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AF32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AG32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="AH32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AI32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AJ32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AK32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AL32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AO32" t="s">
         <v>191</v>
@@ -11596,7 +14378,7 @@
         <v>189</v>
       </c>
       <c r="AQ32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AR32" t="s">
         <v>69</v>
@@ -11656,13 +14438,13 @@
         <v>69</v>
       </c>
       <c r="BK32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BL32" t="s">
         <v>189</v>
       </c>
       <c r="BM32" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:66" x14ac:dyDescent="0.35">
@@ -11676,7 +14458,7 @@
         <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E33" s="2">
         <v>0.55215277777777783</v>
@@ -11875,10 +14657,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26EEE75-F3A4-4674-8EC5-0549BE0D9F3B}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11899,7 +14681,7 @@
         <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -11907,15 +14689,15 @@
         <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -11960,10 +14742,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -11976,26 +14758,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
-        <v>376</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -12005,10 +14795,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAD9253-B6F9-4031-9C77-3423AFC6C93B}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12075,12 +14865,12 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
@@ -12090,12 +14880,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>203</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -12118,16 +14913,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -12141,7 +14936,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -12155,7 +14950,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -12169,7 +14964,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -12183,7 +14978,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -12197,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -12211,7 +15006,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -12225,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -12239,7 +15034,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -12253,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -12267,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -12281,7 +15076,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -12295,7 +15090,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -12309,7 +15104,7 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -12323,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -12337,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -12351,7 +15146,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -12365,7 +15160,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -12379,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -12393,7 +15188,7 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -12407,7 +15202,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -12421,7 +15216,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -12435,12 +15230,12 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B24" s="1">
         <v>45084</v>
@@ -12449,12 +15244,12 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B25" s="1">
         <v>45084</v>
@@ -12463,12 +15258,12 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B26" s="1">
         <v>45084</v>
@@ -12477,12 +15272,12 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B27" s="1">
         <v>45084</v>
@@ -12491,12 +15286,12 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B28" s="1">
         <v>45085</v>
@@ -12505,7 +15300,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -12519,12 +15314,12 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B30" s="1">
         <v>45085</v>
@@ -12533,7 +15328,7 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -12547,7 +15342,7 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -12561,7 +15356,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -12575,7 +15370,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -12589,12 +15384,12 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B35" s="1">
         <v>45086</v>
@@ -12603,12 +15398,12 @@
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B36" s="1">
         <v>45086</v>
@@ -12617,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -12631,7 +15426,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -12645,12 +15440,12 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B39" s="1">
         <v>45086</v>
@@ -12659,12 +15454,12 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1">
         <v>45086</v>
@@ -12673,12 +15468,12 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" s="1">
         <v>45086</v>
@@ -12687,12 +15482,12 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B42" s="1">
         <v>45086</v>
@@ -12701,12 +15496,12 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B43" s="1">
         <v>45087</v>
@@ -12715,12 +15510,12 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B44" s="1">
         <v>45087</v>
@@ -12729,7 +15524,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -12743,12 +15538,12 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B46" s="1">
         <v>45087</v>
@@ -12757,12 +15552,12 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B47" s="1">
         <v>45087</v>
@@ -12771,12 +15566,12 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B48" s="1">
         <v>45087</v>
@@ -12785,7 +15580,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -12799,12 +15594,12 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B50" s="1">
         <v>45088</v>
@@ -12813,12 +15608,12 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B51" s="1">
         <v>45088</v>
@@ -12827,7 +15622,7 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -12841,12 +15636,12 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B53" s="1">
         <v>45088</v>
@@ -12855,12 +15650,12 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B54" s="1">
         <v>45088</v>
@@ -12869,12 +15664,12 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1">
         <v>45143</v>
@@ -12883,12 +15678,12 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B56" s="1">
         <v>45143</v>
@@ -12897,7 +15692,7 @@
         <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
@@ -12911,7 +15706,7 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -12925,12 +15720,12 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B59" s="1">
         <v>45146</v>
@@ -12939,12 +15734,12 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B60" s="1">
         <v>45146</v>
@@ -12953,7 +15748,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -12967,12 +15762,12 @@
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" s="1">
         <v>45146</v>
@@ -12981,12 +15776,12 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B63" s="1">
         <v>45146</v>
@@ -12995,7 +15790,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -13009,12 +15804,12 @@
         <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B65" s="1">
         <v>45146</v>
@@ -13023,12 +15818,12 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B66" s="1">
         <v>45146</v>
@@ -13037,12 +15832,12 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B67" s="1">
         <v>45146</v>
@@ -13051,7 +15846,7 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
@@ -13076,12 +15871,12 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B70" s="1">
         <v>45147</v>
@@ -13090,12 +15885,12 @@
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B71" s="1">
         <v>45147</v>
@@ -13104,12 +15899,12 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B72" s="1">
         <v>45147</v>
@@ -13118,12 +15913,12 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B73" s="1">
         <v>45147</v>
@@ -13132,12 +15927,12 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B74" s="1">
         <v>45147</v>
@@ -13146,12 +15941,12 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B75" s="1">
         <v>45147</v>
@@ -13160,7 +15955,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
@@ -13174,12 +15969,12 @@
         <v>3</v>
       </c>
       <c r="D76" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B77" s="1">
         <v>45197</v>
@@ -13188,7 +15983,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
@@ -13202,12 +15997,12 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B79" s="1">
         <v>45197</v>
@@ -13216,12 +16011,12 @@
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B80" s="1">
         <v>45198</v>
@@ -13230,12 +16025,12 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B81" s="1">
         <v>45198</v>
@@ -13244,12 +16039,12 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B82" s="1">
         <v>45198</v>
@@ -13258,12 +16053,12 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B83" s="1">
         <v>45198</v>
@@ -13272,12 +16067,12 @@
         <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B84" s="1">
         <v>45198</v>
@@ -13286,7 +16081,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -13300,7 +16095,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
@@ -13314,7 +16109,7 @@
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -13328,12 +16123,12 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B88" s="1">
         <v>45302</v>
@@ -13342,12 +16137,12 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B89" s="1">
         <v>45302</v>
@@ -13356,12 +16151,12 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B90" s="1">
         <v>45302</v>
@@ -13370,12 +16165,12 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1">
         <v>45302</v>
@@ -13384,12 +16179,12 @@
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B92" s="1">
         <v>45302</v>
@@ -13398,7 +16193,7 @@
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -13412,7 +16207,7 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -13426,12 +16221,12 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B95" s="1">
         <v>45303</v>
@@ -13440,12 +16235,12 @@
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B96" s="1">
         <v>45303</v>
@@ -13454,12 +16249,12 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B97" s="1">
         <v>45303</v>
@@ -13468,12 +16263,12 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B98" s="1">
         <v>45303</v>
@@ -13482,12 +16277,12 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B99" s="1">
         <v>45303</v>
@@ -13496,12 +16291,12 @@
         <v>2</v>
       </c>
       <c r="D99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B100" s="1">
         <v>45303</v>
@@ -13510,12 +16305,12 @@
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B101" s="1">
         <v>45304</v>
@@ -13524,12 +16319,12 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B102" s="1">
         <v>45304</v>
@@ -13538,7 +16333,7 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
@@ -13552,12 +16347,12 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104" s="1">
         <v>45304</v>
@@ -13566,12 +16361,12 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B105" s="1">
         <v>45304</v>
@@ -13580,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
@@ -13594,12 +16389,12 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B107" s="1">
         <v>45304</v>
@@ -13608,7 +16403,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
@@ -13622,12 +16417,12 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B109" s="1">
         <v>45304</v>
@@ -13636,7 +16431,7 @@
         <v>3</v>
       </c>
       <c r="D109" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
@@ -13650,7 +16445,7 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
@@ -13664,12 +16459,12 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B112" s="1">
         <v>45304</v>
@@ -13678,12 +16473,12 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B113" s="1">
         <v>45304</v>
@@ -13692,7 +16487,7 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
@@ -13706,7 +16501,7 @@
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
@@ -13720,7 +16515,7 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
@@ -13734,7 +16529,7 @@
         <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
@@ -13748,12 +16543,12 @@
         <v>2</v>
       </c>
       <c r="D117" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B118" s="1">
         <v>45304</v>
@@ -13762,12 +16557,12 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B119" s="1">
         <v>45304</v>
@@ -13776,7 +16571,7 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -13790,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -13804,12 +16599,12 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B122" s="1">
         <v>45305</v>
@@ -13818,12 +16613,12 @@
         <v>2</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B123" s="1">
         <v>45305</v>
@@ -13832,7 +16627,7 @@
         <v>3</v>
       </c>
       <c r="D123" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -13846,12 +16641,12 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B125" s="1">
         <v>45306</v>
@@ -13860,12 +16655,12 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B126" s="1">
         <v>45307</v>
@@ -13874,12 +16669,12 @@
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B127" s="1">
         <v>45307</v>
@@ -13888,7 +16683,7 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -13902,12 +16697,12 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B129" s="1">
         <v>45308</v>
@@ -13916,12 +16711,12 @@
         <v>3</v>
       </c>
       <c r="D129" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B130" s="1">
         <v>45309</v>
@@ -13930,12 +16725,12 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B131" s="1">
         <v>45309</v>
@@ -13944,7 +16739,7 @@
         <v>2</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -13958,12 +16753,12 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B133" s="1">
         <v>45309</v>
@@ -13972,7 +16767,7 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4575" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67014A20-6807-4EBC-89B9-9C5661B1BF58}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -4143,7 +4143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87B5FBC-49E3-4EE4-B277-09E9A626BD98}">
   <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L65" sqref="L60:L65"/>
     </sheetView>
@@ -4221,7 +4221,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G2" s="2">
-        <f>E2+F2</f>
+        <f t="shared" ref="G2:G33" si="0">E2+F2</f>
         <v>0.59240740740740738</v>
       </c>
       <c r="H2" s="2">
@@ -4231,7 +4231,7 @@
         <v>1.8518518518518518E-4</v>
       </c>
       <c r="J2" s="2">
-        <f>H2+I2</f>
+        <f t="shared" ref="J2:J33" si="1">H2+I2</f>
         <v>0.59255787037037033</v>
       </c>
       <c r="K2" s="2">
@@ -4264,7 +4264,7 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G3" s="2">
-        <f>E3+F3</f>
+        <f t="shared" si="0"/>
         <v>0.5902546296296296</v>
       </c>
       <c r="H3" s="2">
@@ -4274,7 +4274,7 @@
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="J3" s="2">
-        <f>H3+I3</f>
+        <f t="shared" si="1"/>
         <v>0.59065972222222218</v>
       </c>
       <c r="K3" s="2">
@@ -4307,7 +4307,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G4" s="2">
-        <f>E4+F4</f>
+        <f t="shared" si="0"/>
         <v>0.59083333333333332</v>
       </c>
       <c r="H4" s="2">
@@ -4317,7 +4317,7 @@
         <v>4.5138888888888892E-4</v>
       </c>
       <c r="J4" s="2">
-        <f>H4+I4</f>
+        <f t="shared" si="1"/>
         <v>0.59124999999999994</v>
       </c>
       <c r="K4" s="2">
@@ -4350,7 +4350,7 @@
         <v>5.0925925925925921E-4</v>
       </c>
       <c r="G5" s="2">
-        <f>E5+F5</f>
+        <f t="shared" si="0"/>
         <v>0.59504629629629624</v>
       </c>
       <c r="H5" s="2">
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <f>H5+I5</f>
+        <f t="shared" si="1"/>
         <v>0.59557870370370369</v>
       </c>
       <c r="K5" s="2">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>E6+F6</f>
+        <f t="shared" si="0"/>
         <v>0.58870370370370373</v>
       </c>
       <c r="H6" s="2">
@@ -4403,7 +4403,7 @@
         <v>5.7870370370370378E-4</v>
       </c>
       <c r="J6" s="2">
-        <f>H6+I6</f>
+        <f t="shared" si="1"/>
         <v>0.58928240740740745</v>
       </c>
       <c r="K6" s="2">
@@ -4436,7 +4436,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G7" s="2">
-        <f>E7+F7</f>
+        <f t="shared" si="0"/>
         <v>0.59083333333333332</v>
       </c>
       <c r="H7" s="2">
@@ -4446,7 +4446,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="J7" s="2">
-        <f>H7+I7</f>
+        <f t="shared" si="1"/>
         <v>0.59142361111111108</v>
       </c>
       <c r="K7" s="2">
@@ -4479,7 +4479,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
       <c r="G8" s="2">
-        <f>E8+F8</f>
+        <f t="shared" si="0"/>
         <v>0.59722222222222232</v>
       </c>
       <c r="H8" s="2">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <f>H8+I8</f>
+        <f t="shared" si="1"/>
         <v>0.59789351851851846</v>
       </c>
       <c r="K8" s="2">
@@ -4522,7 +4522,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="G9" s="2">
-        <f>E9+F9</f>
+        <f t="shared" si="0"/>
         <v>0.58313657407407415</v>
       </c>
       <c r="H9" s="2">
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <f>H9+I9</f>
+        <f t="shared" si="1"/>
         <v>0.58385416666666667</v>
       </c>
       <c r="K9" s="2">
@@ -4562,7 +4562,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="G10" s="2">
-        <f>E10+F10</f>
+        <f t="shared" si="0"/>
         <v>0.58313657407407415</v>
       </c>
       <c r="H10" s="2">
@@ -4572,7 +4572,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="J10" s="2">
-        <f>H10+I10</f>
+        <f t="shared" si="1"/>
         <v>0.58387731481481486</v>
       </c>
       <c r="K10" s="2">
@@ -4602,7 +4602,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G11" s="2">
-        <f>E11+F11</f>
+        <f t="shared" si="0"/>
         <v>0.58944444444444444</v>
       </c>
       <c r="H11" s="2">
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <f>H11+I11</f>
+        <f t="shared" si="1"/>
         <v>0.5901967592592593</v>
       </c>
       <c r="K11" s="2">
@@ -4645,7 +4645,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G12" s="2">
-        <f>E12+F12</f>
+        <f t="shared" si="0"/>
         <v>0.59190972222222216</v>
       </c>
       <c r="H12" s="2">
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <f>H12+I12</f>
+        <f t="shared" si="1"/>
         <v>0.59270833333333328</v>
       </c>
       <c r="K12" s="2">
@@ -4688,7 +4688,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G13" s="2">
-        <f>E13+F13</f>
+        <f t="shared" si="0"/>
         <v>0.59240740740740738</v>
       </c>
       <c r="H13" s="2">
@@ -4698,7 +4698,7 @@
         <v>2.199074074074074E-4</v>
       </c>
       <c r="J13" s="2">
-        <f>H13+I13</f>
+        <f t="shared" si="1"/>
         <v>0.59339120370370368</v>
       </c>
       <c r="K13" s="2">
@@ -4728,7 +4728,7 @@
         <v>3.1250000000000001E-4</v>
       </c>
       <c r="G14" s="2">
-        <f>E14+F14</f>
+        <f t="shared" si="0"/>
         <v>0.59722222222222232</v>
       </c>
       <c r="H14" s="2">
@@ -4738,7 +4738,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="J14" s="2">
-        <f>H14+I14</f>
+        <f t="shared" si="1"/>
         <v>0.59832175925925923</v>
       </c>
       <c r="K14" s="2">
@@ -4771,7 +4771,7 @@
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="G15" s="2">
-        <f>E15+F15</f>
+        <f t="shared" si="0"/>
         <v>0.6019444444444445</v>
       </c>
       <c r="H15" s="2">
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>H15+I15</f>
+        <f t="shared" si="1"/>
         <v>0.60306712962962961</v>
       </c>
       <c r="K15" s="2">
@@ -4814,7 +4814,7 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="G16" s="2">
-        <f>E16+F16</f>
+        <f t="shared" si="0"/>
         <v>0.59932870370370372</v>
       </c>
       <c r="H16" s="2">
@@ -4824,7 +4824,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="J16" s="2">
-        <f>H16+I16</f>
+        <f t="shared" si="1"/>
         <v>0.60050925925925924</v>
       </c>
       <c r="K16" s="2">
@@ -4857,7 +4857,7 @@
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="G17" s="2">
-        <f>E17+F17</f>
+        <f t="shared" si="0"/>
         <v>0.6019444444444445</v>
       </c>
       <c r="H17" s="2">
@@ -4867,7 +4867,7 @@
         <v>1.6203703703703703E-4</v>
       </c>
       <c r="J17" s="2">
-        <f>H17+I17</f>
+        <f t="shared" si="1"/>
         <v>0.60322916666666659</v>
       </c>
       <c r="K17" s="2">
@@ -4900,7 +4900,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="G18" s="2">
-        <f>E18+F18</f>
+        <f t="shared" si="0"/>
         <v>0.58313657407407415</v>
       </c>
       <c r="H18" s="2">
@@ -4910,7 +4910,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="J18" s="2">
-        <f>H18+I18</f>
+        <f t="shared" si="1"/>
         <v>0.58475694444444448</v>
       </c>
       <c r="K18" s="2">
@@ -4940,7 +4940,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G19" s="2">
-        <f>E19+F19</f>
+        <f t="shared" si="0"/>
         <v>0.59015046296296292</v>
       </c>
       <c r="H19" s="2">
@@ -4950,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <f>H19+I19</f>
+        <f t="shared" si="1"/>
         <v>0.59184027777777781</v>
       </c>
       <c r="K19" s="2">
@@ -4983,7 +4983,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G20" s="2">
-        <f>E20+F20</f>
+        <f t="shared" si="0"/>
         <v>0.58877314814814818</v>
       </c>
       <c r="H20" s="2">
@@ -4993,7 +4993,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="J20" s="2">
-        <f>H20+I20</f>
+        <f t="shared" si="1"/>
         <v>0.59048611111111116</v>
       </c>
       <c r="K20" s="2">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>E21+F21</f>
+        <f t="shared" si="0"/>
         <v>0.59870370370370374</v>
       </c>
       <c r="H21" s="2">
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f>H21+I21</f>
+        <f t="shared" si="1"/>
         <v>0.60071759259259261</v>
       </c>
       <c r="K21" s="2">
@@ -5069,7 +5069,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="G22" s="2">
-        <f>E22+F22</f>
+        <f t="shared" si="0"/>
         <v>0.58784722222222219</v>
       </c>
       <c r="H22" s="2">
@@ -5079,7 +5079,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="J22" s="2">
-        <f>H22+I22</f>
+        <f t="shared" si="1"/>
         <v>0.58993055555555551</v>
       </c>
       <c r="K22" s="2">
@@ -5112,7 +5112,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="G23" s="2">
-        <f>E23+F23</f>
+        <f t="shared" si="0"/>
         <v>0.58784722222222219</v>
       </c>
       <c r="H23" s="2">
@@ -5122,7 +5122,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="J23" s="2">
-        <f>H23+I23</f>
+        <f t="shared" si="1"/>
         <v>0.5899537037037037</v>
       </c>
       <c r="K23" s="2">
@@ -5152,7 +5152,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="G24" s="2">
-        <f>E24+F24</f>
+        <f t="shared" si="0"/>
         <v>0.58784722222222219</v>
       </c>
       <c r="H24" s="2">
@@ -5162,7 +5162,7 @@
         <v>2.6620370370370372E-4</v>
       </c>
       <c r="J24" s="2">
-        <f>H24+I24</f>
+        <f t="shared" si="1"/>
         <v>0.59018518518518515</v>
       </c>
       <c r="K24" s="2">
@@ -5195,7 +5195,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G25" s="2">
-        <f>E25+F25</f>
+        <f t="shared" si="0"/>
         <v>0.58464120370370365</v>
       </c>
       <c r="H25" s="2">
@@ -5205,7 +5205,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="J25" s="2">
-        <f>H25+I25</f>
+        <f t="shared" si="1"/>
         <v>0.58732638888888888</v>
       </c>
       <c r="K25" s="2">
@@ -5238,7 +5238,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G26" s="2">
-        <f>E26+F26</f>
+        <f t="shared" si="0"/>
         <v>0.58579861111111109</v>
       </c>
       <c r="H26" s="2">
@@ -5248,7 +5248,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="J26" s="2">
-        <f>H26+I26</f>
+        <f t="shared" si="1"/>
         <v>0.59046296296296297</v>
       </c>
       <c r="K26" s="2">
@@ -5278,7 +5278,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
       <c r="G27" s="2">
-        <f>E27+F27</f>
+        <f t="shared" si="0"/>
         <v>0.59706018518518522</v>
       </c>
       <c r="H27" s="2">
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <f>H27+I27</f>
+        <f t="shared" si="1"/>
         <v>0.6018634259259259</v>
       </c>
       <c r="K27" s="2">
@@ -5318,7 +5318,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G28" s="2">
-        <f>E28+F28</f>
+        <f t="shared" si="0"/>
         <v>0.59699074074074077</v>
       </c>
       <c r="H28" s="2">
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <f>H28+I28</f>
+        <f t="shared" si="1"/>
         <v>0.60181712962962963</v>
       </c>
       <c r="K28" s="2">
@@ -5358,7 +5358,7 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G29" s="2">
-        <f>E29+F29</f>
+        <f t="shared" si="0"/>
         <v>0.59287037037037038</v>
       </c>
       <c r="H29" s="2">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f>H29+I29</f>
+        <f t="shared" si="1"/>
         <v>0.5978472222222222</v>
       </c>
       <c r="K29" s="2">
@@ -5401,7 +5401,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="G30" s="2">
-        <f>E30+F30</f>
+        <f t="shared" si="0"/>
         <v>0.58945601851851859</v>
       </c>
       <c r="H30" s="2">
@@ -5411,7 +5411,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="J30" s="2">
-        <f>H30+I30</f>
+        <f t="shared" si="1"/>
         <v>0.59450231481481486</v>
       </c>
       <c r="K30" s="2">
@@ -5444,7 +5444,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G31" s="2">
-        <f>E31+F31</f>
+        <f t="shared" si="0"/>
         <v>0.58464120370370365</v>
       </c>
       <c r="H31" s="2">
@@ -5454,7 +5454,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="J31" s="2">
-        <f>H31+I31</f>
+        <f t="shared" si="1"/>
         <v>0.58984953703703702</v>
       </c>
       <c r="K31" s="2">
@@ -5487,7 +5487,7 @@
         <v>5.0925925925925921E-4</v>
       </c>
       <c r="G32" s="2">
-        <f>E32+F32</f>
+        <f t="shared" si="0"/>
         <v>0.59504629629629624</v>
       </c>
       <c r="H32" s="2">
@@ -5497,7 +5497,7 @@
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="J32" s="2">
-        <f>H32+I32</f>
+        <f t="shared" si="1"/>
         <v>0.60077546296296291</v>
       </c>
       <c r="K32" s="2">
@@ -5527,7 +5527,7 @@
         <v>4.2824074074074075E-4</v>
       </c>
       <c r="G33" s="2">
-        <f>E33+F33</f>
+        <f t="shared" si="0"/>
         <v>0.58945601851851859</v>
       </c>
       <c r="H33" s="2">
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f>H33+I33</f>
+        <f t="shared" si="1"/>
         <v>0.59609953703703711</v>
       </c>
       <c r="K33" s="2">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <f>E34+F34</f>
+        <f t="shared" ref="G34:G65" si="2">E34+F34</f>
         <v>0.58870370370370373</v>
       </c>
       <c r="H34" s="2">
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f>H34+I34</f>
+        <f t="shared" ref="J34:J65" si="3">H34+I34</f>
         <v>0.59649305555555554</v>
       </c>
       <c r="K34" s="2">
@@ -5613,7 +5613,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G35" s="2">
-        <f>E35+F35</f>
+        <f t="shared" si="2"/>
         <v>0.58704861111111106</v>
       </c>
       <c r="H35" s="2">
@@ -5623,7 +5623,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="2">
-        <f>H35+I35</f>
+        <f t="shared" si="3"/>
         <v>0.59741898148148154</v>
       </c>
       <c r="K35" s="2">
@@ -5656,7 +5656,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G36" s="2">
-        <f>E36+F36</f>
+        <f t="shared" si="2"/>
         <v>0.59005787037037039</v>
       </c>
       <c r="H36" s="2">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <f>H36+I36</f>
+        <f t="shared" si="3"/>
         <v>0.60092592592592597</v>
       </c>
       <c r="K36" s="2">
@@ -5696,7 +5696,7 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="G37" s="2">
-        <f>E37+F37</f>
+        <f t="shared" si="2"/>
         <v>0.59932870370370372</v>
       </c>
       <c r="H37" s="2">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f>H37+I37</f>
+        <f t="shared" si="3"/>
         <v>0.61087962962962961</v>
       </c>
       <c r="K37" s="2">
@@ -5736,7 +5736,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G38" s="2">
-        <f>E38+F38</f>
+        <f t="shared" si="2"/>
         <v>0.59015046296296292</v>
       </c>
       <c r="H38" s="2">
@@ -5746,7 +5746,7 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="J38" s="2">
-        <f>H38+I38</f>
+        <f t="shared" si="3"/>
         <v>0.60231481481481486</v>
       </c>
       <c r="K38" s="2">
@@ -5776,7 +5776,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G39" s="2">
-        <f>E39+F39</f>
+        <f t="shared" si="2"/>
         <v>0.59005787037037039</v>
       </c>
       <c r="H39" s="2">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <f>H39+I39</f>
+        <f t="shared" si="3"/>
         <v>0.60252314814814811</v>
       </c>
       <c r="K39" s="2">
@@ -5816,7 +5816,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G40" s="2">
-        <f>E40+F40</f>
+        <f t="shared" si="2"/>
         <v>0.58718749999999997</v>
       </c>
       <c r="H40" s="2">
@@ -5826,7 +5826,7 @@
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="J40" s="2">
-        <f>H40+I40</f>
+        <f t="shared" si="3"/>
         <v>0.59976851851851853</v>
       </c>
       <c r="K40" s="2">
@@ -5859,7 +5859,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G41" s="2">
-        <f>E41+F41</f>
+        <f t="shared" si="2"/>
         <v>0.58718749999999997</v>
       </c>
       <c r="H41" s="2">
@@ -5869,7 +5869,7 @@
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="J41" s="2">
-        <f>H41+I41</f>
+        <f t="shared" si="3"/>
         <v>0.59998842592592594</v>
       </c>
       <c r="K41" s="2">
@@ -5902,7 +5902,7 @@
         <v>1.273148148148148E-4</v>
       </c>
       <c r="G42" s="2">
-        <f>E42+F42</f>
+        <f t="shared" si="2"/>
         <v>0.58821759259259254</v>
       </c>
       <c r="H42" s="2">
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <f>H42+I42</f>
+        <f t="shared" si="3"/>
         <v>0.60207175925925926</v>
       </c>
       <c r="K42" s="2">
@@ -5945,7 +5945,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
       <c r="G43" s="2">
-        <f>E43+F43</f>
+        <f t="shared" si="2"/>
         <v>0.59706018518518522</v>
       </c>
       <c r="H43" s="2">
@@ -5955,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <f>H43+I43</f>
+        <f t="shared" si="3"/>
         <v>0.6109606481481481</v>
       </c>
       <c r="K43" s="2">
@@ -5985,7 +5985,7 @@
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="G44" s="2">
-        <f>E44+F44</f>
+        <f t="shared" si="2"/>
         <v>0.59498842592592582</v>
       </c>
       <c r="H44" s="2">
@@ -5995,7 +5995,7 @@
         <v>2.0833333333333335E-4</v>
       </c>
       <c r="J44" s="2">
-        <f>H44+I44</f>
+        <f t="shared" si="3"/>
         <v>0.609837962962963</v>
       </c>
       <c r="K44" s="2">
@@ -6028,7 +6028,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G45" s="2">
-        <f>E45+F45</f>
+        <f t="shared" si="2"/>
         <v>0.58944444444444444</v>
       </c>
       <c r="H45" s="2">
@@ -6038,7 +6038,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="J45" s="2">
-        <f>H45+I45</f>
+        <f t="shared" si="3"/>
         <v>0.60663194444444446</v>
       </c>
       <c r="K45" s="2">
@@ -6071,7 +6071,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G46" s="2">
-        <f>E46+F46</f>
+        <f t="shared" si="2"/>
         <v>0.58579861111111109</v>
       </c>
       <c r="H46" s="2">
@@ -6081,7 +6081,7 @@
         <v>1.0416666666666667E-4</v>
       </c>
       <c r="J46" s="2">
-        <f>H46+I46</f>
+        <f t="shared" si="3"/>
         <v>0.60327546296296297</v>
       </c>
       <c r="K46" s="2">
@@ -6111,7 +6111,7 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G47" s="2">
-        <f>E47+F47</f>
+        <f t="shared" si="2"/>
         <v>0.5902546296296296</v>
       </c>
       <c r="H47" s="2">
@@ -6121,7 +6121,7 @@
         <v>1.8518518518518518E-4</v>
       </c>
       <c r="J47" s="2">
-        <f>H47+I47</f>
+        <f t="shared" si="3"/>
         <v>0.60784722222222221</v>
       </c>
       <c r="K47" s="2">
@@ -6154,7 +6154,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G48" s="2">
-        <f>E48+F48</f>
+        <f t="shared" si="2"/>
         <v>0.59236111111111101</v>
       </c>
       <c r="H48" s="2">
@@ -6164,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <f>H48+I48</f>
+        <f t="shared" si="3"/>
         <v>0.61015046296296294</v>
       </c>
       <c r="K48" s="2">
@@ -6197,7 +6197,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G49" s="2">
-        <f>E49+F49</f>
+        <f t="shared" si="2"/>
         <v>0.59236111111111101</v>
       </c>
       <c r="H49" s="2">
@@ -6207,7 +6207,7 @@
         <v>1.1574074074074073E-4</v>
       </c>
       <c r="J49" s="2">
-        <f>H49+I49</f>
+        <f t="shared" si="3"/>
         <v>0.61026620370370366</v>
       </c>
       <c r="K49" s="2">
@@ -6240,7 +6240,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G50" s="2">
-        <f>E50+F50</f>
+        <f t="shared" si="2"/>
         <v>0.59236111111111101</v>
       </c>
       <c r="H50" s="2">
@@ -6250,7 +6250,7 @@
         <v>4.0509259259259258E-4</v>
       </c>
       <c r="J50" s="2">
-        <f>H50+I50</f>
+        <f t="shared" si="3"/>
         <v>0.61055555555555552</v>
       </c>
       <c r="K50" s="2">
@@ -6283,7 +6283,7 @@
         <v>1.273148148148148E-4</v>
       </c>
       <c r="G51" s="2">
-        <f>E51+F51</f>
+        <f t="shared" si="2"/>
         <v>0.58821759259259254</v>
       </c>
       <c r="H51" s="2">
@@ -6293,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <f>H51+I51</f>
+        <f t="shared" si="3"/>
         <v>0.60653935185185182</v>
       </c>
       <c r="K51" s="2">
@@ -6326,7 +6326,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G52" s="2">
-        <f>E52+F52</f>
+        <f t="shared" si="2"/>
         <v>0.59190972222222216</v>
       </c>
       <c r="H52" s="2">
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <f>H52+I52</f>
+        <f t="shared" si="3"/>
         <v>0.61034722222222226</v>
       </c>
       <c r="K52" s="2">
@@ -6369,7 +6369,7 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G53" s="2">
-        <f>E53+F53</f>
+        <f t="shared" si="2"/>
         <v>0.59600694444444446</v>
       </c>
       <c r="H53" s="2">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <f>H53+I53</f>
+        <f t="shared" si="3"/>
         <v>0.61520833333333336</v>
       </c>
       <c r="K53" s="2">
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f>E54+F54</f>
+        <f t="shared" si="2"/>
         <v>0.59319444444444447</v>
       </c>
       <c r="H54" s="2">
@@ -6419,7 +6419,7 @@
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="J54" s="2">
-        <f>H54+I54</f>
+        <f t="shared" si="3"/>
         <v>0.61331018518518521</v>
       </c>
       <c r="K54" s="2">
@@ -6452,7 +6452,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G55" s="2">
-        <f>E55+F55</f>
+        <f t="shared" si="2"/>
         <v>0.5892708333333333</v>
       </c>
       <c r="H55" s="2">
@@ -6462,7 +6462,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="J55" s="2">
-        <f>H55+I55</f>
+        <f t="shared" si="3"/>
         <v>0.62306712962962962</v>
       </c>
       <c r="K55" s="2">
@@ -6492,7 +6492,7 @@
         <v>8.1018518518518516E-5</v>
       </c>
       <c r="G56" s="2">
-        <f>E56+F56</f>
+        <f t="shared" si="2"/>
         <v>0.59247685185185184</v>
       </c>
       <c r="H56" s="2">
@@ -6502,7 +6502,7 @@
         <v>3.4722222222222224E-4</v>
       </c>
       <c r="J56" s="2">
-        <f>H56+I56</f>
+        <f t="shared" si="3"/>
         <v>0.62722222222222224</v>
       </c>
       <c r="K56" s="2">
@@ -6535,7 +6535,7 @@
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="G57" s="2">
-        <f>E57+F57</f>
+        <f t="shared" si="2"/>
         <v>0.59207175925925926</v>
       </c>
       <c r="H57" s="2">
@@ -6545,7 +6545,7 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="J57" s="2">
-        <f>H57+I57</f>
+        <f t="shared" si="3"/>
         <v>0.62884259259259256</v>
       </c>
       <c r="K57" s="2">
@@ -6578,7 +6578,7 @@
         <v>1.6203703703703703E-4</v>
       </c>
       <c r="G58" s="2">
-        <f>E58+F58</f>
+        <f t="shared" si="2"/>
         <v>0.58773148148148147</v>
       </c>
       <c r="H58" s="2">
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <f>H58+I58</f>
+        <f t="shared" si="3"/>
         <v>0.62488425925925928</v>
       </c>
       <c r="K58" s="2">
@@ -6618,7 +6618,7 @@
         <v>1.6203703703703703E-4</v>
       </c>
       <c r="G59" s="2">
-        <f>E59+F59</f>
+        <f t="shared" si="2"/>
         <v>0.58773148148148147</v>
       </c>
       <c r="H59" s="2">
@@ -6628,7 +6628,7 @@
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="J59" s="2">
-        <f>H59+I59</f>
+        <f t="shared" si="3"/>
         <v>0.62641203703703696</v>
       </c>
       <c r="K59" s="2">
@@ -6661,7 +6661,7 @@
         <v>1.1574074074074073E-4</v>
       </c>
       <c r="G60" s="2">
-        <f>E60+F60</f>
+        <f t="shared" si="2"/>
         <v>0.5832060185185185</v>
       </c>
       <c r="H60" s="2">
@@ -6671,7 +6671,7 @@
         <v>9.2592592592592588E-5</v>
       </c>
       <c r="J60" s="2">
-        <f>H60+I60</f>
+        <f t="shared" si="3"/>
         <v>0.62922453703703707</v>
       </c>
       <c r="K60" s="2">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="2">
-        <f>E61+F61</f>
+        <f t="shared" si="2"/>
         <v>0.59319444444444447</v>
       </c>
       <c r="H61" s="2">
@@ -6711,7 +6711,7 @@
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="J61" s="2">
-        <f>H61+I61</f>
+        <f t="shared" si="3"/>
         <v>0.64684027777777775</v>
       </c>
       <c r="K61" s="2">
@@ -6744,7 +6744,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G62" s="2">
-        <f>E62+F62</f>
+        <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="H62" s="2">
@@ -6754,7 +6754,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="J62" s="2">
-        <f>H62+I62</f>
+        <f t="shared" si="3"/>
         <v>0.65803240740740732</v>
       </c>
       <c r="K62" s="2">
@@ -6787,7 +6787,7 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G63" s="2">
-        <f>E63+F63</f>
+        <f t="shared" si="2"/>
         <v>0.58726851851851847</v>
       </c>
       <c r="H63" s="2">
@@ -6797,7 +6797,7 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="J63" s="2">
-        <f>H63+I63</f>
+        <f t="shared" si="3"/>
         <v>0.66204861111111113</v>
       </c>
       <c r="K63" s="2">
@@ -6830,7 +6830,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G64" s="2">
-        <f>E64+F64</f>
+        <f t="shared" si="2"/>
         <v>0.59045138888888893</v>
       </c>
       <c r="H64" s="2">
@@ -6840,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <f>H64+I64</f>
+        <f t="shared" si="3"/>
         <v>0.69976851851851851</v>
       </c>
       <c r="K64" s="2">
@@ -6873,7 +6873,7 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G65" s="2">
-        <f>E65+F65</f>
+        <f t="shared" si="2"/>
         <v>0.59045138888888893</v>
       </c>
       <c r="H65" s="2">
@@ -6883,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="2">
-        <f>H65+I65</f>
+        <f t="shared" si="3"/>
         <v>0.74565972222222221</v>
       </c>
       <c r="K65" s="2">
@@ -6916,11 +6916,11 @@
         <v>5.0925925925925921E-4</v>
       </c>
       <c r="G66" s="2">
-        <f>E66+F66</f>
+        <f t="shared" ref="G66:G97" si="4">E66+F66</f>
         <v>0.59209490740740744</v>
       </c>
       <c r="J66" s="2">
-        <f>H66+I66</f>
+        <f t="shared" ref="J66:J97" si="5">H66+I66</f>
         <v>0</v>
       </c>
       <c r="K66" s="2"/>
@@ -6949,11 +6949,11 @@
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="G67" s="2">
-        <f>E67+F67</f>
+        <f t="shared" si="4"/>
         <v>0.58771990740740732</v>
       </c>
       <c r="J67" s="2">
-        <f>H67+I67</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
@@ -6981,11 +6981,11 @@
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="G68" s="2">
-        <f>E68+F68</f>
+        <f t="shared" si="4"/>
         <v>0.59207175925925926</v>
       </c>
       <c r="J68" s="2">
-        <f>H68+I68</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K68" s="2"/>
@@ -7013,11 +7013,11 @@
         <v>8.1018518518518516E-5</v>
       </c>
       <c r="G69" s="2">
-        <f>E69+F69</f>
+        <f t="shared" si="4"/>
         <v>0.59247685185185184</v>
       </c>
       <c r="J69" s="2">
-        <f>H69+I69</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K69" s="2"/>
@@ -7045,11 +7045,11 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="G70" s="2">
-        <f>E70+F70</f>
+        <f t="shared" si="4"/>
         <v>0.59449074074074082</v>
       </c>
       <c r="J70" s="2">
-        <f>H70+I70</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
@@ -7077,11 +7077,11 @@
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="G71" s="2">
-        <f>E71+F71</f>
+        <f t="shared" si="4"/>
         <v>0.59287037037037038</v>
       </c>
       <c r="J71" s="2">
-        <f>H71+I71</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K71" s="2"/>
@@ -7109,11 +7109,11 @@
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="G72" s="2">
-        <f>E72+F72</f>
+        <f t="shared" si="4"/>
         <v>0.58704861111111106</v>
       </c>
       <c r="J72" s="2">
-        <f>H72+I72</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K72" s="2"/>
@@ -7141,11 +7141,11 @@
         <v>1.7361111111111112E-4</v>
       </c>
       <c r="G73" s="2">
-        <f>E73+F73</f>
+        <f t="shared" si="4"/>
         <v>0.59681712962962963</v>
       </c>
       <c r="J73" s="2">
-        <f>H73+I73</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K73" s="2"/>
@@ -7173,11 +7173,11 @@
         <v>1.7361111111111112E-4</v>
       </c>
       <c r="G74" s="2">
-        <f>E74+F74</f>
+        <f t="shared" si="4"/>
         <v>0.59681712962962963</v>
       </c>
       <c r="J74" s="2">
-        <f>H74+I74</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
@@ -7205,11 +7205,11 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G75" s="2">
-        <f>E75+F75</f>
+        <f t="shared" si="4"/>
         <v>0.59081018518518524</v>
       </c>
       <c r="J75" s="2">
-        <f>H75+I75</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K75" s="2"/>
@@ -7237,11 +7237,11 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G76" s="2">
-        <f>E76+F76</f>
+        <f t="shared" si="4"/>
         <v>0.59081018518518524</v>
       </c>
       <c r="J76" s="2">
-        <f>H76+I76</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K76" s="2"/>
@@ -7269,11 +7269,11 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G77" s="2">
-        <f>E77+F77</f>
+        <f t="shared" si="4"/>
         <v>0.5971643518518519</v>
       </c>
       <c r="J77" s="2">
-        <f>H77+I77</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K77" s="2"/>
@@ -7301,11 +7301,11 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G78" s="2">
-        <f>E78+F78</f>
+        <f t="shared" si="4"/>
         <v>0.5971643518518519</v>
       </c>
       <c r="J78" s="2">
-        <f>H78+I78</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K78" s="2"/>
@@ -7333,11 +7333,11 @@
         <v>6.2500000000000001E-4</v>
       </c>
       <c r="G79" s="2">
-        <f>E79+F79</f>
+        <f t="shared" si="4"/>
         <v>0.5971643518518519</v>
       </c>
       <c r="J79" s="2">
-        <f>H79+I79</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K79" s="2"/>
@@ -7365,11 +7365,11 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G80" s="2">
-        <f>E80+F80</f>
+        <f t="shared" si="4"/>
         <v>0.59005787037037039</v>
       </c>
       <c r="J80" s="2">
-        <f>H80+I80</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K80" s="2"/>
@@ -7397,11 +7397,11 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G81" s="2">
-        <f>E81+F81</f>
+        <f t="shared" si="4"/>
         <v>0.60005787037037039</v>
       </c>
       <c r="J81" s="2">
-        <f>H81+I81</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K81" s="2"/>
@@ -7429,11 +7429,11 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G82" s="2">
-        <f>E82+F82</f>
+        <f t="shared" si="4"/>
         <v>0.60005787037037039</v>
       </c>
       <c r="J82" s="2">
-        <f>H82+I82</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K82" s="2"/>
@@ -7461,11 +7461,11 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G83" s="2">
-        <f>E83+F83</f>
+        <f t="shared" si="4"/>
         <v>0.59699074074074077</v>
       </c>
       <c r="J83" s="2">
-        <f>H83+I83</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K83" s="2"/>
@@ -7493,12 +7493,12 @@
         <v>0</v>
       </c>
       <c r="G84" s="2">
-        <f>E84+F84</f>
+        <f t="shared" si="4"/>
         <v>0.59870370370370374</v>
       </c>
       <c r="H84" s="2"/>
       <c r="J84" s="2">
-        <f>H84+I84</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K84" s="2"/>
@@ -7526,11 +7526,11 @@
         <v>2.3148148148148147E-5</v>
       </c>
       <c r="G85" s="2">
-        <f>E85+F85</f>
+        <f t="shared" si="4"/>
         <v>0.59600694444444446</v>
       </c>
       <c r="J85" s="2">
-        <f>H85+I85</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K85" s="2"/>
@@ -7558,12 +7558,12 @@
         <v>1.1574074074074073E-5</v>
       </c>
       <c r="G86" s="2">
-        <f>E86+F86</f>
+        <f t="shared" si="4"/>
         <v>0.5892708333333333</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2">
-        <f>H86+I86</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
@@ -7591,11 +7591,11 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G87" s="2">
-        <f>E87+F87</f>
+        <f t="shared" si="4"/>
         <v>0.59560185185185188</v>
       </c>
       <c r="J87" s="2">
-        <f>H87+I87</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K87" s="2"/>
@@ -7623,11 +7623,11 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G88" s="2">
-        <f>E88+F88</f>
+        <f t="shared" si="4"/>
         <v>0.59560185185185188</v>
       </c>
       <c r="J88" s="2">
-        <f>H88+I88</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K88" s="2"/>
@@ -7655,11 +7655,11 @@
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="G89" s="2">
-        <f>E89+F89</f>
+        <f t="shared" si="4"/>
         <v>0.59560185185185188</v>
       </c>
       <c r="J89" s="2">
-        <f>H89+I89</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K89" s="2"/>
@@ -7687,11 +7687,11 @@
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="G90" s="2">
-        <f>E90+F90</f>
+        <f t="shared" si="4"/>
         <v>0.59498842592592582</v>
       </c>
       <c r="J90" s="2">
-        <f>H90+I90</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
@@ -7719,11 +7719,11 @@
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="G91" s="2">
-        <f>E91+F91</f>
+        <f t="shared" si="4"/>
         <v>0.59447916666666656</v>
       </c>
       <c r="J91" s="2">
-        <f>H91+I91</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K91" s="2"/>
@@ -7751,11 +7751,11 @@
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="G92" s="2">
-        <f>E92+F92</f>
+        <f t="shared" si="4"/>
         <v>0.59447916666666656</v>
       </c>
       <c r="J92" s="2">
-        <f>H92+I92</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K92" s="2"/>
@@ -7783,11 +7783,11 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="G93" s="2">
-        <f>E93+F93</f>
+        <f t="shared" si="4"/>
         <v>0.58471064814814822</v>
       </c>
       <c r="J93" s="2">
-        <f>H93+I93</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K93" s="2"/>
@@ -7812,11 +7812,11 @@
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="G94" s="2">
-        <f>E94+F94</f>
+        <f t="shared" si="4"/>
         <v>0.58471064814814822</v>
       </c>
       <c r="J94" s="2">
-        <f>H94+I94</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K94" s="2"/>
@@ -14352,8 +14352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26EEE75-F3A4-4674-8EC5-0549BE0D9F3B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4575" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67014A20-6807-4EBC-89B9-9C5661B1BF58}"/>
+  <xr:revisionPtr revIDLastSave="4591" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{274DF3E0-2169-4B67-9BBD-FC74A221FEC9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="4" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="6" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2718" uniqueCount="422">
   <si>
     <t>Pen</t>
   </si>
@@ -1124,9 +1124,6 @@
     <t>Pacing in crate whole time processing others. Fighting and biting when handled and beak clacking. Kept standing and trying to flap.</t>
   </si>
   <si>
-    <t>Very docile except clacking when first handled.</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -1289,9 +1286,6 @@
     <t>Compiled from 6 successive 10 second recordings</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Pen28_4</t>
   </si>
   <si>
@@ -1311,6 +1305,9 @@
   </si>
   <si>
     <t>DNR</t>
+  </si>
+  <si>
+    <t>Calm except clacking when first handled.</t>
   </si>
 </sst>
 </file>
@@ -2673,7 +2670,7 @@
         <v>113</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>79</v>
@@ -2706,7 +2703,7 @@
         <v>135</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N20" s="11">
         <v>2</v>
@@ -2919,7 +2916,7 @@
         <v>134</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="3">
@@ -2929,7 +2926,7 @@
         <v>135</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N27" s="9">
         <v>32</v>
@@ -2958,7 +2955,7 @@
         <v>113</v>
       </c>
       <c r="M28" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>79</v>
@@ -2989,7 +2986,7 @@
         <v>134</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N29" s="11">
         <v>4</v>
@@ -6916,17 +6913,17 @@
         <v>5.0925925925925921E-4</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" ref="G66:G97" si="4">E66+F66</f>
+        <f t="shared" ref="G66:G94" si="4">E66+F66</f>
         <v>0.59209490740740744</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" ref="J66:J97" si="5">H66+I66</f>
+        <f t="shared" ref="J66:J94" si="5">H66+I66</f>
         <v>0</v>
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
@@ -6958,7 +6955,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="M67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -6990,7 +6987,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="M68" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
@@ -7054,7 +7051,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="M70" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
@@ -7086,7 +7083,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="M71" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -7118,7 +7115,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="M72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -7150,7 +7147,7 @@
       </c>
       <c r="K73" s="2"/>
       <c r="M73" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
@@ -7182,7 +7179,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="M74" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
@@ -7278,7 +7275,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="M77" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
@@ -7310,7 +7307,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="M78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
@@ -7342,7 +7339,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="M79" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
@@ -7374,7 +7371,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="M80" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
@@ -7841,7 +7838,7 @@
       <c r="K95" s="43"/>
       <c r="L95" s="45"/>
       <c r="M95" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -7864,7 +7861,7 @@
       <c r="K96" s="43"/>
       <c r="L96" s="45"/>
       <c r="M96" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.35">
@@ -7972,7 +7969,7 @@
       <c r="K100" s="43"/>
       <c r="L100" s="45"/>
       <c r="M100" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.35">
@@ -7995,7 +7992,7 @@
       <c r="K101" s="43"/>
       <c r="L101" s="45"/>
       <c r="M101" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.35">
@@ -8105,7 +8102,7 @@
       <c r="K105" s="43"/>
       <c r="L105" s="45"/>
       <c r="M105" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.35">
@@ -8128,7 +8125,7 @@
       <c r="K106" s="43"/>
       <c r="L106" s="45"/>
       <c r="M106" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.35">
@@ -8151,7 +8148,7 @@
       <c r="K107" s="43"/>
       <c r="L107" s="45"/>
       <c r="M107" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.35">
@@ -8174,7 +8171,7 @@
       <c r="K108" s="43"/>
       <c r="L108" s="45"/>
       <c r="M108" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.35">
@@ -8290,7 +8287,7 @@
       <c r="K112" s="43"/>
       <c r="L112" s="45"/>
       <c r="M112" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
@@ -8313,7 +8310,7 @@
       <c r="K113" s="43"/>
       <c r="L113" s="45"/>
       <c r="M113" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
@@ -8392,7 +8389,7 @@
       <c r="K116" s="43"/>
       <c r="L116" s="45"/>
       <c r="M116" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.35">
@@ -8415,7 +8412,7 @@
       <c r="K117" s="43"/>
       <c r="L117" s="45"/>
       <c r="M117" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.35">
@@ -8438,7 +8435,7 @@
       <c r="K118" s="43"/>
       <c r="L118" s="45"/>
       <c r="M118" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -8461,7 +8458,7 @@
       <c r="K119" s="43"/>
       <c r="L119" s="45"/>
       <c r="M119" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -8477,9 +8474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
   <dimension ref="A1:BN33"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BN19" sqref="BN19"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8688,7 +8685,7 @@
         <v>60</v>
       </c>
       <c r="BN1" s="18" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.35">
@@ -8702,7 +8699,7 @@
         <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="2">
         <v>0.55920138888888893</v>
@@ -8711,7 +8708,7 @@
         <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H2" t="s">
         <v>204</v>
@@ -8888,7 +8885,7 @@
         <v>185</v>
       </c>
       <c r="BN2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.35">
@@ -8902,7 +8899,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E3" s="2">
         <v>0.56187500000000001</v>
@@ -9088,7 +9085,7 @@
         <v>203</v>
       </c>
       <c r="BN3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.35">
@@ -9102,193 +9099,193 @@
         <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E4" s="2">
         <v>0.59918981481481481</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD4" t="s">
         <v>183</v>
       </c>
       <c r="AE4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AQ4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AR4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AS4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AT4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AX4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AZ4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BA4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BB4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BC4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BE4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BF4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BG4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BH4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BI4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BJ4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BK4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BL4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BM4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BN4" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.35">
@@ -9302,7 +9299,7 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E5" s="2">
         <v>0.63575231481481487</v>
@@ -9488,7 +9485,7 @@
         <v>185</v>
       </c>
       <c r="BN5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.35">
@@ -9502,7 +9499,7 @@
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E6" s="2">
         <v>0.62687499999999996</v>
@@ -9634,25 +9631,25 @@
         <v>204</v>
       </c>
       <c r="AV6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AW6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AX6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AY6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AZ6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BA6" t="s">
         <v>206</v>
       </c>
       <c r="BB6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="BC6" t="s">
         <v>185</v>
@@ -9688,7 +9685,7 @@
         <v>185</v>
       </c>
       <c r="BN6" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.35">
@@ -9702,7 +9699,7 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E7" s="2">
         <v>0.54880787037037038</v>
@@ -9888,7 +9885,7 @@
         <v>185</v>
       </c>
       <c r="BN7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.35">
@@ -9902,7 +9899,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" s="2">
         <v>0.54800925925925925</v>
@@ -10088,7 +10085,7 @@
         <v>184</v>
       </c>
       <c r="BN8" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.35">
@@ -10101,14 +10098,8 @@
       <c r="C9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
-        <v>415</v>
-      </c>
-      <c r="E9" t="s">
-        <v>415</v>
-      </c>
       <c r="BN9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.35">
@@ -10121,14 +10112,8 @@
       <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="D10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" t="s">
-        <v>415</v>
-      </c>
       <c r="BN10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:66" x14ac:dyDescent="0.35">
@@ -10142,7 +10127,7 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E11" s="2">
         <v>0.56469907407407405</v>
@@ -10196,16 +10181,16 @@
         <v>187</v>
       </c>
       <c r="V11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="W11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="X11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Y11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Z11" t="s">
         <v>185</v>
@@ -10328,7 +10313,7 @@
         <v>184</v>
       </c>
       <c r="BN11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:66" x14ac:dyDescent="0.35">
@@ -10342,7 +10327,7 @@
         <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E12" s="2">
         <v>0.56469907407407405</v>
@@ -10528,7 +10513,7 @@
         <v>185</v>
       </c>
       <c r="BN12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="13" spans="1:66" x14ac:dyDescent="0.35">
@@ -10542,7 +10527,7 @@
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E13" s="2">
         <v>0.57076388888888885</v>
@@ -10739,7 +10724,7 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E14" s="2">
         <v>0.59864583333333332</v>
@@ -10925,7 +10910,7 @@
         <v>203</v>
       </c>
       <c r="BN14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:66" x14ac:dyDescent="0.35">
@@ -10938,14 +10923,8 @@
       <c r="C15" t="s">
         <v>54</v>
       </c>
-      <c r="D15" t="s">
-        <v>415</v>
-      </c>
-      <c r="E15" t="s">
-        <v>415</v>
-      </c>
       <c r="BN15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:66" x14ac:dyDescent="0.35">
@@ -10959,55 +10938,55 @@
         <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E16" s="2">
         <v>0.52940972222222227</v>
       </c>
       <c r="F16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U16" t="s">
         <v>204</v>
@@ -11145,7 +11124,7 @@
         <v>184</v>
       </c>
       <c r="BN16" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:66" x14ac:dyDescent="0.35">
@@ -11159,7 +11138,7 @@
         <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17" s="2">
         <v>0.56912037037037033</v>
@@ -11356,7 +11335,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E18" s="2">
         <v>0.56357638888888884</v>
@@ -11542,7 +11521,7 @@
         <v>184</v>
       </c>
       <c r="BN18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:66" x14ac:dyDescent="0.35">
@@ -11555,12 +11534,6 @@
       <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="D19" t="s">
-        <v>415</v>
-      </c>
-      <c r="E19" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="20" spans="1:66" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -11573,34 +11546,34 @@
         <v>132</v>
       </c>
       <c r="D20" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E20" s="2">
         <v>0.6125694444444445</v>
       </c>
       <c r="F20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N20" t="s">
         <v>204</v>
@@ -11630,13 +11603,13 @@
         <v>204</v>
       </c>
       <c r="W20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="X20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z20" t="s">
         <v>204</v>
@@ -11759,7 +11732,7 @@
         <v>204</v>
       </c>
       <c r="BN20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:66" x14ac:dyDescent="0.35">
@@ -11773,7 +11746,7 @@
         <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E21" s="2">
         <v>0.6125694444444445</v>
@@ -11959,7 +11932,7 @@
         <v>184</v>
       </c>
       <c r="BN21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:66" x14ac:dyDescent="0.35">
@@ -11973,7 +11946,7 @@
         <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E22" s="2">
         <v>0.55733796296296301</v>
@@ -12170,7 +12143,7 @@
         <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="2">
         <v>0.55733796296296301</v>
@@ -12368,190 +12341,190 @@
         <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E24" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Z24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AD24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AE24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AH24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AI24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AJ24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AK24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AL24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AQ24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AR24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AS24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AT24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AX24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AZ24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BA24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BB24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BC24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BE24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BF24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BG24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BH24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BI24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BJ24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BK24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BL24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BM24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:66" x14ac:dyDescent="0.35">
@@ -12565,49 +12538,49 @@
         <v>91</v>
       </c>
       <c r="D25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E25" s="2">
         <v>0.5761574074074074</v>
       </c>
       <c r="F25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S25" t="s">
         <v>182</v>
@@ -12622,7 +12595,7 @@
         <v>182</v>
       </c>
       <c r="W25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X25" t="s">
         <v>184</v>
@@ -12667,88 +12640,88 @@
         <v>184</v>
       </c>
       <c r="AL25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AN25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AQ25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AR25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AS25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AT25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AU25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AV25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AX25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AY25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AZ25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BA25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BB25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BC25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BD25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BE25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BF25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BG25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BH25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BI25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BJ25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BK25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BL25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BM25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:66" x14ac:dyDescent="0.35">
@@ -12762,7 +12735,7 @@
         <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E26" s="2">
         <v>0.5761574074074074</v>
@@ -12959,7 +12932,7 @@
         <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E27" s="2">
         <v>0.57357638888888884</v>
@@ -13145,7 +13118,7 @@
         <v>185</v>
       </c>
       <c r="BN27" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:66" x14ac:dyDescent="0.35">
@@ -13159,7 +13132,7 @@
         <v>91</v>
       </c>
       <c r="D28" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E28" s="2">
         <v>0.57954861111111111</v>
@@ -13345,7 +13318,7 @@
         <v>185</v>
       </c>
       <c r="BN28" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="29" spans="1:66" x14ac:dyDescent="0.35">
@@ -13359,7 +13332,7 @@
         <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E29" s="2">
         <v>0.57518518518518513</v>
@@ -13545,7 +13518,7 @@
         <v>185</v>
       </c>
       <c r="BN29" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:66" x14ac:dyDescent="0.35">
@@ -13559,61 +13532,61 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E30" s="2">
         <v>0.55290509259259257</v>
       </c>
       <c r="F30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="T30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="V30" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W30" t="s">
         <v>184</v>
@@ -13756,7 +13729,7 @@
         <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E31" s="2">
         <v>0.56587962962962968</v>
@@ -13954,7 +13927,7 @@
         <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E32" s="2">
         <v>0.56521990740740746</v>
@@ -13966,16 +13939,16 @@
         <v>204</v>
       </c>
       <c r="H32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L32" t="s">
         <v>184</v>
@@ -14014,16 +13987,16 @@
         <v>184</v>
       </c>
       <c r="X32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Z32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AA32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB32" t="s">
         <v>184</v>
@@ -14035,13 +14008,13 @@
         <v>184</v>
       </c>
       <c r="AE32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AH32" t="s">
         <v>204</v>
@@ -14151,7 +14124,7 @@
         <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E33" s="2">
         <v>0.55215277777777783</v>
@@ -14352,7 +14325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26EEE75-F3A4-4674-8EC5-0549BE0D9F3B}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -14374,7 +14347,7 @@
         <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -14382,7 +14355,7 @@
         <v>184</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -14390,7 +14363,7 @@
         <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -14435,7 +14408,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s">
         <v>208</v>
@@ -14462,23 +14435,23 @@
         <v>206</v>
       </c>
       <c r="B13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -14573,17 +14546,17 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -14593,10 +14566,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89ADB1D2-32D7-4FCF-8C33-D3748CC31BDA}">
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14606,16 +14579,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -14629,7 +14602,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>360</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -14844,63 +14817,63 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1">
-        <v>44907</v>
+        <v>44854</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>44907</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>44907</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1">
         <v>44907</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>44907</v>
@@ -14909,12 +14882,12 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1">
         <v>44907</v>
@@ -14923,40 +14896,40 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1">
-        <v>45084</v>
+        <v>44907</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1">
         <v>45084</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B26" s="1">
         <v>45084</v>
@@ -14965,12 +14938,12 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B27" s="1">
         <v>45084</v>
@@ -14979,26 +14952,26 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B28" s="1">
-        <v>45085</v>
+        <v>45084</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="B29" s="1">
         <v>45085</v>
@@ -15007,26 +14980,26 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="B30" s="1">
         <v>45085</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>224</v>
       </c>
       <c r="B31" s="1">
         <v>45085</v>
@@ -15035,26 +15008,26 @@
         <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B32" s="1">
         <v>45085</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1">
         <v>45085</v>
@@ -15068,105 +15041,105 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
         <v>45085</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1">
-        <v>45086</v>
+        <v>45085</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B36" s="1">
         <v>45086</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="B37" s="1">
         <v>45086</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1">
         <v>45086</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <v>45086</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B40" s="1">
         <v>45086</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B41" s="1">
         <v>45086</v>
@@ -15175,12 +15148,12 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B42" s="1">
         <v>45086</v>
@@ -15189,68 +15162,68 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B43" s="1">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B44" s="1">
         <v>45087</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="B45" s="1">
         <v>45087</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="B46" s="1">
         <v>45087</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B47" s="1">
         <v>45087</v>
@@ -15259,12 +15232,12 @@
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B48" s="1">
         <v>45087</v>
@@ -15273,26 +15246,26 @@
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="B49" s="1">
-        <v>45088</v>
+        <v>45087</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1">
         <v>45088</v>
@@ -15301,12 +15274,12 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B51" s="1">
         <v>45088</v>
@@ -15315,40 +15288,40 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="B52" s="1">
         <v>45088</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1">
         <v>45088</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B54" s="1">
         <v>45088</v>
@@ -15357,40 +15330,40 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B55" s="1">
-        <v>45143</v>
+        <v>45088</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B56" s="1">
         <v>45143</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c r="B57" s="1">
         <v>45143</v>
@@ -15399,26 +15372,26 @@
         <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
-        <v>45146</v>
+        <v>45143</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
       <c r="B59" s="1">
         <v>45146</v>
@@ -15427,54 +15400,54 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1">
         <v>45146</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="B61" s="1">
         <v>45146</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1">
         <v>45146</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1">
         <v>45146</v>
@@ -15488,21 +15461,21 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="B64" s="1">
         <v>45146</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1">
         <v>45146</v>
@@ -15511,12 +15484,12 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>223</v>
+        <v>307</v>
       </c>
       <c r="B66" s="1">
         <v>45146</v>
@@ -15525,12 +15498,12 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B67" s="1">
         <v>45146</v>
@@ -15544,46 +15517,46 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
       <c r="B68" s="1">
-        <v>45147</v>
+        <v>45146</v>
       </c>
       <c r="C68">
         <v>2</v>
       </c>
+      <c r="D68" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B69" s="1">
         <v>45147</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69" t="s">
-        <v>304</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>226</v>
+        <v>38</v>
       </c>
       <c r="B70" s="1">
         <v>45147</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B71" s="1">
         <v>45147</v>
@@ -15597,7 +15570,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B72" s="1">
         <v>45147</v>
@@ -15606,12 +15579,12 @@
         <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B73" s="1">
         <v>45147</v>
@@ -15620,68 +15593,68 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="B74" s="1">
         <v>45147</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B75" s="1">
         <v>45147</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="B76" s="1">
-        <v>45197</v>
+        <v>45147</v>
       </c>
       <c r="C76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>233</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1">
         <v>45197</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="B78" s="1">
         <v>45197</v>
@@ -15690,54 +15663,54 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1">
         <v>45197</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" s="1">
-        <v>45198</v>
+        <v>45197</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B81" s="1">
         <v>45198</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B82" s="1">
         <v>45198</v>
@@ -15746,40 +15719,40 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B83" s="1">
         <v>45198</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B84" s="1">
         <v>45198</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="B85" s="1">
         <v>45198</v>
@@ -15788,40 +15761,40 @@
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B86" s="1">
-        <v>45301</v>
+        <v>45198</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B87" s="1">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="B88" s="1">
         <v>45302</v>
@@ -15835,105 +15808,105 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B89" s="1">
         <v>45302</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="B90" s="1">
         <v>45302</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B91" s="1">
         <v>45302</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>284</v>
       </c>
       <c r="B92" s="1">
         <v>45302</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="B93" s="1">
         <v>45302</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B94" s="1">
         <v>45302</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1">
         <v>45303</v>
@@ -15947,7 +15920,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B97" s="1">
         <v>45303</v>
@@ -15961,35 +15934,35 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B98" s="1">
         <v>45303</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B99" s="1">
         <v>45303</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B100" s="1">
         <v>45303</v>
@@ -16003,49 +15976,49 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>226</v>
+        <v>273</v>
       </c>
       <c r="B101" s="1">
-        <v>45304</v>
+        <v>45303</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B102" s="1">
         <v>45304</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="B103" s="1">
         <v>45304</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="B104" s="1">
         <v>45304</v>
@@ -16054,60 +16027,60 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B105" s="1">
         <v>45304</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
       <c r="B106" s="1">
         <v>45304</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="B107" s="1">
         <v>45304</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>267</v>
       </c>
       <c r="B108" s="1">
         <v>45304</v>
       </c>
       <c r="C108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D108" t="s">
         <v>261</v>
@@ -16115,13 +16088,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="B109" s="1">
         <v>45304</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
         <v>261</v>
@@ -16129,13 +16102,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="B110" s="1">
         <v>45304</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D110" t="s">
         <v>261</v>
@@ -16143,7 +16116,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="1">
         <v>45304</v>
@@ -16157,7 +16130,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="B112" s="1">
         <v>45304</v>
@@ -16171,13 +16144,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B113" s="1">
         <v>45304</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" t="s">
         <v>261</v>
@@ -16185,13 +16158,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="B114" s="1">
         <v>45304</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D114" t="s">
         <v>261</v>
@@ -16199,35 +16172,35 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="B115" s="1">
         <v>45304</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B116" s="1">
         <v>45304</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D116" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="B117" s="1">
         <v>45304</v>
@@ -16241,13 +16214,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>263</v>
+        <v>87</v>
       </c>
       <c r="B118" s="1">
         <v>45304</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
         <v>261</v>
@@ -16255,13 +16228,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B119" s="1">
         <v>45304</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>261</v>
@@ -16269,13 +16242,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="B120" s="1">
         <v>45304</v>
       </c>
       <c r="C120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" t="s">
         <v>261</v>
@@ -16283,7 +16256,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1">
         <v>45304</v>
@@ -16297,49 +16270,49 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>227</v>
+        <v>123</v>
       </c>
       <c r="B122" s="1">
-        <v>45305</v>
+        <v>45304</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B123" s="1">
         <v>45305</v>
       </c>
       <c r="C123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="B124" s="1">
-        <v>45306</v>
+        <v>45305</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="B125" s="1">
         <v>45306</v>
@@ -16348,26 +16321,26 @@
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="B126" s="1">
-        <v>45307</v>
+        <v>45306</v>
       </c>
       <c r="C126">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B127" s="1">
         <v>45307</v>
@@ -16381,7 +16354,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="B128" s="1">
         <v>45307</v>
@@ -16395,35 +16368,35 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="B129" s="1">
-        <v>45308</v>
+        <v>45307</v>
       </c>
       <c r="C129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B130" s="1">
-        <v>45309</v>
+        <v>45308</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B131" s="1">
         <v>45309</v>
@@ -16437,7 +16410,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
       <c r="B132" s="1">
         <v>45309</v>
@@ -16446,12 +16419,12 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="B133" s="1">
         <v>45309</v>
@@ -16460,6 +16433,20 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45309</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
         <v>254</v>
       </c>
     </row>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7000" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F23D0BE-15FD-4653-8726-81171A4C35A0}"/>
+  <xr:revisionPtr revIDLastSave="7892" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80F19F4-D87C-4A4C-82BA-7434E75F5325}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5748" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8011" uniqueCount="555">
   <si>
     <t>Pen</t>
   </si>
@@ -1614,6 +1614,99 @@
   </si>
   <si>
     <t>Pen23_21</t>
+  </si>
+  <si>
+    <t>Pen23_22</t>
+  </si>
+  <si>
+    <t>Pen23_23</t>
+  </si>
+  <si>
+    <t>Pen23_24</t>
+  </si>
+  <si>
+    <t>Pen23_25</t>
+  </si>
+  <si>
+    <t>Pen23_26</t>
+  </si>
+  <si>
+    <t>Pen23_27</t>
+  </si>
+  <si>
+    <t>Pen23_28</t>
+  </si>
+  <si>
+    <t>Pen23_29</t>
+  </si>
+  <si>
+    <t>Pen23_31</t>
+  </si>
+  <si>
+    <t>Investigating a flower</t>
+  </si>
+  <si>
+    <t>Pen23_32</t>
+  </si>
+  <si>
+    <t>Pen23_33</t>
+  </si>
+  <si>
+    <t>Pen23_34</t>
+  </si>
+  <si>
+    <t>Pen23_35</t>
+  </si>
+  <si>
+    <t>Pen23_36</t>
+  </si>
+  <si>
+    <t>Pen23_37</t>
+  </si>
+  <si>
+    <t>Pen23_39</t>
+  </si>
+  <si>
+    <t>Ate some plant material at the start</t>
+  </si>
+  <si>
+    <t>Pen28_3</t>
+  </si>
+  <si>
+    <t>Pen28_4</t>
+  </si>
+  <si>
+    <t>Pen28_5</t>
+  </si>
+  <si>
+    <t>Pen28_7</t>
+  </si>
+  <si>
+    <t>Pen28_8</t>
+  </si>
+  <si>
+    <t>Pen28_9</t>
+  </si>
+  <si>
+    <t>Pen28_10</t>
+  </si>
+  <si>
+    <t>Having a go at the leg flag under 'preening' code</t>
+  </si>
+  <si>
+    <t>Pen28_11</t>
+  </si>
+  <si>
+    <t>Can see stuck band</t>
+  </si>
+  <si>
+    <t>Pen28_12</t>
+  </si>
+  <si>
+    <t>Pen28_13</t>
+  </si>
+  <si>
+    <t>Pen28_18</t>
   </si>
 </sst>
 </file>
@@ -8784,11 +8877,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE146" sqref="AE146"/>
+      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23652,6 +23745,87 @@
       <c r="AI152" t="s">
         <v>184</v>
       </c>
+      <c r="AJ152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY152" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI152" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ152" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="153" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
@@ -23659,6 +23833,6786 @@
       </c>
       <c r="B153" t="s">
         <v>523</v>
+      </c>
+      <c r="C153" t="s">
+        <v>201</v>
+      </c>
+      <c r="D153" t="s">
+        <v>183</v>
+      </c>
+      <c r="E153" t="s">
+        <v>66</v>
+      </c>
+      <c r="F153" t="s">
+        <v>183</v>
+      </c>
+      <c r="G153" t="s">
+        <v>183</v>
+      </c>
+      <c r="H153" t="s">
+        <v>183</v>
+      </c>
+      <c r="I153" t="s">
+        <v>183</v>
+      </c>
+      <c r="J153" t="s">
+        <v>183</v>
+      </c>
+      <c r="K153" t="s">
+        <v>183</v>
+      </c>
+      <c r="L153" t="s">
+        <v>66</v>
+      </c>
+      <c r="M153" t="s">
+        <v>66</v>
+      </c>
+      <c r="N153" t="s">
+        <v>66</v>
+      </c>
+      <c r="O153" t="s">
+        <v>66</v>
+      </c>
+      <c r="P153" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>183</v>
+      </c>
+      <c r="R153" t="s">
+        <v>183</v>
+      </c>
+      <c r="S153" t="s">
+        <v>66</v>
+      </c>
+      <c r="T153" t="s">
+        <v>184</v>
+      </c>
+      <c r="U153" t="s">
+        <v>184</v>
+      </c>
+      <c r="V153" t="s">
+        <v>184</v>
+      </c>
+      <c r="W153" t="s">
+        <v>184</v>
+      </c>
+      <c r="X153" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX153" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY153" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI153" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>40</v>
+      </c>
+      <c r="B154" t="s">
+        <v>523</v>
+      </c>
+      <c r="C154" t="s">
+        <v>184</v>
+      </c>
+      <c r="D154" t="s">
+        <v>184</v>
+      </c>
+      <c r="E154" t="s">
+        <v>184</v>
+      </c>
+      <c r="F154" t="s">
+        <v>184</v>
+      </c>
+      <c r="G154" t="s">
+        <v>184</v>
+      </c>
+      <c r="H154" t="s">
+        <v>184</v>
+      </c>
+      <c r="I154" t="s">
+        <v>184</v>
+      </c>
+      <c r="J154" t="s">
+        <v>184</v>
+      </c>
+      <c r="K154" t="s">
+        <v>184</v>
+      </c>
+      <c r="L154" t="s">
+        <v>184</v>
+      </c>
+      <c r="M154" t="s">
+        <v>184</v>
+      </c>
+      <c r="N154" t="s">
+        <v>184</v>
+      </c>
+      <c r="O154" t="s">
+        <v>184</v>
+      </c>
+      <c r="P154" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>184</v>
+      </c>
+      <c r="R154" t="s">
+        <v>66</v>
+      </c>
+      <c r="S154" t="s">
+        <v>183</v>
+      </c>
+      <c r="T154" t="s">
+        <v>183</v>
+      </c>
+      <c r="U154" t="s">
+        <v>183</v>
+      </c>
+      <c r="V154" t="s">
+        <v>66</v>
+      </c>
+      <c r="W154" t="s">
+        <v>66</v>
+      </c>
+      <c r="X154" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AS154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY154" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE154" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF154" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG154" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH154" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI154" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>40</v>
+      </c>
+      <c r="B155" t="s">
+        <v>524</v>
+      </c>
+      <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>184</v>
+      </c>
+      <c r="E155" t="s">
+        <v>184</v>
+      </c>
+      <c r="F155" t="s">
+        <v>184</v>
+      </c>
+      <c r="G155" t="s">
+        <v>184</v>
+      </c>
+      <c r="H155" t="s">
+        <v>184</v>
+      </c>
+      <c r="I155" t="s">
+        <v>184</v>
+      </c>
+      <c r="J155" t="s">
+        <v>184</v>
+      </c>
+      <c r="K155" t="s">
+        <v>184</v>
+      </c>
+      <c r="L155" t="s">
+        <v>184</v>
+      </c>
+      <c r="M155" t="s">
+        <v>184</v>
+      </c>
+      <c r="N155" t="s">
+        <v>184</v>
+      </c>
+      <c r="O155" t="s">
+        <v>184</v>
+      </c>
+      <c r="P155" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>184</v>
+      </c>
+      <c r="R155" t="s">
+        <v>184</v>
+      </c>
+      <c r="S155" t="s">
+        <v>184</v>
+      </c>
+      <c r="T155" t="s">
+        <v>184</v>
+      </c>
+      <c r="U155" t="s">
+        <v>184</v>
+      </c>
+      <c r="V155" t="s">
+        <v>184</v>
+      </c>
+      <c r="W155" t="s">
+        <v>184</v>
+      </c>
+      <c r="X155" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT155" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU155" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV155" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW155" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX155" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY155" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA155" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF155" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG155" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI155" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" t="s">
+        <v>525</v>
+      </c>
+      <c r="C156" t="s">
+        <v>184</v>
+      </c>
+      <c r="D156" t="s">
+        <v>184</v>
+      </c>
+      <c r="E156" t="s">
+        <v>184</v>
+      </c>
+      <c r="F156" t="s">
+        <v>66</v>
+      </c>
+      <c r="G156" t="s">
+        <v>66</v>
+      </c>
+      <c r="H156" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156" t="s">
+        <v>183</v>
+      </c>
+      <c r="J156" t="s">
+        <v>183</v>
+      </c>
+      <c r="K156" t="s">
+        <v>183</v>
+      </c>
+      <c r="L156" t="s">
+        <v>183</v>
+      </c>
+      <c r="M156" t="s">
+        <v>183</v>
+      </c>
+      <c r="N156" t="s">
+        <v>183</v>
+      </c>
+      <c r="O156" t="s">
+        <v>183</v>
+      </c>
+      <c r="P156" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>183</v>
+      </c>
+      <c r="R156" t="s">
+        <v>183</v>
+      </c>
+      <c r="S156" t="s">
+        <v>183</v>
+      </c>
+      <c r="T156" t="s">
+        <v>183</v>
+      </c>
+      <c r="U156" t="s">
+        <v>183</v>
+      </c>
+      <c r="V156" t="s">
+        <v>183</v>
+      </c>
+      <c r="W156" t="s">
+        <v>183</v>
+      </c>
+      <c r="X156" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA156" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN156" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO156" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP156" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY156" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI156" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>40</v>
+      </c>
+      <c r="B157" t="s">
+        <v>525</v>
+      </c>
+      <c r="C157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D157" t="s">
+        <v>201</v>
+      </c>
+      <c r="E157" t="s">
+        <v>201</v>
+      </c>
+      <c r="F157" t="s">
+        <v>201</v>
+      </c>
+      <c r="G157" t="s">
+        <v>201</v>
+      </c>
+      <c r="H157" t="s">
+        <v>66</v>
+      </c>
+      <c r="I157" t="s">
+        <v>204</v>
+      </c>
+      <c r="J157" t="s">
+        <v>183</v>
+      </c>
+      <c r="K157" t="s">
+        <v>202</v>
+      </c>
+      <c r="L157" t="s">
+        <v>202</v>
+      </c>
+      <c r="M157" t="s">
+        <v>202</v>
+      </c>
+      <c r="N157" t="s">
+        <v>202</v>
+      </c>
+      <c r="O157" t="s">
+        <v>66</v>
+      </c>
+      <c r="P157" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>183</v>
+      </c>
+      <c r="R157" t="s">
+        <v>183</v>
+      </c>
+      <c r="S157" t="s">
+        <v>183</v>
+      </c>
+      <c r="T157" t="s">
+        <v>183</v>
+      </c>
+      <c r="U157" t="s">
+        <v>183</v>
+      </c>
+      <c r="V157" t="s">
+        <v>183</v>
+      </c>
+      <c r="W157" t="s">
+        <v>183</v>
+      </c>
+      <c r="X157" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA157" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY157" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI157" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ157" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" t="s">
+        <v>526</v>
+      </c>
+      <c r="C158" t="s">
+        <v>184</v>
+      </c>
+      <c r="D158" t="s">
+        <v>184</v>
+      </c>
+      <c r="E158" t="s">
+        <v>184</v>
+      </c>
+      <c r="F158" t="s">
+        <v>184</v>
+      </c>
+      <c r="G158" t="s">
+        <v>184</v>
+      </c>
+      <c r="H158" t="s">
+        <v>184</v>
+      </c>
+      <c r="I158" t="s">
+        <v>184</v>
+      </c>
+      <c r="J158" t="s">
+        <v>184</v>
+      </c>
+      <c r="K158" t="s">
+        <v>184</v>
+      </c>
+      <c r="L158" t="s">
+        <v>184</v>
+      </c>
+      <c r="M158" t="s">
+        <v>184</v>
+      </c>
+      <c r="N158" t="s">
+        <v>184</v>
+      </c>
+      <c r="O158" t="s">
+        <v>184</v>
+      </c>
+      <c r="P158" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>184</v>
+      </c>
+      <c r="R158" t="s">
+        <v>184</v>
+      </c>
+      <c r="S158" t="s">
+        <v>184</v>
+      </c>
+      <c r="T158" t="s">
+        <v>184</v>
+      </c>
+      <c r="U158" t="s">
+        <v>184</v>
+      </c>
+      <c r="V158" t="s">
+        <v>184</v>
+      </c>
+      <c r="W158" t="s">
+        <v>184</v>
+      </c>
+      <c r="X158" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY158" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI158" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>40</v>
+      </c>
+      <c r="B159" t="s">
+        <v>526</v>
+      </c>
+      <c r="C159" t="s">
+        <v>66</v>
+      </c>
+      <c r="D159" t="s">
+        <v>66</v>
+      </c>
+      <c r="E159" t="s">
+        <v>66</v>
+      </c>
+      <c r="F159" t="s">
+        <v>183</v>
+      </c>
+      <c r="G159" t="s">
+        <v>183</v>
+      </c>
+      <c r="H159" t="s">
+        <v>183</v>
+      </c>
+      <c r="I159" t="s">
+        <v>183</v>
+      </c>
+      <c r="J159" t="s">
+        <v>183</v>
+      </c>
+      <c r="K159" t="s">
+        <v>183</v>
+      </c>
+      <c r="L159" t="s">
+        <v>183</v>
+      </c>
+      <c r="M159" t="s">
+        <v>183</v>
+      </c>
+      <c r="N159" t="s">
+        <v>66</v>
+      </c>
+      <c r="O159" t="s">
+        <v>184</v>
+      </c>
+      <c r="P159" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>184</v>
+      </c>
+      <c r="R159" t="s">
+        <v>184</v>
+      </c>
+      <c r="S159" t="s">
+        <v>184</v>
+      </c>
+      <c r="T159" t="s">
+        <v>184</v>
+      </c>
+      <c r="U159" t="s">
+        <v>184</v>
+      </c>
+      <c r="V159" t="s">
+        <v>184</v>
+      </c>
+      <c r="W159" t="s">
+        <v>184</v>
+      </c>
+      <c r="X159" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY159" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI159" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" t="s">
+        <v>527</v>
+      </c>
+      <c r="C160" t="s">
+        <v>66</v>
+      </c>
+      <c r="D160" t="s">
+        <v>183</v>
+      </c>
+      <c r="E160" t="s">
+        <v>183</v>
+      </c>
+      <c r="F160" t="s">
+        <v>183</v>
+      </c>
+      <c r="G160" t="s">
+        <v>183</v>
+      </c>
+      <c r="H160" t="s">
+        <v>183</v>
+      </c>
+      <c r="I160" t="s">
+        <v>66</v>
+      </c>
+      <c r="J160" t="s">
+        <v>66</v>
+      </c>
+      <c r="K160" t="s">
+        <v>66</v>
+      </c>
+      <c r="L160" t="s">
+        <v>183</v>
+      </c>
+      <c r="M160" t="s">
+        <v>66</v>
+      </c>
+      <c r="N160" t="s">
+        <v>184</v>
+      </c>
+      <c r="O160" t="s">
+        <v>184</v>
+      </c>
+      <c r="P160" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>184</v>
+      </c>
+      <c r="R160" t="s">
+        <v>184</v>
+      </c>
+      <c r="S160" t="s">
+        <v>184</v>
+      </c>
+      <c r="T160" t="s">
+        <v>184</v>
+      </c>
+      <c r="U160" t="s">
+        <v>184</v>
+      </c>
+      <c r="V160" t="s">
+        <v>184</v>
+      </c>
+      <c r="W160" t="s">
+        <v>184</v>
+      </c>
+      <c r="X160" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY160" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI160" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>40</v>
+      </c>
+      <c r="B161" t="s">
+        <v>527</v>
+      </c>
+      <c r="C161" t="s">
+        <v>183</v>
+      </c>
+      <c r="D161" t="s">
+        <v>183</v>
+      </c>
+      <c r="E161" t="s">
+        <v>183</v>
+      </c>
+      <c r="F161" t="s">
+        <v>183</v>
+      </c>
+      <c r="G161" t="s">
+        <v>183</v>
+      </c>
+      <c r="H161" t="s">
+        <v>183</v>
+      </c>
+      <c r="I161" t="s">
+        <v>183</v>
+      </c>
+      <c r="J161" t="s">
+        <v>183</v>
+      </c>
+      <c r="K161" t="s">
+        <v>183</v>
+      </c>
+      <c r="L161" t="s">
+        <v>183</v>
+      </c>
+      <c r="M161" t="s">
+        <v>183</v>
+      </c>
+      <c r="N161" t="s">
+        <v>183</v>
+      </c>
+      <c r="O161" t="s">
+        <v>183</v>
+      </c>
+      <c r="P161" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>183</v>
+      </c>
+      <c r="R161" t="s">
+        <v>183</v>
+      </c>
+      <c r="S161" t="s">
+        <v>183</v>
+      </c>
+      <c r="T161" t="s">
+        <v>182</v>
+      </c>
+      <c r="U161" t="s">
+        <v>182</v>
+      </c>
+      <c r="V161" t="s">
+        <v>182</v>
+      </c>
+      <c r="W161" t="s">
+        <v>182</v>
+      </c>
+      <c r="X161" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA161" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ161" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT161" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU161" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY161" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ161" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG161" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH161" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI161" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ161" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>40</v>
+      </c>
+      <c r="B162" t="s">
+        <v>528</v>
+      </c>
+      <c r="C162" t="s">
+        <v>66</v>
+      </c>
+      <c r="D162" t="s">
+        <v>183</v>
+      </c>
+      <c r="E162" t="s">
+        <v>66</v>
+      </c>
+      <c r="F162" t="s">
+        <v>183</v>
+      </c>
+      <c r="G162" t="s">
+        <v>66</v>
+      </c>
+      <c r="H162" t="s">
+        <v>183</v>
+      </c>
+      <c r="I162" t="s">
+        <v>66</v>
+      </c>
+      <c r="J162" t="s">
+        <v>66</v>
+      </c>
+      <c r="K162" t="s">
+        <v>183</v>
+      </c>
+      <c r="L162" t="s">
+        <v>66</v>
+      </c>
+      <c r="M162" t="s">
+        <v>183</v>
+      </c>
+      <c r="N162" t="s">
+        <v>66</v>
+      </c>
+      <c r="O162" t="s">
+        <v>183</v>
+      </c>
+      <c r="P162" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>183</v>
+      </c>
+      <c r="R162" t="s">
+        <v>183</v>
+      </c>
+      <c r="S162" t="s">
+        <v>202</v>
+      </c>
+      <c r="T162" t="s">
+        <v>183</v>
+      </c>
+      <c r="U162" t="s">
+        <v>183</v>
+      </c>
+      <c r="V162" t="s">
+        <v>183</v>
+      </c>
+      <c r="W162" t="s">
+        <v>183</v>
+      </c>
+      <c r="X162" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH162" t="s">
+        <v>186</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY162" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ162" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA162" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB162" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC162" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD162" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE162" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF162" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG162" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH162" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI162" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" t="s">
+        <v>529</v>
+      </c>
+      <c r="C163" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" t="s">
+        <v>66</v>
+      </c>
+      <c r="E163" t="s">
+        <v>66</v>
+      </c>
+      <c r="F163" t="s">
+        <v>183</v>
+      </c>
+      <c r="G163" t="s">
+        <v>183</v>
+      </c>
+      <c r="H163" t="s">
+        <v>183</v>
+      </c>
+      <c r="I163" t="s">
+        <v>66</v>
+      </c>
+      <c r="J163" t="s">
+        <v>183</v>
+      </c>
+      <c r="K163" t="s">
+        <v>66</v>
+      </c>
+      <c r="L163" t="s">
+        <v>184</v>
+      </c>
+      <c r="M163" t="s">
+        <v>184</v>
+      </c>
+      <c r="N163" t="s">
+        <v>184</v>
+      </c>
+      <c r="O163" t="s">
+        <v>184</v>
+      </c>
+      <c r="P163" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>184</v>
+      </c>
+      <c r="R163" t="s">
+        <v>184</v>
+      </c>
+      <c r="S163" t="s">
+        <v>184</v>
+      </c>
+      <c r="T163" t="s">
+        <v>184</v>
+      </c>
+      <c r="U163" t="s">
+        <v>184</v>
+      </c>
+      <c r="V163" t="s">
+        <v>184</v>
+      </c>
+      <c r="W163" t="s">
+        <v>184</v>
+      </c>
+      <c r="X163" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY163" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI163" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>40</v>
+      </c>
+      <c r="B164" t="s">
+        <v>529</v>
+      </c>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" t="s">
+        <v>184</v>
+      </c>
+      <c r="E164" t="s">
+        <v>184</v>
+      </c>
+      <c r="F164" t="s">
+        <v>184</v>
+      </c>
+      <c r="G164" t="s">
+        <v>184</v>
+      </c>
+      <c r="H164" t="s">
+        <v>184</v>
+      </c>
+      <c r="I164" t="s">
+        <v>184</v>
+      </c>
+      <c r="J164" t="s">
+        <v>184</v>
+      </c>
+      <c r="K164" t="s">
+        <v>184</v>
+      </c>
+      <c r="L164" t="s">
+        <v>184</v>
+      </c>
+      <c r="M164" t="s">
+        <v>184</v>
+      </c>
+      <c r="N164" t="s">
+        <v>184</v>
+      </c>
+      <c r="O164" t="s">
+        <v>184</v>
+      </c>
+      <c r="P164" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>184</v>
+      </c>
+      <c r="R164" t="s">
+        <v>184</v>
+      </c>
+      <c r="S164" t="s">
+        <v>184</v>
+      </c>
+      <c r="T164" t="s">
+        <v>184</v>
+      </c>
+      <c r="U164" t="s">
+        <v>184</v>
+      </c>
+      <c r="V164" t="s">
+        <v>184</v>
+      </c>
+      <c r="W164" t="s">
+        <v>184</v>
+      </c>
+      <c r="X164" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS164" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT164" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU164" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV164" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY164" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI164" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ164" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
+        <v>530</v>
+      </c>
+      <c r="C165" t="s">
+        <v>201</v>
+      </c>
+      <c r="D165" t="s">
+        <v>201</v>
+      </c>
+      <c r="E165" t="s">
+        <v>201</v>
+      </c>
+      <c r="F165" t="s">
+        <v>201</v>
+      </c>
+      <c r="G165" t="s">
+        <v>183</v>
+      </c>
+      <c r="H165" t="s">
+        <v>201</v>
+      </c>
+      <c r="I165" t="s">
+        <v>201</v>
+      </c>
+      <c r="J165" t="s">
+        <v>201</v>
+      </c>
+      <c r="K165" t="s">
+        <v>201</v>
+      </c>
+      <c r="L165" t="s">
+        <v>201</v>
+      </c>
+      <c r="M165" t="s">
+        <v>395</v>
+      </c>
+      <c r="N165" t="s">
+        <v>183</v>
+      </c>
+      <c r="O165" t="s">
+        <v>183</v>
+      </c>
+      <c r="P165" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>183</v>
+      </c>
+      <c r="R165" t="s">
+        <v>186</v>
+      </c>
+      <c r="S165" t="s">
+        <v>183</v>
+      </c>
+      <c r="T165" t="s">
+        <v>183</v>
+      </c>
+      <c r="U165" t="s">
+        <v>183</v>
+      </c>
+      <c r="V165" t="s">
+        <v>66</v>
+      </c>
+      <c r="W165" t="s">
+        <v>66</v>
+      </c>
+      <c r="X165" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY165" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI165" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ165" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>40</v>
+      </c>
+      <c r="B166" t="s">
+        <v>531</v>
+      </c>
+      <c r="C166" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" t="s">
+        <v>66</v>
+      </c>
+      <c r="E166" t="s">
+        <v>201</v>
+      </c>
+      <c r="F166" t="s">
+        <v>201</v>
+      </c>
+      <c r="G166" t="s">
+        <v>201</v>
+      </c>
+      <c r="H166" t="s">
+        <v>201</v>
+      </c>
+      <c r="I166" t="s">
+        <v>201</v>
+      </c>
+      <c r="J166" t="s">
+        <v>201</v>
+      </c>
+      <c r="K166" t="s">
+        <v>201</v>
+      </c>
+      <c r="L166" t="s">
+        <v>201</v>
+      </c>
+      <c r="M166" t="s">
+        <v>201</v>
+      </c>
+      <c r="N166" t="s">
+        <v>183</v>
+      </c>
+      <c r="O166" t="s">
+        <v>183</v>
+      </c>
+      <c r="P166" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>183</v>
+      </c>
+      <c r="R166" t="s">
+        <v>201</v>
+      </c>
+      <c r="S166" t="s">
+        <v>201</v>
+      </c>
+      <c r="T166" t="s">
+        <v>201</v>
+      </c>
+      <c r="U166" t="s">
+        <v>183</v>
+      </c>
+      <c r="V166" t="s">
+        <v>183</v>
+      </c>
+      <c r="W166" t="s">
+        <v>183</v>
+      </c>
+      <c r="X166" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY166" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI166" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ166" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>532</v>
+      </c>
+      <c r="C167" t="s">
+        <v>181</v>
+      </c>
+      <c r="D167" t="s">
+        <v>183</v>
+      </c>
+      <c r="E167" t="s">
+        <v>183</v>
+      </c>
+      <c r="F167" t="s">
+        <v>183</v>
+      </c>
+      <c r="G167" t="s">
+        <v>183</v>
+      </c>
+      <c r="H167" t="s">
+        <v>66</v>
+      </c>
+      <c r="I167" t="s">
+        <v>184</v>
+      </c>
+      <c r="J167" t="s">
+        <v>184</v>
+      </c>
+      <c r="K167" t="s">
+        <v>184</v>
+      </c>
+      <c r="L167" t="s">
+        <v>184</v>
+      </c>
+      <c r="M167" t="s">
+        <v>184</v>
+      </c>
+      <c r="N167" t="s">
+        <v>184</v>
+      </c>
+      <c r="O167" t="s">
+        <v>184</v>
+      </c>
+      <c r="P167" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>184</v>
+      </c>
+      <c r="R167" t="s">
+        <v>184</v>
+      </c>
+      <c r="S167" t="s">
+        <v>184</v>
+      </c>
+      <c r="T167" t="s">
+        <v>184</v>
+      </c>
+      <c r="U167" t="s">
+        <v>184</v>
+      </c>
+      <c r="V167" t="s">
+        <v>184</v>
+      </c>
+      <c r="W167" t="s">
+        <v>184</v>
+      </c>
+      <c r="X167" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY167" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI167" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ167" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>40</v>
+      </c>
+      <c r="B168" t="s">
+        <v>532</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+      <c r="D168" t="s">
+        <v>66</v>
+      </c>
+      <c r="E168" t="s">
+        <v>183</v>
+      </c>
+      <c r="F168" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168" t="s">
+        <v>183</v>
+      </c>
+      <c r="H168" t="s">
+        <v>183</v>
+      </c>
+      <c r="I168" t="s">
+        <v>183</v>
+      </c>
+      <c r="J168" t="s">
+        <v>201</v>
+      </c>
+      <c r="K168" t="s">
+        <v>183</v>
+      </c>
+      <c r="L168" t="s">
+        <v>183</v>
+      </c>
+      <c r="M168" t="s">
+        <v>183</v>
+      </c>
+      <c r="N168" t="s">
+        <v>66</v>
+      </c>
+      <c r="O168" t="s">
+        <v>66</v>
+      </c>
+      <c r="P168" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>183</v>
+      </c>
+      <c r="R168" t="s">
+        <v>183</v>
+      </c>
+      <c r="S168" t="s">
+        <v>183</v>
+      </c>
+      <c r="T168" t="s">
+        <v>66</v>
+      </c>
+      <c r="U168" t="s">
+        <v>66</v>
+      </c>
+      <c r="V168" t="s">
+        <v>201</v>
+      </c>
+      <c r="W168" t="s">
+        <v>201</v>
+      </c>
+      <c r="X168" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK168" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" t="s">
+        <v>534</v>
+      </c>
+      <c r="C169" t="s">
+        <v>183</v>
+      </c>
+      <c r="D169" t="s">
+        <v>183</v>
+      </c>
+      <c r="E169" t="s">
+        <v>183</v>
+      </c>
+      <c r="F169" t="s">
+        <v>183</v>
+      </c>
+      <c r="G169" t="s">
+        <v>183</v>
+      </c>
+      <c r="H169" t="s">
+        <v>183</v>
+      </c>
+      <c r="I169" t="s">
+        <v>66</v>
+      </c>
+      <c r="J169" t="s">
+        <v>66</v>
+      </c>
+      <c r="K169" t="s">
+        <v>201</v>
+      </c>
+      <c r="L169" t="s">
+        <v>201</v>
+      </c>
+      <c r="M169" t="s">
+        <v>201</v>
+      </c>
+      <c r="N169" t="s">
+        <v>201</v>
+      </c>
+      <c r="O169" t="s">
+        <v>201</v>
+      </c>
+      <c r="P169" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>183</v>
+      </c>
+      <c r="R169" t="s">
+        <v>202</v>
+      </c>
+      <c r="S169" t="s">
+        <v>183</v>
+      </c>
+      <c r="T169" t="s">
+        <v>183</v>
+      </c>
+      <c r="U169" t="s">
+        <v>183</v>
+      </c>
+      <c r="V169" t="s">
+        <v>183</v>
+      </c>
+      <c r="W169" t="s">
+        <v>183</v>
+      </c>
+      <c r="X169" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>395</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AP169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AS169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AT169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AW169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY169" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BD169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BE169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BF169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BG169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BH169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI169" t="s">
+        <v>384</v>
+      </c>
+      <c r="BJ169" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>40</v>
+      </c>
+      <c r="B170" t="s">
+        <v>534</v>
+      </c>
+      <c r="C170" t="s">
+        <v>201</v>
+      </c>
+      <c r="D170" t="s">
+        <v>201</v>
+      </c>
+      <c r="E170" t="s">
+        <v>66</v>
+      </c>
+      <c r="F170" t="s">
+        <v>66</v>
+      </c>
+      <c r="G170" t="s">
+        <v>201</v>
+      </c>
+      <c r="H170" t="s">
+        <v>201</v>
+      </c>
+      <c r="I170" t="s">
+        <v>183</v>
+      </c>
+      <c r="J170" t="s">
+        <v>183</v>
+      </c>
+      <c r="K170" t="s">
+        <v>202</v>
+      </c>
+      <c r="L170" t="s">
+        <v>183</v>
+      </c>
+      <c r="M170" t="s">
+        <v>183</v>
+      </c>
+      <c r="N170" t="s">
+        <v>183</v>
+      </c>
+      <c r="O170" t="s">
+        <v>183</v>
+      </c>
+      <c r="P170" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>183</v>
+      </c>
+      <c r="R170" t="s">
+        <v>183</v>
+      </c>
+      <c r="S170" t="s">
+        <v>183</v>
+      </c>
+      <c r="T170" t="s">
+        <v>183</v>
+      </c>
+      <c r="U170" t="s">
+        <v>183</v>
+      </c>
+      <c r="V170" t="s">
+        <v>183</v>
+      </c>
+      <c r="W170" t="s">
+        <v>183</v>
+      </c>
+      <c r="X170" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AP170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AQ170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AR170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AS170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AT170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AV170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AW170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AX170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AY170" t="s">
+        <v>384</v>
+      </c>
+      <c r="AZ170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BA170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BB170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BC170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BD170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BE170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BF170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BG170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BH170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI170" t="s">
+        <v>384</v>
+      </c>
+      <c r="BJ170" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" t="s">
+        <v>535</v>
+      </c>
+      <c r="C171" t="s">
+        <v>384</v>
+      </c>
+      <c r="D171" t="s">
+        <v>384</v>
+      </c>
+      <c r="E171" t="s">
+        <v>384</v>
+      </c>
+      <c r="F171" t="s">
+        <v>384</v>
+      </c>
+      <c r="G171" t="s">
+        <v>384</v>
+      </c>
+      <c r="H171" t="s">
+        <v>384</v>
+      </c>
+      <c r="I171" t="s">
+        <v>384</v>
+      </c>
+      <c r="J171" t="s">
+        <v>384</v>
+      </c>
+      <c r="K171" t="s">
+        <v>384</v>
+      </c>
+      <c r="L171" t="s">
+        <v>384</v>
+      </c>
+      <c r="M171" t="s">
+        <v>384</v>
+      </c>
+      <c r="N171" t="s">
+        <v>384</v>
+      </c>
+      <c r="O171" t="s">
+        <v>384</v>
+      </c>
+      <c r="P171" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>384</v>
+      </c>
+      <c r="R171" t="s">
+        <v>384</v>
+      </c>
+      <c r="S171" t="s">
+        <v>183</v>
+      </c>
+      <c r="T171" t="s">
+        <v>183</v>
+      </c>
+      <c r="U171" t="s">
+        <v>183</v>
+      </c>
+      <c r="V171" t="s">
+        <v>183</v>
+      </c>
+      <c r="W171" t="s">
+        <v>183</v>
+      </c>
+      <c r="X171" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW171" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX171" t="s">
+        <v>202</v>
+      </c>
+      <c r="AY171" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI171" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ171" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="B172" t="s">
+        <v>535</v>
+      </c>
+      <c r="C172" t="s">
+        <v>384</v>
+      </c>
+      <c r="D172" t="s">
+        <v>384</v>
+      </c>
+      <c r="E172" t="s">
+        <v>384</v>
+      </c>
+      <c r="F172" t="s">
+        <v>384</v>
+      </c>
+      <c r="G172" t="s">
+        <v>384</v>
+      </c>
+      <c r="H172" t="s">
+        <v>384</v>
+      </c>
+      <c r="I172" t="s">
+        <v>384</v>
+      </c>
+      <c r="J172" t="s">
+        <v>384</v>
+      </c>
+      <c r="K172" t="s">
+        <v>384</v>
+      </c>
+      <c r="L172" t="s">
+        <v>384</v>
+      </c>
+      <c r="M172" t="s">
+        <v>384</v>
+      </c>
+      <c r="N172" t="s">
+        <v>384</v>
+      </c>
+      <c r="O172" t="s">
+        <v>384</v>
+      </c>
+      <c r="P172" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>384</v>
+      </c>
+      <c r="R172" t="s">
+        <v>384</v>
+      </c>
+      <c r="S172" t="s">
+        <v>183</v>
+      </c>
+      <c r="T172" t="s">
+        <v>183</v>
+      </c>
+      <c r="U172" t="s">
+        <v>183</v>
+      </c>
+      <c r="V172" t="s">
+        <v>183</v>
+      </c>
+      <c r="W172" t="s">
+        <v>183</v>
+      </c>
+      <c r="X172" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR172" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS172" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY172" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ172" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA172" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB172" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC172" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI172" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ172" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>40</v>
+      </c>
+      <c r="B173" t="s">
+        <v>536</v>
+      </c>
+      <c r="C173" t="s">
+        <v>66</v>
+      </c>
+      <c r="D173" t="s">
+        <v>183</v>
+      </c>
+      <c r="E173" t="s">
+        <v>186</v>
+      </c>
+      <c r="F173" t="s">
+        <v>202</v>
+      </c>
+      <c r="G173" t="s">
+        <v>183</v>
+      </c>
+      <c r="H173" t="s">
+        <v>183</v>
+      </c>
+      <c r="I173" t="s">
+        <v>183</v>
+      </c>
+      <c r="J173" t="s">
+        <v>183</v>
+      </c>
+      <c r="K173" t="s">
+        <v>183</v>
+      </c>
+      <c r="L173" t="s">
+        <v>395</v>
+      </c>
+      <c r="M173" t="s">
+        <v>395</v>
+      </c>
+      <c r="N173" t="s">
+        <v>183</v>
+      </c>
+      <c r="O173" t="s">
+        <v>181</v>
+      </c>
+      <c r="P173" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>181</v>
+      </c>
+      <c r="R173" t="s">
+        <v>181</v>
+      </c>
+      <c r="S173" t="s">
+        <v>181</v>
+      </c>
+      <c r="T173" t="s">
+        <v>181</v>
+      </c>
+      <c r="U173" t="s">
+        <v>181</v>
+      </c>
+      <c r="V173" t="s">
+        <v>181</v>
+      </c>
+      <c r="W173" t="s">
+        <v>181</v>
+      </c>
+      <c r="X173" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY173" t="s">
+        <v>181</v>
+      </c>
+      <c r="AZ173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI173" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ173" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" t="s">
+        <v>537</v>
+      </c>
+      <c r="C174" t="s">
+        <v>183</v>
+      </c>
+      <c r="D174" t="s">
+        <v>183</v>
+      </c>
+      <c r="E174" t="s">
+        <v>183</v>
+      </c>
+      <c r="F174" t="s">
+        <v>183</v>
+      </c>
+      <c r="G174" t="s">
+        <v>183</v>
+      </c>
+      <c r="H174" t="s">
+        <v>183</v>
+      </c>
+      <c r="I174" t="s">
+        <v>183</v>
+      </c>
+      <c r="J174" t="s">
+        <v>183</v>
+      </c>
+      <c r="K174" t="s">
+        <v>183</v>
+      </c>
+      <c r="L174" t="s">
+        <v>183</v>
+      </c>
+      <c r="M174" t="s">
+        <v>183</v>
+      </c>
+      <c r="N174" t="s">
+        <v>183</v>
+      </c>
+      <c r="O174" t="s">
+        <v>183</v>
+      </c>
+      <c r="P174" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>183</v>
+      </c>
+      <c r="R174" t="s">
+        <v>183</v>
+      </c>
+      <c r="S174" t="s">
+        <v>183</v>
+      </c>
+      <c r="T174" t="s">
+        <v>183</v>
+      </c>
+      <c r="U174" t="s">
+        <v>183</v>
+      </c>
+      <c r="V174" t="s">
+        <v>183</v>
+      </c>
+      <c r="W174" t="s">
+        <v>183</v>
+      </c>
+      <c r="X174" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY174" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI174" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" t="s">
+        <v>537</v>
+      </c>
+      <c r="C175" t="s">
+        <v>201</v>
+      </c>
+      <c r="D175" t="s">
+        <v>201</v>
+      </c>
+      <c r="E175" t="s">
+        <v>183</v>
+      </c>
+      <c r="F175" t="s">
+        <v>186</v>
+      </c>
+      <c r="G175" t="s">
+        <v>183</v>
+      </c>
+      <c r="H175" t="s">
+        <v>183</v>
+      </c>
+      <c r="I175" t="s">
+        <v>201</v>
+      </c>
+      <c r="J175" t="s">
+        <v>201</v>
+      </c>
+      <c r="K175" t="s">
+        <v>201</v>
+      </c>
+      <c r="L175" t="s">
+        <v>183</v>
+      </c>
+      <c r="M175" t="s">
+        <v>186</v>
+      </c>
+      <c r="N175" t="s">
+        <v>183</v>
+      </c>
+      <c r="O175" t="s">
+        <v>186</v>
+      </c>
+      <c r="P175" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>183</v>
+      </c>
+      <c r="R175" t="s">
+        <v>183</v>
+      </c>
+      <c r="S175" t="s">
+        <v>183</v>
+      </c>
+      <c r="T175" t="s">
+        <v>201</v>
+      </c>
+      <c r="U175" t="s">
+        <v>201</v>
+      </c>
+      <c r="V175" t="s">
+        <v>201</v>
+      </c>
+      <c r="W175" t="s">
+        <v>183</v>
+      </c>
+      <c r="X175" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY175" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI175" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ175" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>40</v>
+      </c>
+      <c r="B176" t="s">
+        <v>538</v>
+      </c>
+      <c r="C176" t="s">
+        <v>184</v>
+      </c>
+      <c r="D176" t="s">
+        <v>184</v>
+      </c>
+      <c r="E176" t="s">
+        <v>184</v>
+      </c>
+      <c r="F176" t="s">
+        <v>184</v>
+      </c>
+      <c r="G176" t="s">
+        <v>184</v>
+      </c>
+      <c r="H176" t="s">
+        <v>184</v>
+      </c>
+      <c r="I176" t="s">
+        <v>184</v>
+      </c>
+      <c r="J176" t="s">
+        <v>184</v>
+      </c>
+      <c r="K176" t="s">
+        <v>184</v>
+      </c>
+      <c r="L176" t="s">
+        <v>184</v>
+      </c>
+      <c r="M176" t="s">
+        <v>184</v>
+      </c>
+      <c r="N176" t="s">
+        <v>184</v>
+      </c>
+      <c r="O176" t="s">
+        <v>184</v>
+      </c>
+      <c r="P176" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>184</v>
+      </c>
+      <c r="R176" t="s">
+        <v>184</v>
+      </c>
+      <c r="S176" t="s">
+        <v>184</v>
+      </c>
+      <c r="T176" t="s">
+        <v>184</v>
+      </c>
+      <c r="U176" t="s">
+        <v>184</v>
+      </c>
+      <c r="V176" t="s">
+        <v>184</v>
+      </c>
+      <c r="W176" t="s">
+        <v>184</v>
+      </c>
+      <c r="X176" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP176" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY176" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG176" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH176" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI176" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ176" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>40</v>
+      </c>
+      <c r="B177" t="s">
+        <v>539</v>
+      </c>
+      <c r="C177" t="s">
+        <v>183</v>
+      </c>
+      <c r="D177" t="s">
+        <v>183</v>
+      </c>
+      <c r="E177" t="s">
+        <v>183</v>
+      </c>
+      <c r="F177" t="s">
+        <v>183</v>
+      </c>
+      <c r="G177" t="s">
+        <v>183</v>
+      </c>
+      <c r="H177" t="s">
+        <v>183</v>
+      </c>
+      <c r="I177" t="s">
+        <v>183</v>
+      </c>
+      <c r="J177" t="s">
+        <v>183</v>
+      </c>
+      <c r="K177" t="s">
+        <v>183</v>
+      </c>
+      <c r="L177" t="s">
+        <v>183</v>
+      </c>
+      <c r="M177" t="s">
+        <v>201</v>
+      </c>
+      <c r="N177" t="s">
+        <v>201</v>
+      </c>
+      <c r="O177" t="s">
+        <v>201</v>
+      </c>
+      <c r="P177" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>183</v>
+      </c>
+      <c r="R177" t="s">
+        <v>183</v>
+      </c>
+      <c r="S177" t="s">
+        <v>183</v>
+      </c>
+      <c r="T177" t="s">
+        <v>183</v>
+      </c>
+      <c r="U177" t="s">
+        <v>183</v>
+      </c>
+      <c r="V177" t="s">
+        <v>183</v>
+      </c>
+      <c r="W177" t="s">
+        <v>183</v>
+      </c>
+      <c r="X177" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP177" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY177" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ177" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA177" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB177" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC177" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD177" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE177" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF177" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG177" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH177" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI177" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" t="s">
+        <v>540</v>
+      </c>
+      <c r="C178" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" t="s">
+        <v>201</v>
+      </c>
+      <c r="E178" t="s">
+        <v>201</v>
+      </c>
+      <c r="F178" t="s">
+        <v>201</v>
+      </c>
+      <c r="G178" t="s">
+        <v>201</v>
+      </c>
+      <c r="H178" t="s">
+        <v>201</v>
+      </c>
+      <c r="I178" t="s">
+        <v>201</v>
+      </c>
+      <c r="J178" t="s">
+        <v>201</v>
+      </c>
+      <c r="K178" t="s">
+        <v>201</v>
+      </c>
+      <c r="L178" t="s">
+        <v>201</v>
+      </c>
+      <c r="M178" t="s">
+        <v>201</v>
+      </c>
+      <c r="N178" t="s">
+        <v>201</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>201</v>
+      </c>
+      <c r="R178" t="s">
+        <v>201</v>
+      </c>
+      <c r="S178" t="s">
+        <v>201</v>
+      </c>
+      <c r="T178" t="s">
+        <v>183</v>
+      </c>
+      <c r="U178" t="s">
+        <v>183</v>
+      </c>
+      <c r="V178" t="s">
+        <v>183</v>
+      </c>
+      <c r="W178" t="s">
+        <v>183</v>
+      </c>
+      <c r="X178" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT178" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX178" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY178" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK178" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>54</v>
+      </c>
+      <c r="B179" t="s">
+        <v>542</v>
+      </c>
+      <c r="C179" t="s">
+        <v>201</v>
+      </c>
+      <c r="D179" t="s">
+        <v>201</v>
+      </c>
+      <c r="E179" t="s">
+        <v>201</v>
+      </c>
+      <c r="F179" t="s">
+        <v>201</v>
+      </c>
+      <c r="G179" t="s">
+        <v>201</v>
+      </c>
+      <c r="H179" t="s">
+        <v>201</v>
+      </c>
+      <c r="I179" t="s">
+        <v>201</v>
+      </c>
+      <c r="J179" t="s">
+        <v>201</v>
+      </c>
+      <c r="K179" t="s">
+        <v>201</v>
+      </c>
+      <c r="L179" t="s">
+        <v>201</v>
+      </c>
+      <c r="M179" t="s">
+        <v>201</v>
+      </c>
+      <c r="N179" t="s">
+        <v>201</v>
+      </c>
+      <c r="O179" t="s">
+        <v>201</v>
+      </c>
+      <c r="P179" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>201</v>
+      </c>
+      <c r="R179" t="s">
+        <v>201</v>
+      </c>
+      <c r="S179" t="s">
+        <v>201</v>
+      </c>
+      <c r="T179" t="s">
+        <v>201</v>
+      </c>
+      <c r="U179" t="s">
+        <v>201</v>
+      </c>
+      <c r="V179" t="s">
+        <v>201</v>
+      </c>
+      <c r="W179" t="s">
+        <v>183</v>
+      </c>
+      <c r="X179" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY179" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF179" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG179" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH179" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI179" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ179" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>54</v>
+      </c>
+      <c r="B180" t="s">
+        <v>543</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180" t="s">
+        <v>183</v>
+      </c>
+      <c r="E180" t="s">
+        <v>183</v>
+      </c>
+      <c r="F180" t="s">
+        <v>183</v>
+      </c>
+      <c r="G180" t="s">
+        <v>183</v>
+      </c>
+      <c r="H180" t="s">
+        <v>183</v>
+      </c>
+      <c r="I180" t="s">
+        <v>201</v>
+      </c>
+      <c r="J180" t="s">
+        <v>201</v>
+      </c>
+      <c r="K180" t="s">
+        <v>201</v>
+      </c>
+      <c r="L180" t="s">
+        <v>201</v>
+      </c>
+      <c r="M180" t="s">
+        <v>201</v>
+      </c>
+      <c r="N180" t="s">
+        <v>201</v>
+      </c>
+      <c r="O180" t="s">
+        <v>201</v>
+      </c>
+      <c r="P180" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>201</v>
+      </c>
+      <c r="R180" t="s">
+        <v>201</v>
+      </c>
+      <c r="S180" t="s">
+        <v>201</v>
+      </c>
+      <c r="T180" t="s">
+        <v>201</v>
+      </c>
+      <c r="U180" t="s">
+        <v>201</v>
+      </c>
+      <c r="V180" t="s">
+        <v>201</v>
+      </c>
+      <c r="W180" t="s">
+        <v>201</v>
+      </c>
+      <c r="X180" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP180" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ180" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV180" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW180" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX180" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY180" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI180" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ180" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>54</v>
+      </c>
+      <c r="B181" t="s">
+        <v>544</v>
+      </c>
+      <c r="C181" t="s">
+        <v>202</v>
+      </c>
+      <c r="D181" t="s">
+        <v>202</v>
+      </c>
+      <c r="E181" t="s">
+        <v>202</v>
+      </c>
+      <c r="F181" t="s">
+        <v>202</v>
+      </c>
+      <c r="G181" t="s">
+        <v>202</v>
+      </c>
+      <c r="H181" t="s">
+        <v>202</v>
+      </c>
+      <c r="I181" t="s">
+        <v>202</v>
+      </c>
+      <c r="J181" t="s">
+        <v>202</v>
+      </c>
+      <c r="K181" t="s">
+        <v>202</v>
+      </c>
+      <c r="L181" t="s">
+        <v>202</v>
+      </c>
+      <c r="M181" t="s">
+        <v>186</v>
+      </c>
+      <c r="N181" t="s">
+        <v>183</v>
+      </c>
+      <c r="O181" t="s">
+        <v>183</v>
+      </c>
+      <c r="P181" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>183</v>
+      </c>
+      <c r="R181" t="s">
+        <v>201</v>
+      </c>
+      <c r="S181" t="s">
+        <v>201</v>
+      </c>
+      <c r="T181" t="s">
+        <v>201</v>
+      </c>
+      <c r="U181" t="s">
+        <v>201</v>
+      </c>
+      <c r="V181" t="s">
+        <v>201</v>
+      </c>
+      <c r="W181" t="s">
+        <v>201</v>
+      </c>
+      <c r="X181" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>186</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ181" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY181" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ181" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA181" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI181" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ181" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>54</v>
+      </c>
+      <c r="B182" t="s">
+        <v>545</v>
+      </c>
+      <c r="C182" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" t="s">
+        <v>360</v>
+      </c>
+      <c r="E182" t="s">
+        <v>360</v>
+      </c>
+      <c r="F182" t="s">
+        <v>360</v>
+      </c>
+      <c r="G182" t="s">
+        <v>360</v>
+      </c>
+      <c r="H182" t="s">
+        <v>360</v>
+      </c>
+      <c r="I182" t="s">
+        <v>360</v>
+      </c>
+      <c r="J182" t="s">
+        <v>360</v>
+      </c>
+      <c r="K182" t="s">
+        <v>360</v>
+      </c>
+      <c r="L182" t="s">
+        <v>360</v>
+      </c>
+      <c r="M182" t="s">
+        <v>360</v>
+      </c>
+      <c r="N182" t="s">
+        <v>360</v>
+      </c>
+      <c r="O182" t="s">
+        <v>360</v>
+      </c>
+      <c r="P182" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>360</v>
+      </c>
+      <c r="R182" t="s">
+        <v>360</v>
+      </c>
+      <c r="S182" t="s">
+        <v>183</v>
+      </c>
+      <c r="T182" t="s">
+        <v>183</v>
+      </c>
+      <c r="U182" t="s">
+        <v>395</v>
+      </c>
+      <c r="V182" t="s">
+        <v>395</v>
+      </c>
+      <c r="W182" t="s">
+        <v>183</v>
+      </c>
+      <c r="X182" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY182" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI182" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" t="s">
+        <v>546</v>
+      </c>
+      <c r="C183" t="s">
+        <v>181</v>
+      </c>
+      <c r="D183" t="s">
+        <v>181</v>
+      </c>
+      <c r="E183" t="s">
+        <v>181</v>
+      </c>
+      <c r="F183" t="s">
+        <v>181</v>
+      </c>
+      <c r="G183" t="s">
+        <v>181</v>
+      </c>
+      <c r="H183" t="s">
+        <v>360</v>
+      </c>
+      <c r="I183" t="s">
+        <v>360</v>
+      </c>
+      <c r="J183" t="s">
+        <v>360</v>
+      </c>
+      <c r="K183" t="s">
+        <v>360</v>
+      </c>
+      <c r="L183" t="s">
+        <v>360</v>
+      </c>
+      <c r="M183" t="s">
+        <v>360</v>
+      </c>
+      <c r="N183" t="s">
+        <v>360</v>
+      </c>
+      <c r="O183" t="s">
+        <v>360</v>
+      </c>
+      <c r="P183" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>360</v>
+      </c>
+      <c r="R183" t="s">
+        <v>360</v>
+      </c>
+      <c r="S183" t="s">
+        <v>360</v>
+      </c>
+      <c r="T183" t="s">
+        <v>360</v>
+      </c>
+      <c r="U183" t="s">
+        <v>360</v>
+      </c>
+      <c r="V183" t="s">
+        <v>360</v>
+      </c>
+      <c r="W183" t="s">
+        <v>360</v>
+      </c>
+      <c r="X183" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY183" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI183" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ183" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" t="s">
+        <v>547</v>
+      </c>
+      <c r="C184" t="s">
+        <v>183</v>
+      </c>
+      <c r="D184" t="s">
+        <v>66</v>
+      </c>
+      <c r="E184" t="s">
+        <v>66</v>
+      </c>
+      <c r="F184" t="s">
+        <v>66</v>
+      </c>
+      <c r="G184" t="s">
+        <v>66</v>
+      </c>
+      <c r="H184" t="s">
+        <v>66</v>
+      </c>
+      <c r="I184" t="s">
+        <v>66</v>
+      </c>
+      <c r="J184" t="s">
+        <v>66</v>
+      </c>
+      <c r="K184" t="s">
+        <v>183</v>
+      </c>
+      <c r="L184" t="s">
+        <v>183</v>
+      </c>
+      <c r="M184" t="s">
+        <v>183</v>
+      </c>
+      <c r="N184" t="s">
+        <v>181</v>
+      </c>
+      <c r="O184" t="s">
+        <v>181</v>
+      </c>
+      <c r="P184" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>181</v>
+      </c>
+      <c r="R184" t="s">
+        <v>181</v>
+      </c>
+      <c r="S184" t="s">
+        <v>181</v>
+      </c>
+      <c r="T184" t="s">
+        <v>183</v>
+      </c>
+      <c r="U184" t="s">
+        <v>183</v>
+      </c>
+      <c r="V184" t="s">
+        <v>183</v>
+      </c>
+      <c r="W184" t="s">
+        <v>183</v>
+      </c>
+      <c r="X184" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS184" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT184" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW184" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX184" t="s">
+        <v>395</v>
+      </c>
+      <c r="AY184" t="s">
+        <v>395</v>
+      </c>
+      <c r="AZ184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH184" t="s">
+        <v>181</v>
+      </c>
+      <c r="BI184" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ184" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK184" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>54</v>
+      </c>
+      <c r="B185" t="s">
+        <v>548</v>
+      </c>
+      <c r="C185" t="s">
+        <v>184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>184</v>
+      </c>
+      <c r="E185" t="s">
+        <v>184</v>
+      </c>
+      <c r="F185" t="s">
+        <v>184</v>
+      </c>
+      <c r="G185" t="s">
+        <v>184</v>
+      </c>
+      <c r="H185" t="s">
+        <v>184</v>
+      </c>
+      <c r="I185" t="s">
+        <v>184</v>
+      </c>
+      <c r="J185" t="s">
+        <v>184</v>
+      </c>
+      <c r="K185" t="s">
+        <v>184</v>
+      </c>
+      <c r="L185" t="s">
+        <v>66</v>
+      </c>
+      <c r="M185" t="s">
+        <v>66</v>
+      </c>
+      <c r="N185" t="s">
+        <v>66</v>
+      </c>
+      <c r="O185" t="s">
+        <v>66</v>
+      </c>
+      <c r="P185" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>183</v>
+      </c>
+      <c r="R185" t="s">
+        <v>183</v>
+      </c>
+      <c r="S185" t="s">
+        <v>183</v>
+      </c>
+      <c r="T185" t="s">
+        <v>183</v>
+      </c>
+      <c r="U185" t="s">
+        <v>181</v>
+      </c>
+      <c r="V185" t="s">
+        <v>181</v>
+      </c>
+      <c r="W185" t="s">
+        <v>181</v>
+      </c>
+      <c r="X185" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP185" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY185" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI185" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ185" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>54</v>
+      </c>
+      <c r="B186" t="s">
+        <v>550</v>
+      </c>
+      <c r="C186" t="s">
+        <v>184</v>
+      </c>
+      <c r="D186" t="s">
+        <v>184</v>
+      </c>
+      <c r="E186" t="s">
+        <v>184</v>
+      </c>
+      <c r="F186" t="s">
+        <v>184</v>
+      </c>
+      <c r="G186" t="s">
+        <v>184</v>
+      </c>
+      <c r="H186" t="s">
+        <v>184</v>
+      </c>
+      <c r="I186" t="s">
+        <v>184</v>
+      </c>
+      <c r="J186" t="s">
+        <v>184</v>
+      </c>
+      <c r="K186" t="s">
+        <v>184</v>
+      </c>
+      <c r="L186" t="s">
+        <v>184</v>
+      </c>
+      <c r="M186" t="s">
+        <v>184</v>
+      </c>
+      <c r="N186" t="s">
+        <v>66</v>
+      </c>
+      <c r="O186" t="s">
+        <v>183</v>
+      </c>
+      <c r="P186" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>183</v>
+      </c>
+      <c r="R186" t="s">
+        <v>181</v>
+      </c>
+      <c r="S186" t="s">
+        <v>181</v>
+      </c>
+      <c r="T186" t="s">
+        <v>181</v>
+      </c>
+      <c r="U186" t="s">
+        <v>181</v>
+      </c>
+      <c r="V186" t="s">
+        <v>66</v>
+      </c>
+      <c r="W186" t="s">
+        <v>204</v>
+      </c>
+      <c r="X186" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY186" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ186" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK186" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>54</v>
+      </c>
+      <c r="B187" t="s">
+        <v>552</v>
+      </c>
+      <c r="C187" t="s">
+        <v>204</v>
+      </c>
+      <c r="D187" t="s">
+        <v>66</v>
+      </c>
+      <c r="E187" t="s">
+        <v>183</v>
+      </c>
+      <c r="F187" t="s">
+        <v>183</v>
+      </c>
+      <c r="G187" t="s">
+        <v>466</v>
+      </c>
+      <c r="H187" t="s">
+        <v>183</v>
+      </c>
+      <c r="I187" t="s">
+        <v>183</v>
+      </c>
+      <c r="J187" t="s">
+        <v>183</v>
+      </c>
+      <c r="K187" t="s">
+        <v>183</v>
+      </c>
+      <c r="L187" t="s">
+        <v>183</v>
+      </c>
+      <c r="M187" t="s">
+        <v>183</v>
+      </c>
+      <c r="N187" t="s">
+        <v>183</v>
+      </c>
+      <c r="O187" t="s">
+        <v>183</v>
+      </c>
+      <c r="P187" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>183</v>
+      </c>
+      <c r="R187" t="s">
+        <v>183</v>
+      </c>
+      <c r="S187" t="s">
+        <v>183</v>
+      </c>
+      <c r="T187" t="s">
+        <v>183</v>
+      </c>
+      <c r="U187" t="s">
+        <v>395</v>
+      </c>
+      <c r="V187" t="s">
+        <v>395</v>
+      </c>
+      <c r="W187" t="s">
+        <v>395</v>
+      </c>
+      <c r="X187" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY187" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI187" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ187" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>54</v>
+      </c>
+      <c r="B188" t="s">
+        <v>553</v>
+      </c>
+      <c r="C188" t="s">
+        <v>204</v>
+      </c>
+      <c r="D188" t="s">
+        <v>184</v>
+      </c>
+      <c r="E188" t="s">
+        <v>184</v>
+      </c>
+      <c r="F188" t="s">
+        <v>184</v>
+      </c>
+      <c r="G188" t="s">
+        <v>184</v>
+      </c>
+      <c r="H188" t="s">
+        <v>184</v>
+      </c>
+      <c r="I188" t="s">
+        <v>184</v>
+      </c>
+      <c r="J188" t="s">
+        <v>184</v>
+      </c>
+      <c r="K188" t="s">
+        <v>184</v>
+      </c>
+      <c r="L188" t="s">
+        <v>184</v>
+      </c>
+      <c r="M188" t="s">
+        <v>66</v>
+      </c>
+      <c r="N188" t="s">
+        <v>66</v>
+      </c>
+      <c r="O188" t="s">
+        <v>66</v>
+      </c>
+      <c r="P188" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>183</v>
+      </c>
+      <c r="R188" t="s">
+        <v>181</v>
+      </c>
+      <c r="S188" t="s">
+        <v>181</v>
+      </c>
+      <c r="T188" t="s">
+        <v>183</v>
+      </c>
+      <c r="U188" t="s">
+        <v>66</v>
+      </c>
+      <c r="V188" t="s">
+        <v>66</v>
+      </c>
+      <c r="W188" t="s">
+        <v>66</v>
+      </c>
+      <c r="X188" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY188" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI188" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ188" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>54</v>
+      </c>
+      <c r="B189" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7892" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80F19F4-D87C-4A4C-82BA-7434E75F5325}"/>
+  <xr:revisionPtr revIDLastSave="8815" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF5D5F7-93CA-4199-9E2E-5A6226701DA4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8011" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10280" uniqueCount="588">
   <si>
     <t>Pen</t>
   </si>
@@ -1706,7 +1706,106 @@
     <t>Pen28_13</t>
   </si>
   <si>
-    <t>Pen28_18</t>
+    <t>Pen28_19</t>
+  </si>
+  <si>
+    <t>Pen28_20</t>
+  </si>
+  <si>
+    <t>Pen28_21</t>
+  </si>
+  <si>
+    <t>Pen28_22</t>
+  </si>
+  <si>
+    <t>Pen28_23</t>
+  </si>
+  <si>
+    <t>Pen28_24</t>
+  </si>
+  <si>
+    <t>Pen28_25</t>
+  </si>
+  <si>
+    <t>Pen40_1</t>
+  </si>
+  <si>
+    <t>Both birds walking around furtively</t>
+  </si>
+  <si>
+    <t>Pen40_8</t>
+  </si>
+  <si>
+    <t>Pen40_9</t>
+  </si>
+  <si>
+    <t>Pen40_11</t>
+  </si>
+  <si>
+    <t>Pen40_12</t>
+  </si>
+  <si>
+    <t>Pen40_14</t>
+  </si>
+  <si>
+    <t>Pen40_15</t>
+  </si>
+  <si>
+    <t>Pen40_16</t>
+  </si>
+  <si>
+    <t>Pen40_18</t>
+  </si>
+  <si>
+    <t>Pen40_20</t>
+  </si>
+  <si>
+    <t>Pen40_21</t>
+  </si>
+  <si>
+    <t>Pen40_22</t>
+  </si>
+  <si>
+    <t>Pen40_24</t>
+  </si>
+  <si>
+    <t>Pen40_25</t>
+  </si>
+  <si>
+    <t>Pen40_27</t>
+  </si>
+  <si>
+    <t>Pen40_29</t>
+  </si>
+  <si>
+    <t>Pen40_30</t>
+  </si>
+  <si>
+    <t>Pen40_31</t>
+  </si>
+  <si>
+    <t>Testing non food items</t>
+  </si>
+  <si>
+    <t>Pecking at leaves</t>
+  </si>
+  <si>
+    <t>Chasing Brook who has food. Brook takes food to back of aviary to eat away from bowls in next 3 videos, no Rowan in footag.e</t>
+  </si>
+  <si>
+    <t>Fossicking in leaf litter</t>
+  </si>
+  <si>
+    <t>Pen38_1</t>
+  </si>
+  <si>
+    <t>Pen38_3</t>
+  </si>
+  <si>
+    <t>Pen38_4</t>
+  </si>
+  <si>
+    <t>Pen38_5</t>
   </si>
 </sst>
 </file>
@@ -2571,8 +2670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63C46F-C556-44F6-932B-B4CD58F367A9}">
   <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3528,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B41EF1-FC8B-4C60-AB97-F98D408F551D}">
   <dimension ref="B1:Z49"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
@@ -8877,11 +8976,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B190" sqref="B190"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF227" sqref="AF227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30613,6 +30712,6951 @@
       </c>
       <c r="B189" t="s">
         <v>554</v>
+      </c>
+      <c r="C189" t="s">
+        <v>201</v>
+      </c>
+      <c r="D189" t="s">
+        <v>201</v>
+      </c>
+      <c r="E189" t="s">
+        <v>201</v>
+      </c>
+      <c r="F189" t="s">
+        <v>201</v>
+      </c>
+      <c r="G189" t="s">
+        <v>183</v>
+      </c>
+      <c r="H189" t="s">
+        <v>204</v>
+      </c>
+      <c r="I189" t="s">
+        <v>201</v>
+      </c>
+      <c r="J189" t="s">
+        <v>201</v>
+      </c>
+      <c r="K189" t="s">
+        <v>183</v>
+      </c>
+      <c r="L189" t="s">
+        <v>183</v>
+      </c>
+      <c r="M189" t="s">
+        <v>66</v>
+      </c>
+      <c r="N189" t="s">
+        <v>66</v>
+      </c>
+      <c r="O189" t="s">
+        <v>66</v>
+      </c>
+      <c r="P189" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>184</v>
+      </c>
+      <c r="R189" t="s">
+        <v>184</v>
+      </c>
+      <c r="S189" t="s">
+        <v>184</v>
+      </c>
+      <c r="T189" t="s">
+        <v>184</v>
+      </c>
+      <c r="U189" t="s">
+        <v>184</v>
+      </c>
+      <c r="V189" t="s">
+        <v>184</v>
+      </c>
+      <c r="W189" t="s">
+        <v>184</v>
+      </c>
+      <c r="X189" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY189" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI189" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ189" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>54</v>
+      </c>
+      <c r="B190" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" t="s">
+        <v>201</v>
+      </c>
+      <c r="D190" t="s">
+        <v>66</v>
+      </c>
+      <c r="E190" t="s">
+        <v>204</v>
+      </c>
+      <c r="F190" t="s">
+        <v>204</v>
+      </c>
+      <c r="G190" t="s">
+        <v>184</v>
+      </c>
+      <c r="H190" t="s">
+        <v>184</v>
+      </c>
+      <c r="I190" t="s">
+        <v>184</v>
+      </c>
+      <c r="J190" t="s">
+        <v>184</v>
+      </c>
+      <c r="K190" t="s">
+        <v>184</v>
+      </c>
+      <c r="L190" t="s">
+        <v>184</v>
+      </c>
+      <c r="M190" t="s">
+        <v>184</v>
+      </c>
+      <c r="N190" t="s">
+        <v>184</v>
+      </c>
+      <c r="O190" t="s">
+        <v>184</v>
+      </c>
+      <c r="P190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>184</v>
+      </c>
+      <c r="R190" t="s">
+        <v>184</v>
+      </c>
+      <c r="S190" t="s">
+        <v>184</v>
+      </c>
+      <c r="T190" t="s">
+        <v>184</v>
+      </c>
+      <c r="U190" t="s">
+        <v>184</v>
+      </c>
+      <c r="V190" t="s">
+        <v>184</v>
+      </c>
+      <c r="W190" t="s">
+        <v>184</v>
+      </c>
+      <c r="X190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY190" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI190" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ190" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>54</v>
+      </c>
+      <c r="B191" t="s">
+        <v>556</v>
+      </c>
+      <c r="C191" t="s">
+        <v>201</v>
+      </c>
+      <c r="D191" t="s">
+        <v>201</v>
+      </c>
+      <c r="E191" t="s">
+        <v>201</v>
+      </c>
+      <c r="F191" t="s">
+        <v>201</v>
+      </c>
+      <c r="G191" t="s">
+        <v>201</v>
+      </c>
+      <c r="H191" t="s">
+        <v>201</v>
+      </c>
+      <c r="I191" t="s">
+        <v>201</v>
+      </c>
+      <c r="J191" t="s">
+        <v>201</v>
+      </c>
+      <c r="K191" t="s">
+        <v>66</v>
+      </c>
+      <c r="L191" t="s">
+        <v>66</v>
+      </c>
+      <c r="M191" t="s">
+        <v>66</v>
+      </c>
+      <c r="N191" t="s">
+        <v>66</v>
+      </c>
+      <c r="O191" t="s">
+        <v>66</v>
+      </c>
+      <c r="P191" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>184</v>
+      </c>
+      <c r="R191" t="s">
+        <v>184</v>
+      </c>
+      <c r="S191" t="s">
+        <v>184</v>
+      </c>
+      <c r="T191" t="s">
+        <v>184</v>
+      </c>
+      <c r="U191" t="s">
+        <v>184</v>
+      </c>
+      <c r="V191" t="s">
+        <v>184</v>
+      </c>
+      <c r="W191" t="s">
+        <v>184</v>
+      </c>
+      <c r="X191" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY191" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI191" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ191" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>54</v>
+      </c>
+      <c r="B192" t="s">
+        <v>557</v>
+      </c>
+      <c r="C192" t="s">
+        <v>183</v>
+      </c>
+      <c r="D192" t="s">
+        <v>183</v>
+      </c>
+      <c r="E192" t="s">
+        <v>201</v>
+      </c>
+      <c r="F192" t="s">
+        <v>201</v>
+      </c>
+      <c r="G192" t="s">
+        <v>201</v>
+      </c>
+      <c r="H192" t="s">
+        <v>201</v>
+      </c>
+      <c r="I192" t="s">
+        <v>201</v>
+      </c>
+      <c r="J192" t="s">
+        <v>201</v>
+      </c>
+      <c r="K192" t="s">
+        <v>201</v>
+      </c>
+      <c r="L192" t="s">
+        <v>201</v>
+      </c>
+      <c r="M192" t="s">
+        <v>201</v>
+      </c>
+      <c r="N192" t="s">
+        <v>201</v>
+      </c>
+      <c r="O192" t="s">
+        <v>201</v>
+      </c>
+      <c r="P192" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>201</v>
+      </c>
+      <c r="R192" t="s">
+        <v>201</v>
+      </c>
+      <c r="S192" t="s">
+        <v>202</v>
+      </c>
+      <c r="T192" t="s">
+        <v>204</v>
+      </c>
+      <c r="U192" t="s">
+        <v>66</v>
+      </c>
+      <c r="V192" t="s">
+        <v>66</v>
+      </c>
+      <c r="W192" t="s">
+        <v>66</v>
+      </c>
+      <c r="X192" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY192" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI192" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ192" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>54</v>
+      </c>
+      <c r="B193" t="s">
+        <v>558</v>
+      </c>
+      <c r="C193" t="s">
+        <v>201</v>
+      </c>
+      <c r="D193" t="s">
+        <v>201</v>
+      </c>
+      <c r="E193" t="s">
+        <v>201</v>
+      </c>
+      <c r="F193" t="s">
+        <v>201</v>
+      </c>
+      <c r="G193" t="s">
+        <v>201</v>
+      </c>
+      <c r="H193" t="s">
+        <v>201</v>
+      </c>
+      <c r="I193" t="s">
+        <v>201</v>
+      </c>
+      <c r="J193" t="s">
+        <v>201</v>
+      </c>
+      <c r="K193" t="s">
+        <v>201</v>
+      </c>
+      <c r="L193" t="s">
+        <v>201</v>
+      </c>
+      <c r="M193" t="s">
+        <v>201</v>
+      </c>
+      <c r="N193" t="s">
+        <v>201</v>
+      </c>
+      <c r="O193" t="s">
+        <v>201</v>
+      </c>
+      <c r="P193" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>201</v>
+      </c>
+      <c r="R193" t="s">
+        <v>201</v>
+      </c>
+      <c r="S193" t="s">
+        <v>201</v>
+      </c>
+      <c r="T193" t="s">
+        <v>201</v>
+      </c>
+      <c r="U193" t="s">
+        <v>201</v>
+      </c>
+      <c r="V193" t="s">
+        <v>201</v>
+      </c>
+      <c r="W193" t="s">
+        <v>202</v>
+      </c>
+      <c r="X193" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY193" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI193" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ193" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>54</v>
+      </c>
+      <c r="B194" t="s">
+        <v>559</v>
+      </c>
+      <c r="C194" t="s">
+        <v>184</v>
+      </c>
+      <c r="D194" t="s">
+        <v>66</v>
+      </c>
+      <c r="E194" t="s">
+        <v>183</v>
+      </c>
+      <c r="F194" t="s">
+        <v>183</v>
+      </c>
+      <c r="G194" t="s">
+        <v>183</v>
+      </c>
+      <c r="H194" t="s">
+        <v>66</v>
+      </c>
+      <c r="I194" t="s">
+        <v>66</v>
+      </c>
+      <c r="J194" t="s">
+        <v>66</v>
+      </c>
+      <c r="K194" t="s">
+        <v>201</v>
+      </c>
+      <c r="L194" t="s">
+        <v>201</v>
+      </c>
+      <c r="M194" t="s">
+        <v>201</v>
+      </c>
+      <c r="N194" t="s">
+        <v>201</v>
+      </c>
+      <c r="O194" t="s">
+        <v>201</v>
+      </c>
+      <c r="P194" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>201</v>
+      </c>
+      <c r="R194" t="s">
+        <v>201</v>
+      </c>
+      <c r="S194" t="s">
+        <v>201</v>
+      </c>
+      <c r="T194" t="s">
+        <v>201</v>
+      </c>
+      <c r="U194" t="s">
+        <v>201</v>
+      </c>
+      <c r="V194" t="s">
+        <v>183</v>
+      </c>
+      <c r="W194" t="s">
+        <v>183</v>
+      </c>
+      <c r="X194" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY194" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI194" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ194" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>54</v>
+      </c>
+      <c r="B195" t="s">
+        <v>560</v>
+      </c>
+      <c r="C195" t="s">
+        <v>201</v>
+      </c>
+      <c r="D195" t="s">
+        <v>201</v>
+      </c>
+      <c r="E195" t="s">
+        <v>201</v>
+      </c>
+      <c r="F195" t="s">
+        <v>201</v>
+      </c>
+      <c r="G195" t="s">
+        <v>201</v>
+      </c>
+      <c r="H195" t="s">
+        <v>201</v>
+      </c>
+      <c r="I195" t="s">
+        <v>201</v>
+      </c>
+      <c r="J195" t="s">
+        <v>201</v>
+      </c>
+      <c r="K195" t="s">
+        <v>201</v>
+      </c>
+      <c r="L195" t="s">
+        <v>66</v>
+      </c>
+      <c r="M195" t="s">
+        <v>204</v>
+      </c>
+      <c r="N195" t="s">
+        <v>66</v>
+      </c>
+      <c r="O195" t="s">
+        <v>66</v>
+      </c>
+      <c r="P195" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>66</v>
+      </c>
+      <c r="R195" t="s">
+        <v>184</v>
+      </c>
+      <c r="S195" t="s">
+        <v>184</v>
+      </c>
+      <c r="T195" t="s">
+        <v>184</v>
+      </c>
+      <c r="U195" t="s">
+        <v>184</v>
+      </c>
+      <c r="V195" t="s">
+        <v>184</v>
+      </c>
+      <c r="W195" t="s">
+        <v>184</v>
+      </c>
+      <c r="X195" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY195" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI195" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ195" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>80</v>
+      </c>
+      <c r="B196" t="s">
+        <v>561</v>
+      </c>
+      <c r="C196" t="s">
+        <v>183</v>
+      </c>
+      <c r="D196" t="s">
+        <v>183</v>
+      </c>
+      <c r="E196" t="s">
+        <v>395</v>
+      </c>
+      <c r="F196" t="s">
+        <v>395</v>
+      </c>
+      <c r="G196" t="s">
+        <v>395</v>
+      </c>
+      <c r="H196" t="s">
+        <v>395</v>
+      </c>
+      <c r="I196" t="s">
+        <v>395</v>
+      </c>
+      <c r="J196" t="s">
+        <v>395</v>
+      </c>
+      <c r="K196" t="s">
+        <v>395</v>
+      </c>
+      <c r="L196" t="s">
+        <v>395</v>
+      </c>
+      <c r="M196" t="s">
+        <v>395</v>
+      </c>
+      <c r="N196" t="s">
+        <v>361</v>
+      </c>
+      <c r="O196" t="s">
+        <v>361</v>
+      </c>
+      <c r="P196" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>184</v>
+      </c>
+      <c r="R196" t="s">
+        <v>184</v>
+      </c>
+      <c r="S196" t="s">
+        <v>184</v>
+      </c>
+      <c r="T196" t="s">
+        <v>184</v>
+      </c>
+      <c r="U196" t="s">
+        <v>184</v>
+      </c>
+      <c r="V196" t="s">
+        <v>184</v>
+      </c>
+      <c r="W196" t="s">
+        <v>184</v>
+      </c>
+      <c r="X196" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT196" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY196" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ196" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK196" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>80</v>
+      </c>
+      <c r="B197" t="s">
+        <v>563</v>
+      </c>
+      <c r="C197" t="s">
+        <v>183</v>
+      </c>
+      <c r="D197" t="s">
+        <v>183</v>
+      </c>
+      <c r="E197" t="s">
+        <v>183</v>
+      </c>
+      <c r="F197" t="s">
+        <v>183</v>
+      </c>
+      <c r="G197" t="s">
+        <v>183</v>
+      </c>
+      <c r="H197" t="s">
+        <v>183</v>
+      </c>
+      <c r="I197" t="s">
+        <v>183</v>
+      </c>
+      <c r="J197" t="s">
+        <v>183</v>
+      </c>
+      <c r="K197" t="s">
+        <v>183</v>
+      </c>
+      <c r="L197" t="s">
+        <v>183</v>
+      </c>
+      <c r="M197" t="s">
+        <v>183</v>
+      </c>
+      <c r="N197" t="s">
+        <v>183</v>
+      </c>
+      <c r="O197" t="s">
+        <v>183</v>
+      </c>
+      <c r="P197" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>183</v>
+      </c>
+      <c r="R197" t="s">
+        <v>183</v>
+      </c>
+      <c r="S197" t="s">
+        <v>183</v>
+      </c>
+      <c r="T197" t="s">
+        <v>183</v>
+      </c>
+      <c r="U197" t="s">
+        <v>183</v>
+      </c>
+      <c r="V197" t="s">
+        <v>183</v>
+      </c>
+      <c r="W197" t="s">
+        <v>183</v>
+      </c>
+      <c r="X197" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY197" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI197" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ197" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>80</v>
+      </c>
+      <c r="B198" t="s">
+        <v>564</v>
+      </c>
+      <c r="C198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D198" t="s">
+        <v>183</v>
+      </c>
+      <c r="E198" t="s">
+        <v>183</v>
+      </c>
+      <c r="F198" t="s">
+        <v>183</v>
+      </c>
+      <c r="G198" t="s">
+        <v>183</v>
+      </c>
+      <c r="H198" t="s">
+        <v>183</v>
+      </c>
+      <c r="I198" t="s">
+        <v>183</v>
+      </c>
+      <c r="J198" t="s">
+        <v>183</v>
+      </c>
+      <c r="K198" t="s">
+        <v>183</v>
+      </c>
+      <c r="L198" t="s">
+        <v>183</v>
+      </c>
+      <c r="M198" t="s">
+        <v>183</v>
+      </c>
+      <c r="N198" t="s">
+        <v>183</v>
+      </c>
+      <c r="O198" t="s">
+        <v>183</v>
+      </c>
+      <c r="P198" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>183</v>
+      </c>
+      <c r="R198" t="s">
+        <v>183</v>
+      </c>
+      <c r="S198" t="s">
+        <v>183</v>
+      </c>
+      <c r="T198" t="s">
+        <v>183</v>
+      </c>
+      <c r="U198" t="s">
+        <v>183</v>
+      </c>
+      <c r="V198" t="s">
+        <v>183</v>
+      </c>
+      <c r="W198" t="s">
+        <v>183</v>
+      </c>
+      <c r="X198" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY198" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI198" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ198" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>80</v>
+      </c>
+      <c r="B199" t="s">
+        <v>565</v>
+      </c>
+      <c r="C199" t="s">
+        <v>183</v>
+      </c>
+      <c r="D199" t="s">
+        <v>183</v>
+      </c>
+      <c r="E199" t="s">
+        <v>183</v>
+      </c>
+      <c r="F199" t="s">
+        <v>183</v>
+      </c>
+      <c r="G199" t="s">
+        <v>183</v>
+      </c>
+      <c r="H199" t="s">
+        <v>183</v>
+      </c>
+      <c r="I199" t="s">
+        <v>183</v>
+      </c>
+      <c r="J199" t="s">
+        <v>183</v>
+      </c>
+      <c r="K199" t="s">
+        <v>183</v>
+      </c>
+      <c r="L199" t="s">
+        <v>183</v>
+      </c>
+      <c r="M199" t="s">
+        <v>183</v>
+      </c>
+      <c r="N199" t="s">
+        <v>183</v>
+      </c>
+      <c r="O199" t="s">
+        <v>183</v>
+      </c>
+      <c r="P199" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>183</v>
+      </c>
+      <c r="R199" t="s">
+        <v>183</v>
+      </c>
+      <c r="S199" t="s">
+        <v>183</v>
+      </c>
+      <c r="T199" t="s">
+        <v>183</v>
+      </c>
+      <c r="U199" t="s">
+        <v>183</v>
+      </c>
+      <c r="V199" t="s">
+        <v>201</v>
+      </c>
+      <c r="W199" t="s">
+        <v>201</v>
+      </c>
+      <c r="X199" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT199" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY199" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BC199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH199" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI199" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ199" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK199" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>80</v>
+      </c>
+      <c r="B200" t="s">
+        <v>566</v>
+      </c>
+      <c r="C200" t="s">
+        <v>183</v>
+      </c>
+      <c r="D200" t="s">
+        <v>183</v>
+      </c>
+      <c r="E200" t="s">
+        <v>183</v>
+      </c>
+      <c r="F200" t="s">
+        <v>183</v>
+      </c>
+      <c r="G200" t="s">
+        <v>183</v>
+      </c>
+      <c r="H200" t="s">
+        <v>183</v>
+      </c>
+      <c r="I200" t="s">
+        <v>183</v>
+      </c>
+      <c r="J200" t="s">
+        <v>183</v>
+      </c>
+      <c r="K200" t="s">
+        <v>183</v>
+      </c>
+      <c r="L200" t="s">
+        <v>183</v>
+      </c>
+      <c r="M200" t="s">
+        <v>183</v>
+      </c>
+      <c r="N200" t="s">
+        <v>183</v>
+      </c>
+      <c r="O200" t="s">
+        <v>183</v>
+      </c>
+      <c r="P200" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>183</v>
+      </c>
+      <c r="R200" t="s">
+        <v>183</v>
+      </c>
+      <c r="S200" t="s">
+        <v>183</v>
+      </c>
+      <c r="T200" t="s">
+        <v>183</v>
+      </c>
+      <c r="U200" t="s">
+        <v>186</v>
+      </c>
+      <c r="V200" t="s">
+        <v>183</v>
+      </c>
+      <c r="W200" t="s">
+        <v>183</v>
+      </c>
+      <c r="X200" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY200" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI200" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ200" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>80</v>
+      </c>
+      <c r="B201" t="s">
+        <v>567</v>
+      </c>
+      <c r="C201" t="s">
+        <v>184</v>
+      </c>
+      <c r="D201" t="s">
+        <v>184</v>
+      </c>
+      <c r="E201" t="s">
+        <v>184</v>
+      </c>
+      <c r="F201" t="s">
+        <v>184</v>
+      </c>
+      <c r="G201" t="s">
+        <v>184</v>
+      </c>
+      <c r="H201" t="s">
+        <v>184</v>
+      </c>
+      <c r="I201" t="s">
+        <v>184</v>
+      </c>
+      <c r="J201" t="s">
+        <v>184</v>
+      </c>
+      <c r="K201" t="s">
+        <v>184</v>
+      </c>
+      <c r="L201" t="s">
+        <v>184</v>
+      </c>
+      <c r="M201" t="s">
+        <v>184</v>
+      </c>
+      <c r="N201" t="s">
+        <v>184</v>
+      </c>
+      <c r="O201" t="s">
+        <v>184</v>
+      </c>
+      <c r="P201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>184</v>
+      </c>
+      <c r="R201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T201" t="s">
+        <v>184</v>
+      </c>
+      <c r="U201" t="s">
+        <v>184</v>
+      </c>
+      <c r="V201" t="s">
+        <v>184</v>
+      </c>
+      <c r="W201" t="s">
+        <v>184</v>
+      </c>
+      <c r="X201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY201" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ201" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK201" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>80</v>
+      </c>
+      <c r="B202" t="s">
+        <v>568</v>
+      </c>
+      <c r="C202" t="s">
+        <v>183</v>
+      </c>
+      <c r="D202" t="s">
+        <v>183</v>
+      </c>
+      <c r="E202" t="s">
+        <v>183</v>
+      </c>
+      <c r="F202" t="s">
+        <v>183</v>
+      </c>
+      <c r="G202" t="s">
+        <v>183</v>
+      </c>
+      <c r="H202" t="s">
+        <v>183</v>
+      </c>
+      <c r="I202" t="s">
+        <v>183</v>
+      </c>
+      <c r="J202" t="s">
+        <v>183</v>
+      </c>
+      <c r="K202" t="s">
+        <v>183</v>
+      </c>
+      <c r="L202" t="s">
+        <v>183</v>
+      </c>
+      <c r="M202" t="s">
+        <v>183</v>
+      </c>
+      <c r="N202" t="s">
+        <v>183</v>
+      </c>
+      <c r="O202" t="s">
+        <v>183</v>
+      </c>
+      <c r="P202" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>183</v>
+      </c>
+      <c r="R202" t="s">
+        <v>183</v>
+      </c>
+      <c r="S202" t="s">
+        <v>183</v>
+      </c>
+      <c r="T202" t="s">
+        <v>183</v>
+      </c>
+      <c r="U202" t="s">
+        <v>183</v>
+      </c>
+      <c r="V202" t="s">
+        <v>183</v>
+      </c>
+      <c r="W202" t="s">
+        <v>183</v>
+      </c>
+      <c r="X202" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT202" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY202" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ202" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA202" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BF202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI202" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ202" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>80</v>
+      </c>
+      <c r="B203" t="s">
+        <v>569</v>
+      </c>
+      <c r="C203" t="s">
+        <v>184</v>
+      </c>
+      <c r="D203" t="s">
+        <v>184</v>
+      </c>
+      <c r="E203" t="s">
+        <v>184</v>
+      </c>
+      <c r="F203" t="s">
+        <v>184</v>
+      </c>
+      <c r="G203" t="s">
+        <v>184</v>
+      </c>
+      <c r="H203" t="s">
+        <v>184</v>
+      </c>
+      <c r="I203" t="s">
+        <v>184</v>
+      </c>
+      <c r="J203" t="s">
+        <v>184</v>
+      </c>
+      <c r="K203" t="s">
+        <v>184</v>
+      </c>
+      <c r="L203" t="s">
+        <v>184</v>
+      </c>
+      <c r="M203" t="s">
+        <v>184</v>
+      </c>
+      <c r="N203" t="s">
+        <v>184</v>
+      </c>
+      <c r="O203" t="s">
+        <v>184</v>
+      </c>
+      <c r="P203" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>184</v>
+      </c>
+      <c r="R203" t="s">
+        <v>184</v>
+      </c>
+      <c r="S203" t="s">
+        <v>184</v>
+      </c>
+      <c r="T203" t="s">
+        <v>184</v>
+      </c>
+      <c r="U203" t="s">
+        <v>184</v>
+      </c>
+      <c r="V203" t="s">
+        <v>184</v>
+      </c>
+      <c r="W203" t="s">
+        <v>184</v>
+      </c>
+      <c r="X203" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY203" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ203" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA203" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB203" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC203" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD203" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE203" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF203" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG203" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH203" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI203" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ203" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>80</v>
+      </c>
+      <c r="B204" t="s">
+        <v>570</v>
+      </c>
+      <c r="C204" t="s">
+        <v>183</v>
+      </c>
+      <c r="D204" t="s">
+        <v>183</v>
+      </c>
+      <c r="E204" t="s">
+        <v>183</v>
+      </c>
+      <c r="F204" t="s">
+        <v>183</v>
+      </c>
+      <c r="G204" t="s">
+        <v>466</v>
+      </c>
+      <c r="H204" t="s">
+        <v>186</v>
+      </c>
+      <c r="I204" t="s">
+        <v>183</v>
+      </c>
+      <c r="J204" t="s">
+        <v>202</v>
+      </c>
+      <c r="K204" t="s">
+        <v>202</v>
+      </c>
+      <c r="L204" t="s">
+        <v>202</v>
+      </c>
+      <c r="M204" t="s">
+        <v>202</v>
+      </c>
+      <c r="N204" t="s">
+        <v>202</v>
+      </c>
+      <c r="O204" t="s">
+        <v>202</v>
+      </c>
+      <c r="P204" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>183</v>
+      </c>
+      <c r="R204" t="s">
+        <v>183</v>
+      </c>
+      <c r="S204" t="s">
+        <v>183</v>
+      </c>
+      <c r="T204" t="s">
+        <v>183</v>
+      </c>
+      <c r="U204" t="s">
+        <v>186</v>
+      </c>
+      <c r="V204" t="s">
+        <v>183</v>
+      </c>
+      <c r="W204" t="s">
+        <v>183</v>
+      </c>
+      <c r="X204" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>202</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>202</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY204" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI204" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ204" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>80</v>
+      </c>
+      <c r="B205" t="s">
+        <v>571</v>
+      </c>
+      <c r="C205" t="s">
+        <v>184</v>
+      </c>
+      <c r="D205" t="s">
+        <v>184</v>
+      </c>
+      <c r="E205" t="s">
+        <v>184</v>
+      </c>
+      <c r="F205" t="s">
+        <v>184</v>
+      </c>
+      <c r="G205" t="s">
+        <v>184</v>
+      </c>
+      <c r="H205" t="s">
+        <v>184</v>
+      </c>
+      <c r="I205" t="s">
+        <v>184</v>
+      </c>
+      <c r="J205" t="s">
+        <v>184</v>
+      </c>
+      <c r="K205" t="s">
+        <v>184</v>
+      </c>
+      <c r="L205" t="s">
+        <v>184</v>
+      </c>
+      <c r="M205" t="s">
+        <v>184</v>
+      </c>
+      <c r="N205" t="s">
+        <v>184</v>
+      </c>
+      <c r="O205" t="s">
+        <v>184</v>
+      </c>
+      <c r="P205" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>184</v>
+      </c>
+      <c r="R205" t="s">
+        <v>184</v>
+      </c>
+      <c r="S205" t="s">
+        <v>184</v>
+      </c>
+      <c r="T205" t="s">
+        <v>184</v>
+      </c>
+      <c r="U205" t="s">
+        <v>184</v>
+      </c>
+      <c r="V205" t="s">
+        <v>184</v>
+      </c>
+      <c r="W205" t="s">
+        <v>184</v>
+      </c>
+      <c r="X205" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY205" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ205" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA205" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB205" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC205" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD205" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE205" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF205" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG205" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH205" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI205" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ205" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>80</v>
+      </c>
+      <c r="B206" t="s">
+        <v>572</v>
+      </c>
+      <c r="C206" t="s">
+        <v>201</v>
+      </c>
+      <c r="D206" t="s">
+        <v>201</v>
+      </c>
+      <c r="E206" t="s">
+        <v>201</v>
+      </c>
+      <c r="F206" t="s">
+        <v>201</v>
+      </c>
+      <c r="G206" t="s">
+        <v>201</v>
+      </c>
+      <c r="H206" t="s">
+        <v>201</v>
+      </c>
+      <c r="I206" t="s">
+        <v>201</v>
+      </c>
+      <c r="J206" t="s">
+        <v>201</v>
+      </c>
+      <c r="K206" t="s">
+        <v>183</v>
+      </c>
+      <c r="L206" t="s">
+        <v>201</v>
+      </c>
+      <c r="M206" t="s">
+        <v>201</v>
+      </c>
+      <c r="N206" t="s">
+        <v>201</v>
+      </c>
+      <c r="O206" t="s">
+        <v>201</v>
+      </c>
+      <c r="P206" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>183</v>
+      </c>
+      <c r="R206" t="s">
+        <v>183</v>
+      </c>
+      <c r="S206" t="s">
+        <v>201</v>
+      </c>
+      <c r="T206" t="s">
+        <v>201</v>
+      </c>
+      <c r="U206" t="s">
+        <v>201</v>
+      </c>
+      <c r="V206" t="s">
+        <v>183</v>
+      </c>
+      <c r="W206" t="s">
+        <v>183</v>
+      </c>
+      <c r="X206" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY206" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF206" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG206" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH206" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI206" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ206" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>80</v>
+      </c>
+      <c r="B207" t="s">
+        <v>573</v>
+      </c>
+      <c r="C207" t="s">
+        <v>184</v>
+      </c>
+      <c r="D207" t="s">
+        <v>184</v>
+      </c>
+      <c r="E207" t="s">
+        <v>184</v>
+      </c>
+      <c r="F207" t="s">
+        <v>184</v>
+      </c>
+      <c r="G207" t="s">
+        <v>184</v>
+      </c>
+      <c r="H207" t="s">
+        <v>66</v>
+      </c>
+      <c r="I207" t="s">
+        <v>66</v>
+      </c>
+      <c r="J207" t="s">
+        <v>66</v>
+      </c>
+      <c r="K207" t="s">
+        <v>66</v>
+      </c>
+      <c r="L207" t="s">
+        <v>183</v>
+      </c>
+      <c r="M207" t="s">
+        <v>66</v>
+      </c>
+      <c r="N207" t="s">
+        <v>182</v>
+      </c>
+      <c r="O207" t="s">
+        <v>66</v>
+      </c>
+      <c r="P207" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>184</v>
+      </c>
+      <c r="R207" t="s">
+        <v>184</v>
+      </c>
+      <c r="S207" t="s">
+        <v>66</v>
+      </c>
+      <c r="T207" t="s">
+        <v>66</v>
+      </c>
+      <c r="U207" t="s">
+        <v>66</v>
+      </c>
+      <c r="V207" t="s">
+        <v>66</v>
+      </c>
+      <c r="W207" t="s">
+        <v>183</v>
+      </c>
+      <c r="X207" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY207" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ207" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA207" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB207" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC207" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD207" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE207" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF207" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG207" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH207" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI207" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ207" t="s">
+        <v>202</v>
+      </c>
+      <c r="BK207" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>80</v>
+      </c>
+      <c r="B208" t="s">
+        <v>574</v>
+      </c>
+      <c r="C208" t="s">
+        <v>184</v>
+      </c>
+      <c r="D208" t="s">
+        <v>184</v>
+      </c>
+      <c r="E208" t="s">
+        <v>184</v>
+      </c>
+      <c r="F208" t="s">
+        <v>184</v>
+      </c>
+      <c r="G208" t="s">
+        <v>184</v>
+      </c>
+      <c r="H208" t="s">
+        <v>184</v>
+      </c>
+      <c r="I208" t="s">
+        <v>184</v>
+      </c>
+      <c r="J208" t="s">
+        <v>184</v>
+      </c>
+      <c r="K208" t="s">
+        <v>184</v>
+      </c>
+      <c r="L208" t="s">
+        <v>184</v>
+      </c>
+      <c r="M208" t="s">
+        <v>184</v>
+      </c>
+      <c r="N208" t="s">
+        <v>184</v>
+      </c>
+      <c r="O208" t="s">
+        <v>184</v>
+      </c>
+      <c r="P208" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>184</v>
+      </c>
+      <c r="R208" t="s">
+        <v>184</v>
+      </c>
+      <c r="S208" t="s">
+        <v>184</v>
+      </c>
+      <c r="T208" t="s">
+        <v>184</v>
+      </c>
+      <c r="U208" t="s">
+        <v>184</v>
+      </c>
+      <c r="V208" t="s">
+        <v>184</v>
+      </c>
+      <c r="W208" t="s">
+        <v>184</v>
+      </c>
+      <c r="X208" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ208" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA208" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB208" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC208" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI208" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ208" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>80</v>
+      </c>
+      <c r="B209" t="s">
+        <v>575</v>
+      </c>
+      <c r="C209" t="s">
+        <v>183</v>
+      </c>
+      <c r="D209" t="s">
+        <v>183</v>
+      </c>
+      <c r="E209" t="s">
+        <v>183</v>
+      </c>
+      <c r="F209" t="s">
+        <v>183</v>
+      </c>
+      <c r="G209" t="s">
+        <v>183</v>
+      </c>
+      <c r="H209" t="s">
+        <v>183</v>
+      </c>
+      <c r="I209" t="s">
+        <v>395</v>
+      </c>
+      <c r="J209" t="s">
+        <v>183</v>
+      </c>
+      <c r="K209" t="s">
+        <v>183</v>
+      </c>
+      <c r="L209" t="s">
+        <v>183</v>
+      </c>
+      <c r="M209" t="s">
+        <v>183</v>
+      </c>
+      <c r="N209" t="s">
+        <v>201</v>
+      </c>
+      <c r="O209" t="s">
+        <v>201</v>
+      </c>
+      <c r="P209" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>201</v>
+      </c>
+      <c r="R209" t="s">
+        <v>201</v>
+      </c>
+      <c r="S209" t="s">
+        <v>183</v>
+      </c>
+      <c r="T209" t="s">
+        <v>66</v>
+      </c>
+      <c r="U209" t="s">
+        <v>184</v>
+      </c>
+      <c r="V209" t="s">
+        <v>184</v>
+      </c>
+      <c r="W209" t="s">
+        <v>184</v>
+      </c>
+      <c r="X209" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP209" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR209" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY209" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI209" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ209" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>80</v>
+      </c>
+      <c r="B210" t="s">
+        <v>576</v>
+      </c>
+      <c r="C210" t="s">
+        <v>201</v>
+      </c>
+      <c r="D210" t="s">
+        <v>201</v>
+      </c>
+      <c r="E210" t="s">
+        <v>201</v>
+      </c>
+      <c r="F210" t="s">
+        <v>201</v>
+      </c>
+      <c r="G210" t="s">
+        <v>201</v>
+      </c>
+      <c r="H210" t="s">
+        <v>201</v>
+      </c>
+      <c r="I210" t="s">
+        <v>201</v>
+      </c>
+      <c r="J210" t="s">
+        <v>201</v>
+      </c>
+      <c r="K210" t="s">
+        <v>201</v>
+      </c>
+      <c r="L210" t="s">
+        <v>201</v>
+      </c>
+      <c r="M210" t="s">
+        <v>201</v>
+      </c>
+      <c r="N210" t="s">
+        <v>201</v>
+      </c>
+      <c r="O210" t="s">
+        <v>201</v>
+      </c>
+      <c r="P210" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>201</v>
+      </c>
+      <c r="R210" t="s">
+        <v>201</v>
+      </c>
+      <c r="S210" t="s">
+        <v>201</v>
+      </c>
+      <c r="T210" t="s">
+        <v>201</v>
+      </c>
+      <c r="U210" t="s">
+        <v>201</v>
+      </c>
+      <c r="V210" t="s">
+        <v>201</v>
+      </c>
+      <c r="W210" t="s">
+        <v>201</v>
+      </c>
+      <c r="X210" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY210" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ210" t="s">
+        <v>201</v>
+      </c>
+      <c r="BA210" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB210" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC210" t="s">
+        <v>201</v>
+      </c>
+      <c r="BD210" t="s">
+        <v>201</v>
+      </c>
+      <c r="BE210" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF210" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG210" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH210" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI210" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ210" t="s">
+        <v>66</v>
+      </c>
+      <c r="BK210" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>80</v>
+      </c>
+      <c r="B211" t="s">
+        <v>577</v>
+      </c>
+      <c r="C211" t="s">
+        <v>183</v>
+      </c>
+      <c r="D211" t="s">
+        <v>181</v>
+      </c>
+      <c r="E211" t="s">
+        <v>181</v>
+      </c>
+      <c r="F211" t="s">
+        <v>181</v>
+      </c>
+      <c r="G211" t="s">
+        <v>183</v>
+      </c>
+      <c r="H211" t="s">
+        <v>186</v>
+      </c>
+      <c r="I211" t="s">
+        <v>183</v>
+      </c>
+      <c r="J211" t="s">
+        <v>183</v>
+      </c>
+      <c r="K211" t="s">
+        <v>183</v>
+      </c>
+      <c r="L211" t="s">
+        <v>183</v>
+      </c>
+      <c r="M211" t="s">
+        <v>183</v>
+      </c>
+      <c r="N211" t="s">
+        <v>188</v>
+      </c>
+      <c r="O211" t="s">
+        <v>182</v>
+      </c>
+      <c r="P211" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>183</v>
+      </c>
+      <c r="R211" t="s">
+        <v>183</v>
+      </c>
+      <c r="S211" t="s">
+        <v>183</v>
+      </c>
+      <c r="T211" t="s">
+        <v>183</v>
+      </c>
+      <c r="U211" t="s">
+        <v>182</v>
+      </c>
+      <c r="V211" t="s">
+        <v>182</v>
+      </c>
+      <c r="W211" t="s">
+        <v>182</v>
+      </c>
+      <c r="X211" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY211" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ211" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA211" t="s">
+        <v>181</v>
+      </c>
+      <c r="BB211" t="s">
+        <v>181</v>
+      </c>
+      <c r="BC211" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD211" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE211" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF211" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG211" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH211" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI211" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ211" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>80</v>
+      </c>
+      <c r="B212" t="s">
+        <v>578</v>
+      </c>
+      <c r="C212" t="s">
+        <v>184</v>
+      </c>
+      <c r="D212" t="s">
+        <v>184</v>
+      </c>
+      <c r="E212" t="s">
+        <v>184</v>
+      </c>
+      <c r="F212" t="s">
+        <v>184</v>
+      </c>
+      <c r="G212" t="s">
+        <v>184</v>
+      </c>
+      <c r="H212" t="s">
+        <v>184</v>
+      </c>
+      <c r="I212" t="s">
+        <v>184</v>
+      </c>
+      <c r="J212" t="s">
+        <v>184</v>
+      </c>
+      <c r="K212" t="s">
+        <v>184</v>
+      </c>
+      <c r="L212" t="s">
+        <v>184</v>
+      </c>
+      <c r="M212" t="s">
+        <v>184</v>
+      </c>
+      <c r="N212" t="s">
+        <v>184</v>
+      </c>
+      <c r="O212" t="s">
+        <v>184</v>
+      </c>
+      <c r="P212" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>184</v>
+      </c>
+      <c r="R212" t="s">
+        <v>184</v>
+      </c>
+      <c r="S212" t="s">
+        <v>184</v>
+      </c>
+      <c r="T212" t="s">
+        <v>184</v>
+      </c>
+      <c r="U212" t="s">
+        <v>184</v>
+      </c>
+      <c r="V212" t="s">
+        <v>184</v>
+      </c>
+      <c r="W212" t="s">
+        <v>184</v>
+      </c>
+      <c r="X212" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY212" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI212" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ212" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>80</v>
+      </c>
+      <c r="B213" t="s">
+        <v>579</v>
+      </c>
+      <c r="C213" t="s">
+        <v>201</v>
+      </c>
+      <c r="D213" t="s">
+        <v>201</v>
+      </c>
+      <c r="E213" t="s">
+        <v>201</v>
+      </c>
+      <c r="F213" t="s">
+        <v>201</v>
+      </c>
+      <c r="G213" t="s">
+        <v>201</v>
+      </c>
+      <c r="H213" t="s">
+        <v>201</v>
+      </c>
+      <c r="I213" t="s">
+        <v>201</v>
+      </c>
+      <c r="J213" t="s">
+        <v>201</v>
+      </c>
+      <c r="K213" t="s">
+        <v>201</v>
+      </c>
+      <c r="L213" t="s">
+        <v>201</v>
+      </c>
+      <c r="M213" t="s">
+        <v>201</v>
+      </c>
+      <c r="N213" t="s">
+        <v>201</v>
+      </c>
+      <c r="O213" t="s">
+        <v>201</v>
+      </c>
+      <c r="P213" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>201</v>
+      </c>
+      <c r="R213" t="s">
+        <v>201</v>
+      </c>
+      <c r="S213" t="s">
+        <v>201</v>
+      </c>
+      <c r="T213" t="s">
+        <v>201</v>
+      </c>
+      <c r="U213" t="s">
+        <v>201</v>
+      </c>
+      <c r="V213" t="s">
+        <v>183</v>
+      </c>
+      <c r="W213" t="s">
+        <v>183</v>
+      </c>
+      <c r="X213" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP213" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>188</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ213" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BB213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH213" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI213" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ213" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>90</v>
+      </c>
+      <c r="B214" t="s">
+        <v>584</v>
+      </c>
+      <c r="C214" t="s">
+        <v>360</v>
+      </c>
+      <c r="D214" t="s">
+        <v>181</v>
+      </c>
+      <c r="E214" t="s">
+        <v>181</v>
+      </c>
+      <c r="F214" t="s">
+        <v>181</v>
+      </c>
+      <c r="G214" t="s">
+        <v>181</v>
+      </c>
+      <c r="H214" t="s">
+        <v>181</v>
+      </c>
+      <c r="I214" t="s">
+        <v>181</v>
+      </c>
+      <c r="J214" t="s">
+        <v>181</v>
+      </c>
+      <c r="K214" t="s">
+        <v>181</v>
+      </c>
+      <c r="L214" t="s">
+        <v>181</v>
+      </c>
+      <c r="M214" t="s">
+        <v>181</v>
+      </c>
+      <c r="N214" t="s">
+        <v>181</v>
+      </c>
+      <c r="O214" t="s">
+        <v>181</v>
+      </c>
+      <c r="P214" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>181</v>
+      </c>
+      <c r="R214" t="s">
+        <v>181</v>
+      </c>
+      <c r="S214" t="s">
+        <v>181</v>
+      </c>
+      <c r="T214" t="s">
+        <v>181</v>
+      </c>
+      <c r="U214" t="s">
+        <v>183</v>
+      </c>
+      <c r="V214" t="s">
+        <v>183</v>
+      </c>
+      <c r="W214" t="s">
+        <v>183</v>
+      </c>
+      <c r="X214" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI214" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ214" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>94</v>
+      </c>
+      <c r="B215" t="s">
+        <v>584</v>
+      </c>
+      <c r="C215" t="s">
+        <v>66</v>
+      </c>
+      <c r="D215" t="s">
+        <v>66</v>
+      </c>
+      <c r="E215" t="s">
+        <v>66</v>
+      </c>
+      <c r="F215" t="s">
+        <v>66</v>
+      </c>
+      <c r="G215" t="s">
+        <v>66</v>
+      </c>
+      <c r="H215" t="s">
+        <v>184</v>
+      </c>
+      <c r="I215" t="s">
+        <v>184</v>
+      </c>
+      <c r="J215" t="s">
+        <v>184</v>
+      </c>
+      <c r="K215" t="s">
+        <v>184</v>
+      </c>
+      <c r="L215" t="s">
+        <v>184</v>
+      </c>
+      <c r="M215" t="s">
+        <v>184</v>
+      </c>
+      <c r="N215" t="s">
+        <v>66</v>
+      </c>
+      <c r="O215" t="s">
+        <v>66</v>
+      </c>
+      <c r="P215" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>183</v>
+      </c>
+      <c r="R215" t="s">
+        <v>183</v>
+      </c>
+      <c r="S215" t="s">
+        <v>183</v>
+      </c>
+      <c r="T215" t="s">
+        <v>183</v>
+      </c>
+      <c r="U215" t="s">
+        <v>183</v>
+      </c>
+      <c r="V215" t="s">
+        <v>66</v>
+      </c>
+      <c r="W215" t="s">
+        <v>66</v>
+      </c>
+      <c r="X215" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>395</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>395</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>204</v>
+      </c>
+      <c r="AZ215" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA215" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB215" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC215" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD215" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE215" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF215" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG215" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH215" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI215" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ215" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>97</v>
+      </c>
+      <c r="B216" t="s">
+        <v>584</v>
+      </c>
+      <c r="C216" t="s">
+        <v>360</v>
+      </c>
+      <c r="D216" t="s">
+        <v>360</v>
+      </c>
+      <c r="E216" t="s">
+        <v>360</v>
+      </c>
+      <c r="F216" t="s">
+        <v>360</v>
+      </c>
+      <c r="G216" t="s">
+        <v>360</v>
+      </c>
+      <c r="H216" t="s">
+        <v>360</v>
+      </c>
+      <c r="I216" t="s">
+        <v>360</v>
+      </c>
+      <c r="J216" t="s">
+        <v>360</v>
+      </c>
+      <c r="K216" t="s">
+        <v>360</v>
+      </c>
+      <c r="L216" t="s">
+        <v>360</v>
+      </c>
+      <c r="M216" t="s">
+        <v>360</v>
+      </c>
+      <c r="N216" t="s">
+        <v>360</v>
+      </c>
+      <c r="O216" t="s">
+        <v>360</v>
+      </c>
+      <c r="P216" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>360</v>
+      </c>
+      <c r="R216" t="s">
+        <v>360</v>
+      </c>
+      <c r="S216" t="s">
+        <v>360</v>
+      </c>
+      <c r="T216" t="s">
+        <v>360</v>
+      </c>
+      <c r="U216" t="s">
+        <v>360</v>
+      </c>
+      <c r="V216" t="s">
+        <v>360</v>
+      </c>
+      <c r="W216" t="s">
+        <v>360</v>
+      </c>
+      <c r="X216" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI216" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ216" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>90</v>
+      </c>
+      <c r="B217" t="s">
+        <v>585</v>
+      </c>
+      <c r="C217" t="s">
+        <v>183</v>
+      </c>
+      <c r="D217" t="s">
+        <v>183</v>
+      </c>
+      <c r="E217" t="s">
+        <v>183</v>
+      </c>
+      <c r="F217" t="s">
+        <v>66</v>
+      </c>
+      <c r="G217" t="s">
+        <v>66</v>
+      </c>
+      <c r="H217" t="s">
+        <v>66</v>
+      </c>
+      <c r="I217" t="s">
+        <v>66</v>
+      </c>
+      <c r="J217" t="s">
+        <v>66</v>
+      </c>
+      <c r="K217" t="s">
+        <v>66</v>
+      </c>
+      <c r="L217" t="s">
+        <v>183</v>
+      </c>
+      <c r="M217" t="s">
+        <v>183</v>
+      </c>
+      <c r="N217" t="s">
+        <v>66</v>
+      </c>
+      <c r="O217" t="s">
+        <v>66</v>
+      </c>
+      <c r="P217" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>184</v>
+      </c>
+      <c r="R217" t="s">
+        <v>184</v>
+      </c>
+      <c r="S217" t="s">
+        <v>184</v>
+      </c>
+      <c r="T217" t="s">
+        <v>184</v>
+      </c>
+      <c r="U217" t="s">
+        <v>184</v>
+      </c>
+      <c r="V217" t="s">
+        <v>66</v>
+      </c>
+      <c r="W217" t="s">
+        <v>202</v>
+      </c>
+      <c r="X217" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY217" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI217" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ217" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="218" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>94</v>
+      </c>
+      <c r="B218" t="s">
+        <v>585</v>
+      </c>
+      <c r="C218" t="s">
+        <v>184</v>
+      </c>
+      <c r="D218" t="s">
+        <v>184</v>
+      </c>
+      <c r="E218" t="s">
+        <v>184</v>
+      </c>
+      <c r="F218" t="s">
+        <v>184</v>
+      </c>
+      <c r="G218" t="s">
+        <v>184</v>
+      </c>
+      <c r="H218" t="s">
+        <v>184</v>
+      </c>
+      <c r="I218" t="s">
+        <v>184</v>
+      </c>
+      <c r="J218" t="s">
+        <v>184</v>
+      </c>
+      <c r="K218" t="s">
+        <v>184</v>
+      </c>
+      <c r="L218" t="s">
+        <v>184</v>
+      </c>
+      <c r="M218" t="s">
+        <v>184</v>
+      </c>
+      <c r="N218" t="s">
+        <v>184</v>
+      </c>
+      <c r="O218" t="s">
+        <v>184</v>
+      </c>
+      <c r="P218" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>184</v>
+      </c>
+      <c r="R218" t="s">
+        <v>184</v>
+      </c>
+      <c r="S218" t="s">
+        <v>184</v>
+      </c>
+      <c r="T218" t="s">
+        <v>184</v>
+      </c>
+      <c r="U218" t="s">
+        <v>184</v>
+      </c>
+      <c r="V218" t="s">
+        <v>184</v>
+      </c>
+      <c r="W218" t="s">
+        <v>184</v>
+      </c>
+      <c r="X218" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP218" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>395</v>
+      </c>
+      <c r="AS218" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT218" t="s">
+        <v>204</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>204</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ218" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA218" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB218" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC218" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD218" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE218" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF218" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG218" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH218" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI218" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ218" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="219" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>97</v>
+      </c>
+      <c r="B219" t="s">
+        <v>585</v>
+      </c>
+      <c r="C219" t="s">
+        <v>186</v>
+      </c>
+      <c r="D219" t="s">
+        <v>183</v>
+      </c>
+      <c r="E219" t="s">
+        <v>183</v>
+      </c>
+      <c r="F219" t="s">
+        <v>183</v>
+      </c>
+      <c r="G219" t="s">
+        <v>183</v>
+      </c>
+      <c r="H219" t="s">
+        <v>183</v>
+      </c>
+      <c r="I219" t="s">
+        <v>66</v>
+      </c>
+      <c r="J219" t="s">
+        <v>66</v>
+      </c>
+      <c r="K219" t="s">
+        <v>66</v>
+      </c>
+      <c r="L219" t="s">
+        <v>184</v>
+      </c>
+      <c r="M219" t="s">
+        <v>184</v>
+      </c>
+      <c r="N219" t="s">
+        <v>184</v>
+      </c>
+      <c r="O219" t="s">
+        <v>184</v>
+      </c>
+      <c r="P219" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>184</v>
+      </c>
+      <c r="R219" t="s">
+        <v>184</v>
+      </c>
+      <c r="S219" t="s">
+        <v>184</v>
+      </c>
+      <c r="T219" t="s">
+        <v>184</v>
+      </c>
+      <c r="U219" t="s">
+        <v>184</v>
+      </c>
+      <c r="V219" t="s">
+        <v>184</v>
+      </c>
+      <c r="W219" t="s">
+        <v>184</v>
+      </c>
+      <c r="X219" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP219" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>186</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT219" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE219" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF219" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG219" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH219" t="s">
+        <v>204</v>
+      </c>
+      <c r="BI219" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ219" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="220" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>90</v>
+      </c>
+      <c r="B220" t="s">
+        <v>586</v>
+      </c>
+      <c r="C220" t="s">
+        <v>66</v>
+      </c>
+      <c r="D220" t="s">
+        <v>66</v>
+      </c>
+      <c r="E220" t="s">
+        <v>66</v>
+      </c>
+      <c r="F220" t="s">
+        <v>66</v>
+      </c>
+      <c r="G220" t="s">
+        <v>66</v>
+      </c>
+      <c r="H220" t="s">
+        <v>184</v>
+      </c>
+      <c r="I220" t="s">
+        <v>184</v>
+      </c>
+      <c r="J220" t="s">
+        <v>184</v>
+      </c>
+      <c r="K220" t="s">
+        <v>184</v>
+      </c>
+      <c r="L220" t="s">
+        <v>184</v>
+      </c>
+      <c r="M220" t="s">
+        <v>184</v>
+      </c>
+      <c r="N220" t="s">
+        <v>184</v>
+      </c>
+      <c r="O220" t="s">
+        <v>184</v>
+      </c>
+      <c r="P220" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>184</v>
+      </c>
+      <c r="R220" t="s">
+        <v>184</v>
+      </c>
+      <c r="S220" t="s">
+        <v>184</v>
+      </c>
+      <c r="T220" t="s">
+        <v>184</v>
+      </c>
+      <c r="U220" t="s">
+        <v>184</v>
+      </c>
+      <c r="V220" t="s">
+        <v>184</v>
+      </c>
+      <c r="W220" t="s">
+        <v>184</v>
+      </c>
+      <c r="X220" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW220" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ220" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA220" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB220" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI220" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ220" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="221" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>94</v>
+      </c>
+      <c r="B221" t="s">
+        <v>586</v>
+      </c>
+      <c r="C221" t="s">
+        <v>183</v>
+      </c>
+      <c r="D221" t="s">
+        <v>183</v>
+      </c>
+      <c r="E221" t="s">
+        <v>183</v>
+      </c>
+      <c r="F221" t="s">
+        <v>183</v>
+      </c>
+      <c r="G221" t="s">
+        <v>183</v>
+      </c>
+      <c r="H221" t="s">
+        <v>183</v>
+      </c>
+      <c r="I221" t="s">
+        <v>186</v>
+      </c>
+      <c r="J221" t="s">
+        <v>183</v>
+      </c>
+      <c r="K221" t="s">
+        <v>66</v>
+      </c>
+      <c r="L221" t="s">
+        <v>183</v>
+      </c>
+      <c r="M221" t="s">
+        <v>183</v>
+      </c>
+      <c r="N221" t="s">
+        <v>183</v>
+      </c>
+      <c r="O221" t="s">
+        <v>183</v>
+      </c>
+      <c r="P221" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>183</v>
+      </c>
+      <c r="R221" t="s">
+        <v>183</v>
+      </c>
+      <c r="S221" t="s">
+        <v>183</v>
+      </c>
+      <c r="T221" t="s">
+        <v>183</v>
+      </c>
+      <c r="U221" t="s">
+        <v>183</v>
+      </c>
+      <c r="V221" t="s">
+        <v>183</v>
+      </c>
+      <c r="W221" t="s">
+        <v>181</v>
+      </c>
+      <c r="X221" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ221" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI221" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ221" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>97</v>
+      </c>
+      <c r="B222" t="s">
+        <v>586</v>
+      </c>
+      <c r="C222" t="s">
+        <v>186</v>
+      </c>
+      <c r="D222" t="s">
+        <v>66</v>
+      </c>
+      <c r="E222" t="s">
+        <v>66</v>
+      </c>
+      <c r="F222" t="s">
+        <v>66</v>
+      </c>
+      <c r="G222" t="s">
+        <v>66</v>
+      </c>
+      <c r="H222" t="s">
+        <v>66</v>
+      </c>
+      <c r="I222" t="s">
+        <v>66</v>
+      </c>
+      <c r="J222" t="s">
+        <v>66</v>
+      </c>
+      <c r="K222" t="s">
+        <v>183</v>
+      </c>
+      <c r="L222" t="s">
+        <v>183</v>
+      </c>
+      <c r="M222" t="s">
+        <v>202</v>
+      </c>
+      <c r="N222" t="s">
+        <v>202</v>
+      </c>
+      <c r="O222" t="s">
+        <v>186</v>
+      </c>
+      <c r="P222" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>202</v>
+      </c>
+      <c r="R222" t="s">
+        <v>204</v>
+      </c>
+      <c r="S222" t="s">
+        <v>186</v>
+      </c>
+      <c r="T222" t="s">
+        <v>66</v>
+      </c>
+      <c r="U222" t="s">
+        <v>183</v>
+      </c>
+      <c r="V222" t="s">
+        <v>183</v>
+      </c>
+      <c r="W222" t="s">
+        <v>183</v>
+      </c>
+      <c r="X222" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AP222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ222" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI222" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ222" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="223" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>90</v>
+      </c>
+      <c r="B223" t="s">
+        <v>587</v>
+      </c>
+      <c r="C223" t="s">
+        <v>184</v>
+      </c>
+      <c r="D223" t="s">
+        <v>66</v>
+      </c>
+      <c r="E223" t="s">
+        <v>204</v>
+      </c>
+      <c r="F223" t="s">
+        <v>66</v>
+      </c>
+      <c r="G223" t="s">
+        <v>184</v>
+      </c>
+      <c r="H223" t="s">
+        <v>184</v>
+      </c>
+      <c r="I223" t="s">
+        <v>184</v>
+      </c>
+      <c r="J223" t="s">
+        <v>184</v>
+      </c>
+      <c r="K223" t="s">
+        <v>184</v>
+      </c>
+      <c r="L223" t="s">
+        <v>184</v>
+      </c>
+      <c r="M223" t="s">
+        <v>184</v>
+      </c>
+      <c r="N223" t="s">
+        <v>184</v>
+      </c>
+      <c r="O223" t="s">
+        <v>184</v>
+      </c>
+      <c r="P223" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>184</v>
+      </c>
+      <c r="R223" t="s">
+        <v>184</v>
+      </c>
+      <c r="S223" t="s">
+        <v>184</v>
+      </c>
+      <c r="T223" t="s">
+        <v>184</v>
+      </c>
+      <c r="U223" t="s">
+        <v>184</v>
+      </c>
+      <c r="V223" t="s">
+        <v>184</v>
+      </c>
+      <c r="W223" t="s">
+        <v>184</v>
+      </c>
+      <c r="X223" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI223" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ223" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="224" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>97</v>
+      </c>
+      <c r="B224" t="s">
+        <v>587</v>
+      </c>
+      <c r="C224" t="s">
+        <v>202</v>
+      </c>
+      <c r="D224" t="s">
+        <v>202</v>
+      </c>
+      <c r="E224" t="s">
+        <v>202</v>
+      </c>
+      <c r="F224" t="s">
+        <v>202</v>
+      </c>
+      <c r="G224" t="s">
+        <v>66</v>
+      </c>
+      <c r="H224" t="s">
+        <v>182</v>
+      </c>
+      <c r="I224" t="s">
+        <v>66</v>
+      </c>
+      <c r="J224" t="s">
+        <v>66</v>
+      </c>
+      <c r="K224" t="s">
+        <v>183</v>
+      </c>
+      <c r="L224" t="s">
+        <v>183</v>
+      </c>
+      <c r="M224" t="s">
+        <v>183</v>
+      </c>
+      <c r="N224" t="s">
+        <v>66</v>
+      </c>
+      <c r="O224" t="s">
+        <v>66</v>
+      </c>
+      <c r="P224" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>184</v>
+      </c>
+      <c r="R224" t="s">
+        <v>184</v>
+      </c>
+      <c r="S224" t="s">
+        <v>184</v>
+      </c>
+      <c r="T224" t="s">
+        <v>184</v>
+      </c>
+      <c r="U224" t="s">
+        <v>184</v>
+      </c>
+      <c r="V224" t="s">
+        <v>184</v>
+      </c>
+      <c r="W224" t="s">
+        <v>184</v>
+      </c>
+      <c r="X224" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ224" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD224" t="s">
+        <v>181</v>
+      </c>
+      <c r="BE224" t="s">
+        <v>181</v>
+      </c>
+      <c r="BF224" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI224" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ224" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10757" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4C06F9-A3A7-439E-86C4-90AB1A53EA31}"/>
+  <xr:revisionPtr revIDLastSave="11769" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2EA7C1-046B-401A-AB9F-5BAFD8C9378A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13533" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15212" uniqueCount="631">
   <si>
     <t>Pen</t>
   </si>
@@ -1878,6 +1878,63 @@
   </si>
   <si>
     <t>Pen38_31</t>
+  </si>
+  <si>
+    <t>Pen33_2</t>
+  </si>
+  <si>
+    <t>Pen33_3</t>
+  </si>
+  <si>
+    <t>Pen33_5</t>
+  </si>
+  <si>
+    <t>Pen33_6</t>
+  </si>
+  <si>
+    <t>Pen33_7</t>
+  </si>
+  <si>
+    <t>Pen33_8</t>
+  </si>
+  <si>
+    <t>Sage on the right (larger white spot on front and darker throat)</t>
+  </si>
+  <si>
+    <t>Pen33_9</t>
+  </si>
+  <si>
+    <t>Pen33_11</t>
+  </si>
+  <si>
+    <t>Runs away furtively with a piece of food</t>
+  </si>
+  <si>
+    <t>Pen33_12</t>
+  </si>
+  <si>
+    <t>Pen33_13</t>
+  </si>
+  <si>
+    <t>Pen33_14</t>
+  </si>
+  <si>
+    <t>Pen33_15</t>
+  </si>
+  <si>
+    <t>Pen33_17</t>
+  </si>
+  <si>
+    <t>Note to self didn't code footage from #16 couldn’t ID birds</t>
+  </si>
+  <si>
+    <t>Not full wing display, just dropping primaries</t>
+  </si>
+  <si>
+    <t>Pen33_18</t>
+  </si>
+  <si>
+    <t>Pen33_19</t>
   </si>
 </sst>
 </file>
@@ -2742,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63C46F-C556-44F6-932B-B4CD58F367A9}">
   <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:P11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9048,11 +9105,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
-  <dimension ref="A1:BK277"/>
+  <dimension ref="A1:BK304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D282" sqref="D282"/>
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A305" sqref="A305:XFD305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -46588,7 +46645,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="273" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>97</v>
       </c>
@@ -46776,7 +46833,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="274" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>90</v>
       </c>
@@ -46964,7 +47021,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="275" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>94</v>
       </c>
@@ -47152,7 +47209,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="276" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>97</v>
       </c>
@@ -47340,7 +47397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="277" spans="1:62" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:63" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>97</v>
       </c>
@@ -47526,6 +47583,5097 @@
       </c>
       <c r="BJ277" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="278" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>127</v>
+      </c>
+      <c r="B278" t="s">
+        <v>612</v>
+      </c>
+      <c r="C278" t="s">
+        <v>183</v>
+      </c>
+      <c r="D278" t="s">
+        <v>186</v>
+      </c>
+      <c r="E278" t="s">
+        <v>183</v>
+      </c>
+      <c r="F278" t="s">
+        <v>66</v>
+      </c>
+      <c r="G278" t="s">
+        <v>66</v>
+      </c>
+      <c r="H278" t="s">
+        <v>184</v>
+      </c>
+      <c r="I278" t="s">
+        <v>184</v>
+      </c>
+      <c r="J278" t="s">
+        <v>184</v>
+      </c>
+      <c r="K278" t="s">
+        <v>184</v>
+      </c>
+      <c r="L278" t="s">
+        <v>184</v>
+      </c>
+      <c r="M278" t="s">
+        <v>184</v>
+      </c>
+      <c r="N278" t="s">
+        <v>186</v>
+      </c>
+      <c r="O278" t="s">
+        <v>183</v>
+      </c>
+      <c r="P278" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>183</v>
+      </c>
+      <c r="R278" t="s">
+        <v>183</v>
+      </c>
+      <c r="S278" t="s">
+        <v>186</v>
+      </c>
+      <c r="T278" t="s">
+        <v>183</v>
+      </c>
+      <c r="U278" t="s">
+        <v>183</v>
+      </c>
+      <c r="V278" t="s">
+        <v>183</v>
+      </c>
+      <c r="W278" t="s">
+        <v>186</v>
+      </c>
+      <c r="X278" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF278" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG278" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH278" t="s">
+        <v>188</v>
+      </c>
+      <c r="BI278" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ278" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="279" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>131</v>
+      </c>
+      <c r="B279" t="s">
+        <v>612</v>
+      </c>
+      <c r="C279" t="s">
+        <v>186</v>
+      </c>
+      <c r="D279" t="s">
+        <v>361</v>
+      </c>
+      <c r="E279" t="s">
+        <v>361</v>
+      </c>
+      <c r="F279" t="s">
+        <v>361</v>
+      </c>
+      <c r="G279" t="s">
+        <v>361</v>
+      </c>
+      <c r="H279" t="s">
+        <v>361</v>
+      </c>
+      <c r="I279" t="s">
+        <v>361</v>
+      </c>
+      <c r="J279" t="s">
+        <v>361</v>
+      </c>
+      <c r="K279" t="s">
+        <v>361</v>
+      </c>
+      <c r="L279" t="s">
+        <v>361</v>
+      </c>
+      <c r="M279" t="s">
+        <v>361</v>
+      </c>
+      <c r="N279" t="s">
+        <v>204</v>
+      </c>
+      <c r="O279" t="s">
+        <v>186</v>
+      </c>
+      <c r="P279" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>204</v>
+      </c>
+      <c r="R279" t="s">
+        <v>183</v>
+      </c>
+      <c r="S279" t="s">
+        <v>361</v>
+      </c>
+      <c r="T279" t="s">
+        <v>361</v>
+      </c>
+      <c r="U279" t="s">
+        <v>188</v>
+      </c>
+      <c r="V279" t="s">
+        <v>202</v>
+      </c>
+      <c r="W279" t="s">
+        <v>204</v>
+      </c>
+      <c r="X279" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>186</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>188</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>182</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>186</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ279" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA279" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB279" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC279" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD279" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE279" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF279" t="s">
+        <v>182</v>
+      </c>
+      <c r="BG279" t="s">
+        <v>182</v>
+      </c>
+      <c r="BH279" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI279" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ279" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="280" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>127</v>
+      </c>
+      <c r="B280" t="s">
+        <v>613</v>
+      </c>
+      <c r="C280" t="s">
+        <v>183</v>
+      </c>
+      <c r="D280" t="s">
+        <v>183</v>
+      </c>
+      <c r="E280" t="s">
+        <v>183</v>
+      </c>
+      <c r="F280" t="s">
+        <v>183</v>
+      </c>
+      <c r="G280" t="s">
+        <v>183</v>
+      </c>
+      <c r="H280" t="s">
+        <v>183</v>
+      </c>
+      <c r="I280" t="s">
+        <v>183</v>
+      </c>
+      <c r="J280" t="s">
+        <v>183</v>
+      </c>
+      <c r="K280" t="s">
+        <v>183</v>
+      </c>
+      <c r="L280" t="s">
+        <v>181</v>
+      </c>
+      <c r="M280" t="s">
+        <v>181</v>
+      </c>
+      <c r="N280" t="s">
+        <v>183</v>
+      </c>
+      <c r="O280" t="s">
+        <v>183</v>
+      </c>
+      <c r="P280" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>183</v>
+      </c>
+      <c r="R280" t="s">
+        <v>183</v>
+      </c>
+      <c r="S280" t="s">
+        <v>183</v>
+      </c>
+      <c r="T280" t="s">
+        <v>182</v>
+      </c>
+      <c r="U280" t="s">
+        <v>182</v>
+      </c>
+      <c r="V280" t="s">
+        <v>182</v>
+      </c>
+      <c r="W280" t="s">
+        <v>182</v>
+      </c>
+      <c r="X280" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY280" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI280" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ280" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="281" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>131</v>
+      </c>
+      <c r="B281" t="s">
+        <v>613</v>
+      </c>
+      <c r="C281" t="s">
+        <v>361</v>
+      </c>
+      <c r="D281" t="s">
+        <v>361</v>
+      </c>
+      <c r="E281" t="s">
+        <v>361</v>
+      </c>
+      <c r="F281" t="s">
+        <v>361</v>
+      </c>
+      <c r="G281" t="s">
+        <v>361</v>
+      </c>
+      <c r="H281" t="s">
+        <v>361</v>
+      </c>
+      <c r="I281" t="s">
+        <v>361</v>
+      </c>
+      <c r="J281" t="s">
+        <v>361</v>
+      </c>
+      <c r="K281" t="s">
+        <v>186</v>
+      </c>
+      <c r="L281" t="s">
+        <v>186</v>
+      </c>
+      <c r="M281" t="s">
+        <v>182</v>
+      </c>
+      <c r="N281" t="s">
+        <v>182</v>
+      </c>
+      <c r="O281" t="s">
+        <v>182</v>
+      </c>
+      <c r="P281" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>182</v>
+      </c>
+      <c r="R281" t="s">
+        <v>186</v>
+      </c>
+      <c r="S281" t="s">
+        <v>183</v>
+      </c>
+      <c r="T281" t="s">
+        <v>183</v>
+      </c>
+      <c r="U281" t="s">
+        <v>183</v>
+      </c>
+      <c r="V281" t="s">
+        <v>183</v>
+      </c>
+      <c r="W281" t="s">
+        <v>183</v>
+      </c>
+      <c r="X281" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ281" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU281" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV281" t="s">
+        <v>361</v>
+      </c>
+      <c r="AW281" t="s">
+        <v>361</v>
+      </c>
+      <c r="AX281" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY281" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ281" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA281" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB281" t="s">
+        <v>186</v>
+      </c>
+      <c r="BC281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG281" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI281" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ281" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="282" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>127</v>
+      </c>
+      <c r="B282" t="s">
+        <v>614</v>
+      </c>
+      <c r="C282" t="s">
+        <v>184</v>
+      </c>
+      <c r="D282" t="s">
+        <v>184</v>
+      </c>
+      <c r="E282" t="s">
+        <v>184</v>
+      </c>
+      <c r="F282" t="s">
+        <v>66</v>
+      </c>
+      <c r="G282" t="s">
+        <v>183</v>
+      </c>
+      <c r="H282" t="s">
+        <v>183</v>
+      </c>
+      <c r="I282" t="s">
+        <v>183</v>
+      </c>
+      <c r="J282" t="s">
+        <v>183</v>
+      </c>
+      <c r="K282" t="s">
+        <v>66</v>
+      </c>
+      <c r="L282" t="s">
+        <v>66</v>
+      </c>
+      <c r="M282" t="s">
+        <v>66</v>
+      </c>
+      <c r="N282" t="s">
+        <v>183</v>
+      </c>
+      <c r="O282" t="s">
+        <v>183</v>
+      </c>
+      <c r="P282" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>183</v>
+      </c>
+      <c r="R282" t="s">
+        <v>66</v>
+      </c>
+      <c r="S282" t="s">
+        <v>66</v>
+      </c>
+      <c r="T282" t="s">
+        <v>183</v>
+      </c>
+      <c r="U282" t="s">
+        <v>183</v>
+      </c>
+      <c r="V282" t="s">
+        <v>183</v>
+      </c>
+      <c r="W282" t="s">
+        <v>183</v>
+      </c>
+      <c r="X282" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP282" t="s">
+        <v>202</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR282" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS282" t="s">
+        <v>202</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ282" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA282" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB282" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC282" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD282" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE282" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF282" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG282" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH282" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI282" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ282" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="283" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>131</v>
+      </c>
+      <c r="B283" t="s">
+        <v>614</v>
+      </c>
+      <c r="C283" t="s">
+        <v>204</v>
+      </c>
+      <c r="D283" t="s">
+        <v>186</v>
+      </c>
+      <c r="E283" t="s">
+        <v>183</v>
+      </c>
+      <c r="F283" t="s">
+        <v>183</v>
+      </c>
+      <c r="G283" t="s">
+        <v>183</v>
+      </c>
+      <c r="H283" t="s">
+        <v>183</v>
+      </c>
+      <c r="I283" t="s">
+        <v>66</v>
+      </c>
+      <c r="J283" t="s">
+        <v>66</v>
+      </c>
+      <c r="K283" t="s">
+        <v>66</v>
+      </c>
+      <c r="L283" t="s">
+        <v>66</v>
+      </c>
+      <c r="M283" t="s">
+        <v>184</v>
+      </c>
+      <c r="N283" t="s">
+        <v>184</v>
+      </c>
+      <c r="O283" t="s">
+        <v>184</v>
+      </c>
+      <c r="P283" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>184</v>
+      </c>
+      <c r="R283" t="s">
+        <v>184</v>
+      </c>
+      <c r="S283" t="s">
+        <v>66</v>
+      </c>
+      <c r="T283" t="s">
+        <v>183</v>
+      </c>
+      <c r="U283" t="s">
+        <v>186</v>
+      </c>
+      <c r="V283" t="s">
+        <v>183</v>
+      </c>
+      <c r="W283" t="s">
+        <v>183</v>
+      </c>
+      <c r="X283" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG283" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH283" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI283" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ283" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="284" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>127</v>
+      </c>
+      <c r="B284" t="s">
+        <v>615</v>
+      </c>
+      <c r="C284" t="s">
+        <v>66</v>
+      </c>
+      <c r="D284" t="s">
+        <v>184</v>
+      </c>
+      <c r="E284" t="s">
+        <v>184</v>
+      </c>
+      <c r="F284" t="s">
+        <v>184</v>
+      </c>
+      <c r="G284" t="s">
+        <v>184</v>
+      </c>
+      <c r="H284" t="s">
+        <v>184</v>
+      </c>
+      <c r="I284" t="s">
+        <v>184</v>
+      </c>
+      <c r="J284" t="s">
+        <v>184</v>
+      </c>
+      <c r="K284" t="s">
+        <v>184</v>
+      </c>
+      <c r="L284" t="s">
+        <v>66</v>
+      </c>
+      <c r="M284" t="s">
+        <v>183</v>
+      </c>
+      <c r="N284" t="s">
+        <v>66</v>
+      </c>
+      <c r="O284" t="s">
+        <v>184</v>
+      </c>
+      <c r="P284" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>184</v>
+      </c>
+      <c r="R284" t="s">
+        <v>184</v>
+      </c>
+      <c r="S284" t="s">
+        <v>184</v>
+      </c>
+      <c r="T284" t="s">
+        <v>184</v>
+      </c>
+      <c r="U284" t="s">
+        <v>184</v>
+      </c>
+      <c r="V284" t="s">
+        <v>184</v>
+      </c>
+      <c r="W284" t="s">
+        <v>184</v>
+      </c>
+      <c r="X284" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH284" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ284" t="s">
+        <v>202</v>
+      </c>
+      <c r="AR284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY284" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG284" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH284" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI284" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ284" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="285" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>131</v>
+      </c>
+      <c r="B285" t="s">
+        <v>615</v>
+      </c>
+      <c r="C285" t="s">
+        <v>204</v>
+      </c>
+      <c r="D285" t="s">
+        <v>183</v>
+      </c>
+      <c r="E285" t="s">
+        <v>66</v>
+      </c>
+      <c r="F285" t="s">
+        <v>183</v>
+      </c>
+      <c r="G285" t="s">
+        <v>202</v>
+      </c>
+      <c r="H285" t="s">
+        <v>202</v>
+      </c>
+      <c r="I285" t="s">
+        <v>66</v>
+      </c>
+      <c r="J285" t="s">
+        <v>66</v>
+      </c>
+      <c r="K285" t="s">
+        <v>183</v>
+      </c>
+      <c r="L285" t="s">
+        <v>183</v>
+      </c>
+      <c r="M285" t="s">
+        <v>395</v>
+      </c>
+      <c r="N285" t="s">
+        <v>183</v>
+      </c>
+      <c r="O285" t="s">
+        <v>66</v>
+      </c>
+      <c r="P285" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>183</v>
+      </c>
+      <c r="R285" t="s">
+        <v>202</v>
+      </c>
+      <c r="S285" t="s">
+        <v>202</v>
+      </c>
+      <c r="T285" t="s">
+        <v>183</v>
+      </c>
+      <c r="U285" t="s">
+        <v>183</v>
+      </c>
+      <c r="V285" t="s">
+        <v>183</v>
+      </c>
+      <c r="W285" t="s">
+        <v>183</v>
+      </c>
+      <c r="X285" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>367</v>
+      </c>
+      <c r="AP285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT285" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV285" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW285" t="s">
+        <v>204</v>
+      </c>
+      <c r="AX285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ285" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA285" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB285" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI285" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ285" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="286" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>127</v>
+      </c>
+      <c r="B286" t="s">
+        <v>616</v>
+      </c>
+      <c r="C286" t="s">
+        <v>184</v>
+      </c>
+      <c r="D286" t="s">
+        <v>184</v>
+      </c>
+      <c r="E286" t="s">
+        <v>184</v>
+      </c>
+      <c r="F286" t="s">
+        <v>184</v>
+      </c>
+      <c r="G286" t="s">
+        <v>184</v>
+      </c>
+      <c r="H286" t="s">
+        <v>184</v>
+      </c>
+      <c r="I286" t="s">
+        <v>184</v>
+      </c>
+      <c r="J286" t="s">
+        <v>184</v>
+      </c>
+      <c r="K286" t="s">
+        <v>184</v>
+      </c>
+      <c r="L286" t="s">
+        <v>184</v>
+      </c>
+      <c r="M286" t="s">
+        <v>184</v>
+      </c>
+      <c r="N286" t="s">
+        <v>184</v>
+      </c>
+      <c r="O286" t="s">
+        <v>184</v>
+      </c>
+      <c r="P286" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>184</v>
+      </c>
+      <c r="R286" t="s">
+        <v>184</v>
+      </c>
+      <c r="S286" t="s">
+        <v>184</v>
+      </c>
+      <c r="T286" t="s">
+        <v>184</v>
+      </c>
+      <c r="U286" t="s">
+        <v>184</v>
+      </c>
+      <c r="V286" t="s">
+        <v>184</v>
+      </c>
+      <c r="W286" t="s">
+        <v>184</v>
+      </c>
+      <c r="X286" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX286" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY286" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE286" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI286" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ286" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>131</v>
+      </c>
+      <c r="B287" t="s">
+        <v>616</v>
+      </c>
+      <c r="C287" t="s">
+        <v>361</v>
+      </c>
+      <c r="D287" t="s">
+        <v>361</v>
+      </c>
+      <c r="E287" t="s">
+        <v>204</v>
+      </c>
+      <c r="F287" t="s">
+        <v>66</v>
+      </c>
+      <c r="G287" t="s">
+        <v>183</v>
+      </c>
+      <c r="H287" t="s">
+        <v>183</v>
+      </c>
+      <c r="I287" t="s">
+        <v>204</v>
+      </c>
+      <c r="J287" t="s">
+        <v>183</v>
+      </c>
+      <c r="K287" t="s">
+        <v>183</v>
+      </c>
+      <c r="L287" t="s">
+        <v>361</v>
+      </c>
+      <c r="M287" t="s">
+        <v>184</v>
+      </c>
+      <c r="N287" t="s">
+        <v>184</v>
+      </c>
+      <c r="O287" t="s">
+        <v>184</v>
+      </c>
+      <c r="P287" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>184</v>
+      </c>
+      <c r="R287" t="s">
+        <v>184</v>
+      </c>
+      <c r="S287" t="s">
+        <v>184</v>
+      </c>
+      <c r="T287" t="s">
+        <v>66</v>
+      </c>
+      <c r="U287" t="s">
+        <v>361</v>
+      </c>
+      <c r="V287" t="s">
+        <v>202</v>
+      </c>
+      <c r="W287" t="s">
+        <v>202</v>
+      </c>
+      <c r="X287" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>182</v>
+      </c>
+      <c r="AR287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX287" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ287" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI287" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ287" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="288" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>127</v>
+      </c>
+      <c r="B288" t="s">
+        <v>617</v>
+      </c>
+      <c r="C288" t="s">
+        <v>204</v>
+      </c>
+      <c r="D288" t="s">
+        <v>183</v>
+      </c>
+      <c r="E288" t="s">
+        <v>186</v>
+      </c>
+      <c r="F288" t="s">
+        <v>183</v>
+      </c>
+      <c r="G288" t="s">
+        <v>183</v>
+      </c>
+      <c r="H288" t="s">
+        <v>183</v>
+      </c>
+      <c r="I288" t="s">
+        <v>183</v>
+      </c>
+      <c r="J288" t="s">
+        <v>183</v>
+      </c>
+      <c r="K288" t="s">
+        <v>183</v>
+      </c>
+      <c r="L288" t="s">
+        <v>183</v>
+      </c>
+      <c r="M288" t="s">
+        <v>183</v>
+      </c>
+      <c r="N288" t="s">
+        <v>66</v>
+      </c>
+      <c r="O288" t="s">
+        <v>184</v>
+      </c>
+      <c r="P288" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>184</v>
+      </c>
+      <c r="R288" t="s">
+        <v>184</v>
+      </c>
+      <c r="S288" t="s">
+        <v>184</v>
+      </c>
+      <c r="T288" t="s">
+        <v>184</v>
+      </c>
+      <c r="U288" t="s">
+        <v>184</v>
+      </c>
+      <c r="V288" t="s">
+        <v>66</v>
+      </c>
+      <c r="W288" t="s">
+        <v>184</v>
+      </c>
+      <c r="X288" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX288" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC288" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ288" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK288" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="289" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>131</v>
+      </c>
+      <c r="B289" t="s">
+        <v>617</v>
+      </c>
+      <c r="C289" t="s">
+        <v>183</v>
+      </c>
+      <c r="D289" t="s">
+        <v>186</v>
+      </c>
+      <c r="E289" t="s">
+        <v>183</v>
+      </c>
+      <c r="F289" t="s">
+        <v>183</v>
+      </c>
+      <c r="G289" t="s">
+        <v>183</v>
+      </c>
+      <c r="H289" t="s">
+        <v>183</v>
+      </c>
+      <c r="I289" t="s">
+        <v>183</v>
+      </c>
+      <c r="J289" t="s">
+        <v>183</v>
+      </c>
+      <c r="K289" t="s">
+        <v>183</v>
+      </c>
+      <c r="L289" t="s">
+        <v>183</v>
+      </c>
+      <c r="M289" t="s">
+        <v>183</v>
+      </c>
+      <c r="N289" t="s">
+        <v>183</v>
+      </c>
+      <c r="O289" t="s">
+        <v>183</v>
+      </c>
+      <c r="P289" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>186</v>
+      </c>
+      <c r="R289" t="s">
+        <v>184</v>
+      </c>
+      <c r="S289" t="s">
+        <v>184</v>
+      </c>
+      <c r="T289" t="s">
+        <v>184</v>
+      </c>
+      <c r="U289" t="s">
+        <v>184</v>
+      </c>
+      <c r="V289" t="s">
+        <v>66</v>
+      </c>
+      <c r="W289" t="s">
+        <v>184</v>
+      </c>
+      <c r="X289" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY289" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI289" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ289" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="290" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>127</v>
+      </c>
+      <c r="B290" t="s">
+        <v>619</v>
+      </c>
+      <c r="C290" t="s">
+        <v>183</v>
+      </c>
+      <c r="D290" t="s">
+        <v>183</v>
+      </c>
+      <c r="E290" t="s">
+        <v>183</v>
+      </c>
+      <c r="F290" t="s">
+        <v>183</v>
+      </c>
+      <c r="G290" t="s">
+        <v>183</v>
+      </c>
+      <c r="H290" t="s">
+        <v>183</v>
+      </c>
+      <c r="I290" t="s">
+        <v>183</v>
+      </c>
+      <c r="J290" t="s">
+        <v>183</v>
+      </c>
+      <c r="K290" t="s">
+        <v>183</v>
+      </c>
+      <c r="L290" t="s">
+        <v>183</v>
+      </c>
+      <c r="M290" t="s">
+        <v>183</v>
+      </c>
+      <c r="N290" t="s">
+        <v>183</v>
+      </c>
+      <c r="O290" t="s">
+        <v>183</v>
+      </c>
+      <c r="P290" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>183</v>
+      </c>
+      <c r="R290" t="s">
+        <v>183</v>
+      </c>
+      <c r="S290" t="s">
+        <v>183</v>
+      </c>
+      <c r="T290" t="s">
+        <v>183</v>
+      </c>
+      <c r="U290" t="s">
+        <v>183</v>
+      </c>
+      <c r="V290" t="s">
+        <v>183</v>
+      </c>
+      <c r="W290" t="s">
+        <v>183</v>
+      </c>
+      <c r="X290" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY290" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI290" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ290" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>127</v>
+      </c>
+      <c r="B291" t="s">
+        <v>620</v>
+      </c>
+      <c r="C291" t="s">
+        <v>183</v>
+      </c>
+      <c r="D291" t="s">
+        <v>182</v>
+      </c>
+      <c r="E291" t="s">
+        <v>182</v>
+      </c>
+      <c r="F291" t="s">
+        <v>182</v>
+      </c>
+      <c r="G291" t="s">
+        <v>182</v>
+      </c>
+      <c r="H291" t="s">
+        <v>182</v>
+      </c>
+      <c r="I291" t="s">
+        <v>183</v>
+      </c>
+      <c r="J291" t="s">
+        <v>183</v>
+      </c>
+      <c r="K291" t="s">
+        <v>183</v>
+      </c>
+      <c r="L291" t="s">
+        <v>183</v>
+      </c>
+      <c r="M291" t="s">
+        <v>183</v>
+      </c>
+      <c r="N291" t="s">
+        <v>183</v>
+      </c>
+      <c r="O291" t="s">
+        <v>183</v>
+      </c>
+      <c r="P291" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>183</v>
+      </c>
+      <c r="R291" t="s">
+        <v>183</v>
+      </c>
+      <c r="S291" t="s">
+        <v>183</v>
+      </c>
+      <c r="T291" t="s">
+        <v>183</v>
+      </c>
+      <c r="U291" t="s">
+        <v>183</v>
+      </c>
+      <c r="V291" t="s">
+        <v>183</v>
+      </c>
+      <c r="W291" t="s">
+        <v>183</v>
+      </c>
+      <c r="X291" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI291" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ291" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="292" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
+        <v>127</v>
+      </c>
+      <c r="B292" t="s">
+        <v>622</v>
+      </c>
+      <c r="C292" t="s">
+        <v>186</v>
+      </c>
+      <c r="D292" t="s">
+        <v>183</v>
+      </c>
+      <c r="E292" t="s">
+        <v>183</v>
+      </c>
+      <c r="F292" t="s">
+        <v>183</v>
+      </c>
+      <c r="G292" t="s">
+        <v>66</v>
+      </c>
+      <c r="H292" t="s">
+        <v>183</v>
+      </c>
+      <c r="I292" t="s">
+        <v>183</v>
+      </c>
+      <c r="J292" t="s">
+        <v>183</v>
+      </c>
+      <c r="K292" t="s">
+        <v>183</v>
+      </c>
+      <c r="L292" t="s">
+        <v>183</v>
+      </c>
+      <c r="M292" t="s">
+        <v>66</v>
+      </c>
+      <c r="N292" t="s">
+        <v>202</v>
+      </c>
+      <c r="O292" t="s">
+        <v>202</v>
+      </c>
+      <c r="P292" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>202</v>
+      </c>
+      <c r="R292" t="s">
+        <v>202</v>
+      </c>
+      <c r="S292" t="s">
+        <v>202</v>
+      </c>
+      <c r="T292" t="s">
+        <v>202</v>
+      </c>
+      <c r="U292" t="s">
+        <v>202</v>
+      </c>
+      <c r="V292" t="s">
+        <v>204</v>
+      </c>
+      <c r="W292" t="s">
+        <v>202</v>
+      </c>
+      <c r="X292" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>201</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB292" t="s">
+        <v>202</v>
+      </c>
+      <c r="BC292" t="s">
+        <v>202</v>
+      </c>
+      <c r="BD292" t="s">
+        <v>202</v>
+      </c>
+      <c r="BE292" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF292" t="s">
+        <v>186</v>
+      </c>
+      <c r="BG292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ292" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK292" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="293" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
+        <v>131</v>
+      </c>
+      <c r="B293" t="s">
+        <v>622</v>
+      </c>
+      <c r="C293" t="s">
+        <v>184</v>
+      </c>
+      <c r="D293" t="s">
+        <v>184</v>
+      </c>
+      <c r="E293" t="s">
+        <v>184</v>
+      </c>
+      <c r="F293" t="s">
+        <v>184</v>
+      </c>
+      <c r="G293" t="s">
+        <v>184</v>
+      </c>
+      <c r="H293" t="s">
+        <v>184</v>
+      </c>
+      <c r="I293" t="s">
+        <v>184</v>
+      </c>
+      <c r="J293" t="s">
+        <v>184</v>
+      </c>
+      <c r="K293" t="s">
+        <v>184</v>
+      </c>
+      <c r="L293" t="s">
+        <v>184</v>
+      </c>
+      <c r="M293" t="s">
+        <v>184</v>
+      </c>
+      <c r="N293" t="s">
+        <v>184</v>
+      </c>
+      <c r="O293" t="s">
+        <v>184</v>
+      </c>
+      <c r="P293" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>184</v>
+      </c>
+      <c r="R293" t="s">
+        <v>184</v>
+      </c>
+      <c r="S293" t="s">
+        <v>184</v>
+      </c>
+      <c r="T293" t="s">
+        <v>184</v>
+      </c>
+      <c r="U293" t="s">
+        <v>184</v>
+      </c>
+      <c r="V293" t="s">
+        <v>184</v>
+      </c>
+      <c r="W293" t="s">
+        <v>184</v>
+      </c>
+      <c r="X293" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT293" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU293" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV293" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW293" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX293" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY293" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ293" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD293" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI293" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ293" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="294" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
+        <v>127</v>
+      </c>
+      <c r="B294" t="s">
+        <v>623</v>
+      </c>
+      <c r="C294" t="s">
+        <v>183</v>
+      </c>
+      <c r="D294" t="s">
+        <v>183</v>
+      </c>
+      <c r="E294" t="s">
+        <v>183</v>
+      </c>
+      <c r="F294" t="s">
+        <v>183</v>
+      </c>
+      <c r="G294" t="s">
+        <v>183</v>
+      </c>
+      <c r="H294" t="s">
+        <v>183</v>
+      </c>
+      <c r="I294" t="s">
+        <v>183</v>
+      </c>
+      <c r="J294" t="s">
+        <v>183</v>
+      </c>
+      <c r="K294" t="s">
+        <v>183</v>
+      </c>
+      <c r="L294" t="s">
+        <v>183</v>
+      </c>
+      <c r="M294" t="s">
+        <v>183</v>
+      </c>
+      <c r="N294" t="s">
+        <v>182</v>
+      </c>
+      <c r="O294" t="s">
+        <v>182</v>
+      </c>
+      <c r="P294" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>182</v>
+      </c>
+      <c r="R294" t="s">
+        <v>182</v>
+      </c>
+      <c r="S294" t="s">
+        <v>182</v>
+      </c>
+      <c r="T294" t="s">
+        <v>182</v>
+      </c>
+      <c r="U294" t="s">
+        <v>182</v>
+      </c>
+      <c r="V294" t="s">
+        <v>182</v>
+      </c>
+      <c r="W294" t="s">
+        <v>183</v>
+      </c>
+      <c r="X294" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR294" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS294" t="s">
+        <v>395</v>
+      </c>
+      <c r="AT294" t="s">
+        <v>395</v>
+      </c>
+      <c r="AU294" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV294" t="s">
+        <v>367</v>
+      </c>
+      <c r="AW294" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX294" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY294" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ294" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA294" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB294" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC294" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD294" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE294" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF294" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG294" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH294" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI294" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ294" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="295" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
+        <v>131</v>
+      </c>
+      <c r="B295" t="s">
+        <v>623</v>
+      </c>
+      <c r="C295" t="s">
+        <v>204</v>
+      </c>
+      <c r="D295" t="s">
+        <v>66</v>
+      </c>
+      <c r="E295" t="s">
+        <v>184</v>
+      </c>
+      <c r="F295" t="s">
+        <v>184</v>
+      </c>
+      <c r="G295" t="s">
+        <v>184</v>
+      </c>
+      <c r="H295" t="s">
+        <v>184</v>
+      </c>
+      <c r="I295" t="s">
+        <v>184</v>
+      </c>
+      <c r="J295" t="s">
+        <v>184</v>
+      </c>
+      <c r="K295" t="s">
+        <v>184</v>
+      </c>
+      <c r="L295" t="s">
+        <v>186</v>
+      </c>
+      <c r="M295" t="s">
+        <v>184</v>
+      </c>
+      <c r="N295" t="s">
+        <v>184</v>
+      </c>
+      <c r="O295" t="s">
+        <v>184</v>
+      </c>
+      <c r="P295" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>184</v>
+      </c>
+      <c r="R295" t="s">
+        <v>184</v>
+      </c>
+      <c r="S295" t="s">
+        <v>184</v>
+      </c>
+      <c r="T295" t="s">
+        <v>184</v>
+      </c>
+      <c r="U295" t="s">
+        <v>184</v>
+      </c>
+      <c r="V295" t="s">
+        <v>184</v>
+      </c>
+      <c r="W295" t="s">
+        <v>184</v>
+      </c>
+      <c r="X295" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP295" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR295" t="s">
+        <v>186</v>
+      </c>
+      <c r="AS295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY295" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ295" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA295" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB295" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC295" t="s">
+        <v>186</v>
+      </c>
+      <c r="BD295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI295" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ295" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="296" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A296" t="s">
+        <v>127</v>
+      </c>
+      <c r="B296" t="s">
+        <v>624</v>
+      </c>
+      <c r="C296" t="s">
+        <v>66</v>
+      </c>
+      <c r="D296" t="s">
+        <v>183</v>
+      </c>
+      <c r="E296" t="s">
+        <v>183</v>
+      </c>
+      <c r="F296" t="s">
+        <v>183</v>
+      </c>
+      <c r="G296" t="s">
+        <v>183</v>
+      </c>
+      <c r="H296" t="s">
+        <v>183</v>
+      </c>
+      <c r="I296" t="s">
+        <v>183</v>
+      </c>
+      <c r="J296" t="s">
+        <v>183</v>
+      </c>
+      <c r="K296" t="s">
+        <v>183</v>
+      </c>
+      <c r="L296" t="s">
+        <v>183</v>
+      </c>
+      <c r="M296" t="s">
+        <v>183</v>
+      </c>
+      <c r="N296" t="s">
+        <v>183</v>
+      </c>
+      <c r="O296" t="s">
+        <v>183</v>
+      </c>
+      <c r="P296" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>182</v>
+      </c>
+      <c r="R296" t="s">
+        <v>183</v>
+      </c>
+      <c r="S296" t="s">
+        <v>183</v>
+      </c>
+      <c r="T296" t="s">
+        <v>183</v>
+      </c>
+      <c r="U296" t="s">
+        <v>183</v>
+      </c>
+      <c r="V296" t="s">
+        <v>183</v>
+      </c>
+      <c r="W296" t="s">
+        <v>183</v>
+      </c>
+      <c r="X296" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT296" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY296" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA296" t="s">
+        <v>395</v>
+      </c>
+      <c r="BB296" t="s">
+        <v>395</v>
+      </c>
+      <c r="BC296" t="s">
+        <v>395</v>
+      </c>
+      <c r="BD296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH296" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI296" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ296" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="297" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>131</v>
+      </c>
+      <c r="B297" t="s">
+        <v>624</v>
+      </c>
+      <c r="C297" t="s">
+        <v>395</v>
+      </c>
+      <c r="D297" t="s">
+        <v>395</v>
+      </c>
+      <c r="E297" t="s">
+        <v>186</v>
+      </c>
+      <c r="F297" t="s">
+        <v>183</v>
+      </c>
+      <c r="G297" t="s">
+        <v>181</v>
+      </c>
+      <c r="H297" t="s">
+        <v>183</v>
+      </c>
+      <c r="I297" t="s">
+        <v>183</v>
+      </c>
+      <c r="J297" t="s">
+        <v>183</v>
+      </c>
+      <c r="K297" t="s">
+        <v>395</v>
+      </c>
+      <c r="L297" t="s">
+        <v>395</v>
+      </c>
+      <c r="M297" t="s">
+        <v>183</v>
+      </c>
+      <c r="N297" t="s">
+        <v>367</v>
+      </c>
+      <c r="O297" t="s">
+        <v>186</v>
+      </c>
+      <c r="P297" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>66</v>
+      </c>
+      <c r="R297" t="s">
+        <v>182</v>
+      </c>
+      <c r="S297" t="s">
+        <v>183</v>
+      </c>
+      <c r="T297" t="s">
+        <v>183</v>
+      </c>
+      <c r="U297" t="s">
+        <v>183</v>
+      </c>
+      <c r="V297" t="s">
+        <v>183</v>
+      </c>
+      <c r="W297" t="s">
+        <v>186</v>
+      </c>
+      <c r="X297" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU297" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV297" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW297" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX297" t="s">
+        <v>361</v>
+      </c>
+      <c r="AY297" t="s">
+        <v>361</v>
+      </c>
+      <c r="AZ297" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA297" t="s">
+        <v>361</v>
+      </c>
+      <c r="BB297" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC297" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD297" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE297" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF297" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG297" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH297" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI297" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ297" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="298" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A298" t="s">
+        <v>127</v>
+      </c>
+      <c r="B298" t="s">
+        <v>625</v>
+      </c>
+      <c r="C298" t="s">
+        <v>201</v>
+      </c>
+      <c r="D298" t="s">
+        <v>66</v>
+      </c>
+      <c r="E298" t="s">
+        <v>66</v>
+      </c>
+      <c r="F298" t="s">
+        <v>66</v>
+      </c>
+      <c r="G298" t="s">
+        <v>66</v>
+      </c>
+      <c r="H298" t="s">
+        <v>201</v>
+      </c>
+      <c r="I298" t="s">
+        <v>186</v>
+      </c>
+      <c r="J298" t="s">
+        <v>183</v>
+      </c>
+      <c r="K298" t="s">
+        <v>183</v>
+      </c>
+      <c r="L298" t="s">
+        <v>183</v>
+      </c>
+      <c r="M298" t="s">
+        <v>183</v>
+      </c>
+      <c r="N298" t="s">
+        <v>395</v>
+      </c>
+      <c r="O298" t="s">
+        <v>183</v>
+      </c>
+      <c r="P298" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>183</v>
+      </c>
+      <c r="R298" t="s">
+        <v>183</v>
+      </c>
+      <c r="S298" t="s">
+        <v>183</v>
+      </c>
+      <c r="T298" t="s">
+        <v>183</v>
+      </c>
+      <c r="U298" t="s">
+        <v>183</v>
+      </c>
+      <c r="V298" t="s">
+        <v>183</v>
+      </c>
+      <c r="W298" t="s">
+        <v>183</v>
+      </c>
+      <c r="X298" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY298" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ298" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA298" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB298" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC298" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD298" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE298" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF298" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG298" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH298" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI298" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ298" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK298" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="299" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A299" t="s">
+        <v>131</v>
+      </c>
+      <c r="B299" t="s">
+        <v>626</v>
+      </c>
+      <c r="C299" t="s">
+        <v>66</v>
+      </c>
+      <c r="D299" t="s">
+        <v>204</v>
+      </c>
+      <c r="E299" t="s">
+        <v>204</v>
+      </c>
+      <c r="F299" t="s">
+        <v>186</v>
+      </c>
+      <c r="G299" t="s">
+        <v>183</v>
+      </c>
+      <c r="H299" t="s">
+        <v>66</v>
+      </c>
+      <c r="I299" t="s">
+        <v>183</v>
+      </c>
+      <c r="J299" t="s">
+        <v>204</v>
+      </c>
+      <c r="K299" t="s">
+        <v>66</v>
+      </c>
+      <c r="L299" t="s">
+        <v>183</v>
+      </c>
+      <c r="M299" t="s">
+        <v>183</v>
+      </c>
+      <c r="N299" t="s">
+        <v>183</v>
+      </c>
+      <c r="O299" t="s">
+        <v>183</v>
+      </c>
+      <c r="P299" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>183</v>
+      </c>
+      <c r="R299" t="s">
+        <v>183</v>
+      </c>
+      <c r="S299" t="s">
+        <v>183</v>
+      </c>
+      <c r="T299" t="s">
+        <v>183</v>
+      </c>
+      <c r="U299" t="s">
+        <v>183</v>
+      </c>
+      <c r="V299" t="s">
+        <v>183</v>
+      </c>
+      <c r="W299" t="s">
+        <v>186</v>
+      </c>
+      <c r="X299" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL299" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP299" t="s">
+        <v>186</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR299" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT299" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU299" t="s">
+        <v>367</v>
+      </c>
+      <c r="AV299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY299" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ299" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA299" t="s">
+        <v>395</v>
+      </c>
+      <c r="BB299" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC299" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD299" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ299" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK299" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="300" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A300" t="s">
+        <v>127</v>
+      </c>
+      <c r="B300" t="s">
+        <v>626</v>
+      </c>
+      <c r="C300" t="s">
+        <v>184</v>
+      </c>
+      <c r="D300" t="s">
+        <v>184</v>
+      </c>
+      <c r="E300" t="s">
+        <v>184</v>
+      </c>
+      <c r="F300" t="s">
+        <v>184</v>
+      </c>
+      <c r="G300" t="s">
+        <v>184</v>
+      </c>
+      <c r="H300" t="s">
+        <v>184</v>
+      </c>
+      <c r="I300" t="s">
+        <v>184</v>
+      </c>
+      <c r="J300" t="s">
+        <v>184</v>
+      </c>
+      <c r="K300" t="s">
+        <v>184</v>
+      </c>
+      <c r="L300" t="s">
+        <v>184</v>
+      </c>
+      <c r="M300" t="s">
+        <v>184</v>
+      </c>
+      <c r="N300" t="s">
+        <v>184</v>
+      </c>
+      <c r="O300" t="s">
+        <v>184</v>
+      </c>
+      <c r="P300" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>184</v>
+      </c>
+      <c r="R300" t="s">
+        <v>184</v>
+      </c>
+      <c r="S300" t="s">
+        <v>184</v>
+      </c>
+      <c r="T300" t="s">
+        <v>184</v>
+      </c>
+      <c r="U300" t="s">
+        <v>184</v>
+      </c>
+      <c r="V300" t="s">
+        <v>184</v>
+      </c>
+      <c r="W300" t="s">
+        <v>184</v>
+      </c>
+      <c r="X300" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY300" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF300" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH300" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI300" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ300" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="301" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>127</v>
+      </c>
+      <c r="B301" t="s">
+        <v>629</v>
+      </c>
+      <c r="C301" t="s">
+        <v>66</v>
+      </c>
+      <c r="D301" t="s">
+        <v>201</v>
+      </c>
+      <c r="E301" t="s">
+        <v>201</v>
+      </c>
+      <c r="F301" t="s">
+        <v>201</v>
+      </c>
+      <c r="G301" t="s">
+        <v>201</v>
+      </c>
+      <c r="H301" t="s">
+        <v>201</v>
+      </c>
+      <c r="I301" t="s">
+        <v>201</v>
+      </c>
+      <c r="J301" t="s">
+        <v>201</v>
+      </c>
+      <c r="K301" t="s">
+        <v>201</v>
+      </c>
+      <c r="L301" t="s">
+        <v>183</v>
+      </c>
+      <c r="M301" t="s">
+        <v>183</v>
+      </c>
+      <c r="N301" t="s">
+        <v>183</v>
+      </c>
+      <c r="O301" t="s">
+        <v>66</v>
+      </c>
+      <c r="P301" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>183</v>
+      </c>
+      <c r="R301" t="s">
+        <v>183</v>
+      </c>
+      <c r="S301" t="s">
+        <v>183</v>
+      </c>
+      <c r="T301" t="s">
+        <v>183</v>
+      </c>
+      <c r="U301" t="s">
+        <v>183</v>
+      </c>
+      <c r="V301" t="s">
+        <v>183</v>
+      </c>
+      <c r="W301" t="s">
+        <v>183</v>
+      </c>
+      <c r="X301" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY301" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ301" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA301" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB301" t="s">
+        <v>66</v>
+      </c>
+      <c r="BC301" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD301" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE301" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF301" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG301" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH301" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI301" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ301" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="302" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A302" t="s">
+        <v>131</v>
+      </c>
+      <c r="B302" t="s">
+        <v>629</v>
+      </c>
+      <c r="C302" t="s">
+        <v>184</v>
+      </c>
+      <c r="D302" t="s">
+        <v>184</v>
+      </c>
+      <c r="E302" t="s">
+        <v>66</v>
+      </c>
+      <c r="F302" t="s">
+        <v>66</v>
+      </c>
+      <c r="G302" t="s">
+        <v>66</v>
+      </c>
+      <c r="H302" t="s">
+        <v>183</v>
+      </c>
+      <c r="I302" t="s">
+        <v>183</v>
+      </c>
+      <c r="J302" t="s">
+        <v>183</v>
+      </c>
+      <c r="K302" t="s">
+        <v>183</v>
+      </c>
+      <c r="L302" t="s">
+        <v>183</v>
+      </c>
+      <c r="M302" t="s">
+        <v>183</v>
+      </c>
+      <c r="N302" t="s">
+        <v>66</v>
+      </c>
+      <c r="O302" t="s">
+        <v>66</v>
+      </c>
+      <c r="P302" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>66</v>
+      </c>
+      <c r="R302" t="s">
+        <v>183</v>
+      </c>
+      <c r="S302" t="s">
+        <v>66</v>
+      </c>
+      <c r="T302" t="s">
+        <v>183</v>
+      </c>
+      <c r="U302" t="s">
+        <v>183</v>
+      </c>
+      <c r="V302" t="s">
+        <v>183</v>
+      </c>
+      <c r="W302" t="s">
+        <v>183</v>
+      </c>
+      <c r="X302" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO302" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP302" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ302" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR302" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS302" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT302" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV302" t="s">
+        <v>204</v>
+      </c>
+      <c r="AW302" t="s">
+        <v>186</v>
+      </c>
+      <c r="AX302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY302" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ302" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA302" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB302" t="s">
+        <v>204</v>
+      </c>
+      <c r="BC302" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD302" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BF302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BG302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BH302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BI302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ302" t="s">
+        <v>201</v>
+      </c>
+      <c r="BK302" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="303" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>127</v>
+      </c>
+      <c r="B303" t="s">
+        <v>630</v>
+      </c>
+      <c r="C303" t="s">
+        <v>66</v>
+      </c>
+      <c r="D303" t="s">
+        <v>183</v>
+      </c>
+      <c r="E303" t="s">
+        <v>201</v>
+      </c>
+      <c r="F303" t="s">
+        <v>201</v>
+      </c>
+      <c r="G303" t="s">
+        <v>201</v>
+      </c>
+      <c r="H303" t="s">
+        <v>183</v>
+      </c>
+      <c r="I303" t="s">
+        <v>183</v>
+      </c>
+      <c r="J303" t="s">
+        <v>183</v>
+      </c>
+      <c r="K303" t="s">
+        <v>183</v>
+      </c>
+      <c r="L303" t="s">
+        <v>183</v>
+      </c>
+      <c r="M303" t="s">
+        <v>183</v>
+      </c>
+      <c r="N303" t="s">
+        <v>183</v>
+      </c>
+      <c r="O303" t="s">
+        <v>183</v>
+      </c>
+      <c r="P303" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>183</v>
+      </c>
+      <c r="R303" t="s">
+        <v>183</v>
+      </c>
+      <c r="S303" t="s">
+        <v>183</v>
+      </c>
+      <c r="T303" t="s">
+        <v>183</v>
+      </c>
+      <c r="U303" t="s">
+        <v>183</v>
+      </c>
+      <c r="V303" t="s">
+        <v>183</v>
+      </c>
+      <c r="W303" t="s">
+        <v>183</v>
+      </c>
+      <c r="X303" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG303" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH303" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY303" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ303" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA303" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB303" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC303" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD303" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE303" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF303" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG303" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH303" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI303" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ303" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="304" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>131</v>
+      </c>
+      <c r="B304" t="s">
+        <v>630</v>
+      </c>
+      <c r="C304" t="s">
+        <v>66</v>
+      </c>
+      <c r="D304" t="s">
+        <v>183</v>
+      </c>
+      <c r="E304" t="s">
+        <v>183</v>
+      </c>
+      <c r="F304" t="s">
+        <v>183</v>
+      </c>
+      <c r="G304" t="s">
+        <v>466</v>
+      </c>
+      <c r="H304" t="s">
+        <v>183</v>
+      </c>
+      <c r="I304" t="s">
+        <v>183</v>
+      </c>
+      <c r="J304" t="s">
+        <v>183</v>
+      </c>
+      <c r="K304" t="s">
+        <v>183</v>
+      </c>
+      <c r="L304" t="s">
+        <v>183</v>
+      </c>
+      <c r="M304" t="s">
+        <v>183</v>
+      </c>
+      <c r="N304" t="s">
+        <v>183</v>
+      </c>
+      <c r="O304" t="s">
+        <v>183</v>
+      </c>
+      <c r="P304" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>183</v>
+      </c>
+      <c r="R304" t="s">
+        <v>183</v>
+      </c>
+      <c r="S304" t="s">
+        <v>183</v>
+      </c>
+      <c r="T304" t="s">
+        <v>186</v>
+      </c>
+      <c r="U304" t="s">
+        <v>183</v>
+      </c>
+      <c r="V304" t="s">
+        <v>183</v>
+      </c>
+      <c r="W304" t="s">
+        <v>183</v>
+      </c>
+      <c r="X304" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY304" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ304" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA304" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB304" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC304" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD304" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE304" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF304" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG304" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH304" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI304" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ304" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11769" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A2EA7C1-046B-401A-AB9F-5BAFD8C9378A}"/>
+  <xr:revisionPtr revIDLastSave="11773" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B692E985-D07B-439B-945E-72F18AE31F67}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="11505" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -2196,7 +2196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2312,6 +2312,9 @@
     <xf numFmtId="21" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="15" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2799,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E63C46F-C556-44F6-932B-B4CD58F367A9}">
   <dimension ref="B3:T32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2821,7 +2824,7 @@
     <col min="16" max="16" width="12.08984375" style="3" customWidth="1"/>
     <col min="17" max="17" width="4.81640625" style="3" customWidth="1"/>
     <col min="18" max="18" width="8.7265625" style="3"/>
-    <col min="19" max="19" width="9.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
@@ -3346,6 +3349,7 @@
         <v>102</v>
       </c>
       <c r="Q20" s="8"/>
+      <c r="S20" s="47"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
       <c r="C21" s="8"/>
@@ -9107,7 +9111,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
   <dimension ref="A1:BK304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A305" sqref="A305:XFD305"/>
     </sheetView>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13450" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21FF841-E5CA-4104-924E-35C452D2DA5B}"/>
+  <xr:revisionPtr revIDLastSave="13874" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4680C3A3-629A-444D-84B6-AA27F46C42CD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Ratings" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20924" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22104" uniqueCount="745">
   <si>
     <t>Pen</t>
   </si>
@@ -2240,6 +2239,45 @@
   <si>
     <t xml:space="preserve"> Z</t>
   </si>
+  <si>
+    <t>Pen40_01</t>
+  </si>
+  <si>
+    <t>Pen40_02</t>
+  </si>
+  <si>
+    <t>Pen40_03</t>
+  </si>
+  <si>
+    <t>Pen40_05</t>
+  </si>
+  <si>
+    <t>Pen40_06</t>
+  </si>
+  <si>
+    <t>Pen40_07</t>
+  </si>
+  <si>
+    <t>Pen40_08</t>
+  </si>
+  <si>
+    <t>Pen40_13</t>
+  </si>
+  <si>
+    <t>Pen40_23</t>
+  </si>
+  <si>
+    <t>Pen40_26</t>
+  </si>
+  <si>
+    <t>Pen40_28</t>
+  </si>
+  <si>
+    <t>Chased by Rowan</t>
+  </si>
+  <si>
+    <t>Hiding to eat food</t>
+  </si>
 </sst>
 </file>
 
@@ -2500,7 +2538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2514,9 +2552,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3107,7 +3142,7 @@
   <dimension ref="B3:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3160,10 +3195,10 @@
       <c r="N3" s="5">
         <v>40</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="37" t="s">
         <v>75</v>
       </c>
       <c r="Q3" s="4"/>
@@ -3172,14 +3207,14 @@
       <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3" t="s">
         <v>78</v>
       </c>
@@ -3189,83 +3224,83 @@
       <c r="M4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>19</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3">
         <v>29</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>39</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="P6" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3" t="s">
         <v>78</v>
       </c>
@@ -3275,7 +3310,7 @@
       <c r="M7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O7" s="3" t="s">
@@ -3284,278 +3319,278 @@
       <c r="P7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12">
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="8"/>
-      <c r="S8" s="14" t="s">
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="7"/>
+      <c r="S8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>18</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3">
         <v>28</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>38</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="27" t="s">
+      <c r="P9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="27" t="s">
+      <c r="P10" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="S10" s="15" t="s">
+      <c r="Q10" s="7"/>
+      <c r="S10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <f>SUM(G17,G20,G26,G29,G32,K5,K11,G11,G14,G23,K8,K14,K17,K20,K23,K26,K29,K32,N5,N8,N11,N14,N17,N20,N23,N26,N29,N32)</f>
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12">
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="11">
         <v>2</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10">
         <v>3</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" s="8"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>17</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3">
         <v>27</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>37</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="S12" s="21" t="s">
+      <c r="Q12" s="7"/>
+      <c r="S12" s="20" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="S13" s="24">
+      <c r="Q13" s="7"/>
+      <c r="S13" s="23">
         <v>44859</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11">
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10">
         <v>2</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13" t="s">
+      <c r="O14" s="11"/>
+      <c r="P14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q14" s="8"/>
-      <c r="S14" s="25">
+      <c r="Q14" s="7"/>
+      <c r="S14" s="24">
         <v>44863</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>16</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3">
         <v>26</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>36</v>
       </c>
       <c r="O15" t="s">
         <v>103</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="P15" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="S15" s="26">
+      <c r="Q15" s="7"/>
+      <c r="S15" s="25">
         <v>44909</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O16" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="10" t="s">
+      <c r="P16" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="S16" s="46">
+      <c r="Q16" s="7"/>
+      <c r="S16" s="45">
         <v>44938</v>
       </c>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11">
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10">
         <v>2</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="8"/>
-      <c r="S17" s="27">
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="7"/>
+      <c r="S17" s="26">
         <v>44939</v>
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -3564,7 +3599,7 @@
       <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="3">
         <v>25</v>
       </c>
@@ -3574,26 +3609,26 @@
       <c r="M18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>35</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="S18" s="28">
+      <c r="Q18" s="7"/>
+      <c r="S18" s="27">
         <v>44942</v>
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -3602,41 +3637,41 @@
       <c r="I19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O19" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11">
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="12">
+      <c r="J20" s="7"/>
+      <c r="K20" s="11">
         <v>1</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -3645,22 +3680,22 @@
       <c r="M20" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>2</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13" t="s">
+      <c r="O20" s="11"/>
+      <c r="P20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="Q20" s="8"/>
-      <c r="S20" s="47"/>
+      <c r="Q20" s="7"/>
+      <c r="S20" s="46"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -3669,33 +3704,33 @@
       <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="3">
         <v>24</v>
       </c>
-      <c r="L21" s="46" t="s">
+      <c r="L21" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="M21" s="46" t="s">
+      <c r="M21" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>34</v>
       </c>
       <c r="O21" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>91</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -3704,58 +3739,58 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L22" s="46" t="s">
+      <c r="L22" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="M22" s="46" t="s">
+      <c r="M22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O22" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C23" s="8"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11">
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10">
         <v>2</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="12">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="11">
         <v>2</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="11">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10">
         <v>2</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13" t="s">
+      <c r="O23" s="11"/>
+      <c r="P23" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
         <v>3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -3764,33 +3799,33 @@
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="3">
         <v>23</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>33</v>
       </c>
-      <c r="O24" s="32" t="s">
+      <c r="O24" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -3799,58 +3834,58 @@
       <c r="I25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="O25" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11">
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10">
         <v>3</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12" t="s">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12">
+      <c r="J26" s="7"/>
+      <c r="K26" s="11">
         <v>2</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="11">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10">
         <v>2</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="8"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>12</v>
       </c>
       <c r="H27" s="3" t="s">
@@ -3859,7 +3894,7 @@
       <c r="I27" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="3">
         <v>22</v>
       </c>
@@ -3869,58 +3904,58 @@
       <c r="M27" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <v>32</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="28" t="s">
+      <c r="L28" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11">
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="12">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="11">
         <v>2</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -3929,21 +3964,21 @@
       <c r="M29" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="10">
         <v>4</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13" t="s">
+      <c r="O29" s="11"/>
+      <c r="P29" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>11</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -3952,7 +3987,7 @@
       <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="3">
         <v>21</v>
       </c>
@@ -3962,23 +3997,23 @@
       <c r="M30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>31</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H31" s="3" t="s">
@@ -3987,57 +4022,57 @@
       <c r="I31" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.35">
-      <c r="C32" s="17"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11">
+      <c r="C32" s="16"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10">
         <v>3</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="K32" s="12">
+      <c r="J32" s="16"/>
+      <c r="K32" s="11">
         <v>3</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>3</v>
       </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13" t="s">
+      <c r="O32" s="11"/>
+      <c r="P32" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q32" s="17"/>
+      <c r="Q32" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O15:O16">
@@ -4093,11 +4128,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V2" s="21"/>
+      <c r="V2" s="20"/>
     </row>
     <row r="3" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -4127,10 +4162,10 @@
       <c r="N3" s="5">
         <v>40</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="O3" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="37" t="s">
         <v>236</v>
       </c>
       <c r="Q3" s="4"/>
@@ -4139,14 +4174,14 @@
       <c r="B4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="8"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="3" t="s">
         <v>78</v>
       </c>
@@ -4156,221 +4191,221 @@
       <c r="M4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" s="8"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12">
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="11">
         <v>3</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <v>2</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="8"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C6" s="8"/>
-      <c r="D6" s="9">
+      <c r="C6" s="7"/>
+      <c r="D6" s="8">
         <v>9</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>19</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="3">
         <v>29</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>39</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="P6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="Q6" s="8"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O7" s="31" t="s">
+      <c r="O7" s="30" t="s">
         <v>209</v>
       </c>
-      <c r="P7" s="31" t="s">
+      <c r="P7" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="Q7" s="8"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C8" s="8"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12">
+      <c r="C8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="11">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="8"/>
-      <c r="S8" s="14" t="s">
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="7"/>
+      <c r="S8" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="8">
         <v>8</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>18</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="31" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="3">
         <v>28</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>38</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="Q9" s="8"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="P10" s="40" t="s">
+      <c r="P10" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="Q10" s="8"/>
-      <c r="S10" s="15" t="s">
+      <c r="Q10" s="7"/>
+      <c r="S10" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="T10" s="16">
+      <c r="T10" s="15">
         <f>SUM(G17,G20,G26,G29,G32,K5,K11,G11,G14,G23,K8,K14,K17,K20,K23,K26,K29,K32,N5,N8,N11,N14,N17,N20,N23,N26,N29,N32)</f>
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C11" s="8"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="11">
+      <c r="C11" s="7"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10">
         <v>2</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="11">
         <v>0</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="11">
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="10">
         <v>2</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9">
+      <c r="C12" s="7"/>
+      <c r="D12" s="8">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>17</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -4379,30 +4414,30 @@
       <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="3">
         <v>27</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <v>37</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="10" t="s">
+      <c r="P12" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="8"/>
-      <c r="S12" s="21" t="s">
+      <c r="Q12" s="7"/>
+      <c r="S12" s="20" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="13" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -4411,159 +4446,159 @@
       <c r="I13" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="P13" s="10" t="s">
+      <c r="P13" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="S13" s="31" t="s">
+      <c r="Q13" s="7"/>
+      <c r="S13" s="30" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C14" s="8"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11">
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="12">
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="11">
         <v>0</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10">
         <v>2</v>
       </c>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="8"/>
-      <c r="S14" s="32" t="s">
+      <c r="O14" s="11"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="7"/>
+      <c r="S14" s="31" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9">
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>6</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>16</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="3">
         <v>26</v>
       </c>
-      <c r="L15" s="32" t="s">
+      <c r="L15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="32" t="s">
+      <c r="M15" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>36</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="O15" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="P15" s="40" t="s">
+      <c r="P15" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="Q15" s="8"/>
-      <c r="S15" s="33" t="s">
+      <c r="Q15" s="7"/>
+      <c r="S15" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="16" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="42" t="s">
+      <c r="O16" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="P16" s="39" t="s">
+      <c r="P16" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="Q16" s="8"/>
-      <c r="S16" s="34" t="s">
+      <c r="Q16" s="7"/>
+      <c r="S16" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" s="22"/>
+      <c r="Z16" s="21"/>
     </row>
     <row r="17" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="11">
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="10">
         <v>2</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="12">
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="11">
         <v>2</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10">
         <v>2</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="8"/>
-      <c r="S17" s="35" t="s">
+      <c r="O17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="7"/>
+      <c r="S17" s="34" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="18" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9">
+      <c r="C18" s="7"/>
+      <c r="D18" s="8">
         <v>5</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="8">
         <v>15</v>
       </c>
       <c r="H18" s="3" t="s">
@@ -4572,33 +4607,33 @@
       <c r="I18" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="3">
         <v>25</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="M18" s="31" t="s">
+      <c r="M18" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <v>35</v>
       </c>
       <c r="O18" t="s">
         <v>83</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="P18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H19" s="3" t="s">
@@ -4607,60 +4642,60 @@
       <c r="I19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O19" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="Q19" s="8"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="11">
+      <c r="C20" s="7"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="12">
+      <c r="J20" s="7"/>
+      <c r="K20" s="11">
         <v>2</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10">
         <v>2</v>
       </c>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="8"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="7"/>
     </row>
     <row r="21" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9">
+      <c r="C21" s="7"/>
+      <c r="D21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="8">
         <v>14</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -4669,33 +4704,33 @@
       <c r="I21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="3">
         <v>24</v>
       </c>
-      <c r="L21" s="32" t="s">
+      <c r="L21" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="M21" s="32" t="s">
+      <c r="M21" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <v>34</v>
       </c>
       <c r="O21" t="s">
         <v>118</v>
       </c>
-      <c r="P21" s="10" t="s">
+      <c r="P21" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="Q21" s="8"/>
+      <c r="Q21" s="7"/>
     </row>
     <row r="22" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -4704,52 +4739,52 @@
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O22" t="s">
         <v>98</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="P22" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="Q22" s="8"/>
+      <c r="Q22" s="7"/>
     </row>
     <row r="23" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C23" s="8"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11">
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10">
         <v>2</v>
       </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="12">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="11">
         <v>1</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="11">
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10">
         <v>3</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13" t="s">
+      <c r="O23" s="11"/>
+      <c r="P23" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="Q23" s="8"/>
+      <c r="Q23" s="7"/>
     </row>
     <row r="24" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9">
+      <c r="C24" s="7"/>
+      <c r="D24" s="8">
         <v>3</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>13</v>
       </c>
       <c r="H24" s="3" t="s">
@@ -4758,33 +4793,33 @@
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="3">
         <v>23</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="M24" s="32" t="s">
+      <c r="M24" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>33</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="P24" s="40" t="s">
+      <c r="P24" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="Q24" s="8"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C25" s="8"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="G25" s="8" t="s">
         <v>78</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -4793,227 +4828,227 @@
       <c r="I25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="33" t="s">
+      <c r="L25" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="M25" s="33" t="s">
+      <c r="M25" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="O25" s="32" t="s">
+      <c r="O25" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11">
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10">
         <v>2</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12">
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="11">
         <v>2</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="11">
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="10">
         <v>2</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="8"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9">
+      <c r="C27" s="7"/>
+      <c r="D27" s="8">
         <v>2</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>12</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="J27" s="8"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="3">
         <v>22</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="L27" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="M27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <v>32</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="P27" s="10" t="s">
+      <c r="P27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="7"/>
     </row>
     <row r="28" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H28" s="31" t="s">
+      <c r="H28" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="31" t="s">
+      <c r="I28" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L28" s="33" t="s">
+      <c r="L28" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="M28" s="33" t="s">
+      <c r="M28" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="P28" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="Q28" s="8"/>
+      <c r="Q28" s="7"/>
     </row>
     <row r="29" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="11">
+      <c r="C29" s="7"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10">
         <v>2</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="12">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="11">
         <v>2</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10">
         <v>2</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="8"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="7"/>
     </row>
     <row r="30" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C30" s="8"/>
-      <c r="D30" s="9">
+      <c r="C30" s="7"/>
+      <c r="D30" s="8">
         <v>1</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="8">
         <v>11</v>
       </c>
-      <c r="J30" s="8"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="3">
         <v>21</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="M30" s="32" t="s">
+      <c r="M30" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <v>31</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P30" s="10" t="s">
+      <c r="P30" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="7"/>
     </row>
     <row r="31" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="8"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L31" s="35" t="s">
+      <c r="L31" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M31" s="35" t="s">
+      <c r="M31" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="N31" s="9" t="s">
+      <c r="N31" s="8" t="s">
         <v>78</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="P31" s="10" t="s">
+      <c r="P31" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="7"/>
     </row>
     <row r="32" spans="3:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C32" s="17"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="11">
+      <c r="C32" s="16"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="10">
         <v>0</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="12">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="11">
         <v>3</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="36" t="s">
+      <c r="M32" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N32" s="10">
         <v>2</v>
       </c>
-      <c r="O32" s="12"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="22:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="34" spans="22:22" ht="14.5" x14ac:dyDescent="0.35"/>
@@ -5021,40 +5056,40 @@
     <row r="36" spans="22:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="37" spans="22:22" ht="14.5" x14ac:dyDescent="0.35"/>
     <row r="38" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V38" s="21"/>
+      <c r="V38" s="20"/>
     </row>
     <row r="39" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V39" s="21"/>
+      <c r="V39" s="20"/>
     </row>
     <row r="40" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V40" s="21"/>
+      <c r="V40" s="20"/>
     </row>
     <row r="41" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V41" s="21"/>
+      <c r="V41" s="20"/>
     </row>
     <row r="42" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V42" s="21"/>
+      <c r="V42" s="20"/>
     </row>
     <row r="43" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V43" s="21"/>
+      <c r="V43" s="20"/>
     </row>
     <row r="44" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V44" s="21"/>
+      <c r="V44" s="20"/>
     </row>
     <row r="45" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V45" s="21"/>
+      <c r="V45" s="20"/>
     </row>
     <row r="46" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V46" s="21"/>
+      <c r="V46" s="20"/>
     </row>
     <row r="47" spans="22:22" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="V47" s="21"/>
+      <c r="V47" s="20"/>
     </row>
     <row r="48" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V48" s="21"/>
+      <c r="V48" s="20"/>
     </row>
     <row r="49" spans="22:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="V49" s="21"/>
+      <c r="V49" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="O15:O16">
@@ -5095,47 +5130,47 @@
     <col min="6" max="6" width="11.26953125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="20"/>
+    <col min="12" max="12" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5175,7 +5210,7 @@
       <c r="K2" s="2">
         <v>1.5046296296294948E-4</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>13</v>
       </c>
       <c r="M2" t="s">
@@ -5218,7 +5253,7 @@
       <c r="K3" s="2">
         <v>4.050925925925819E-4</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>35</v>
       </c>
       <c r="M3" t="s">
@@ -5261,7 +5296,7 @@
       <c r="K4" s="2">
         <v>4.1666666666662078E-4</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>36</v>
       </c>
       <c r="M4" t="s">
@@ -5304,7 +5339,7 @@
       <c r="K5" s="2">
         <v>5.3240740740745363E-4</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>46</v>
       </c>
       <c r="M5" t="s">
@@ -5347,7 +5382,7 @@
       <c r="K6" s="2">
         <v>5.7870370370372015E-4</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>50</v>
       </c>
       <c r="M6" t="s">
@@ -5390,7 +5425,7 @@
       <c r="K7" s="2">
         <v>5.9027777777775903E-4</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>51</v>
       </c>
       <c r="M7" t="s">
@@ -5433,7 +5468,7 @@
       <c r="K8" s="2">
         <v>6.7129629629614218E-4</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>58</v>
       </c>
       <c r="M8" t="s">
@@ -5476,7 +5511,7 @@
       <c r="K9" s="2">
         <v>7.1759259259251973E-4</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="19">
         <v>62</v>
       </c>
     </row>
@@ -5516,7 +5551,7 @@
       <c r="K10" s="2">
         <v>7.407407407407085E-4</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="19">
         <v>64</v>
       </c>
     </row>
@@ -5556,7 +5591,7 @@
       <c r="K11" s="2">
         <v>7.523148148148584E-4</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>65</v>
       </c>
       <c r="M11" t="s">
@@ -5599,7 +5634,7 @@
       <c r="K12" s="2">
         <v>7.9861111111112493E-4</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>69</v>
       </c>
       <c r="M12" t="s">
@@ -5642,7 +5677,7 @@
       <c r="K13" s="2">
         <v>9.8379629629630205E-4</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="19">
         <v>85</v>
       </c>
     </row>
@@ -5682,7 +5717,7 @@
       <c r="K14" s="2">
         <v>1.0995370370369129E-3</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>95</v>
       </c>
       <c r="M14" t="s">
@@ -5725,7 +5760,7 @@
       <c r="K15" s="2">
         <v>1.1226851851851016E-3</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>97</v>
       </c>
       <c r="M15" t="s">
@@ -5768,7 +5803,7 @@
       <c r="K16" s="2">
         <v>1.1805555555555181E-3</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="19">
         <v>102</v>
       </c>
       <c r="M16" t="s">
@@ -5811,7 +5846,7 @@
       <c r="K17" s="2">
         <v>1.28472222222209E-3</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <v>111</v>
       </c>
       <c r="M17" t="s">
@@ -5854,7 +5889,7 @@
       <c r="K18" s="2">
         <v>1.6203703703703276E-3</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <v>140</v>
       </c>
     </row>
@@ -5894,7 +5929,7 @@
       <c r="K19" s="2">
         <v>1.6898148148148939E-3</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>146</v>
       </c>
       <c r="M19" t="s">
@@ -5937,7 +5972,7 @@
       <c r="K20" s="2">
         <v>1.7129629629629717E-3</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>148</v>
       </c>
       <c r="M20" t="s">
@@ -5980,7 +6015,7 @@
       <c r="K21" s="2">
         <v>2.0138888888888706E-3</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="19">
         <v>174</v>
       </c>
       <c r="M21" t="s">
@@ -6023,7 +6058,7 @@
       <c r="K22" s="2">
         <v>2.0833333333333259E-3</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="19">
         <v>180</v>
       </c>
       <c r="M22" t="s">
@@ -6066,7 +6101,7 @@
       <c r="K23" s="2">
         <v>2.1064814814815147E-3</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <v>182</v>
       </c>
     </row>
@@ -6106,7 +6141,7 @@
       <c r="K24" s="2">
         <v>2.3379629629629584E-3</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <v>202</v>
       </c>
       <c r="M24" t="s">
@@ -6149,7 +6184,7 @@
       <c r="K25" s="2">
         <v>2.6851851851852349E-3</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="19">
         <v>232</v>
       </c>
       <c r="M25" t="s">
@@ -6192,7 +6227,7 @@
       <c r="K26" s="2">
         <v>4.6643518518518778E-3</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <v>403</v>
       </c>
     </row>
@@ -6232,7 +6267,7 @@
       <c r="K27" s="2">
         <v>4.8032407407406774E-3</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <v>415</v>
       </c>
     </row>
@@ -6272,7 +6307,7 @@
       <c r="K28" s="2">
         <v>4.8263888888888662E-3</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <v>417</v>
       </c>
     </row>
@@ -6312,7 +6347,7 @@
       <c r="K29" s="2">
         <v>4.9768518518518157E-3</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="19">
         <v>430</v>
       </c>
       <c r="M29" t="s">
@@ -6355,7 +6390,7 @@
       <c r="K30" s="2">
         <v>5.046296296296271E-3</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="19">
         <v>436</v>
       </c>
       <c r="M30" t="s">
@@ -6398,7 +6433,7 @@
       <c r="K31" s="2">
         <v>5.2083333333333703E-3</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="19">
         <v>450</v>
       </c>
       <c r="M31" t="s">
@@ -6441,7 +6476,7 @@
       <c r="K32" s="2">
         <v>5.7291666666666741E-3</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="19">
         <v>495</v>
       </c>
     </row>
@@ -6481,7 +6516,7 @@
       <c r="K33" s="2">
         <v>6.6435185185185208E-3</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="19">
         <v>574</v>
       </c>
       <c r="M33" t="s">
@@ -6524,7 +6559,7 @@
       <c r="K34" s="2">
         <v>7.7893518518518112E-3</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="19">
         <v>673</v>
       </c>
       <c r="M34" t="s">
@@ -6567,7 +6602,7 @@
       <c r="K35" s="2">
         <v>1.0370370370370474E-2</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <v>896</v>
       </c>
       <c r="M35" t="s">
@@ -6610,7 +6645,7 @@
       <c r="K36" s="2">
         <v>1.0868055555555589E-2</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <v>939</v>
       </c>
     </row>
@@ -6650,7 +6685,7 @@
       <c r="K37" s="2">
         <v>1.1550925925925881E-2</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="19">
         <v>998</v>
       </c>
     </row>
@@ -6690,7 +6725,7 @@
       <c r="K38" s="2">
         <v>1.216435185185194E-2</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="19">
         <v>1051</v>
       </c>
     </row>
@@ -6730,7 +6765,7 @@
       <c r="K39" s="2">
         <v>1.2465277777777728E-2</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="19">
         <v>1077</v>
       </c>
     </row>
@@ -6770,7 +6805,7 @@
       <c r="K40" s="2">
         <v>1.2581018518518561E-2</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="19">
         <v>1087</v>
       </c>
       <c r="M40" t="s">
@@ -6813,7 +6848,7 @@
       <c r="K41" s="2">
         <v>1.2800925925925966E-2</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="19">
         <v>1106</v>
       </c>
       <c r="M41" t="s">
@@ -6856,7 +6891,7 @@
       <c r="K42" s="2">
         <v>1.3854166666666723E-2</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="19">
         <v>1197</v>
       </c>
       <c r="M42" t="s">
@@ -6899,7 +6934,7 @@
       <c r="K43" s="2">
         <v>1.3900462962962878E-2</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="19">
         <v>1201</v>
       </c>
     </row>
@@ -6939,7 +6974,7 @@
       <c r="K44" s="2">
         <v>1.4849537037037175E-2</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="19">
         <v>1283</v>
       </c>
       <c r="M44" t="s">
@@ -6982,7 +7017,7 @@
       <c r="K45" s="2">
         <v>1.7187500000000022E-2</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="19">
         <v>1485</v>
       </c>
       <c r="M45" t="s">
@@ -7025,7 +7060,7 @@
       <c r="K46" s="2">
         <v>1.7476851851851882E-2</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="19">
         <v>1510</v>
       </c>
     </row>
@@ -7065,7 +7100,7 @@
       <c r="K47" s="2">
         <v>1.7592592592592604E-2</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="19">
         <v>1520</v>
       </c>
       <c r="M47" t="s">
@@ -7108,7 +7143,7 @@
       <c r="K48" s="2">
         <v>1.7789351851851931E-2</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <v>1537</v>
       </c>
       <c r="M48" t="s">
@@ -7151,7 +7186,7 @@
       <c r="K49" s="2">
         <v>1.7905092592592653E-2</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="19">
         <v>1547</v>
       </c>
       <c r="M49" t="s">
@@ -7194,7 +7229,7 @@
       <c r="K50" s="2">
         <v>1.8194444444444513E-2</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="19">
         <v>1572</v>
       </c>
       <c r="M50" t="s">
@@ -7237,7 +7272,7 @@
       <c r="K51" s="2">
         <v>1.8321759259259274E-2</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <v>1583</v>
       </c>
       <c r="M51" t="s">
@@ -7280,7 +7315,7 @@
       <c r="K52" s="2">
         <v>1.8437500000000107E-2</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="19">
         <v>1593</v>
       </c>
       <c r="M52" t="s">
@@ -7323,7 +7358,7 @@
       <c r="K53" s="2">
         <v>1.9201388888888893E-2</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="19">
         <v>1659</v>
       </c>
     </row>
@@ -7363,7 +7398,7 @@
       <c r="K54" s="2">
         <v>2.011574074074074E-2</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="19">
         <v>1738</v>
       </c>
       <c r="M54" t="s">
@@ -7406,7 +7441,7 @@
       <c r="K55" s="2">
         <v>3.3796296296296324E-2</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="19">
         <v>2920</v>
       </c>
     </row>
@@ -7446,7 +7481,7 @@
       <c r="K56" s="2">
         <v>3.4745370370370399E-2</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="19">
         <v>3002</v>
       </c>
       <c r="M56" t="s">
@@ -7489,7 +7524,7 @@
       <c r="K57" s="2">
         <v>3.6770833333333308E-2</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="19">
         <v>3177</v>
       </c>
       <c r="M57" t="s">
@@ -7532,7 +7567,7 @@
       <c r="K58" s="2">
         <v>3.7152777777777812E-2</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>3210</v>
       </c>
     </row>
@@ -7572,7 +7607,7 @@
       <c r="K59" s="2">
         <v>3.8680555555555496E-2</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="19">
         <v>3342</v>
       </c>
       <c r="M59" t="s">
@@ -7615,7 +7650,7 @@
       <c r="K60" s="2">
         <v>4.601851851851857E-2</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="19">
         <v>3976</v>
       </c>
     </row>
@@ -7655,7 +7690,7 @@
       <c r="K61" s="2">
         <v>5.3645833333333282E-2</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="19">
         <v>4635</v>
       </c>
       <c r="M61" t="s">
@@ -7698,7 +7733,7 @@
       <c r="K62" s="2">
         <v>7.4699074074073946E-2</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="19">
         <v>6454</v>
       </c>
       <c r="M62" t="s">
@@ -7741,7 +7776,7 @@
       <c r="K63" s="2">
         <v>7.4780092592592662E-2</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="19">
         <v>6461</v>
       </c>
       <c r="M63" t="s">
@@ -7784,7 +7819,7 @@
       <c r="K64" s="2">
         <v>0.10931712962962958</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="19">
         <v>9445</v>
       </c>
       <c r="M64" t="s">
@@ -7827,7 +7862,7 @@
       <c r="K65" s="2">
         <v>0.15520833333333328</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="19">
         <v>13410</v>
       </c>
       <c r="M65" t="s">
@@ -8769,16 +8804,16 @@
       <c r="C95" t="s">
         <v>226</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="44"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="45"/>
-      <c r="M95" s="43" t="s">
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8792,16 +8827,16 @@
       <c r="C96" t="s">
         <v>222</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="44"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="45"/>
-      <c r="M96" s="43" t="s">
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8900,16 +8935,16 @@
       <c r="C100" t="s">
         <v>225</v>
       </c>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="44"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="44"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="45"/>
-      <c r="M100" s="43" t="s">
+      <c r="D100" s="42"/>
+      <c r="E100" s="42"/>
+      <c r="F100" s="42"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="42"/>
+      <c r="I100" s="42"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="42"/>
+      <c r="L100" s="44"/>
+      <c r="M100" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8923,16 +8958,16 @@
       <c r="C101" t="s">
         <v>220</v>
       </c>
-      <c r="D101" s="43"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="44"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="44"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="45"/>
-      <c r="M101" s="43" t="s">
+      <c r="D101" s="42"/>
+      <c r="E101" s="42"/>
+      <c r="F101" s="42"/>
+      <c r="G101" s="43"/>
+      <c r="H101" s="42"/>
+      <c r="I101" s="42"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="42"/>
+      <c r="L101" s="44"/>
+      <c r="M101" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9033,16 +9068,16 @@
       <c r="C105" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="44"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="44"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="45"/>
-      <c r="M105" s="43" t="s">
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="43"/>
+      <c r="H105" s="42"/>
+      <c r="I105" s="42"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="42"/>
+      <c r="L105" s="44"/>
+      <c r="M105" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9056,16 +9091,16 @@
       <c r="C106" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="43"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="44"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="44"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="45"/>
-      <c r="M106" s="43" t="s">
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="43"/>
+      <c r="H106" s="42"/>
+      <c r="I106" s="42"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="42"/>
+      <c r="L106" s="44"/>
+      <c r="M106" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9079,16 +9114,16 @@
       <c r="C107" t="s">
         <v>37</v>
       </c>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="44"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="45"/>
-      <c r="M107" s="43" t="s">
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="43"/>
+      <c r="H107" s="42"/>
+      <c r="I107" s="42"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="44"/>
+      <c r="M107" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9102,16 +9137,16 @@
       <c r="C108" t="s">
         <v>208</v>
       </c>
-      <c r="D108" s="43"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="44"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="44"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="43" t="s">
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="43"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="44"/>
+      <c r="M108" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9128,7 +9163,7 @@
       <c r="D109" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="F109" s="2">
@@ -9159,7 +9194,7 @@
       <c r="D110" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="F110" s="2">
@@ -9190,7 +9225,7 @@
       <c r="D111" t="s">
         <v>15</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="F111" s="2">
@@ -9218,16 +9253,16 @@
       <c r="C112" t="s">
         <v>236</v>
       </c>
-      <c r="D112" s="43"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="44"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="44"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="45"/>
-      <c r="M112" s="43" t="s">
+      <c r="D112" s="42"/>
+      <c r="E112" s="42"/>
+      <c r="F112" s="42"/>
+      <c r="G112" s="43"/>
+      <c r="H112" s="42"/>
+      <c r="I112" s="42"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9241,16 +9276,16 @@
       <c r="C113" t="s">
         <v>234</v>
       </c>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="44"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="44"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="45"/>
-      <c r="M113" s="43" t="s">
+      <c r="D113" s="42"/>
+      <c r="E113" s="42"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="43"/>
+      <c r="H113" s="42"/>
+      <c r="I113" s="42"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="44"/>
+      <c r="M113" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9320,16 +9355,16 @@
       <c r="C116" t="s">
         <v>223</v>
       </c>
-      <c r="D116" s="43"/>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="43"/>
-      <c r="J116" s="44"/>
-      <c r="K116" s="43"/>
-      <c r="L116" s="45"/>
-      <c r="M116" s="43" t="s">
+      <c r="D116" s="42"/>
+      <c r="E116" s="42"/>
+      <c r="F116" s="42"/>
+      <c r="G116" s="43"/>
+      <c r="H116" s="42"/>
+      <c r="I116" s="42"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="44"/>
+      <c r="M116" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9343,16 +9378,16 @@
       <c r="C117" t="s">
         <v>219</v>
       </c>
-      <c r="D117" s="43"/>
-      <c r="E117" s="43"/>
-      <c r="F117" s="43"/>
-      <c r="G117" s="44"/>
-      <c r="H117" s="43"/>
-      <c r="I117" s="43"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="43"/>
-      <c r="L117" s="45"/>
-      <c r="M117" s="43" t="s">
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="42"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="42"/>
+      <c r="I117" s="42"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="42"/>
+      <c r="L117" s="44"/>
+      <c r="M117" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9366,16 +9401,16 @@
       <c r="C118" t="s">
         <v>214</v>
       </c>
-      <c r="D118" s="43"/>
-      <c r="E118" s="43"/>
-      <c r="F118" s="43"/>
-      <c r="G118" s="44"/>
-      <c r="H118" s="43"/>
-      <c r="I118" s="43"/>
-      <c r="J118" s="44"/>
-      <c r="K118" s="43"/>
-      <c r="L118" s="45"/>
-      <c r="M118" s="43" t="s">
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="42"/>
+      <c r="G118" s="43"/>
+      <c r="H118" s="42"/>
+      <c r="I118" s="42"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="42"/>
+      <c r="L118" s="44"/>
+      <c r="M118" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9389,16 +9424,16 @@
       <c r="C119" t="s">
         <v>212</v>
       </c>
-      <c r="D119" s="43"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="44"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="44"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="45"/>
-      <c r="M119" s="43" t="s">
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="42"/>
+      <c r="G119" s="43"/>
+      <c r="H119" s="42"/>
+      <c r="I119" s="42"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="42"/>
+      <c r="L119" s="44"/>
+      <c r="M119" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -9413,11 +9448,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
-  <dimension ref="A1:BK396"/>
+  <dimension ref="A1:BK415"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A365" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397:XFD397"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY421" sqref="AY421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9429,193 +9464,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="18">
+      <c r="C1" s="17">
         <v>1</v>
       </c>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>2</v>
       </c>
-      <c r="E1" s="18">
+      <c r="E1" s="17">
         <v>3</v>
       </c>
-      <c r="F1" s="18">
+      <c r="F1" s="17">
         <v>4</v>
       </c>
-      <c r="G1" s="18">
+      <c r="G1" s="17">
         <v>5</v>
       </c>
-      <c r="H1" s="18">
+      <c r="H1" s="17">
         <v>6</v>
       </c>
-      <c r="I1" s="18">
+      <c r="I1" s="17">
         <v>7</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>8</v>
       </c>
-      <c r="K1" s="18">
+      <c r="K1" s="17">
         <v>9</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <v>10</v>
       </c>
-      <c r="M1" s="18">
+      <c r="M1" s="17">
         <v>11</v>
       </c>
-      <c r="N1" s="18">
+      <c r="N1" s="17">
         <v>12</v>
       </c>
-      <c r="O1" s="18">
+      <c r="O1" s="17">
         <v>13</v>
       </c>
-      <c r="P1" s="18">
+      <c r="P1" s="17">
         <v>14</v>
       </c>
-      <c r="Q1" s="18">
+      <c r="Q1" s="17">
         <v>15</v>
       </c>
-      <c r="R1" s="18">
+      <c r="R1" s="17">
         <v>16</v>
       </c>
-      <c r="S1" s="18">
+      <c r="S1" s="17">
         <v>17</v>
       </c>
-      <c r="T1" s="18">
+      <c r="T1" s="17">
         <v>18</v>
       </c>
-      <c r="U1" s="18">
+      <c r="U1" s="17">
         <v>19</v>
       </c>
-      <c r="V1" s="18">
+      <c r="V1" s="17">
         <v>20</v>
       </c>
-      <c r="W1" s="18">
+      <c r="W1" s="17">
         <v>21</v>
       </c>
-      <c r="X1" s="18">
+      <c r="X1" s="17">
         <v>22</v>
       </c>
-      <c r="Y1" s="18">
+      <c r="Y1" s="17">
         <v>23</v>
       </c>
-      <c r="Z1" s="18">
+      <c r="Z1" s="17">
         <v>24</v>
       </c>
-      <c r="AA1" s="18">
+      <c r="AA1" s="17">
         <v>25</v>
       </c>
-      <c r="AB1" s="18">
+      <c r="AB1" s="17">
         <v>26</v>
       </c>
-      <c r="AC1" s="18">
+      <c r="AC1" s="17">
         <v>27</v>
       </c>
-      <c r="AD1" s="18">
+      <c r="AD1" s="17">
         <v>28</v>
       </c>
-      <c r="AE1" s="18">
+      <c r="AE1" s="17">
         <v>29</v>
       </c>
-      <c r="AF1" s="18">
+      <c r="AF1" s="17">
         <v>30</v>
       </c>
-      <c r="AG1" s="18">
+      <c r="AG1" s="17">
         <v>31</v>
       </c>
-      <c r="AH1" s="18">
+      <c r="AH1" s="17">
         <v>32</v>
       </c>
-      <c r="AI1" s="18">
+      <c r="AI1" s="17">
         <v>33</v>
       </c>
-      <c r="AJ1" s="18">
+      <c r="AJ1" s="17">
         <v>34</v>
       </c>
-      <c r="AK1" s="18">
+      <c r="AK1" s="17">
         <v>35</v>
       </c>
-      <c r="AL1" s="18">
+      <c r="AL1" s="17">
         <v>36</v>
       </c>
-      <c r="AM1" s="18">
+      <c r="AM1" s="17">
         <v>37</v>
       </c>
-      <c r="AN1" s="18">
+      <c r="AN1" s="17">
         <v>38</v>
       </c>
-      <c r="AO1" s="18">
+      <c r="AO1" s="17">
         <v>39</v>
       </c>
-      <c r="AP1" s="18">
+      <c r="AP1" s="17">
         <v>40</v>
       </c>
-      <c r="AQ1" s="18">
+      <c r="AQ1" s="17">
         <v>41</v>
       </c>
-      <c r="AR1" s="18">
+      <c r="AR1" s="17">
         <v>42</v>
       </c>
-      <c r="AS1" s="18">
+      <c r="AS1" s="17">
         <v>43</v>
       </c>
-      <c r="AT1" s="18">
+      <c r="AT1" s="17">
         <v>44</v>
       </c>
-      <c r="AU1" s="18">
+      <c r="AU1" s="17">
         <v>45</v>
       </c>
-      <c r="AV1" s="18">
+      <c r="AV1" s="17">
         <v>46</v>
       </c>
-      <c r="AW1" s="18">
+      <c r="AW1" s="17">
         <v>47</v>
       </c>
-      <c r="AX1" s="18">
+      <c r="AX1" s="17">
         <v>48</v>
       </c>
-      <c r="AY1" s="18">
+      <c r="AY1" s="17">
         <v>49</v>
       </c>
-      <c r="AZ1" s="18">
+      <c r="AZ1" s="17">
         <v>50</v>
       </c>
-      <c r="BA1" s="18">
+      <c r="BA1" s="17">
         <v>51</v>
       </c>
-      <c r="BB1" s="18">
+      <c r="BB1" s="17">
         <v>52</v>
       </c>
-      <c r="BC1" s="18">
+      <c r="BC1" s="17">
         <v>53</v>
       </c>
-      <c r="BD1" s="18">
+      <c r="BD1" s="17">
         <v>54</v>
       </c>
-      <c r="BE1" s="18">
+      <c r="BE1" s="17">
         <v>55</v>
       </c>
-      <c r="BF1" s="18">
+      <c r="BF1" s="17">
         <v>56</v>
       </c>
-      <c r="BG1" s="18">
+      <c r="BG1" s="17">
         <v>57</v>
       </c>
-      <c r="BH1" s="18">
+      <c r="BH1" s="17">
         <v>58</v>
       </c>
-      <c r="BI1" s="18">
+      <c r="BI1" s="17">
         <v>59</v>
       </c>
-      <c r="BJ1" s="18">
+      <c r="BJ1" s="17">
         <v>60</v>
       </c>
-      <c r="BK1" s="18" t="s">
+      <c r="BK1" s="17" t="s">
         <v>365</v>
       </c>
     </row>
@@ -70302,6 +70337,3584 @@
       </c>
       <c r="BJ396" t="s">
         <v>183</v>
+      </c>
+    </row>
+    <row r="397" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>75</v>
+      </c>
+      <c r="B397" t="s">
+        <v>732</v>
+      </c>
+      <c r="C397" t="s">
+        <v>183</v>
+      </c>
+      <c r="D397" t="s">
+        <v>183</v>
+      </c>
+      <c r="E397" t="s">
+        <v>361</v>
+      </c>
+      <c r="F397" t="s">
+        <v>361</v>
+      </c>
+      <c r="G397" t="s">
+        <v>361</v>
+      </c>
+      <c r="H397" t="s">
+        <v>361</v>
+      </c>
+      <c r="I397" t="s">
+        <v>183</v>
+      </c>
+      <c r="J397" t="s">
+        <v>183</v>
+      </c>
+      <c r="K397" t="s">
+        <v>183</v>
+      </c>
+      <c r="L397" t="s">
+        <v>183</v>
+      </c>
+      <c r="M397" t="s">
+        <v>183</v>
+      </c>
+      <c r="N397" t="s">
+        <v>183</v>
+      </c>
+      <c r="O397" t="s">
+        <v>183</v>
+      </c>
+      <c r="P397" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>184</v>
+      </c>
+      <c r="R397" t="s">
+        <v>184</v>
+      </c>
+      <c r="S397" t="s">
+        <v>66</v>
+      </c>
+      <c r="T397" t="s">
+        <v>183</v>
+      </c>
+      <c r="U397" t="s">
+        <v>361</v>
+      </c>
+      <c r="V397" t="s">
+        <v>361</v>
+      </c>
+      <c r="W397" t="s">
+        <v>361</v>
+      </c>
+      <c r="X397" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>361</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>361</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH397" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI397" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ397" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK397" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL397" t="s">
+        <v>471</v>
+      </c>
+      <c r="AM397" t="s">
+        <v>186</v>
+      </c>
+      <c r="AN397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW397" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX397" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY397" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ397" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA397" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB397" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC397" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD397" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE397" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF397" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG397" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH397" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI397" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ397" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="398" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>75</v>
+      </c>
+      <c r="B398" t="s">
+        <v>733</v>
+      </c>
+      <c r="C398" t="s">
+        <v>361</v>
+      </c>
+      <c r="D398" t="s">
+        <v>361</v>
+      </c>
+      <c r="E398" t="s">
+        <v>361</v>
+      </c>
+      <c r="F398" t="s">
+        <v>361</v>
+      </c>
+      <c r="G398" t="s">
+        <v>361</v>
+      </c>
+      <c r="H398" t="s">
+        <v>361</v>
+      </c>
+      <c r="I398" t="s">
+        <v>184</v>
+      </c>
+      <c r="J398" t="s">
+        <v>184</v>
+      </c>
+      <c r="K398" t="s">
+        <v>184</v>
+      </c>
+      <c r="L398" t="s">
+        <v>184</v>
+      </c>
+      <c r="M398" t="s">
+        <v>184</v>
+      </c>
+      <c r="N398" t="s">
+        <v>184</v>
+      </c>
+      <c r="O398" t="s">
+        <v>184</v>
+      </c>
+      <c r="P398" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>184</v>
+      </c>
+      <c r="R398" t="s">
+        <v>184</v>
+      </c>
+      <c r="S398" t="s">
+        <v>184</v>
+      </c>
+      <c r="T398" t="s">
+        <v>184</v>
+      </c>
+      <c r="U398" t="s">
+        <v>184</v>
+      </c>
+      <c r="V398" t="s">
+        <v>184</v>
+      </c>
+      <c r="W398" t="s">
+        <v>184</v>
+      </c>
+      <c r="X398" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY398" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI398" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ398" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="399" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>75</v>
+      </c>
+      <c r="B399" t="s">
+        <v>734</v>
+      </c>
+      <c r="C399" t="s">
+        <v>202</v>
+      </c>
+      <c r="D399" t="s">
+        <v>202</v>
+      </c>
+      <c r="E399" t="s">
+        <v>361</v>
+      </c>
+      <c r="F399" t="s">
+        <v>361</v>
+      </c>
+      <c r="G399" t="s">
+        <v>361</v>
+      </c>
+      <c r="H399" t="s">
+        <v>361</v>
+      </c>
+      <c r="I399" t="s">
+        <v>361</v>
+      </c>
+      <c r="J399" t="s">
+        <v>361</v>
+      </c>
+      <c r="K399" t="s">
+        <v>184</v>
+      </c>
+      <c r="L399" t="s">
+        <v>184</v>
+      </c>
+      <c r="M399" t="s">
+        <v>184</v>
+      </c>
+      <c r="N399" t="s">
+        <v>184</v>
+      </c>
+      <c r="O399" t="s">
+        <v>184</v>
+      </c>
+      <c r="P399" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>184</v>
+      </c>
+      <c r="R399" t="s">
+        <v>184</v>
+      </c>
+      <c r="S399" t="s">
+        <v>184</v>
+      </c>
+      <c r="T399" t="s">
+        <v>184</v>
+      </c>
+      <c r="U399" t="s">
+        <v>184</v>
+      </c>
+      <c r="V399" t="s">
+        <v>184</v>
+      </c>
+      <c r="W399" t="s">
+        <v>184</v>
+      </c>
+      <c r="X399" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y399" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY399" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI399" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ399" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="400" spans="1:62" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>75</v>
+      </c>
+      <c r="B400" t="s">
+        <v>735</v>
+      </c>
+      <c r="C400" t="s">
+        <v>186</v>
+      </c>
+      <c r="D400" t="s">
+        <v>360</v>
+      </c>
+      <c r="E400" t="s">
+        <v>360</v>
+      </c>
+      <c r="F400" t="s">
+        <v>186</v>
+      </c>
+      <c r="G400" t="s">
+        <v>360</v>
+      </c>
+      <c r="H400" t="s">
+        <v>360</v>
+      </c>
+      <c r="I400" t="s">
+        <v>360</v>
+      </c>
+      <c r="J400" t="s">
+        <v>360</v>
+      </c>
+      <c r="K400" t="s">
+        <v>360</v>
+      </c>
+      <c r="L400" t="s">
+        <v>360</v>
+      </c>
+      <c r="M400" t="s">
+        <v>360</v>
+      </c>
+      <c r="N400" t="s">
+        <v>360</v>
+      </c>
+      <c r="O400" t="s">
+        <v>360</v>
+      </c>
+      <c r="P400" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>360</v>
+      </c>
+      <c r="R400" t="s">
+        <v>360</v>
+      </c>
+      <c r="S400" t="s">
+        <v>360</v>
+      </c>
+      <c r="T400" t="s">
+        <v>360</v>
+      </c>
+      <c r="U400" t="s">
+        <v>360</v>
+      </c>
+      <c r="V400" t="s">
+        <v>360</v>
+      </c>
+      <c r="W400" t="s">
+        <v>360</v>
+      </c>
+      <c r="X400" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y400" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY400" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI400" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ400" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="401" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>75</v>
+      </c>
+      <c r="B401" t="s">
+        <v>736</v>
+      </c>
+      <c r="C401" t="s">
+        <v>360</v>
+      </c>
+      <c r="D401" t="s">
+        <v>360</v>
+      </c>
+      <c r="E401" t="s">
+        <v>360</v>
+      </c>
+      <c r="F401" t="s">
+        <v>360</v>
+      </c>
+      <c r="G401" t="s">
+        <v>360</v>
+      </c>
+      <c r="H401" t="s">
+        <v>360</v>
+      </c>
+      <c r="I401" t="s">
+        <v>360</v>
+      </c>
+      <c r="J401" t="s">
+        <v>360</v>
+      </c>
+      <c r="K401" t="s">
+        <v>360</v>
+      </c>
+      <c r="L401" t="s">
+        <v>360</v>
+      </c>
+      <c r="M401" t="s">
+        <v>360</v>
+      </c>
+      <c r="N401" t="s">
+        <v>360</v>
+      </c>
+      <c r="O401" t="s">
+        <v>360</v>
+      </c>
+      <c r="P401" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>360</v>
+      </c>
+      <c r="R401" t="s">
+        <v>360</v>
+      </c>
+      <c r="S401" t="s">
+        <v>360</v>
+      </c>
+      <c r="T401" t="s">
+        <v>360</v>
+      </c>
+      <c r="U401" t="s">
+        <v>360</v>
+      </c>
+      <c r="V401" t="s">
+        <v>360</v>
+      </c>
+      <c r="W401" t="s">
+        <v>360</v>
+      </c>
+      <c r="X401" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y401" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AI401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AP401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AR401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AS401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AU401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AV401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AW401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AX401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AY401" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BA401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BC401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BD401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BE401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BF401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BH401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI401" t="s">
+        <v>360</v>
+      </c>
+      <c r="BJ401" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="402" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>75</v>
+      </c>
+      <c r="B402" t="s">
+        <v>737</v>
+      </c>
+      <c r="C402" t="s">
+        <v>183</v>
+      </c>
+      <c r="D402" t="s">
+        <v>183</v>
+      </c>
+      <c r="E402" t="s">
+        <v>183</v>
+      </c>
+      <c r="F402" t="s">
+        <v>66</v>
+      </c>
+      <c r="G402" t="s">
+        <v>66</v>
+      </c>
+      <c r="H402" t="s">
+        <v>66</v>
+      </c>
+      <c r="I402" t="s">
+        <v>66</v>
+      </c>
+      <c r="J402" t="s">
+        <v>66</v>
+      </c>
+      <c r="K402" t="s">
+        <v>66</v>
+      </c>
+      <c r="L402" t="s">
+        <v>66</v>
+      </c>
+      <c r="M402" t="s">
+        <v>183</v>
+      </c>
+      <c r="N402" t="s">
+        <v>183</v>
+      </c>
+      <c r="O402" t="s">
+        <v>183</v>
+      </c>
+      <c r="P402" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>183</v>
+      </c>
+      <c r="R402" t="s">
+        <v>183</v>
+      </c>
+      <c r="S402" t="s">
+        <v>183</v>
+      </c>
+      <c r="T402" t="s">
+        <v>183</v>
+      </c>
+      <c r="U402" t="s">
+        <v>183</v>
+      </c>
+      <c r="V402" t="s">
+        <v>183</v>
+      </c>
+      <c r="W402" t="s">
+        <v>183</v>
+      </c>
+      <c r="X402" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y402" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH402" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI402" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY402" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI402" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ402" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="403" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A403" t="s">
+        <v>75</v>
+      </c>
+      <c r="B403" t="s">
+        <v>738</v>
+      </c>
+      <c r="C403" t="s">
+        <v>184</v>
+      </c>
+      <c r="D403" t="s">
+        <v>184</v>
+      </c>
+      <c r="E403" t="s">
+        <v>184</v>
+      </c>
+      <c r="F403" t="s">
+        <v>184</v>
+      </c>
+      <c r="G403" t="s">
+        <v>184</v>
+      </c>
+      <c r="H403" t="s">
+        <v>184</v>
+      </c>
+      <c r="I403" t="s">
+        <v>184</v>
+      </c>
+      <c r="J403" t="s">
+        <v>184</v>
+      </c>
+      <c r="K403" t="s">
+        <v>184</v>
+      </c>
+      <c r="L403" t="s">
+        <v>184</v>
+      </c>
+      <c r="M403" t="s">
+        <v>184</v>
+      </c>
+      <c r="N403" t="s">
+        <v>184</v>
+      </c>
+      <c r="O403" t="s">
+        <v>184</v>
+      </c>
+      <c r="P403" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>184</v>
+      </c>
+      <c r="R403" t="s">
+        <v>184</v>
+      </c>
+      <c r="S403" t="s">
+        <v>184</v>
+      </c>
+      <c r="T403" t="s">
+        <v>184</v>
+      </c>
+      <c r="U403" t="s">
+        <v>184</v>
+      </c>
+      <c r="V403" t="s">
+        <v>184</v>
+      </c>
+      <c r="W403" t="s">
+        <v>184</v>
+      </c>
+      <c r="X403" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y403" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR403" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY403" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC403" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE403" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH403" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI403" t="s">
+        <v>186</v>
+      </c>
+      <c r="BJ403" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="404" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>75</v>
+      </c>
+      <c r="B404" t="s">
+        <v>566</v>
+      </c>
+      <c r="C404" t="s">
+        <v>183</v>
+      </c>
+      <c r="D404" t="s">
+        <v>183</v>
+      </c>
+      <c r="E404" t="s">
+        <v>183</v>
+      </c>
+      <c r="F404" t="s">
+        <v>183</v>
+      </c>
+      <c r="G404" t="s">
+        <v>183</v>
+      </c>
+      <c r="H404" t="s">
+        <v>183</v>
+      </c>
+      <c r="I404" t="s">
+        <v>183</v>
+      </c>
+      <c r="J404" t="s">
+        <v>183</v>
+      </c>
+      <c r="K404" t="s">
+        <v>183</v>
+      </c>
+      <c r="L404" t="s">
+        <v>183</v>
+      </c>
+      <c r="M404" t="s">
+        <v>183</v>
+      </c>
+      <c r="N404" t="s">
+        <v>183</v>
+      </c>
+      <c r="O404" t="s">
+        <v>183</v>
+      </c>
+      <c r="P404" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>183</v>
+      </c>
+      <c r="R404" t="s">
+        <v>183</v>
+      </c>
+      <c r="S404" t="s">
+        <v>183</v>
+      </c>
+      <c r="T404" t="s">
+        <v>183</v>
+      </c>
+      <c r="U404" t="s">
+        <v>183</v>
+      </c>
+      <c r="V404" t="s">
+        <v>183</v>
+      </c>
+      <c r="W404" t="s">
+        <v>183</v>
+      </c>
+      <c r="X404" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY404" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI404" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ404" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="405" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A405" t="s">
+        <v>75</v>
+      </c>
+      <c r="B405" t="s">
+        <v>739</v>
+      </c>
+      <c r="C405" t="s">
+        <v>201</v>
+      </c>
+      <c r="D405" t="s">
+        <v>201</v>
+      </c>
+      <c r="E405" t="s">
+        <v>201</v>
+      </c>
+      <c r="F405" t="s">
+        <v>201</v>
+      </c>
+      <c r="G405" t="s">
+        <v>201</v>
+      </c>
+      <c r="H405" t="s">
+        <v>201</v>
+      </c>
+      <c r="I405" t="s">
+        <v>183</v>
+      </c>
+      <c r="J405" t="s">
+        <v>183</v>
+      </c>
+      <c r="K405" t="s">
+        <v>183</v>
+      </c>
+      <c r="L405" t="s">
+        <v>183</v>
+      </c>
+      <c r="M405" t="s">
+        <v>183</v>
+      </c>
+      <c r="N405" t="s">
+        <v>66</v>
+      </c>
+      <c r="O405" t="s">
+        <v>183</v>
+      </c>
+      <c r="P405" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>183</v>
+      </c>
+      <c r="R405" t="s">
+        <v>183</v>
+      </c>
+      <c r="S405" t="s">
+        <v>186</v>
+      </c>
+      <c r="T405" t="s">
+        <v>183</v>
+      </c>
+      <c r="U405" t="s">
+        <v>183</v>
+      </c>
+      <c r="V405" t="s">
+        <v>183</v>
+      </c>
+      <c r="W405" t="s">
+        <v>183</v>
+      </c>
+      <c r="X405" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y405" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE405" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK405" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL405" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS405" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY405" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE405" t="s">
+        <v>186</v>
+      </c>
+      <c r="BF405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI405" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ405" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="406" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>75</v>
+      </c>
+      <c r="B406" t="s">
+        <v>568</v>
+      </c>
+      <c r="C406" t="s">
+        <v>201</v>
+      </c>
+      <c r="D406" t="s">
+        <v>201</v>
+      </c>
+      <c r="E406" t="s">
+        <v>201</v>
+      </c>
+      <c r="F406" t="s">
+        <v>201</v>
+      </c>
+      <c r="G406" t="s">
+        <v>201</v>
+      </c>
+      <c r="H406" t="s">
+        <v>201</v>
+      </c>
+      <c r="I406" t="s">
+        <v>201</v>
+      </c>
+      <c r="J406" t="s">
+        <v>201</v>
+      </c>
+      <c r="K406" t="s">
+        <v>201</v>
+      </c>
+      <c r="L406" t="s">
+        <v>201</v>
+      </c>
+      <c r="M406" t="s">
+        <v>201</v>
+      </c>
+      <c r="N406" t="s">
+        <v>201</v>
+      </c>
+      <c r="O406" t="s">
+        <v>201</v>
+      </c>
+      <c r="P406" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>66</v>
+      </c>
+      <c r="R406" t="s">
+        <v>184</v>
+      </c>
+      <c r="S406" t="s">
+        <v>184</v>
+      </c>
+      <c r="T406" t="s">
+        <v>184</v>
+      </c>
+      <c r="U406" t="s">
+        <v>184</v>
+      </c>
+      <c r="V406" t="s">
+        <v>184</v>
+      </c>
+      <c r="W406" t="s">
+        <v>184</v>
+      </c>
+      <c r="X406" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY406" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI406" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ406" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="407" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>75</v>
+      </c>
+      <c r="B407" t="s">
+        <v>573</v>
+      </c>
+      <c r="C407" t="s">
+        <v>201</v>
+      </c>
+      <c r="D407" t="s">
+        <v>66</v>
+      </c>
+      <c r="E407" t="s">
+        <v>66</v>
+      </c>
+      <c r="F407" t="s">
+        <v>183</v>
+      </c>
+      <c r="G407" t="s">
+        <v>183</v>
+      </c>
+      <c r="H407" t="s">
+        <v>183</v>
+      </c>
+      <c r="I407" t="s">
+        <v>201</v>
+      </c>
+      <c r="J407" t="s">
+        <v>66</v>
+      </c>
+      <c r="K407" t="s">
+        <v>184</v>
+      </c>
+      <c r="L407" t="s">
+        <v>184</v>
+      </c>
+      <c r="M407" t="s">
+        <v>184</v>
+      </c>
+      <c r="N407" t="s">
+        <v>184</v>
+      </c>
+      <c r="O407" t="s">
+        <v>184</v>
+      </c>
+      <c r="P407" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>184</v>
+      </c>
+      <c r="R407" t="s">
+        <v>66</v>
+      </c>
+      <c r="S407" t="s">
+        <v>66</v>
+      </c>
+      <c r="T407" t="s">
+        <v>66</v>
+      </c>
+      <c r="U407" t="s">
+        <v>184</v>
+      </c>
+      <c r="V407" t="s">
+        <v>184</v>
+      </c>
+      <c r="W407" t="s">
+        <v>184</v>
+      </c>
+      <c r="X407" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y407" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY407" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ407" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK407" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="408" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A408" t="s">
+        <v>75</v>
+      </c>
+      <c r="B408" t="s">
+        <v>740</v>
+      </c>
+      <c r="C408" t="s">
+        <v>201</v>
+      </c>
+      <c r="D408" t="s">
+        <v>201</v>
+      </c>
+      <c r="E408" t="s">
+        <v>201</v>
+      </c>
+      <c r="F408" t="s">
+        <v>201</v>
+      </c>
+      <c r="G408" t="s">
+        <v>201</v>
+      </c>
+      <c r="H408" t="s">
+        <v>201</v>
+      </c>
+      <c r="I408" t="s">
+        <v>201</v>
+      </c>
+      <c r="J408" t="s">
+        <v>201</v>
+      </c>
+      <c r="K408" t="s">
+        <v>201</v>
+      </c>
+      <c r="L408" t="s">
+        <v>201</v>
+      </c>
+      <c r="M408" t="s">
+        <v>66</v>
+      </c>
+      <c r="N408" t="s">
+        <v>66</v>
+      </c>
+      <c r="O408" t="s">
+        <v>184</v>
+      </c>
+      <c r="P408" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>184</v>
+      </c>
+      <c r="R408" t="s">
+        <v>184</v>
+      </c>
+      <c r="S408" t="s">
+        <v>184</v>
+      </c>
+      <c r="T408" t="s">
+        <v>66</v>
+      </c>
+      <c r="U408" t="s">
+        <v>66</v>
+      </c>
+      <c r="V408" t="s">
+        <v>66</v>
+      </c>
+      <c r="W408" t="s">
+        <v>66</v>
+      </c>
+      <c r="X408" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y408" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AJ408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM408" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN408" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO408" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AR408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW408" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX408" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY408" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC408" t="s">
+        <v>395</v>
+      </c>
+      <c r="BD408" t="s">
+        <v>66</v>
+      </c>
+      <c r="BE408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ408" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK408" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="409" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>75</v>
+      </c>
+      <c r="B409" t="s">
+        <v>574</v>
+      </c>
+      <c r="C409" t="s">
+        <v>201</v>
+      </c>
+      <c r="D409" t="s">
+        <v>66</v>
+      </c>
+      <c r="E409" t="s">
+        <v>66</v>
+      </c>
+      <c r="F409" t="s">
+        <v>66</v>
+      </c>
+      <c r="G409" t="s">
+        <v>66</v>
+      </c>
+      <c r="H409" t="s">
+        <v>66</v>
+      </c>
+      <c r="I409" t="s">
+        <v>66</v>
+      </c>
+      <c r="J409" t="s">
+        <v>66</v>
+      </c>
+      <c r="K409" t="s">
+        <v>66</v>
+      </c>
+      <c r="L409" t="s">
+        <v>66</v>
+      </c>
+      <c r="M409" t="s">
+        <v>66</v>
+      </c>
+      <c r="N409" t="s">
+        <v>183</v>
+      </c>
+      <c r="O409" t="s">
+        <v>66</v>
+      </c>
+      <c r="P409" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>183</v>
+      </c>
+      <c r="R409" t="s">
+        <v>183</v>
+      </c>
+      <c r="S409" t="s">
+        <v>183</v>
+      </c>
+      <c r="T409" t="s">
+        <v>66</v>
+      </c>
+      <c r="U409" t="s">
+        <v>66</v>
+      </c>
+      <c r="V409" t="s">
+        <v>184</v>
+      </c>
+      <c r="W409" t="s">
+        <v>184</v>
+      </c>
+      <c r="X409" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY409" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI409" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ409" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="410" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>75</v>
+      </c>
+      <c r="B410" t="s">
+        <v>575</v>
+      </c>
+      <c r="C410" t="s">
+        <v>184</v>
+      </c>
+      <c r="D410" t="s">
+        <v>184</v>
+      </c>
+      <c r="E410" t="s">
+        <v>184</v>
+      </c>
+      <c r="F410" t="s">
+        <v>184</v>
+      </c>
+      <c r="G410" t="s">
+        <v>184</v>
+      </c>
+      <c r="H410" t="s">
+        <v>184</v>
+      </c>
+      <c r="I410" t="s">
+        <v>184</v>
+      </c>
+      <c r="J410" t="s">
+        <v>184</v>
+      </c>
+      <c r="K410" t="s">
+        <v>184</v>
+      </c>
+      <c r="L410" t="s">
+        <v>184</v>
+      </c>
+      <c r="M410" t="s">
+        <v>184</v>
+      </c>
+      <c r="N410" t="s">
+        <v>184</v>
+      </c>
+      <c r="O410" t="s">
+        <v>184</v>
+      </c>
+      <c r="P410" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>184</v>
+      </c>
+      <c r="R410" t="s">
+        <v>184</v>
+      </c>
+      <c r="S410" t="s">
+        <v>184</v>
+      </c>
+      <c r="T410" t="s">
+        <v>184</v>
+      </c>
+      <c r="U410" t="s">
+        <v>184</v>
+      </c>
+      <c r="V410" t="s">
+        <v>184</v>
+      </c>
+      <c r="W410" t="s">
+        <v>184</v>
+      </c>
+      <c r="X410" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW410" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX410" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY410" t="s">
+        <v>66</v>
+      </c>
+      <c r="AZ410" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA410" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB410" t="s">
+        <v>182</v>
+      </c>
+      <c r="BC410" t="s">
+        <v>182</v>
+      </c>
+      <c r="BD410" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE410" t="s">
+        <v>202</v>
+      </c>
+      <c r="BF410" t="s">
+        <v>202</v>
+      </c>
+      <c r="BG410" t="s">
+        <v>202</v>
+      </c>
+      <c r="BH410" t="s">
+        <v>202</v>
+      </c>
+      <c r="BI410" t="s">
+        <v>202</v>
+      </c>
+      <c r="BJ410" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="411" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>75</v>
+      </c>
+      <c r="B411" t="s">
+        <v>741</v>
+      </c>
+      <c r="C411" t="s">
+        <v>201</v>
+      </c>
+      <c r="D411" t="s">
+        <v>201</v>
+      </c>
+      <c r="E411" t="s">
+        <v>201</v>
+      </c>
+      <c r="F411" t="s">
+        <v>201</v>
+      </c>
+      <c r="G411" t="s">
+        <v>201</v>
+      </c>
+      <c r="H411" t="s">
+        <v>183</v>
+      </c>
+      <c r="I411" t="s">
+        <v>183</v>
+      </c>
+      <c r="J411" t="s">
+        <v>183</v>
+      </c>
+      <c r="K411" t="s">
+        <v>183</v>
+      </c>
+      <c r="L411" t="s">
+        <v>183</v>
+      </c>
+      <c r="M411" t="s">
+        <v>183</v>
+      </c>
+      <c r="N411" t="s">
+        <v>183</v>
+      </c>
+      <c r="O411" t="s">
+        <v>183</v>
+      </c>
+      <c r="P411" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>202</v>
+      </c>
+      <c r="R411" t="s">
+        <v>202</v>
+      </c>
+      <c r="S411" t="s">
+        <v>202</v>
+      </c>
+      <c r="T411" t="s">
+        <v>183</v>
+      </c>
+      <c r="U411" t="s">
+        <v>183</v>
+      </c>
+      <c r="V411" t="s">
+        <v>183</v>
+      </c>
+      <c r="W411" t="s">
+        <v>183</v>
+      </c>
+      <c r="X411" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AW411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY411" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BG411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI411" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ411" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="412" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A412" t="s">
+        <v>75</v>
+      </c>
+      <c r="B412" t="s">
+        <v>576</v>
+      </c>
+      <c r="C412" t="s">
+        <v>183</v>
+      </c>
+      <c r="D412" t="s">
+        <v>183</v>
+      </c>
+      <c r="E412" t="s">
+        <v>186</v>
+      </c>
+      <c r="F412" t="s">
+        <v>183</v>
+      </c>
+      <c r="G412" t="s">
+        <v>183</v>
+      </c>
+      <c r="H412" t="s">
+        <v>183</v>
+      </c>
+      <c r="I412" t="s">
+        <v>183</v>
+      </c>
+      <c r="J412" t="s">
+        <v>66</v>
+      </c>
+      <c r="K412" t="s">
+        <v>66</v>
+      </c>
+      <c r="L412" t="s">
+        <v>184</v>
+      </c>
+      <c r="M412" t="s">
+        <v>184</v>
+      </c>
+      <c r="N412" t="s">
+        <v>184</v>
+      </c>
+      <c r="O412" t="s">
+        <v>184</v>
+      </c>
+      <c r="P412" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>184</v>
+      </c>
+      <c r="R412" t="s">
+        <v>184</v>
+      </c>
+      <c r="S412" t="s">
+        <v>184</v>
+      </c>
+      <c r="T412" t="s">
+        <v>184</v>
+      </c>
+      <c r="U412" t="s">
+        <v>184</v>
+      </c>
+      <c r="V412" t="s">
+        <v>184</v>
+      </c>
+      <c r="W412" t="s">
+        <v>184</v>
+      </c>
+      <c r="X412" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y412" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY412" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI412" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ412" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="413" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>75</v>
+      </c>
+      <c r="B413" t="s">
+        <v>742</v>
+      </c>
+      <c r="C413" t="s">
+        <v>201</v>
+      </c>
+      <c r="D413" t="s">
+        <v>201</v>
+      </c>
+      <c r="E413" t="s">
+        <v>183</v>
+      </c>
+      <c r="F413" t="s">
+        <v>183</v>
+      </c>
+      <c r="G413" t="s">
+        <v>183</v>
+      </c>
+      <c r="H413" t="s">
+        <v>183</v>
+      </c>
+      <c r="I413" t="s">
+        <v>183</v>
+      </c>
+      <c r="J413" t="s">
+        <v>186</v>
+      </c>
+      <c r="K413" t="s">
+        <v>183</v>
+      </c>
+      <c r="L413" t="s">
+        <v>183</v>
+      </c>
+      <c r="M413" t="s">
+        <v>183</v>
+      </c>
+      <c r="N413" t="s">
+        <v>183</v>
+      </c>
+      <c r="O413" t="s">
+        <v>183</v>
+      </c>
+      <c r="P413" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>183</v>
+      </c>
+      <c r="R413" t="s">
+        <v>183</v>
+      </c>
+      <c r="S413" t="s">
+        <v>183</v>
+      </c>
+      <c r="T413" t="s">
+        <v>183</v>
+      </c>
+      <c r="U413" t="s">
+        <v>183</v>
+      </c>
+      <c r="V413" t="s">
+        <v>183</v>
+      </c>
+      <c r="W413" t="s">
+        <v>183</v>
+      </c>
+      <c r="X413" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AX413" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY413" t="s">
+        <v>183</v>
+      </c>
+      <c r="AZ413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BB413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BD413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BE413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF413" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BH413" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI413" t="s">
+        <v>201</v>
+      </c>
+      <c r="BJ413" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="414" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A414" t="s">
+        <v>75</v>
+      </c>
+      <c r="B414" t="s">
+        <v>577</v>
+      </c>
+      <c r="C414" t="s">
+        <v>201</v>
+      </c>
+      <c r="D414" t="s">
+        <v>201</v>
+      </c>
+      <c r="E414" t="s">
+        <v>183</v>
+      </c>
+      <c r="F414" t="s">
+        <v>183</v>
+      </c>
+      <c r="G414" t="s">
+        <v>183</v>
+      </c>
+      <c r="H414" t="s">
+        <v>183</v>
+      </c>
+      <c r="I414" t="s">
+        <v>183</v>
+      </c>
+      <c r="J414" t="s">
+        <v>183</v>
+      </c>
+      <c r="K414" t="s">
+        <v>183</v>
+      </c>
+      <c r="L414" t="s">
+        <v>183</v>
+      </c>
+      <c r="M414" t="s">
+        <v>183</v>
+      </c>
+      <c r="N414" t="s">
+        <v>183</v>
+      </c>
+      <c r="O414" t="s">
+        <v>183</v>
+      </c>
+      <c r="P414" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>66</v>
+      </c>
+      <c r="R414" t="s">
+        <v>201</v>
+      </c>
+      <c r="S414" t="s">
+        <v>201</v>
+      </c>
+      <c r="T414" t="s">
+        <v>201</v>
+      </c>
+      <c r="U414" t="s">
+        <v>201</v>
+      </c>
+      <c r="V414" t="s">
+        <v>183</v>
+      </c>
+      <c r="W414" t="s">
+        <v>183</v>
+      </c>
+      <c r="X414" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AF414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AN414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AP414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AQ414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY414" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI414" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ414" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="415" spans="1:63" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>75</v>
+      </c>
+      <c r="B415" t="s">
+        <v>578</v>
+      </c>
+      <c r="C415" t="s">
+        <v>183</v>
+      </c>
+      <c r="D415" t="s">
+        <v>183</v>
+      </c>
+      <c r="E415" t="s">
+        <v>183</v>
+      </c>
+      <c r="F415" t="s">
+        <v>66</v>
+      </c>
+      <c r="G415" t="s">
+        <v>183</v>
+      </c>
+      <c r="H415" t="s">
+        <v>183</v>
+      </c>
+      <c r="I415" t="s">
+        <v>183</v>
+      </c>
+      <c r="J415" t="s">
+        <v>66</v>
+      </c>
+      <c r="K415" t="s">
+        <v>395</v>
+      </c>
+      <c r="L415" t="s">
+        <v>395</v>
+      </c>
+      <c r="M415" t="s">
+        <v>186</v>
+      </c>
+      <c r="N415" t="s">
+        <v>183</v>
+      </c>
+      <c r="O415" t="s">
+        <v>183</v>
+      </c>
+      <c r="P415" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>183</v>
+      </c>
+      <c r="R415" t="s">
+        <v>183</v>
+      </c>
+      <c r="S415" t="s">
+        <v>183</v>
+      </c>
+      <c r="T415" t="s">
+        <v>183</v>
+      </c>
+      <c r="U415" t="s">
+        <v>186</v>
+      </c>
+      <c r="V415" t="s">
+        <v>183</v>
+      </c>
+      <c r="W415" t="s">
+        <v>183</v>
+      </c>
+      <c r="X415" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y415" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI415" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AT415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AU415" t="s">
+        <v>183</v>
+      </c>
+      <c r="AV415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW415" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX415" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY415" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI415" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ415" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -70583,16 +74196,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>356</v>
       </c>
     </row>

--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13874" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4680C3A3-629A-444D-84B6-AA27F46C42CD}"/>
+  <xr:revisionPtr revIDLastSave="13924" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D21B9-F57D-4BED-A2D3-2A905B9F1927}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Ethogram" sheetId="8" r:id="rId5"/>
     <sheet name="Notes" sheetId="4" r:id="rId6"/>
     <sheet name="Ratings" sheetId="14" r:id="rId7"/>
+    <sheet name="Bird info" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22104" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22230" uniqueCount="772">
   <si>
     <t>Pen</t>
   </si>
@@ -1367,9 +1368,6 @@
     <t>Pen24_450</t>
   </si>
   <si>
-    <t xml:space="preserve"> R</t>
-  </si>
-  <si>
     <t>Pen24_451</t>
   </si>
   <si>
@@ -2277,6 +2275,90 @@
   </si>
   <si>
     <t>Hiding to eat food</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Leg Flag</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>Sire</t>
+  </si>
+  <si>
+    <t>Holder</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Birth year</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mt Rothwell</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Halls Gap Zoo</t>
+  </si>
+  <si>
+    <t>Yellow I3</t>
+  </si>
+  <si>
+    <t>Kyabram Fauna Park</t>
+  </si>
+  <si>
+    <t>Serendip</t>
+  </si>
+  <si>
+    <t>Bonnie Rise</t>
+  </si>
+  <si>
+    <t>Yellow I2</t>
+  </si>
+  <si>
+    <t>65HSU</t>
+  </si>
+  <si>
+    <t>B80135</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>Tarsus</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -9450,9 +9532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{774D639B-E7E0-4B7F-9171-7B0A54F19603}">
   <dimension ref="A1:BK415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A397" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY421" sqref="AY421"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12328,7 +12410,7 @@
         <v>204</v>
       </c>
       <c r="E72" t="s">
-        <v>441</v>
+        <v>66</v>
       </c>
       <c r="F72" t="s">
         <v>184</v>
@@ -12357,7 +12439,7 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C73" t="s">
         <v>183</v>
@@ -12395,7 +12477,7 @@
         <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C74" t="s">
         <v>183</v>
@@ -12433,7 +12515,7 @@
         <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C75" t="s">
         <v>184</v>
@@ -12471,7 +12553,7 @@
         <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C76" t="s">
         <v>202</v>
@@ -12509,7 +12591,7 @@
         <v>47</v>
       </c>
       <c r="B77" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C77" t="s">
         <v>66</v>
@@ -12547,7 +12629,7 @@
         <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C78" t="s">
         <v>183</v>
@@ -12585,7 +12667,7 @@
         <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C79" t="s">
         <v>66</v>
@@ -12623,7 +12705,7 @@
         <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C80" t="s">
         <v>367</v>
@@ -12661,7 +12743,7 @@
         <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C81" t="s">
         <v>182</v>
@@ -12699,7 +12781,7 @@
         <v>47</v>
       </c>
       <c r="B82" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C82" t="s">
         <v>183</v>
@@ -12737,7 +12819,7 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C83" t="s">
         <v>183</v>
@@ -12775,7 +12857,7 @@
         <v>47</v>
       </c>
       <c r="B84" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C84" t="s">
         <v>395</v>
@@ -12813,7 +12895,7 @@
         <v>46</v>
       </c>
       <c r="B85" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C85" t="s">
         <v>202</v>
@@ -12851,7 +12933,7 @@
         <v>46</v>
       </c>
       <c r="B86" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C86" t="s">
         <v>183</v>
@@ -12889,7 +12971,7 @@
         <v>47</v>
       </c>
       <c r="B87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C87" t="s">
         <v>66</v>
@@ -12927,7 +13009,7 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C88" t="s">
         <v>183</v>
@@ -12965,7 +13047,7 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C89" t="s">
         <v>201</v>
@@ -13003,7 +13085,7 @@
         <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C90" t="s">
         <v>201</v>
@@ -13036,7 +13118,7 @@
         <v>201</v>
       </c>
       <c r="S90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="1:62" x14ac:dyDescent="0.35">
@@ -13044,7 +13126,7 @@
         <v>46</v>
       </c>
       <c r="B91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C91" t="s">
         <v>183</v>
@@ -13082,7 +13164,7 @@
         <v>46</v>
       </c>
       <c r="B92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C92" t="s">
         <v>184</v>
@@ -13120,7 +13202,7 @@
         <v>32</v>
       </c>
       <c r="B93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C93" t="s">
         <v>361</v>
@@ -13308,7 +13390,7 @@
         <v>32</v>
       </c>
       <c r="B94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C94" t="s">
         <v>201</v>
@@ -13496,22 +13578,22 @@
         <v>32</v>
       </c>
       <c r="B95" t="s">
+        <v>464</v>
+      </c>
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" t="s">
+        <v>183</v>
+      </c>
+      <c r="F95" t="s">
+        <v>183</v>
+      </c>
+      <c r="G95" t="s">
         <v>465</v>
-      </c>
-      <c r="C95" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" t="s">
-        <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>183</v>
-      </c>
-      <c r="G95" t="s">
-        <v>466</v>
       </c>
       <c r="H95" t="s">
         <v>183</v>
@@ -13684,7 +13766,7 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
         <v>201</v>
@@ -13872,7 +13954,7 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C97" t="s">
         <v>201</v>
@@ -14060,7 +14142,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C98" t="s">
         <v>66</v>
@@ -14248,13 +14330,13 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C99" t="s">
         <v>361</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E99" t="s">
         <v>202</v>
@@ -14266,7 +14348,7 @@
         <v>183</v>
       </c>
       <c r="H99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I99" t="s">
         <v>66</v>
@@ -14436,7 +14518,7 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C100" t="s">
         <v>184</v>
@@ -14624,7 +14706,7 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C101" t="s">
         <v>184</v>
@@ -14812,7 +14894,7 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C102" t="s">
         <v>183</v>
@@ -15000,7 +15082,7 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C103" t="s">
         <v>184</v>
@@ -15188,7 +15270,7 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C104" t="s">
         <v>66</v>
@@ -15376,7 +15458,7 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C105" t="s">
         <v>183</v>
@@ -15564,7 +15646,7 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C106" t="s">
         <v>201</v>
@@ -15752,7 +15834,7 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C107" t="s">
         <v>184</v>
@@ -15940,7 +16022,7 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C108" t="s">
         <v>201</v>
@@ -16128,7 +16210,7 @@
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C109" t="s">
         <v>184</v>
@@ -16316,7 +16398,7 @@
         <v>32</v>
       </c>
       <c r="B110" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C110" t="s">
         <v>367</v>
@@ -16504,7 +16586,7 @@
         <v>32</v>
       </c>
       <c r="B111" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C111" t="s">
         <v>184</v>
@@ -16692,7 +16774,7 @@
         <v>32</v>
       </c>
       <c r="B112" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C112" t="s">
         <v>184</v>
@@ -16880,7 +16962,7 @@
         <v>38</v>
       </c>
       <c r="B113" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C113" t="s">
         <v>182</v>
@@ -17068,7 +17150,7 @@
         <v>38</v>
       </c>
       <c r="B114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C114" t="s">
         <v>201</v>
@@ -17256,7 +17338,7 @@
         <v>38</v>
       </c>
       <c r="B115" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C115" t="s">
         <v>181</v>
@@ -17444,7 +17526,7 @@
         <v>38</v>
       </c>
       <c r="B116" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C116" t="s">
         <v>361</v>
@@ -17632,7 +17714,7 @@
         <v>38</v>
       </c>
       <c r="B117" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C117" t="s">
         <v>184</v>
@@ -17820,7 +17902,7 @@
         <v>38</v>
       </c>
       <c r="B118" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C118" t="s">
         <v>181</v>
@@ -18008,7 +18090,7 @@
         <v>38</v>
       </c>
       <c r="B119" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C119" t="s">
         <v>202</v>
@@ -18196,7 +18278,7 @@
         <v>38</v>
       </c>
       <c r="B120" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C120" t="s">
         <v>360</v>
@@ -18384,7 +18466,7 @@
         <v>38</v>
       </c>
       <c r="B121" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C121" t="s">
         <v>360</v>
@@ -18572,7 +18654,7 @@
         <v>38</v>
       </c>
       <c r="B122" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C122" t="s">
         <v>66</v>
@@ -18760,7 +18842,7 @@
         <v>38</v>
       </c>
       <c r="B123" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C123" t="s">
         <v>183</v>
@@ -18948,7 +19030,7 @@
         <v>38</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C124" t="s">
         <v>184</v>
@@ -19136,7 +19218,7 @@
         <v>38</v>
       </c>
       <c r="B125" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C125" t="s">
         <v>183</v>
@@ -19324,7 +19406,7 @@
         <v>38</v>
       </c>
       <c r="B126" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C126" t="s">
         <v>66</v>
@@ -19512,7 +19594,7 @@
         <v>38</v>
       </c>
       <c r="B127" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C127" t="s">
         <v>361</v>
@@ -19700,7 +19782,7 @@
         <v>38</v>
       </c>
       <c r="B128" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C128" t="s">
         <v>201</v>
@@ -19888,7 +19970,7 @@
         <v>38</v>
       </c>
       <c r="B129" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C129" t="s">
         <v>183</v>
@@ -20076,7 +20158,7 @@
         <v>38</v>
       </c>
       <c r="B130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C130" t="s">
         <v>184</v>
@@ -20264,7 +20346,7 @@
         <v>38</v>
       </c>
       <c r="B131" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C131" t="s">
         <v>201</v>
@@ -20452,7 +20534,7 @@
         <v>38</v>
       </c>
       <c r="B132" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C132" t="s">
         <v>184</v>
@@ -20640,7 +20722,7 @@
         <v>40</v>
       </c>
       <c r="B133" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C133" t="s">
         <v>361</v>
@@ -20828,7 +20910,7 @@
         <v>41</v>
       </c>
       <c r="B134" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C134" t="s">
         <v>184</v>
@@ -21016,7 +21098,7 @@
         <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C135" t="s">
         <v>183</v>
@@ -21204,7 +21286,7 @@
         <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C136" t="s">
         <v>183</v>
@@ -21363,7 +21445,7 @@
         <v>182</v>
       </c>
       <c r="BC136" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="BD136" t="s">
         <v>183</v>
@@ -21392,7 +21474,7 @@
         <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C137" t="s">
         <v>184</v>
@@ -21580,7 +21662,7 @@
         <v>40</v>
       </c>
       <c r="B138" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C138" t="s">
         <v>184</v>
@@ -21768,7 +21850,7 @@
         <v>41</v>
       </c>
       <c r="B139" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C139" t="s">
         <v>183</v>
@@ -21956,37 +22038,37 @@
         <v>40</v>
       </c>
       <c r="B140" t="s">
+        <v>510</v>
+      </c>
+      <c r="C140" t="s">
+        <v>201</v>
+      </c>
+      <c r="D140" t="s">
+        <v>201</v>
+      </c>
+      <c r="E140" t="s">
+        <v>201</v>
+      </c>
+      <c r="F140" t="s">
+        <v>201</v>
+      </c>
+      <c r="G140" t="s">
         <v>511</v>
       </c>
-      <c r="C140" t="s">
-        <v>201</v>
-      </c>
-      <c r="D140" t="s">
-        <v>201</v>
-      </c>
-      <c r="E140" t="s">
-        <v>201</v>
-      </c>
-      <c r="F140" t="s">
-        <v>201</v>
-      </c>
-      <c r="G140" t="s">
-        <v>512</v>
-      </c>
       <c r="H140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="J140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L140" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M140" t="s">
         <v>183</v>
@@ -22144,7 +22226,7 @@
         <v>41</v>
       </c>
       <c r="B141" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C141" t="s">
         <v>183</v>
@@ -22332,7 +22414,7 @@
         <v>40</v>
       </c>
       <c r="B142" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C142" t="s">
         <v>201</v>
@@ -22520,7 +22602,7 @@
         <v>41</v>
       </c>
       <c r="B143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C143" t="s">
         <v>183</v>
@@ -22708,7 +22790,7 @@
         <v>40</v>
       </c>
       <c r="B144" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C144" t="s">
         <v>201</v>
@@ -22896,7 +22978,7 @@
         <v>41</v>
       </c>
       <c r="B145" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C145" t="s">
         <v>183</v>
@@ -23084,7 +23166,7 @@
         <v>40</v>
       </c>
       <c r="B146" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C146" t="s">
         <v>183</v>
@@ -23272,7 +23354,7 @@
         <v>41</v>
       </c>
       <c r="B147" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C147" t="s">
         <v>183</v>
@@ -23460,7 +23542,7 @@
         <v>40</v>
       </c>
       <c r="B148" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C148" t="s">
         <v>66</v>
@@ -23643,7 +23725,7 @@
         <v>201</v>
       </c>
       <c r="BK148" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="149" spans="1:63" x14ac:dyDescent="0.35">
@@ -23651,7 +23733,7 @@
         <v>41</v>
       </c>
       <c r="B149" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C149" t="s">
         <v>183</v>
@@ -23839,7 +23921,7 @@
         <v>40</v>
       </c>
       <c r="B150" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C150" t="s">
         <v>184</v>
@@ -24027,7 +24109,7 @@
         <v>40</v>
       </c>
       <c r="B151" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C151" t="s">
         <v>183</v>
@@ -24215,7 +24297,7 @@
         <v>40</v>
       </c>
       <c r="B152" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C152" t="s">
         <v>183</v>
@@ -24403,7 +24485,7 @@
         <v>41</v>
       </c>
       <c r="B153" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C153" t="s">
         <v>201</v>
@@ -24591,7 +24673,7 @@
         <v>40</v>
       </c>
       <c r="B154" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C154" t="s">
         <v>184</v>
@@ -24779,7 +24861,7 @@
         <v>40</v>
       </c>
       <c r="B155" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C155" t="s">
         <v>184</v>
@@ -24967,7 +25049,7 @@
         <v>41</v>
       </c>
       <c r="B156" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C156" t="s">
         <v>184</v>
@@ -25155,7 +25237,7 @@
         <v>40</v>
       </c>
       <c r="B157" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C157" t="s">
         <v>201</v>
@@ -25343,7 +25425,7 @@
         <v>41</v>
       </c>
       <c r="B158" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C158" t="s">
         <v>184</v>
@@ -25531,7 +25613,7 @@
         <v>40</v>
       </c>
       <c r="B159" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C159" t="s">
         <v>66</v>
@@ -25719,7 +25801,7 @@
         <v>41</v>
       </c>
       <c r="B160" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C160" t="s">
         <v>66</v>
@@ -25907,7 +25989,7 @@
         <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C161" t="s">
         <v>183</v>
@@ -26095,7 +26177,7 @@
         <v>40</v>
       </c>
       <c r="B162" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C162" t="s">
         <v>66</v>
@@ -26283,7 +26365,7 @@
         <v>41</v>
       </c>
       <c r="B163" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C163" t="s">
         <v>66</v>
@@ -26471,7 +26553,7 @@
         <v>40</v>
       </c>
       <c r="B164" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C164" t="s">
         <v>184</v>
@@ -26659,7 +26741,7 @@
         <v>41</v>
       </c>
       <c r="B165" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C165" t="s">
         <v>201</v>
@@ -26847,7 +26929,7 @@
         <v>40</v>
       </c>
       <c r="B166" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C166" t="s">
         <v>183</v>
@@ -27035,7 +27117,7 @@
         <v>41</v>
       </c>
       <c r="B167" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C167" t="s">
         <v>181</v>
@@ -27223,190 +27305,190 @@
         <v>40</v>
       </c>
       <c r="B168" t="s">
+        <v>531</v>
+      </c>
+      <c r="C168" t="s">
+        <v>183</v>
+      </c>
+      <c r="D168" t="s">
+        <v>66</v>
+      </c>
+      <c r="E168" t="s">
+        <v>183</v>
+      </c>
+      <c r="F168" t="s">
+        <v>183</v>
+      </c>
+      <c r="G168" t="s">
+        <v>183</v>
+      </c>
+      <c r="H168" t="s">
+        <v>183</v>
+      </c>
+      <c r="I168" t="s">
+        <v>183</v>
+      </c>
+      <c r="J168" t="s">
+        <v>201</v>
+      </c>
+      <c r="K168" t="s">
+        <v>183</v>
+      </c>
+      <c r="L168" t="s">
+        <v>183</v>
+      </c>
+      <c r="M168" t="s">
+        <v>183</v>
+      </c>
+      <c r="N168" t="s">
+        <v>66</v>
+      </c>
+      <c r="O168" t="s">
+        <v>66</v>
+      </c>
+      <c r="P168" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>183</v>
+      </c>
+      <c r="R168" t="s">
+        <v>183</v>
+      </c>
+      <c r="S168" t="s">
+        <v>183</v>
+      </c>
+      <c r="T168" t="s">
+        <v>66</v>
+      </c>
+      <c r="U168" t="s">
+        <v>66</v>
+      </c>
+      <c r="V168" t="s">
+        <v>201</v>
+      </c>
+      <c r="W168" t="s">
+        <v>201</v>
+      </c>
+      <c r="X168" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP168" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AX168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY168" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ168" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK168" t="s">
         <v>532</v>
-      </c>
-      <c r="C168" t="s">
-        <v>183</v>
-      </c>
-      <c r="D168" t="s">
-        <v>66</v>
-      </c>
-      <c r="E168" t="s">
-        <v>183</v>
-      </c>
-      <c r="F168" t="s">
-        <v>183</v>
-      </c>
-      <c r="G168" t="s">
-        <v>183</v>
-      </c>
-      <c r="H168" t="s">
-        <v>183</v>
-      </c>
-      <c r="I168" t="s">
-        <v>183</v>
-      </c>
-      <c r="J168" t="s">
-        <v>201</v>
-      </c>
-      <c r="K168" t="s">
-        <v>183</v>
-      </c>
-      <c r="L168" t="s">
-        <v>183</v>
-      </c>
-      <c r="M168" t="s">
-        <v>183</v>
-      </c>
-      <c r="N168" t="s">
-        <v>66</v>
-      </c>
-      <c r="O168" t="s">
-        <v>66</v>
-      </c>
-      <c r="P168" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>183</v>
-      </c>
-      <c r="R168" t="s">
-        <v>183</v>
-      </c>
-      <c r="S168" t="s">
-        <v>183</v>
-      </c>
-      <c r="T168" t="s">
-        <v>66</v>
-      </c>
-      <c r="U168" t="s">
-        <v>66</v>
-      </c>
-      <c r="V168" t="s">
-        <v>201</v>
-      </c>
-      <c r="W168" t="s">
-        <v>201</v>
-      </c>
-      <c r="X168" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH168" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL168" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP168" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ168" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AS168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AU168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AW168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AX168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY168" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ168" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK168" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="169" spans="1:63" x14ac:dyDescent="0.35">
@@ -27414,7 +27496,7 @@
         <v>41</v>
       </c>
       <c r="B169" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C169" t="s">
         <v>183</v>
@@ -27602,7 +27684,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C170" t="s">
         <v>201</v>
@@ -27790,7 +27872,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C171" t="s">
         <v>384</v>
@@ -27978,7 +28060,7 @@
         <v>40</v>
       </c>
       <c r="B172" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C172" t="s">
         <v>384</v>
@@ -28166,7 +28248,7 @@
         <v>40</v>
       </c>
       <c r="B173" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C173" t="s">
         <v>66</v>
@@ -28354,7 +28436,7 @@
         <v>41</v>
       </c>
       <c r="B174" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C174" t="s">
         <v>183</v>
@@ -28542,7 +28624,7 @@
         <v>40</v>
       </c>
       <c r="B175" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C175" t="s">
         <v>201</v>
@@ -28730,7 +28812,7 @@
         <v>40</v>
       </c>
       <c r="B176" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C176" t="s">
         <v>184</v>
@@ -28918,7 +29000,7 @@
         <v>40</v>
       </c>
       <c r="B177" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C177" t="s">
         <v>183</v>
@@ -29106,190 +29188,190 @@
         <v>41</v>
       </c>
       <c r="B178" t="s">
+        <v>539</v>
+      </c>
+      <c r="C178" t="s">
+        <v>201</v>
+      </c>
+      <c r="D178" t="s">
+        <v>201</v>
+      </c>
+      <c r="E178" t="s">
+        <v>201</v>
+      </c>
+      <c r="F178" t="s">
+        <v>201</v>
+      </c>
+      <c r="G178" t="s">
+        <v>201</v>
+      </c>
+      <c r="H178" t="s">
+        <v>201</v>
+      </c>
+      <c r="I178" t="s">
+        <v>201</v>
+      </c>
+      <c r="J178" t="s">
+        <v>201</v>
+      </c>
+      <c r="K178" t="s">
+        <v>201</v>
+      </c>
+      <c r="L178" t="s">
+        <v>201</v>
+      </c>
+      <c r="M178" t="s">
+        <v>201</v>
+      </c>
+      <c r="N178" t="s">
+        <v>201</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>201</v>
+      </c>
+      <c r="R178" t="s">
+        <v>201</v>
+      </c>
+      <c r="S178" t="s">
+        <v>201</v>
+      </c>
+      <c r="T178" t="s">
+        <v>183</v>
+      </c>
+      <c r="U178" t="s">
+        <v>183</v>
+      </c>
+      <c r="V178" t="s">
+        <v>183</v>
+      </c>
+      <c r="W178" t="s">
+        <v>183</v>
+      </c>
+      <c r="X178" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AP178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR178" t="s">
+        <v>183</v>
+      </c>
+      <c r="AS178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT178" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AW178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX178" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY178" t="s">
+        <v>184</v>
+      </c>
+      <c r="AZ178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BA178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BB178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BF178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BH178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BJ178" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK178" t="s">
         <v>540</v>
-      </c>
-      <c r="C178" t="s">
-        <v>201</v>
-      </c>
-      <c r="D178" t="s">
-        <v>201</v>
-      </c>
-      <c r="E178" t="s">
-        <v>201</v>
-      </c>
-      <c r="F178" t="s">
-        <v>201</v>
-      </c>
-      <c r="G178" t="s">
-        <v>201</v>
-      </c>
-      <c r="H178" t="s">
-        <v>201</v>
-      </c>
-      <c r="I178" t="s">
-        <v>201</v>
-      </c>
-      <c r="J178" t="s">
-        <v>201</v>
-      </c>
-      <c r="K178" t="s">
-        <v>201</v>
-      </c>
-      <c r="L178" t="s">
-        <v>201</v>
-      </c>
-      <c r="M178" t="s">
-        <v>201</v>
-      </c>
-      <c r="N178" t="s">
-        <v>201</v>
-      </c>
-      <c r="O178" t="s">
-        <v>201</v>
-      </c>
-      <c r="P178" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>201</v>
-      </c>
-      <c r="R178" t="s">
-        <v>201</v>
-      </c>
-      <c r="S178" t="s">
-        <v>201</v>
-      </c>
-      <c r="T178" t="s">
-        <v>183</v>
-      </c>
-      <c r="U178" t="s">
-        <v>183</v>
-      </c>
-      <c r="V178" t="s">
-        <v>183</v>
-      </c>
-      <c r="W178" t="s">
-        <v>183</v>
-      </c>
-      <c r="X178" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AJ178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AL178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AM178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AO178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AP178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AQ178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AR178" t="s">
-        <v>183</v>
-      </c>
-      <c r="AS178" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT178" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU178" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV178" t="s">
-        <v>66</v>
-      </c>
-      <c r="AW178" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX178" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY178" t="s">
-        <v>184</v>
-      </c>
-      <c r="AZ178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BA178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BB178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BF178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BG178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BJ178" t="s">
-        <v>184</v>
-      </c>
-      <c r="BK178" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="179" spans="1:63" x14ac:dyDescent="0.35">
@@ -29297,7 +29379,7 @@
         <v>54</v>
       </c>
       <c r="B179" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C179" t="s">
         <v>201</v>
@@ -29485,7 +29567,7 @@
         <v>54</v>
       </c>
       <c r="B180" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C180" t="s">
         <v>183</v>
@@ -29673,7 +29755,7 @@
         <v>54</v>
       </c>
       <c r="B181" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C181" t="s">
         <v>202</v>
@@ -29861,7 +29943,7 @@
         <v>54</v>
       </c>
       <c r="B182" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C182" t="s">
         <v>360</v>
@@ -30049,7 +30131,7 @@
         <v>54</v>
       </c>
       <c r="B183" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C183" t="s">
         <v>181</v>
@@ -30237,7 +30319,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C184" t="s">
         <v>183</v>
@@ -30420,7 +30502,7 @@
         <v>183</v>
       </c>
       <c r="BK184" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="1:63" x14ac:dyDescent="0.35">
@@ -30428,7 +30510,7 @@
         <v>54</v>
       </c>
       <c r="B185" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C185" t="s">
         <v>184</v>
@@ -30616,7 +30698,7 @@
         <v>54</v>
       </c>
       <c r="B186" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C186" t="s">
         <v>184</v>
@@ -30799,7 +30881,7 @@
         <v>184</v>
       </c>
       <c r="BK186" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:63" x14ac:dyDescent="0.35">
@@ -30807,7 +30889,7 @@
         <v>54</v>
       </c>
       <c r="B187" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C187" t="s">
         <v>204</v>
@@ -30822,7 +30904,7 @@
         <v>183</v>
       </c>
       <c r="G187" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H187" t="s">
         <v>183</v>
@@ -30995,7 +31077,7 @@
         <v>54</v>
       </c>
       <c r="B188" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C188" t="s">
         <v>204</v>
@@ -31183,7 +31265,7 @@
         <v>54</v>
       </c>
       <c r="B189" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C189" t="s">
         <v>201</v>
@@ -31371,7 +31453,7 @@
         <v>54</v>
       </c>
       <c r="B190" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C190" t="s">
         <v>201</v>
@@ -31559,7 +31641,7 @@
         <v>54</v>
       </c>
       <c r="B191" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C191" t="s">
         <v>201</v>
@@ -31747,7 +31829,7 @@
         <v>54</v>
       </c>
       <c r="B192" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C192" t="s">
         <v>183</v>
@@ -31935,7 +32017,7 @@
         <v>54</v>
       </c>
       <c r="B193" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C193" t="s">
         <v>201</v>
@@ -32123,7 +32205,7 @@
         <v>54</v>
       </c>
       <c r="B194" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C194" t="s">
         <v>184</v>
@@ -32311,7 +32393,7 @@
         <v>54</v>
       </c>
       <c r="B195" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C195" t="s">
         <v>201</v>
@@ -32499,7 +32581,7 @@
         <v>80</v>
       </c>
       <c r="B196" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C196" t="s">
         <v>183</v>
@@ -32682,7 +32764,7 @@
         <v>184</v>
       </c>
       <c r="BK196" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:63" x14ac:dyDescent="0.35">
@@ -32690,7 +32772,7 @@
         <v>80</v>
       </c>
       <c r="B197" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C197" t="s">
         <v>183</v>
@@ -32878,7 +32960,7 @@
         <v>80</v>
       </c>
       <c r="B198" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C198" t="s">
         <v>183</v>
@@ -33066,7 +33148,7 @@
         <v>80</v>
       </c>
       <c r="B199" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C199" t="s">
         <v>183</v>
@@ -33249,7 +33331,7 @@
         <v>183</v>
       </c>
       <c r="BK199" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:63" x14ac:dyDescent="0.35">
@@ -33257,7 +33339,7 @@
         <v>80</v>
       </c>
       <c r="B200" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C200" t="s">
         <v>183</v>
@@ -33445,7 +33527,7 @@
         <v>80</v>
       </c>
       <c r="B201" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C201" t="s">
         <v>184</v>
@@ -33628,7 +33710,7 @@
         <v>184</v>
       </c>
       <c r="BK201" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="202" spans="1:63" x14ac:dyDescent="0.35">
@@ -33636,7 +33718,7 @@
         <v>80</v>
       </c>
       <c r="B202" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C202" t="s">
         <v>183</v>
@@ -33824,7 +33906,7 @@
         <v>80</v>
       </c>
       <c r="B203" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C203" t="s">
         <v>184</v>
@@ -34012,7 +34094,7 @@
         <v>80</v>
       </c>
       <c r="B204" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C204" t="s">
         <v>183</v>
@@ -34027,7 +34109,7 @@
         <v>183</v>
       </c>
       <c r="G204" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H204" t="s">
         <v>186</v>
@@ -34200,7 +34282,7 @@
         <v>80</v>
       </c>
       <c r="B205" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C205" t="s">
         <v>184</v>
@@ -34388,7 +34470,7 @@
         <v>80</v>
       </c>
       <c r="B206" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C206" t="s">
         <v>201</v>
@@ -34576,7 +34658,7 @@
         <v>80</v>
       </c>
       <c r="B207" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C207" t="s">
         <v>184</v>
@@ -34759,7 +34841,7 @@
         <v>202</v>
       </c>
       <c r="BK207" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:63" x14ac:dyDescent="0.35">
@@ -34767,7 +34849,7 @@
         <v>80</v>
       </c>
       <c r="B208" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C208" t="s">
         <v>184</v>
@@ -34955,7 +35037,7 @@
         <v>80</v>
       </c>
       <c r="B209" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C209" t="s">
         <v>183</v>
@@ -35143,7 +35225,7 @@
         <v>80</v>
       </c>
       <c r="B210" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C210" t="s">
         <v>201</v>
@@ -35326,7 +35408,7 @@
         <v>66</v>
       </c>
       <c r="BK210" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="211" spans="1:63" x14ac:dyDescent="0.35">
@@ -35334,7 +35416,7 @@
         <v>80</v>
       </c>
       <c r="B211" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C211" t="s">
         <v>183</v>
@@ -35522,7 +35604,7 @@
         <v>80</v>
       </c>
       <c r="B212" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C212" t="s">
         <v>184</v>
@@ -35710,7 +35792,7 @@
         <v>80</v>
       </c>
       <c r="B213" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C213" t="s">
         <v>201</v>
@@ -35898,7 +35980,7 @@
         <v>90</v>
       </c>
       <c r="B214" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C214" t="s">
         <v>360</v>
@@ -36086,7 +36168,7 @@
         <v>94</v>
       </c>
       <c r="B215" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C215" t="s">
         <v>66</v>
@@ -36274,7 +36356,7 @@
         <v>97</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C216" t="s">
         <v>360</v>
@@ -36462,7 +36544,7 @@
         <v>90</v>
       </c>
       <c r="B217" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C217" t="s">
         <v>183</v>
@@ -36650,7 +36732,7 @@
         <v>94</v>
       </c>
       <c r="B218" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C218" t="s">
         <v>184</v>
@@ -36838,7 +36920,7 @@
         <v>97</v>
       </c>
       <c r="B219" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C219" t="s">
         <v>186</v>
@@ -37026,7 +37108,7 @@
         <v>90</v>
       </c>
       <c r="B220" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C220" t="s">
         <v>66</v>
@@ -37214,7 +37296,7 @@
         <v>94</v>
       </c>
       <c r="B221" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C221" t="s">
         <v>183</v>
@@ -37402,7 +37484,7 @@
         <v>97</v>
       </c>
       <c r="B222" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C222" t="s">
         <v>186</v>
@@ -37590,7 +37672,7 @@
         <v>90</v>
       </c>
       <c r="B223" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C223" t="s">
         <v>184</v>
@@ -37778,7 +37860,7 @@
         <v>97</v>
       </c>
       <c r="B224" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C224" t="s">
         <v>202</v>
@@ -37966,7 +38048,7 @@
         <v>90</v>
       </c>
       <c r="B225" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C225" t="s">
         <v>181</v>
@@ -38154,7 +38236,7 @@
         <v>94</v>
       </c>
       <c r="B226" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C226" t="s">
         <v>183</v>
@@ -38342,7 +38424,7 @@
         <v>97</v>
       </c>
       <c r="B227" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C227" t="s">
         <v>183</v>
@@ -38525,7 +38607,7 @@
         <v>183</v>
       </c>
       <c r="BK227" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:63" x14ac:dyDescent="0.35">
@@ -38533,7 +38615,7 @@
         <v>90</v>
       </c>
       <c r="B228" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C228" t="s">
         <v>183</v>
@@ -38721,7 +38803,7 @@
         <v>94</v>
       </c>
       <c r="B229" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C229" t="s">
         <v>66</v>
@@ -38909,7 +38991,7 @@
         <v>97</v>
       </c>
       <c r="B230" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C230" t="s">
         <v>183</v>
@@ -39097,7 +39179,7 @@
         <v>97</v>
       </c>
       <c r="B231" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C231" t="s">
         <v>367</v>
@@ -39285,7 +39367,7 @@
         <v>90</v>
       </c>
       <c r="B232" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C232" t="s">
         <v>183</v>
@@ -39473,7 +39555,7 @@
         <v>94</v>
       </c>
       <c r="B233" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C233" t="s">
         <v>66</v>
@@ -39661,7 +39743,7 @@
         <v>97</v>
       </c>
       <c r="B234" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C234" t="s">
         <v>184</v>
@@ -39849,7 +39931,7 @@
         <v>90</v>
       </c>
       <c r="B235" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C235" t="s">
         <v>66</v>
@@ -40037,7 +40119,7 @@
         <v>97</v>
       </c>
       <c r="B236" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C236" t="s">
         <v>66</v>
@@ -40225,7 +40307,7 @@
         <v>94</v>
       </c>
       <c r="B237" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C237" t="s">
         <v>186</v>
@@ -40413,7 +40495,7 @@
         <v>97</v>
       </c>
       <c r="B238" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C238" t="s">
         <v>183</v>
@@ -40601,7 +40683,7 @@
         <v>94</v>
       </c>
       <c r="B239" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C239" t="s">
         <v>66</v>
@@ -40789,7 +40871,7 @@
         <v>97</v>
       </c>
       <c r="B240" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C240" t="s">
         <v>183</v>
@@ -40977,7 +41059,7 @@
         <v>97</v>
       </c>
       <c r="B241" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C241" t="s">
         <v>183</v>
@@ -41165,7 +41247,7 @@
         <v>90</v>
       </c>
       <c r="B242" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C242" t="s">
         <v>183</v>
@@ -41353,7 +41435,7 @@
         <v>97</v>
       </c>
       <c r="B243" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C243" t="s">
         <v>183</v>
@@ -41541,7 +41623,7 @@
         <v>90</v>
       </c>
       <c r="B244" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C244" t="s">
         <v>183</v>
@@ -41619,7 +41701,7 @@
         <v>66</v>
       </c>
       <c r="AB244" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AC244" t="s">
         <v>184</v>
@@ -41729,7 +41811,7 @@
         <v>94</v>
       </c>
       <c r="B245" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C245" t="s">
         <v>183</v>
@@ -41917,7 +41999,7 @@
         <v>90</v>
       </c>
       <c r="B246" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C246" t="s">
         <v>201</v>
@@ -42105,7 +42187,7 @@
         <v>94</v>
       </c>
       <c r="B247" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C247" t="s">
         <v>183</v>
@@ -42293,7 +42375,7 @@
         <v>97</v>
       </c>
       <c r="B248" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C248" t="s">
         <v>201</v>
@@ -42481,7 +42563,7 @@
         <v>90</v>
       </c>
       <c r="B249" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C249" t="s">
         <v>183</v>
@@ -42669,7 +42751,7 @@
         <v>94</v>
       </c>
       <c r="B250" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C250" t="s">
         <v>184</v>
@@ -42857,7 +42939,7 @@
         <v>97</v>
       </c>
       <c r="B251" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C251" t="s">
         <v>66</v>
@@ -43045,7 +43127,7 @@
         <v>90</v>
       </c>
       <c r="B252" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C252" t="s">
         <v>66</v>
@@ -43233,7 +43315,7 @@
         <v>94</v>
       </c>
       <c r="B253" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C253" t="s">
         <v>183</v>
@@ -43421,7 +43503,7 @@
         <v>97</v>
       </c>
       <c r="B254" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C254" t="s">
         <v>184</v>
@@ -43609,7 +43691,7 @@
         <v>90</v>
       </c>
       <c r="B255" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C255" t="s">
         <v>66</v>
@@ -43797,7 +43879,7 @@
         <v>94</v>
       </c>
       <c r="B256" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C256" t="s">
         <v>201</v>
@@ -43985,7 +44067,7 @@
         <v>97</v>
       </c>
       <c r="B257" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C257" t="s">
         <v>395</v>
@@ -44173,7 +44255,7 @@
         <v>90</v>
       </c>
       <c r="B258" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C258" t="s">
         <v>201</v>
@@ -44361,7 +44443,7 @@
         <v>94</v>
       </c>
       <c r="B259" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C259" t="s">
         <v>184</v>
@@ -44549,7 +44631,7 @@
         <v>97</v>
       </c>
       <c r="B260" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C260" t="s">
         <v>183</v>
@@ -44737,7 +44819,7 @@
         <v>94</v>
       </c>
       <c r="B261" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C261" t="s">
         <v>183</v>
@@ -44925,7 +45007,7 @@
         <v>97</v>
       </c>
       <c r="B262" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C262" t="s">
         <v>183</v>
@@ -45113,7 +45195,7 @@
         <v>94</v>
       </c>
       <c r="B263" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C263" t="s">
         <v>183</v>
@@ -45301,7 +45383,7 @@
         <v>97</v>
       </c>
       <c r="B264" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C264" t="s">
         <v>181</v>
@@ -45489,7 +45571,7 @@
         <v>90</v>
       </c>
       <c r="B265" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C265" t="s">
         <v>201</v>
@@ -45677,7 +45759,7 @@
         <v>97</v>
       </c>
       <c r="B266" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C266" t="s">
         <v>184</v>
@@ -45865,7 +45947,7 @@
         <v>97</v>
       </c>
       <c r="B267" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C267" t="s">
         <v>183</v>
@@ -46053,7 +46135,7 @@
         <v>90</v>
       </c>
       <c r="B268" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C268" t="s">
         <v>66</v>
@@ -46241,7 +46323,7 @@
         <v>94</v>
       </c>
       <c r="B269" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C269" t="s">
         <v>183</v>
@@ -46429,7 +46511,7 @@
         <v>97</v>
       </c>
       <c r="B270" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C270" t="s">
         <v>201</v>
@@ -46617,7 +46699,7 @@
         <v>90</v>
       </c>
       <c r="B271" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C271" t="s">
         <v>184</v>
@@ -46805,7 +46887,7 @@
         <v>94</v>
       </c>
       <c r="B272" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C272" t="s">
         <v>182</v>
@@ -46993,7 +47075,7 @@
         <v>97</v>
       </c>
       <c r="B273" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C273" t="s">
         <v>184</v>
@@ -47181,7 +47263,7 @@
         <v>90</v>
       </c>
       <c r="B274" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C274" t="s">
         <v>184</v>
@@ -47369,7 +47451,7 @@
         <v>94</v>
       </c>
       <c r="B275" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C275" t="s">
         <v>367</v>
@@ -47557,7 +47639,7 @@
         <v>97</v>
       </c>
       <c r="B276" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C276" t="s">
         <v>184</v>
@@ -47745,7 +47827,7 @@
         <v>97</v>
       </c>
       <c r="B277" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C277" t="s">
         <v>66</v>
@@ -47933,7 +48015,7 @@
         <v>127</v>
       </c>
       <c r="B278" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C278" t="s">
         <v>183</v>
@@ -48121,7 +48203,7 @@
         <v>131</v>
       </c>
       <c r="B279" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C279" t="s">
         <v>186</v>
@@ -48309,7 +48391,7 @@
         <v>127</v>
       </c>
       <c r="B280" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C280" t="s">
         <v>183</v>
@@ -48497,7 +48579,7 @@
         <v>131</v>
       </c>
       <c r="B281" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C281" t="s">
         <v>361</v>
@@ -48685,7 +48767,7 @@
         <v>127</v>
       </c>
       <c r="B282" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C282" t="s">
         <v>184</v>
@@ -48873,7 +48955,7 @@
         <v>131</v>
       </c>
       <c r="B283" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C283" t="s">
         <v>204</v>
@@ -49061,7 +49143,7 @@
         <v>127</v>
       </c>
       <c r="B284" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C284" t="s">
         <v>66</v>
@@ -49249,7 +49331,7 @@
         <v>131</v>
       </c>
       <c r="B285" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C285" t="s">
         <v>204</v>
@@ -49437,7 +49519,7 @@
         <v>127</v>
       </c>
       <c r="B286" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C286" t="s">
         <v>184</v>
@@ -49625,7 +49707,7 @@
         <v>131</v>
       </c>
       <c r="B287" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C287" t="s">
         <v>361</v>
@@ -49813,7 +49895,7 @@
         <v>127</v>
       </c>
       <c r="B288" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C288" t="s">
         <v>204</v>
@@ -49996,7 +50078,7 @@
         <v>183</v>
       </c>
       <c r="BK288" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="289" spans="1:63" x14ac:dyDescent="0.35">
@@ -50004,7 +50086,7 @@
         <v>131</v>
       </c>
       <c r="B289" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C289" t="s">
         <v>183</v>
@@ -50192,7 +50274,7 @@
         <v>127</v>
       </c>
       <c r="B290" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C290" t="s">
         <v>183</v>
@@ -50380,7 +50462,7 @@
         <v>127</v>
       </c>
       <c r="B291" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C291" t="s">
         <v>183</v>
@@ -50568,7 +50650,7 @@
         <v>127</v>
       </c>
       <c r="B292" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C292" t="s">
         <v>186</v>
@@ -50751,7 +50833,7 @@
         <v>183</v>
       </c>
       <c r="BK292" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="293" spans="1:63" x14ac:dyDescent="0.35">
@@ -50759,7 +50841,7 @@
         <v>131</v>
       </c>
       <c r="B293" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C293" t="s">
         <v>184</v>
@@ -50947,7 +51029,7 @@
         <v>127</v>
       </c>
       <c r="B294" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C294" t="s">
         <v>183</v>
@@ -51135,7 +51217,7 @@
         <v>131</v>
       </c>
       <c r="B295" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C295" t="s">
         <v>204</v>
@@ -51323,7 +51405,7 @@
         <v>127</v>
       </c>
       <c r="B296" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C296" t="s">
         <v>66</v>
@@ -51511,7 +51593,7 @@
         <v>131</v>
       </c>
       <c r="B297" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C297" t="s">
         <v>395</v>
@@ -51699,7 +51781,7 @@
         <v>127</v>
       </c>
       <c r="B298" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C298" t="s">
         <v>201</v>
@@ -51882,7 +51964,7 @@
         <v>183</v>
       </c>
       <c r="BK298" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="299" spans="1:63" x14ac:dyDescent="0.35">
@@ -51890,7 +51972,7 @@
         <v>131</v>
       </c>
       <c r="B299" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C299" t="s">
         <v>66</v>
@@ -52073,7 +52155,7 @@
         <v>184</v>
       </c>
       <c r="BK299" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="300" spans="1:63" x14ac:dyDescent="0.35">
@@ -52081,7 +52163,7 @@
         <v>127</v>
       </c>
       <c r="B300" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C300" t="s">
         <v>184</v>
@@ -52269,7 +52351,7 @@
         <v>127</v>
       </c>
       <c r="B301" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C301" t="s">
         <v>66</v>
@@ -52457,7 +52539,7 @@
         <v>131</v>
       </c>
       <c r="B302" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C302" t="s">
         <v>184</v>
@@ -52640,7 +52722,7 @@
         <v>201</v>
       </c>
       <c r="BK302" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="303" spans="1:63" x14ac:dyDescent="0.35">
@@ -52648,7 +52730,7 @@
         <v>127</v>
       </c>
       <c r="B303" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C303" t="s">
         <v>66</v>
@@ -52836,7 +52918,7 @@
         <v>131</v>
       </c>
       <c r="B304" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C304" t="s">
         <v>66</v>
@@ -52851,7 +52933,7 @@
         <v>183</v>
       </c>
       <c r="G304" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H304" t="s">
         <v>183</v>
@@ -53024,7 +53106,7 @@
         <v>84</v>
       </c>
       <c r="B305" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C305" t="s">
         <v>360</v>
@@ -53212,7 +53294,7 @@
         <v>84</v>
       </c>
       <c r="B306" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C306" t="s">
         <v>183</v>
@@ -53272,7 +53354,7 @@
         <v>183</v>
       </c>
       <c r="V306" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="W306" t="s">
         <v>183</v>
@@ -53400,7 +53482,7 @@
         <v>84</v>
       </c>
       <c r="B307" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C307" t="s">
         <v>183</v>
@@ -53588,7 +53670,7 @@
         <v>84</v>
       </c>
       <c r="B308" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C308" t="s">
         <v>360</v>
@@ -53776,7 +53858,7 @@
         <v>84</v>
       </c>
       <c r="B309" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C309" t="s">
         <v>184</v>
@@ -53959,7 +54041,7 @@
         <v>181</v>
       </c>
       <c r="BK309" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="310" spans="1:63" x14ac:dyDescent="0.35">
@@ -53967,7 +54049,7 @@
         <v>84</v>
       </c>
       <c r="B310" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C310" t="s">
         <v>360</v>
@@ -54155,7 +54237,7 @@
         <v>84</v>
       </c>
       <c r="B311" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C311" t="s">
         <v>360</v>
@@ -54343,7 +54425,7 @@
         <v>84</v>
       </c>
       <c r="B312" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C312" t="s">
         <v>360</v>
@@ -54531,7 +54613,7 @@
         <v>84</v>
       </c>
       <c r="B313" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C313" t="s">
         <v>360</v>
@@ -54719,7 +54801,7 @@
         <v>84</v>
       </c>
       <c r="B314" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C314" t="s">
         <v>360</v>
@@ -54907,7 +54989,7 @@
         <v>84</v>
       </c>
       <c r="B315" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C315" t="s">
         <v>181</v>
@@ -55095,7 +55177,7 @@
         <v>84</v>
       </c>
       <c r="B316" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C316" t="s">
         <v>183</v>
@@ -55283,7 +55365,7 @@
         <v>84</v>
       </c>
       <c r="B317" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C317" t="s">
         <v>360</v>
@@ -55471,7 +55553,7 @@
         <v>84</v>
       </c>
       <c r="B318" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C318" t="s">
         <v>202</v>
@@ -55659,7 +55741,7 @@
         <v>84</v>
       </c>
       <c r="B319" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C319" t="s">
         <v>183</v>
@@ -55773,7 +55855,7 @@
         <v>360</v>
       </c>
       <c r="AN319" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AO319" t="s">
         <v>184</v>
@@ -55842,7 +55924,7 @@
         <v>184</v>
       </c>
       <c r="BK319" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="320" spans="1:63" x14ac:dyDescent="0.35">
@@ -55850,7 +55932,7 @@
         <v>84</v>
       </c>
       <c r="B320" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C320" t="s">
         <v>181</v>
@@ -56038,7 +56120,7 @@
         <v>84</v>
       </c>
       <c r="B321" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C321" t="s">
         <v>181</v>
@@ -56221,7 +56303,7 @@
         <v>360</v>
       </c>
       <c r="BK321" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="322" spans="1:63" x14ac:dyDescent="0.35">
@@ -56229,7 +56311,7 @@
         <v>84</v>
       </c>
       <c r="B322" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C322" t="s">
         <v>184</v>
@@ -56417,7 +56499,7 @@
         <v>84</v>
       </c>
       <c r="B323" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C323" t="s">
         <v>181</v>
@@ -56605,7 +56687,7 @@
         <v>84</v>
       </c>
       <c r="B324" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C324" t="s">
         <v>183</v>
@@ -56793,7 +56875,7 @@
         <v>84</v>
       </c>
       <c r="B325" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C325" t="s">
         <v>181</v>
@@ -56981,7 +57063,7 @@
         <v>84</v>
       </c>
       <c r="B326" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C326" t="s">
         <v>184</v>
@@ -56996,13 +57078,13 @@
         <v>183</v>
       </c>
       <c r="G326" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H326" t="s">
         <v>202</v>
       </c>
       <c r="I326" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J326" t="s">
         <v>182</v>
@@ -57169,7 +57251,7 @@
         <v>84</v>
       </c>
       <c r="B327" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C327" t="s">
         <v>360</v>
@@ -57357,7 +57439,7 @@
         <v>84</v>
       </c>
       <c r="B328" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C328" t="s">
         <v>183</v>
@@ -57545,7 +57627,7 @@
         <v>84</v>
       </c>
       <c r="B329" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C329" t="s">
         <v>360</v>
@@ -57733,7 +57815,7 @@
         <v>84</v>
       </c>
       <c r="B330" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C330" t="s">
         <v>360</v>
@@ -57921,7 +58003,7 @@
         <v>84</v>
       </c>
       <c r="B331" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C331" t="s">
         <v>181</v>
@@ -58109,7 +58191,7 @@
         <v>84</v>
       </c>
       <c r="B332" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C332" t="s">
         <v>360</v>
@@ -58297,7 +58379,7 @@
         <v>84</v>
       </c>
       <c r="B333" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C333" t="s">
         <v>360</v>
@@ -58485,7 +58567,7 @@
         <v>84</v>
       </c>
       <c r="B334" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C334" t="s">
         <v>395</v>
@@ -58668,7 +58750,7 @@
         <v>183</v>
       </c>
       <c r="BK334" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="335" spans="1:63" x14ac:dyDescent="0.35">
@@ -58676,7 +58758,7 @@
         <v>84</v>
       </c>
       <c r="B335" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C335" t="s">
         <v>367</v>
@@ -58864,7 +58946,7 @@
         <v>84</v>
       </c>
       <c r="B336" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C336" t="s">
         <v>181</v>
@@ -59052,7 +59134,7 @@
         <v>84</v>
       </c>
       <c r="B337" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C337" t="s">
         <v>184</v>
@@ -59240,7 +59322,7 @@
         <v>84</v>
       </c>
       <c r="B338" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C338" t="s">
         <v>183</v>
@@ -59428,7 +59510,7 @@
         <v>84</v>
       </c>
       <c r="B339" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C339" t="s">
         <v>184</v>
@@ -59616,7 +59698,7 @@
         <v>84</v>
       </c>
       <c r="B340" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C340" t="s">
         <v>183</v>
@@ -59804,7 +59886,7 @@
         <v>84</v>
       </c>
       <c r="B341" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C341" t="s">
         <v>183</v>
@@ -59992,7 +60074,7 @@
         <v>84</v>
       </c>
       <c r="B342" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C342" t="s">
         <v>181</v>
@@ -60180,7 +60262,7 @@
         <v>84</v>
       </c>
       <c r="B343" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C343" t="s">
         <v>183</v>
@@ -60368,7 +60450,7 @@
         <v>84</v>
       </c>
       <c r="B344" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C344" t="s">
         <v>183</v>
@@ -60556,7 +60638,7 @@
         <v>84</v>
       </c>
       <c r="B345" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C345" t="s">
         <v>183</v>
@@ -60744,7 +60826,7 @@
         <v>84</v>
       </c>
       <c r="B346" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C346" t="s">
         <v>183</v>
@@ -60932,7 +61014,7 @@
         <v>84</v>
       </c>
       <c r="B347" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C347" t="s">
         <v>183</v>
@@ -61120,7 +61202,7 @@
         <v>84</v>
       </c>
       <c r="B348" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C348" t="s">
         <v>183</v>
@@ -61303,7 +61385,7 @@
         <v>183</v>
       </c>
       <c r="BK348" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="349" spans="1:63" x14ac:dyDescent="0.35">
@@ -61311,7 +61393,7 @@
         <v>84</v>
       </c>
       <c r="B349" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C349" t="s">
         <v>183</v>
@@ -61499,7 +61581,7 @@
         <v>84</v>
       </c>
       <c r="B350" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C350" t="s">
         <v>183</v>
@@ -61687,7 +61769,7 @@
         <v>84</v>
       </c>
       <c r="B351" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C351" t="s">
         <v>184</v>
@@ -61875,7 +61957,7 @@
         <v>84</v>
       </c>
       <c r="B352" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C352" t="s">
         <v>183</v>
@@ -62063,7 +62145,7 @@
         <v>84</v>
       </c>
       <c r="B353" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C353" t="s">
         <v>181</v>
@@ -62246,7 +62328,7 @@
         <v>183</v>
       </c>
       <c r="BK353" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="354" spans="1:63" x14ac:dyDescent="0.35">
@@ -62254,7 +62336,7 @@
         <v>84</v>
       </c>
       <c r="B354" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C354" t="s">
         <v>183</v>
@@ -62437,7 +62519,7 @@
         <v>184</v>
       </c>
       <c r="BK354" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="355" spans="1:63" x14ac:dyDescent="0.35">
@@ -62445,7 +62527,7 @@
         <v>84</v>
       </c>
       <c r="B355" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C355" t="s">
         <v>183</v>
@@ -62628,7 +62710,7 @@
         <v>183</v>
       </c>
       <c r="BK355" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="356" spans="1:63" x14ac:dyDescent="0.35">
@@ -62636,7 +62718,7 @@
         <v>84</v>
       </c>
       <c r="B356" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C356" t="s">
         <v>183</v>
@@ -62824,7 +62906,7 @@
         <v>84</v>
       </c>
       <c r="B357" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C357" t="s">
         <v>183</v>
@@ -63004,7 +63086,7 @@
         <v>183</v>
       </c>
       <c r="BK357" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="358" spans="1:63" x14ac:dyDescent="0.35">
@@ -63012,7 +63094,7 @@
         <v>84</v>
       </c>
       <c r="B358" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C358" t="s">
         <v>183</v>
@@ -63200,7 +63282,7 @@
         <v>84</v>
       </c>
       <c r="B359" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C359" t="s">
         <v>66</v>
@@ -63388,7 +63470,7 @@
         <v>84</v>
       </c>
       <c r="B360" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C360" t="s">
         <v>184</v>
@@ -63576,7 +63658,7 @@
         <v>84</v>
       </c>
       <c r="B361" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C361" t="s">
         <v>384</v>
@@ -63764,7 +63846,7 @@
         <v>84</v>
       </c>
       <c r="B362" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C362" t="s">
         <v>184</v>
@@ -63952,7 +64034,7 @@
         <v>84</v>
       </c>
       <c r="B363" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C363" t="s">
         <v>184</v>
@@ -64140,7 +64222,7 @@
         <v>84</v>
       </c>
       <c r="B364" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C364" t="s">
         <v>183</v>
@@ -64328,7 +64410,7 @@
         <v>84</v>
       </c>
       <c r="B365" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C365" t="s">
         <v>184</v>
@@ -64516,7 +64598,7 @@
         <v>84</v>
       </c>
       <c r="B366" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C366" t="s">
         <v>183</v>
@@ -64704,7 +64786,7 @@
         <v>84</v>
       </c>
       <c r="B367" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C367" t="s">
         <v>183</v>
@@ -64892,7 +64974,7 @@
         <v>84</v>
       </c>
       <c r="B368" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C368" t="s">
         <v>184</v>
@@ -65080,7 +65162,7 @@
         <v>84</v>
       </c>
       <c r="B369" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C369" t="s">
         <v>183</v>
@@ -65268,7 +65350,7 @@
         <v>84</v>
       </c>
       <c r="B370" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C370" t="s">
         <v>184</v>
@@ -65456,7 +65538,7 @@
         <v>84</v>
       </c>
       <c r="B371" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C371" t="s">
         <v>183</v>
@@ -65644,7 +65726,7 @@
         <v>84</v>
       </c>
       <c r="B372" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C372" t="s">
         <v>183</v>
@@ -65832,7 +65914,7 @@
         <v>84</v>
       </c>
       <c r="B373" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C373" t="s">
         <v>183</v>
@@ -66020,7 +66102,7 @@
         <v>84</v>
       </c>
       <c r="B374" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C374" t="s">
         <v>183</v>
@@ -66208,7 +66290,7 @@
         <v>84</v>
       </c>
       <c r="B375" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C375" t="s">
         <v>201</v>
@@ -66396,7 +66478,7 @@
         <v>84</v>
       </c>
       <c r="B376" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C376" t="s">
         <v>183</v>
@@ -66584,7 +66666,7 @@
         <v>84</v>
       </c>
       <c r="B377" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C377" t="s">
         <v>184</v>
@@ -66772,7 +66854,7 @@
         <v>84</v>
       </c>
       <c r="B378" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C378" t="s">
         <v>184</v>
@@ -66960,7 +67042,7 @@
         <v>84</v>
       </c>
       <c r="B379" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C379" t="s">
         <v>66</v>
@@ -67148,7 +67230,7 @@
         <v>84</v>
       </c>
       <c r="B380" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C380" t="s">
         <v>361</v>
@@ -67336,7 +67418,7 @@
         <v>84</v>
       </c>
       <c r="B381" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C381" t="s">
         <v>201</v>
@@ -67524,7 +67606,7 @@
         <v>84</v>
       </c>
       <c r="B382" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C382" t="s">
         <v>183</v>
@@ -67712,7 +67794,7 @@
         <v>84</v>
       </c>
       <c r="B383" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C383" t="s">
         <v>184</v>
@@ -67900,7 +67982,7 @@
         <v>84</v>
       </c>
       <c r="B384" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C384" t="s">
         <v>360</v>
@@ -68088,7 +68170,7 @@
         <v>84</v>
       </c>
       <c r="B385" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C385" t="s">
         <v>183</v>
@@ -68276,7 +68358,7 @@
         <v>84</v>
       </c>
       <c r="B386" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C386" t="s">
         <v>183</v>
@@ -68464,7 +68546,7 @@
         <v>84</v>
       </c>
       <c r="B387" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C387" t="s">
         <v>183</v>
@@ -68652,7 +68734,7 @@
         <v>84</v>
       </c>
       <c r="B388" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C388" t="s">
         <v>183</v>
@@ -68840,7 +68922,7 @@
         <v>84</v>
       </c>
       <c r="B389" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C389" t="s">
         <v>66</v>
@@ -69028,7 +69110,7 @@
         <v>84</v>
       </c>
       <c r="B390" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C390" t="s">
         <v>201</v>
@@ -69216,7 +69298,7 @@
         <v>84</v>
       </c>
       <c r="B391" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C391" t="s">
         <v>66</v>
@@ -69404,7 +69486,7 @@
         <v>84</v>
       </c>
       <c r="B392" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C392" t="s">
         <v>184</v>
@@ -69592,7 +69674,7 @@
         <v>84</v>
       </c>
       <c r="B393" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C393" t="s">
         <v>183</v>
@@ -69780,7 +69862,7 @@
         <v>84</v>
       </c>
       <c r="B394" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C394" t="s">
         <v>184</v>
@@ -69968,7 +70050,7 @@
         <v>84</v>
       </c>
       <c r="B395" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C395" t="s">
         <v>204</v>
@@ -70156,82 +70238,82 @@
         <v>84</v>
       </c>
       <c r="B396" t="s">
+        <v>729</v>
+      </c>
+      <c r="C396" t="s">
+        <v>66</v>
+      </c>
+      <c r="D396" t="s">
+        <v>66</v>
+      </c>
+      <c r="E396" t="s">
+        <v>66</v>
+      </c>
+      <c r="F396" t="s">
+        <v>66</v>
+      </c>
+      <c r="G396" t="s">
+        <v>183</v>
+      </c>
+      <c r="H396" t="s">
+        <v>183</v>
+      </c>
+      <c r="I396" t="s">
+        <v>183</v>
+      </c>
+      <c r="J396" t="s">
+        <v>181</v>
+      </c>
+      <c r="K396" t="s">
+        <v>181</v>
+      </c>
+      <c r="L396" t="s">
+        <v>183</v>
+      </c>
+      <c r="M396" t="s">
+        <v>66</v>
+      </c>
+      <c r="N396" t="s">
         <v>730</v>
       </c>
-      <c r="C396" t="s">
-        <v>66</v>
-      </c>
-      <c r="D396" t="s">
-        <v>66</v>
-      </c>
-      <c r="E396" t="s">
-        <v>66</v>
-      </c>
-      <c r="F396" t="s">
-        <v>66</v>
-      </c>
-      <c r="G396" t="s">
-        <v>183</v>
-      </c>
-      <c r="H396" t="s">
-        <v>183</v>
-      </c>
-      <c r="I396" t="s">
-        <v>183</v>
-      </c>
-      <c r="J396" t="s">
-        <v>181</v>
-      </c>
-      <c r="K396" t="s">
-        <v>181</v>
-      </c>
-      <c r="L396" t="s">
-        <v>183</v>
-      </c>
-      <c r="M396" t="s">
-        <v>66</v>
-      </c>
-      <c r="N396" t="s">
-        <v>731</v>
-      </c>
       <c r="O396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="P396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Q396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="S396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="U396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="V396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="W396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="X396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Y396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AA396" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AB396" t="s">
         <v>66</v>
@@ -70344,7 +70426,7 @@
         <v>75</v>
       </c>
       <c r="B397" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C397" t="s">
         <v>183</v>
@@ -70452,7 +70534,7 @@
         <v>183</v>
       </c>
       <c r="AL397" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AM397" t="s">
         <v>186</v>
@@ -70532,7 +70614,7 @@
         <v>75</v>
       </c>
       <c r="B398" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C398" t="s">
         <v>361</v>
@@ -70720,7 +70802,7 @@
         <v>75</v>
       </c>
       <c r="B399" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C399" t="s">
         <v>202</v>
@@ -70908,7 +70990,7 @@
         <v>75</v>
       </c>
       <c r="B400" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C400" t="s">
         <v>186</v>
@@ -71096,7 +71178,7 @@
         <v>75</v>
       </c>
       <c r="B401" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C401" t="s">
         <v>360</v>
@@ -71284,7 +71366,7 @@
         <v>75</v>
       </c>
       <c r="B402" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C402" t="s">
         <v>183</v>
@@ -71472,7 +71554,7 @@
         <v>75</v>
       </c>
       <c r="B403" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C403" t="s">
         <v>184</v>
@@ -71660,7 +71742,7 @@
         <v>75</v>
       </c>
       <c r="B404" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C404" t="s">
         <v>183</v>
@@ -71848,7 +71930,7 @@
         <v>75</v>
       </c>
       <c r="B405" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C405" t="s">
         <v>201</v>
@@ -72036,7 +72118,7 @@
         <v>75</v>
       </c>
       <c r="B406" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C406" t="s">
         <v>201</v>
@@ -72224,7 +72306,7 @@
         <v>75</v>
       </c>
       <c r="B407" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C407" t="s">
         <v>201</v>
@@ -72407,7 +72489,7 @@
         <v>184</v>
       </c>
       <c r="BK407" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="408" spans="1:63" x14ac:dyDescent="0.35">
@@ -72415,7 +72497,7 @@
         <v>75</v>
       </c>
       <c r="B408" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C408" t="s">
         <v>201</v>
@@ -72598,7 +72680,7 @@
         <v>183</v>
       </c>
       <c r="BK408" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="409" spans="1:63" x14ac:dyDescent="0.35">
@@ -72606,7 +72688,7 @@
         <v>75</v>
       </c>
       <c r="B409" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C409" t="s">
         <v>201</v>
@@ -72794,7 +72876,7 @@
         <v>75</v>
       </c>
       <c r="B410" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C410" t="s">
         <v>184</v>
@@ -72982,7 +73064,7 @@
         <v>75</v>
       </c>
       <c r="B411" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C411" t="s">
         <v>201</v>
@@ -73170,7 +73252,7 @@
         <v>75</v>
       </c>
       <c r="B412" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C412" t="s">
         <v>183</v>
@@ -73358,7 +73440,7 @@
         <v>75</v>
       </c>
       <c r="B413" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C413" t="s">
         <v>201</v>
@@ -73546,7 +73628,7 @@
         <v>75</v>
       </c>
       <c r="B414" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C414" t="s">
         <v>201</v>
@@ -73734,7 +73816,7 @@
         <v>75</v>
       </c>
       <c r="B415" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C415" t="s">
         <v>183</v>
@@ -73928,7 +74010,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -73965,7 +74047,7 @@
         <v>202</v>
       </c>
       <c r="B4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -74013,7 +74095,7 @@
         <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -74029,7 +74111,7 @@
         <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -74066,10 +74148,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B17" t="s">
         <v>512</v>
-      </c>
-      <c r="B17" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -76071,4 +76153,687 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB719325-9A8B-4F09-BF8B-51176C954B36}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>746</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>766</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" t="s">
+        <v>753</v>
+      </c>
+      <c r="H2">
+        <v>2020</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <v>735</v>
+      </c>
+      <c r="K2" t="s">
+        <v>765</v>
+      </c>
+      <c r="L2">
+        <v>294</v>
+      </c>
+      <c r="M2">
+        <v>183</v>
+      </c>
+      <c r="N2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>755</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3" t="s">
+        <v>753</v>
+      </c>
+      <c r="G3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H3">
+        <v>2021</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>780</v>
+      </c>
+      <c r="K3" t="s">
+        <v>765</v>
+      </c>
+      <c r="L3">
+        <v>282</v>
+      </c>
+      <c r="M3">
+        <v>182</v>
+      </c>
+      <c r="N3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>755</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G4" t="s">
+        <v>753</v>
+      </c>
+      <c r="H4">
+        <v>2021</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>615</v>
+      </c>
+      <c r="K4" t="s">
+        <v>771</v>
+      </c>
+      <c r="L4">
+        <v>294</v>
+      </c>
+      <c r="M4">
+        <v>145</v>
+      </c>
+      <c r="N4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G5" t="s">
+        <v>753</v>
+      </c>
+      <c r="H5">
+        <v>2021</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>700</v>
+      </c>
+      <c r="K5" t="s">
+        <v>765</v>
+      </c>
+      <c r="L5">
+        <v>292</v>
+      </c>
+      <c r="M5">
+        <v>184</v>
+      </c>
+      <c r="N5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>752</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G6" t="s">
+        <v>753</v>
+      </c>
+      <c r="H6">
+        <v>2021</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>670</v>
+      </c>
+      <c r="K6" t="s">
+        <v>771</v>
+      </c>
+      <c r="L6">
+        <v>300</v>
+      </c>
+      <c r="M6">
+        <v>181</v>
+      </c>
+      <c r="N6">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>752</v>
+      </c>
+      <c r="D7" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" t="s">
+        <v>754</v>
+      </c>
+      <c r="F7" t="s">
+        <v>753</v>
+      </c>
+      <c r="G7" t="s">
+        <v>756</v>
+      </c>
+      <c r="H7">
+        <v>2021</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>710</v>
+      </c>
+      <c r="K7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L7">
+        <v>256</v>
+      </c>
+      <c r="M7">
+        <v>195</v>
+      </c>
+      <c r="N7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>757</v>
+      </c>
+      <c r="C8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>753</v>
+      </c>
+      <c r="G8" t="s">
+        <v>753</v>
+      </c>
+      <c r="H8">
+        <v>2021</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>710</v>
+      </c>
+      <c r="K8" t="s">
+        <v>765</v>
+      </c>
+      <c r="L8">
+        <v>285</v>
+      </c>
+      <c r="M8">
+        <v>162</v>
+      </c>
+      <c r="N8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" t="s">
+        <v>755</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>753</v>
+      </c>
+      <c r="G9" t="s">
+        <v>753</v>
+      </c>
+      <c r="H9">
+        <v>2021</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>700</v>
+      </c>
+      <c r="K9" t="s">
+        <v>771</v>
+      </c>
+      <c r="L9">
+        <v>292</v>
+      </c>
+      <c r="M9">
+        <v>174</v>
+      </c>
+      <c r="N9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>755</v>
+      </c>
+      <c r="D10" t="s">
+        <v>754</v>
+      </c>
+      <c r="E10" t="s">
+        <v>754</v>
+      </c>
+      <c r="F10" t="s">
+        <v>753</v>
+      </c>
+      <c r="G10" t="s">
+        <v>758</v>
+      </c>
+      <c r="H10">
+        <v>2019</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>680</v>
+      </c>
+      <c r="K10" t="s">
+        <v>765</v>
+      </c>
+      <c r="L10">
+        <v>259</v>
+      </c>
+      <c r="M10">
+        <v>174</v>
+      </c>
+      <c r="N10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>755</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>753</v>
+      </c>
+      <c r="G11" t="s">
+        <v>759</v>
+      </c>
+      <c r="H11">
+        <v>2020</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>700</v>
+      </c>
+      <c r="K11" t="s">
+        <v>765</v>
+      </c>
+      <c r="L11">
+        <v>279</v>
+      </c>
+      <c r="M11">
+        <v>171</v>
+      </c>
+      <c r="N11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" t="s">
+        <v>755</v>
+      </c>
+      <c r="D12" t="s">
+        <v>754</v>
+      </c>
+      <c r="E12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F12" t="s">
+        <v>753</v>
+      </c>
+      <c r="G12" t="s">
+        <v>760</v>
+      </c>
+      <c r="H12">
+        <v>2020</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>630</v>
+      </c>
+      <c r="K12" t="s">
+        <v>771</v>
+      </c>
+      <c r="L12">
+        <v>261</v>
+      </c>
+      <c r="M12">
+        <v>182</v>
+      </c>
+      <c r="N12">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>755</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" t="s">
+        <v>753</v>
+      </c>
+      <c r="G13" t="s">
+        <v>753</v>
+      </c>
+      <c r="H13">
+        <v>2022</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>590</v>
+      </c>
+      <c r="K13" t="s">
+        <v>771</v>
+      </c>
+      <c r="L13">
+        <v>251</v>
+      </c>
+      <c r="M13">
+        <v>142</v>
+      </c>
+      <c r="N13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>752</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>753</v>
+      </c>
+      <c r="G14" t="s">
+        <v>753</v>
+      </c>
+      <c r="H14">
+        <v>2020</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>670</v>
+      </c>
+      <c r="K14" t="s">
+        <v>771</v>
+      </c>
+      <c r="L14">
+        <v>281</v>
+      </c>
+      <c r="M14">
+        <v>170</v>
+      </c>
+      <c r="N14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
+        <v>761</v>
+      </c>
+      <c r="C15" t="s">
+        <v>755</v>
+      </c>
+      <c r="D15" t="s">
+        <v>762</v>
+      </c>
+      <c r="E15" t="s">
+        <v>763</v>
+      </c>
+      <c r="F15" t="s">
+        <v>753</v>
+      </c>
+      <c r="G15" t="s">
+        <v>759</v>
+      </c>
+      <c r="H15">
+        <v>2019</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>770</v>
+      </c>
+      <c r="K15" t="s">
+        <v>771</v>
+      </c>
+      <c r="L15">
+        <v>290</v>
+      </c>
+      <c r="M15">
+        <v>190</v>
+      </c>
+      <c r="N15">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/bsc assay data.xlsx
+++ b/Input/bsc assay data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/Bush-stone-curlew-personality-and-performance/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13924" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{958D21B9-F57D-4BED-A2D3-2A905B9F1927}"/>
+  <xr:revisionPtr revIDLastSave="13997" documentId="8_{C8C0189F-4127-4C70-A9FB-CC9743FBACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2131B7A1-123D-4561-84B9-1FD6BE99CDA5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
+    <workbookView xWindow="-28920" yWindow="-2970" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{FB8BDC37-1A45-45ED-A593-15921097C3B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout Oct 2022" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="Ethogram" sheetId="8" r:id="rId5"/>
     <sheet name="Notes" sheetId="4" r:id="rId6"/>
     <sheet name="Ratings" sheetId="14" r:id="rId7"/>
-    <sheet name="Bird info" sheetId="15" r:id="rId8"/>
+    <sheet name="Metadata" sheetId="15" r:id="rId8"/>
+    <sheet name="Weights" sheetId="16" r:id="rId9"/>
+    <sheet name="Traits" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22230" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22416" uniqueCount="780">
   <si>
     <t>Pen</t>
   </si>
@@ -2340,25 +2342,49 @@
     <t>Age</t>
   </si>
   <si>
+    <t>Processors</t>
+  </si>
+  <si>
+    <t>Capture_method</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>PTTID</t>
+  </si>
+  <si>
+    <t>Wing</t>
+  </si>
+  <si>
+    <t>Tail</t>
+  </si>
+  <si>
+    <t>Tarsus</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>MR Aviary</t>
+  </si>
+  <si>
     <t>Excellent</t>
   </si>
   <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t>Wing</t>
-  </si>
-  <si>
-    <t>Tail</t>
-  </si>
-  <si>
-    <t>Tarsus</t>
-  </si>
-  <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>SR, CH</t>
   </si>
 </sst>
 </file>
@@ -4177,6 +4203,726 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6BEBE2-4282-47C3-B639-6795E64DBD7D}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1" t="s">
+        <v>772</v>
+      </c>
+      <c r="H1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2">
+        <v>292</v>
+      </c>
+      <c r="G2">
+        <v>174</v>
+      </c>
+      <c r="H2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F3">
+        <v>270</v>
+      </c>
+      <c r="G3">
+        <v>153</v>
+      </c>
+      <c r="H3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C4" t="s">
+        <v>779</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>191</v>
+      </c>
+      <c r="H4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C5" t="s">
+        <v>779</v>
+      </c>
+      <c r="D5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F5">
+        <v>259</v>
+      </c>
+      <c r="G5">
+        <v>164</v>
+      </c>
+      <c r="H5">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C6" t="s">
+        <v>779</v>
+      </c>
+      <c r="D6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" t="s">
+        <v>776</v>
+      </c>
+      <c r="F6">
+        <v>292</v>
+      </c>
+      <c r="G6">
+        <v>184</v>
+      </c>
+      <c r="H6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C7" t="s">
+        <v>779</v>
+      </c>
+      <c r="D7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F7">
+        <v>294</v>
+      </c>
+      <c r="G7">
+        <v>183</v>
+      </c>
+      <c r="H7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" t="s">
+        <v>776</v>
+      </c>
+      <c r="F8">
+        <v>261</v>
+      </c>
+      <c r="G8">
+        <v>182</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C9" t="s">
+        <v>779</v>
+      </c>
+      <c r="D9" t="s">
+        <v>775</v>
+      </c>
+      <c r="E9" t="s">
+        <v>776</v>
+      </c>
+      <c r="F9">
+        <v>259</v>
+      </c>
+      <c r="G9">
+        <v>174</v>
+      </c>
+      <c r="H9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C10" t="s">
+        <v>779</v>
+      </c>
+      <c r="D10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E10" t="s">
+        <v>776</v>
+      </c>
+      <c r="F10">
+        <v>243</v>
+      </c>
+      <c r="G10">
+        <v>154</v>
+      </c>
+      <c r="H10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C11" t="s">
+        <v>779</v>
+      </c>
+      <c r="D11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E11" t="s">
+        <v>776</v>
+      </c>
+      <c r="F11">
+        <v>275</v>
+      </c>
+      <c r="G11">
+        <v>183</v>
+      </c>
+      <c r="H11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C12" t="s">
+        <v>779</v>
+      </c>
+      <c r="D12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F12">
+        <v>256</v>
+      </c>
+      <c r="G12">
+        <v>195</v>
+      </c>
+      <c r="H12">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C13" t="s">
+        <v>779</v>
+      </c>
+      <c r="D13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F13">
+        <v>294</v>
+      </c>
+      <c r="G13">
+        <v>172</v>
+      </c>
+      <c r="H13">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C14" t="s">
+        <v>779</v>
+      </c>
+      <c r="D14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E14" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14">
+        <v>294</v>
+      </c>
+      <c r="G14">
+        <v>145</v>
+      </c>
+      <c r="H14">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C15" t="s">
+        <v>779</v>
+      </c>
+      <c r="D15" t="s">
+        <v>775</v>
+      </c>
+      <c r="E15" t="s">
+        <v>776</v>
+      </c>
+      <c r="F15">
+        <v>228</v>
+      </c>
+      <c r="G15">
+        <v>175</v>
+      </c>
+      <c r="H15">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16">
+        <v>290</v>
+      </c>
+      <c r="G16">
+        <v>190</v>
+      </c>
+      <c r="H16">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C17" t="s">
+        <v>779</v>
+      </c>
+      <c r="D17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17">
+        <v>290</v>
+      </c>
+      <c r="G17">
+        <v>173</v>
+      </c>
+      <c r="H17">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C18" t="s">
+        <v>779</v>
+      </c>
+      <c r="D18" t="s">
+        <v>775</v>
+      </c>
+      <c r="E18" t="s">
+        <v>776</v>
+      </c>
+      <c r="F18">
+        <v>300</v>
+      </c>
+      <c r="G18">
+        <v>181</v>
+      </c>
+      <c r="H18">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C19" t="s">
+        <v>779</v>
+      </c>
+      <c r="D19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E19" t="s">
+        <v>776</v>
+      </c>
+      <c r="F19">
+        <v>251</v>
+      </c>
+      <c r="G19">
+        <v>142</v>
+      </c>
+      <c r="H19">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C20" t="s">
+        <v>779</v>
+      </c>
+      <c r="D20" t="s">
+        <v>775</v>
+      </c>
+      <c r="E20" t="s">
+        <v>776</v>
+      </c>
+      <c r="F20">
+        <v>281</v>
+      </c>
+      <c r="G20">
+        <v>170</v>
+      </c>
+      <c r="H20">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C21" t="s">
+        <v>779</v>
+      </c>
+      <c r="D21" t="s">
+        <v>775</v>
+      </c>
+      <c r="E21" t="s">
+        <v>776</v>
+      </c>
+      <c r="F21">
+        <v>282</v>
+      </c>
+      <c r="G21">
+        <v>182</v>
+      </c>
+      <c r="H21">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1">
+        <v>44841</v>
+      </c>
+      <c r="C22" t="s">
+        <v>779</v>
+      </c>
+      <c r="D22" t="s">
+        <v>775</v>
+      </c>
+      <c r="E22" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22">
+        <v>285</v>
+      </c>
+      <c r="G22">
+        <v>162</v>
+      </c>
+      <c r="H22">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C23" t="s">
+        <v>779</v>
+      </c>
+      <c r="D23" t="s">
+        <v>775</v>
+      </c>
+      <c r="E23" t="s">
+        <v>776</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="G23">
+        <v>202</v>
+      </c>
+      <c r="H23">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C24" t="s">
+        <v>779</v>
+      </c>
+      <c r="D24" t="s">
+        <v>775</v>
+      </c>
+      <c r="E24" t="s">
+        <v>776</v>
+      </c>
+      <c r="F24">
+        <v>279</v>
+      </c>
+      <c r="G24">
+        <v>171</v>
+      </c>
+      <c r="H24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C25" t="s">
+        <v>779</v>
+      </c>
+      <c r="D25" t="s">
+        <v>775</v>
+      </c>
+      <c r="E25" t="s">
+        <v>776</v>
+      </c>
+      <c r="F25">
+        <v>281</v>
+      </c>
+      <c r="G25">
+        <v>193</v>
+      </c>
+      <c r="H25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C26" t="s">
+        <v>779</v>
+      </c>
+      <c r="D26" t="s">
+        <v>775</v>
+      </c>
+      <c r="E26" t="s">
+        <v>776</v>
+      </c>
+      <c r="F26">
+        <v>286</v>
+      </c>
+      <c r="G26">
+        <v>194</v>
+      </c>
+      <c r="H26">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1">
+        <v>44844</v>
+      </c>
+      <c r="C27" t="s">
+        <v>779</v>
+      </c>
+      <c r="D27" t="s">
+        <v>775</v>
+      </c>
+      <c r="E27" t="s">
+        <v>776</v>
+      </c>
+      <c r="F27">
+        <v>295</v>
+      </c>
+      <c r="G27">
+        <v>178</v>
+      </c>
+      <c r="H27">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B41EF1-FC8B-4C60-AB97-F98D408F551D}">
   <dimension ref="B1:Z49"/>
@@ -76157,10 +76903,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB719325-9A8B-4F09-BF8B-51176C954B36}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -76173,7 +76919,7 @@
     <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>744</v>
       </c>
@@ -76201,23 +76947,8 @@
       <c r="I1" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>766</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>767</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>768</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>769</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -76245,23 +76976,8 @@
       <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2">
-        <v>735</v>
-      </c>
-      <c r="K2" t="s">
-        <v>765</v>
-      </c>
-      <c r="L2">
-        <v>294</v>
-      </c>
-      <c r="M2">
-        <v>183</v>
-      </c>
-      <c r="N2">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -76269,7 +76985,7 @@
         <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D3" t="s">
         <v>110</v>
@@ -76289,23 +77005,8 @@
       <c r="I3">
         <v>2</v>
       </c>
-      <c r="J3">
-        <v>780</v>
-      </c>
-      <c r="K3" t="s">
-        <v>765</v>
-      </c>
-      <c r="L3">
-        <v>282</v>
-      </c>
-      <c r="M3">
-        <v>182</v>
-      </c>
-      <c r="N3">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -76333,23 +77034,8 @@
       <c r="I4">
         <v>2</v>
       </c>
-      <c r="J4">
-        <v>615</v>
-      </c>
-      <c r="K4" t="s">
-        <v>771</v>
-      </c>
-      <c r="L4">
-        <v>294</v>
-      </c>
-      <c r="M4">
-        <v>145</v>
-      </c>
-      <c r="N4">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -76377,23 +77063,8 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5">
-        <v>700</v>
-      </c>
-      <c r="K5" t="s">
-        <v>765</v>
-      </c>
-      <c r="L5">
-        <v>292</v>
-      </c>
-      <c r="M5">
-        <v>184</v>
-      </c>
-      <c r="N5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -76421,23 +77092,8 @@
       <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6">
-        <v>670</v>
-      </c>
-      <c r="K6" t="s">
-        <v>771</v>
-      </c>
-      <c r="L6">
-        <v>300</v>
-      </c>
-      <c r="M6">
-        <v>181</v>
-      </c>
-      <c r="N6">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -76465,23 +77121,8 @@
       <c r="I7">
         <v>2</v>
       </c>
-      <c r="J7">
-        <v>710</v>
-      </c>
-      <c r="K7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L7">
-        <v>256</v>
-      </c>
-      <c r="M7">
-        <v>195</v>
-      </c>
-      <c r="N7">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -76509,23 +77150,8 @@
       <c r="I8">
         <v>2</v>
       </c>
-      <c r="J8">
-        <v>710</v>
-      </c>
-      <c r="K8" t="s">
-        <v>765</v>
-      </c>
-      <c r="L8">
-        <v>285</v>
-      </c>
-      <c r="M8">
-        <v>162</v>
-      </c>
-      <c r="N8">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -76553,23 +77179,8 @@
       <c r="I9">
         <v>2</v>
       </c>
-      <c r="J9">
-        <v>700</v>
-      </c>
-      <c r="K9" t="s">
-        <v>771</v>
-      </c>
-      <c r="L9">
-        <v>292</v>
-      </c>
-      <c r="M9">
-        <v>174</v>
-      </c>
-      <c r="N9">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -76597,23 +77208,8 @@
       <c r="I10">
         <v>4</v>
       </c>
-      <c r="J10">
-        <v>680</v>
-      </c>
-      <c r="K10" t="s">
-        <v>765</v>
-      </c>
-      <c r="L10">
-        <v>259</v>
-      </c>
-      <c r="M10">
-        <v>174</v>
-      </c>
-      <c r="N10">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -76641,23 +77237,8 @@
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11">
-        <v>700</v>
-      </c>
-      <c r="K11" t="s">
-        <v>765</v>
-      </c>
-      <c r="L11">
-        <v>279</v>
-      </c>
-      <c r="M11">
-        <v>171</v>
-      </c>
-      <c r="N11">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -76685,23 +77266,8 @@
       <c r="I12">
         <v>3</v>
       </c>
-      <c r="J12">
-        <v>630</v>
-      </c>
-      <c r="K12" t="s">
-        <v>771</v>
-      </c>
-      <c r="L12">
-        <v>261</v>
-      </c>
-      <c r="M12">
-        <v>182</v>
-      </c>
-      <c r="N12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>127</v>
       </c>
@@ -76729,23 +77295,8 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>590</v>
-      </c>
-      <c r="K13" t="s">
-        <v>771</v>
-      </c>
-      <c r="L13">
-        <v>251</v>
-      </c>
-      <c r="M13">
-        <v>142</v>
-      </c>
-      <c r="N13">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -76773,23 +77324,8 @@
       <c r="I14">
         <v>3</v>
       </c>
-      <c r="J14">
-        <v>670</v>
-      </c>
-      <c r="K14" t="s">
-        <v>771</v>
-      </c>
-      <c r="L14">
-        <v>281</v>
-      </c>
-      <c r="M14">
-        <v>170</v>
-      </c>
-      <c r="N14">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>84</v>
       </c>
@@ -76817,20 +77353,491 @@
       <c r="I15">
         <v>4</v>
       </c>
-      <c r="J15">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9220C5DA-3F26-45AE-BE76-10D35C12CC59}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" t="s">
         <v>770</v>
       </c>
-      <c r="K15" t="s">
-        <v>771</v>
-      </c>
-      <c r="L15">
-        <v>290</v>
-      </c>
-      <c r="M15">
-        <v>190</v>
-      </c>
-      <c r="N15">
-        <v>140</v>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44859</v>
+      </c>
+      <c r="C2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F2">
+        <v>780</v>
+      </c>
+      <c r="G2" t="s">
+        <v>777</v>
+      </c>
+      <c r="H2">
+        <v>216467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44859</v>
+      </c>
+      <c r="C3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D3" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" t="s">
+        <v>776</v>
+      </c>
+      <c r="F3">
+        <v>730</v>
+      </c>
+      <c r="G3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H3">
+        <v>216470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44859</v>
+      </c>
+      <c r="C4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D4" t="s">
+        <v>775</v>
+      </c>
+      <c r="E4" t="s">
+        <v>776</v>
+      </c>
+      <c r="F4">
+        <v>735</v>
+      </c>
+      <c r="G4" t="s">
+        <v>777</v>
+      </c>
+      <c r="H4">
+        <v>216469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44862</v>
+      </c>
+      <c r="C5" t="s">
+        <v>774</v>
+      </c>
+      <c r="D5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F5">
+        <v>825</v>
+      </c>
+      <c r="G5" t="s">
+        <v>777</v>
+      </c>
+      <c r="H5">
+        <v>216471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44862</v>
+      </c>
+      <c r="C6" t="s">
+        <v>774</v>
+      </c>
+      <c r="D6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E6" t="s">
+        <v>776</v>
+      </c>
+      <c r="F6">
+        <v>730</v>
+      </c>
+      <c r="G6" t="s">
+        <v>778</v>
+      </c>
+      <c r="H6">
+        <v>216476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44862</v>
+      </c>
+      <c r="C7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D7" t="s">
+        <v>775</v>
+      </c>
+      <c r="E7" t="s">
+        <v>776</v>
+      </c>
+      <c r="F7">
+        <v>735</v>
+      </c>
+      <c r="G7" t="s">
+        <v>778</v>
+      </c>
+      <c r="H7">
+        <v>216472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44908</v>
+      </c>
+      <c r="C8" t="s">
+        <v>774</v>
+      </c>
+      <c r="D8" t="s">
+        <v>775</v>
+      </c>
+      <c r="E8" t="s">
+        <v>776</v>
+      </c>
+      <c r="F8">
+        <v>600</v>
+      </c>
+      <c r="G8" t="s">
+        <v>777</v>
+      </c>
+      <c r="H8">
+        <v>214393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44908</v>
+      </c>
+      <c r="C9" t="s">
+        <v>774</v>
+      </c>
+      <c r="D9" t="s">
+        <v>775</v>
+      </c>
+      <c r="E9" t="s">
+        <v>776</v>
+      </c>
+      <c r="F9">
+        <v>750</v>
+      </c>
+      <c r="G9" t="s">
+        <v>777</v>
+      </c>
+      <c r="H9">
+        <v>216469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44908</v>
+      </c>
+      <c r="C10" t="s">
+        <v>774</v>
+      </c>
+      <c r="D10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E10" t="s">
+        <v>776</v>
+      </c>
+      <c r="F10">
+        <v>640</v>
+      </c>
+      <c r="G10" t="s">
+        <v>778</v>
+      </c>
+      <c r="H10">
+        <v>214384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C11" t="s">
+        <v>774</v>
+      </c>
+      <c r="D11" t="s">
+        <v>775</v>
+      </c>
+      <c r="E11" t="s">
+        <v>776</v>
+      </c>
+      <c r="F11">
+        <v>710</v>
+      </c>
+      <c r="G11" t="s">
+        <v>777</v>
+      </c>
+      <c r="H11">
+        <v>193219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C12" t="s">
+        <v>774</v>
+      </c>
+      <c r="D12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F12">
+        <v>685</v>
+      </c>
+      <c r="G12" t="s">
+        <v>777</v>
+      </c>
+      <c r="H12">
+        <v>193220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C13" t="s">
+        <v>774</v>
+      </c>
+      <c r="D13" t="s">
+        <v>775</v>
+      </c>
+      <c r="E13" t="s">
+        <v>776</v>
+      </c>
+      <c r="F13">
+        <v>675</v>
+      </c>
+      <c r="G13" t="s">
+        <v>778</v>
+      </c>
+      <c r="H13">
+        <v>214383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C14" t="s">
+        <v>774</v>
+      </c>
+      <c r="D14" t="s">
+        <v>775</v>
+      </c>
+      <c r="E14" t="s">
+        <v>776</v>
+      </c>
+      <c r="F14">
+        <v>735</v>
+      </c>
+      <c r="G14" t="s">
+        <v>777</v>
+      </c>
+      <c r="H14">
+        <v>193216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C15" t="s">
+        <v>774</v>
+      </c>
+      <c r="D15" t="s">
+        <v>775</v>
+      </c>
+      <c r="E15" t="s">
+        <v>776</v>
+      </c>
+      <c r="F15">
+        <v>705</v>
+      </c>
+      <c r="G15" t="s">
+        <v>777</v>
+      </c>
+      <c r="H15">
+        <v>193217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>776</v>
+      </c>
+      <c r="F16">
+        <v>765</v>
+      </c>
+      <c r="G16" t="s">
+        <v>777</v>
+      </c>
+      <c r="H16">
+        <v>214382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C17" t="s">
+        <v>774</v>
+      </c>
+      <c r="D17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E17" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17">
+        <v>615</v>
+      </c>
+      <c r="G17" t="s">
+        <v>778</v>
+      </c>
+      <c r="H17">
+        <v>193225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1">
+        <v>44909</v>
+      </c>
+      <c r="C18" t="s">
+        <v>774</v>
+      </c>
+      <c r="D18" t="s">
+        <v>775</v>
+      </c>
+      <c r="E18" t="s">
+        <v>776</v>
+      </c>
+      <c r="F18">
+        <v>635</v>
+      </c>
+      <c r="G18" t="s">
+        <v>778</v>
+      </c>
+      <c r="H18">
+        <v>193223</v>
       </c>
     </row>
   </sheetData>
